--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan\Desktop\KTH\Master_Thesis\Deliverables\1-Timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan\Desktop\KTH\Master_Thesis_Deliverables\1-Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -117,25 +117,13 @@
     <t>Initial Setup</t>
   </si>
   <si>
-    <t>Setup Plan</t>
-  </si>
-  <si>
-    <t>Setup GitRepo</t>
-  </si>
-  <si>
     <t>Current state of art</t>
-  </si>
-  <si>
-    <t>BiWeekly Report</t>
   </si>
   <si>
     <t>Design use case</t>
   </si>
   <si>
     <t>Run simulations</t>
-  </si>
-  <si>
-    <t>Redign and verify if required</t>
   </si>
   <si>
     <t>Fabrication</t>
@@ -168,9 +156,6 @@
     <t>Write conclusions/review for opponent</t>
   </si>
   <si>
-    <t>Setup Latex environment</t>
-  </si>
-  <si>
     <t>Polarization in optical waveguides</t>
   </si>
   <si>
@@ -181,15 +166,6 @@
   </si>
   <si>
     <t>Active polarization rotators</t>
-  </si>
-  <si>
-    <t>Optical waveguides, Waveguide modes, Dielectric waveguides</t>
-  </si>
-  <si>
-    <t>Current state of art (Passive)</t>
-  </si>
-  <si>
-    <t>Current state of art (Active)</t>
   </si>
   <si>
     <t>Learn and design Simulation</t>
@@ -220,6 +196,30 @@
   </si>
   <si>
     <t>MEMS tunable polarization rotator for optical communication  - Timeplan</t>
+  </si>
+  <si>
+    <t>Redesign and verify if required</t>
+  </si>
+  <si>
+    <t>In optical fiber communications</t>
+  </si>
+  <si>
+    <t>In silicon photonics-based ones</t>
+  </si>
+  <si>
+    <t>BiWeekly report</t>
+  </si>
+  <si>
+    <t>Setup gitRepo</t>
+  </si>
+  <si>
+    <t>Setup latex environment</t>
+  </si>
+  <si>
+    <t>Optical waveguides, waveguide modes, dielectric waveguides</t>
+  </si>
+  <si>
+    <t>Setup plan</t>
   </si>
 </sst>
 </file>
@@ -868,39 +868,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -919,6 +886,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -936,6 +921,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:N2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3106,38 +3106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="A1" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="23.25" customHeight="1" collapsed="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="97">
+      <c r="F5" s="86">
         <v>42387</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3214,20 +3214,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="97">
+      <c r="F6" s="86">
         <f ca="1">TODAY()</f>
-        <v>42390</v>
-      </c>
-      <c r="G6" s="97"/>
+        <v>42391</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Thursday</v>
+        <v>Friday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4190,9 +4190,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5152,9 +5152,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5398,732 +5398,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="29.25" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="85">
+      <c r="P9" s="99">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="85">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="99">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="85">
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="99">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="85">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="99">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="85">
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="99">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="85">
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="99">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="85">
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="99">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="87"/>
-      <c r="BM9" s="85">
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="101"/>
+      <c r="BM9" s="99">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="85">
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="100"/>
+      <c r="BQ9" s="100"/>
+      <c r="BR9" s="100"/>
+      <c r="BS9" s="101"/>
+      <c r="BT9" s="99">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="87"/>
-      <c r="CA9" s="85">
+      <c r="BU9" s="100"/>
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="100"/>
+      <c r="BY9" s="100"/>
+      <c r="BZ9" s="101"/>
+      <c r="CA9" s="99">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="86"/>
-      <c r="CC9" s="86"/>
-      <c r="CD9" s="86"/>
-      <c r="CE9" s="86"/>
-      <c r="CF9" s="86"/>
-      <c r="CG9" s="87"/>
-      <c r="CH9" s="85">
+      <c r="CB9" s="100"/>
+      <c r="CC9" s="100"/>
+      <c r="CD9" s="100"/>
+      <c r="CE9" s="100"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="101"/>
+      <c r="CH9" s="99">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="86"/>
-      <c r="CJ9" s="86"/>
-      <c r="CK9" s="86"/>
-      <c r="CL9" s="86"/>
-      <c r="CM9" s="86"/>
-      <c r="CN9" s="87"/>
-      <c r="CO9" s="85">
+      <c r="CI9" s="100"/>
+      <c r="CJ9" s="100"/>
+      <c r="CK9" s="100"/>
+      <c r="CL9" s="100"/>
+      <c r="CM9" s="100"/>
+      <c r="CN9" s="101"/>
+      <c r="CO9" s="99">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="86"/>
-      <c r="CQ9" s="86"/>
-      <c r="CR9" s="86"/>
-      <c r="CS9" s="86"/>
-      <c r="CT9" s="86"/>
-      <c r="CU9" s="87"/>
-      <c r="CV9" s="85">
+      <c r="CP9" s="100"/>
+      <c r="CQ9" s="100"/>
+      <c r="CR9" s="100"/>
+      <c r="CS9" s="100"/>
+      <c r="CT9" s="100"/>
+      <c r="CU9" s="101"/>
+      <c r="CV9" s="99">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="86"/>
-      <c r="CX9" s="86"/>
-      <c r="CY9" s="86"/>
-      <c r="CZ9" s="86"/>
-      <c r="DA9" s="86"/>
-      <c r="DB9" s="87"/>
-      <c r="DC9" s="85">
+      <c r="CW9" s="100"/>
+      <c r="CX9" s="100"/>
+      <c r="CY9" s="100"/>
+      <c r="CZ9" s="100"/>
+      <c r="DA9" s="100"/>
+      <c r="DB9" s="101"/>
+      <c r="DC9" s="99">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="86"/>
-      <c r="DE9" s="86"/>
-      <c r="DF9" s="86"/>
-      <c r="DG9" s="86"/>
-      <c r="DH9" s="86"/>
-      <c r="DI9" s="87"/>
-      <c r="DJ9" s="85">
+      <c r="DD9" s="100"/>
+      <c r="DE9" s="100"/>
+      <c r="DF9" s="100"/>
+      <c r="DG9" s="100"/>
+      <c r="DH9" s="100"/>
+      <c r="DI9" s="101"/>
+      <c r="DJ9" s="99">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="86"/>
-      <c r="DL9" s="86"/>
-      <c r="DM9" s="86"/>
-      <c r="DN9" s="86"/>
-      <c r="DO9" s="86"/>
-      <c r="DP9" s="87"/>
-      <c r="DQ9" s="85">
+      <c r="DK9" s="100"/>
+      <c r="DL9" s="100"/>
+      <c r="DM9" s="100"/>
+      <c r="DN9" s="100"/>
+      <c r="DO9" s="100"/>
+      <c r="DP9" s="101"/>
+      <c r="DQ9" s="99">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="86"/>
-      <c r="DS9" s="86"/>
-      <c r="DT9" s="86"/>
-      <c r="DU9" s="86"/>
-      <c r="DV9" s="86"/>
-      <c r="DW9" s="87"/>
-      <c r="DX9" s="85">
+      <c r="DR9" s="100"/>
+      <c r="DS9" s="100"/>
+      <c r="DT9" s="100"/>
+      <c r="DU9" s="100"/>
+      <c r="DV9" s="100"/>
+      <c r="DW9" s="101"/>
+      <c r="DX9" s="99">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="86"/>
-      <c r="DZ9" s="86"/>
-      <c r="EA9" s="86"/>
-      <c r="EB9" s="86"/>
-      <c r="EC9" s="86"/>
-      <c r="ED9" s="87"/>
-      <c r="EE9" s="85">
+      <c r="DY9" s="100"/>
+      <c r="DZ9" s="100"/>
+      <c r="EA9" s="100"/>
+      <c r="EB9" s="100"/>
+      <c r="EC9" s="100"/>
+      <c r="ED9" s="101"/>
+      <c r="EE9" s="99">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="86"/>
-      <c r="EG9" s="86"/>
-      <c r="EH9" s="86"/>
-      <c r="EI9" s="86"/>
-      <c r="EJ9" s="86"/>
-      <c r="EK9" s="87"/>
-      <c r="EL9" s="85">
+      <c r="EF9" s="100"/>
+      <c r="EG9" s="100"/>
+      <c r="EH9" s="100"/>
+      <c r="EI9" s="100"/>
+      <c r="EJ9" s="100"/>
+      <c r="EK9" s="101"/>
+      <c r="EL9" s="99">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="86"/>
-      <c r="EN9" s="86"/>
-      <c r="EO9" s="86"/>
-      <c r="EP9" s="86"/>
-      <c r="EQ9" s="86"/>
-      <c r="ER9" s="87"/>
-      <c r="ES9" s="85">
+      <c r="EM9" s="100"/>
+      <c r="EN9" s="100"/>
+      <c r="EO9" s="100"/>
+      <c r="EP9" s="100"/>
+      <c r="EQ9" s="100"/>
+      <c r="ER9" s="101"/>
+      <c r="ES9" s="99">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="86"/>
-      <c r="EU9" s="86"/>
-      <c r="EV9" s="86"/>
-      <c r="EW9" s="86"/>
-      <c r="EX9" s="86"/>
-      <c r="EY9" s="87"/>
-      <c r="EZ9" s="85">
+      <c r="ET9" s="100"/>
+      <c r="EU9" s="100"/>
+      <c r="EV9" s="100"/>
+      <c r="EW9" s="100"/>
+      <c r="EX9" s="100"/>
+      <c r="EY9" s="101"/>
+      <c r="EZ9" s="99">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="86"/>
-      <c r="FB9" s="86"/>
-      <c r="FC9" s="86"/>
-      <c r="FD9" s="86"/>
-      <c r="FE9" s="86"/>
-      <c r="FF9" s="87"/>
-      <c r="FG9" s="85">
+      <c r="FA9" s="100"/>
+      <c r="FB9" s="100"/>
+      <c r="FC9" s="100"/>
+      <c r="FD9" s="100"/>
+      <c r="FE9" s="100"/>
+      <c r="FF9" s="101"/>
+      <c r="FG9" s="99">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="86"/>
-      <c r="FI9" s="86"/>
-      <c r="FJ9" s="86"/>
-      <c r="FK9" s="86"/>
-      <c r="FL9" s="86"/>
-      <c r="FM9" s="87"/>
-      <c r="FN9" s="85">
+      <c r="FH9" s="100"/>
+      <c r="FI9" s="100"/>
+      <c r="FJ9" s="100"/>
+      <c r="FK9" s="100"/>
+      <c r="FL9" s="100"/>
+      <c r="FM9" s="101"/>
+      <c r="FN9" s="99">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="86"/>
-      <c r="FP9" s="86"/>
-      <c r="FQ9" s="86"/>
-      <c r="FR9" s="86"/>
-      <c r="FS9" s="86"/>
-      <c r="FT9" s="87"/>
-      <c r="FU9" s="85">
+      <c r="FO9" s="100"/>
+      <c r="FP9" s="100"/>
+      <c r="FQ9" s="100"/>
+      <c r="FR9" s="100"/>
+      <c r="FS9" s="100"/>
+      <c r="FT9" s="101"/>
+      <c r="FU9" s="99">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="86"/>
-      <c r="FW9" s="86"/>
-      <c r="FX9" s="86"/>
-      <c r="FY9" s="86"/>
-      <c r="FZ9" s="86"/>
-      <c r="GA9" s="87"/>
-      <c r="GB9" s="85">
+      <c r="FV9" s="100"/>
+      <c r="FW9" s="100"/>
+      <c r="FX9" s="100"/>
+      <c r="FY9" s="100"/>
+      <c r="FZ9" s="100"/>
+      <c r="GA9" s="101"/>
+      <c r="GB9" s="99">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="86"/>
-      <c r="GD9" s="86"/>
-      <c r="GE9" s="86"/>
-      <c r="GF9" s="86"/>
-      <c r="GG9" s="86"/>
-      <c r="GH9" s="87"/>
-      <c r="GI9" s="85">
+      <c r="GC9" s="100"/>
+      <c r="GD9" s="100"/>
+      <c r="GE9" s="100"/>
+      <c r="GF9" s="100"/>
+      <c r="GG9" s="100"/>
+      <c r="GH9" s="101"/>
+      <c r="GI9" s="99">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="86"/>
-      <c r="GK9" s="86"/>
-      <c r="GL9" s="86"/>
-      <c r="GM9" s="86"/>
-      <c r="GN9" s="86"/>
-      <c r="GO9" s="87"/>
-      <c r="GP9" s="85">
+      <c r="GJ9" s="100"/>
+      <c r="GK9" s="100"/>
+      <c r="GL9" s="100"/>
+      <c r="GM9" s="100"/>
+      <c r="GN9" s="100"/>
+      <c r="GO9" s="101"/>
+      <c r="GP9" s="99">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="86"/>
-      <c r="GR9" s="86"/>
-      <c r="GS9" s="86"/>
-      <c r="GT9" s="86"/>
-      <c r="GU9" s="86"/>
-      <c r="GV9" s="87"/>
-      <c r="GW9" s="85">
+      <c r="GQ9" s="100"/>
+      <c r="GR9" s="100"/>
+      <c r="GS9" s="100"/>
+      <c r="GT9" s="100"/>
+      <c r="GU9" s="100"/>
+      <c r="GV9" s="101"/>
+      <c r="GW9" s="99">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="86"/>
-      <c r="GY9" s="86"/>
-      <c r="GZ9" s="86"/>
-      <c r="HA9" s="86"/>
-      <c r="HB9" s="86"/>
-      <c r="HC9" s="87"/>
-      <c r="HD9" s="85">
+      <c r="GX9" s="100"/>
+      <c r="GY9" s="100"/>
+      <c r="GZ9" s="100"/>
+      <c r="HA9" s="100"/>
+      <c r="HB9" s="100"/>
+      <c r="HC9" s="101"/>
+      <c r="HD9" s="99">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="86"/>
-      <c r="HF9" s="86"/>
-      <c r="HG9" s="86"/>
-      <c r="HH9" s="86"/>
-      <c r="HI9" s="86"/>
-      <c r="HJ9" s="87"/>
-      <c r="HK9" s="85">
+      <c r="HE9" s="100"/>
+      <c r="HF9" s="100"/>
+      <c r="HG9" s="100"/>
+      <c r="HH9" s="100"/>
+      <c r="HI9" s="100"/>
+      <c r="HJ9" s="101"/>
+      <c r="HK9" s="99">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="86"/>
-      <c r="HM9" s="86"/>
-      <c r="HN9" s="86"/>
-      <c r="HO9" s="86"/>
-      <c r="HP9" s="86"/>
-      <c r="HQ9" s="87"/>
-      <c r="HR9" s="85">
+      <c r="HL9" s="100"/>
+      <c r="HM9" s="100"/>
+      <c r="HN9" s="100"/>
+      <c r="HO9" s="100"/>
+      <c r="HP9" s="100"/>
+      <c r="HQ9" s="101"/>
+      <c r="HR9" s="99">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="86"/>
-      <c r="HT9" s="86"/>
-      <c r="HU9" s="86"/>
-      <c r="HV9" s="86"/>
-      <c r="HW9" s="86"/>
-      <c r="HX9" s="87"/>
-      <c r="HY9" s="85">
+      <c r="HS9" s="100"/>
+      <c r="HT9" s="100"/>
+      <c r="HU9" s="100"/>
+      <c r="HV9" s="100"/>
+      <c r="HW9" s="100"/>
+      <c r="HX9" s="101"/>
+      <c r="HY9" s="99">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="86"/>
-      <c r="IA9" s="86"/>
-      <c r="IB9" s="86"/>
-      <c r="IC9" s="86"/>
-      <c r="ID9" s="86"/>
-      <c r="IE9" s="87"/>
-      <c r="IF9" s="85">
+      <c r="HZ9" s="100"/>
+      <c r="IA9" s="100"/>
+      <c r="IB9" s="100"/>
+      <c r="IC9" s="100"/>
+      <c r="ID9" s="100"/>
+      <c r="IE9" s="101"/>
+      <c r="IF9" s="99">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="86"/>
-      <c r="IH9" s="86"/>
-      <c r="II9" s="86"/>
-      <c r="IJ9" s="86"/>
-      <c r="IK9" s="86"/>
-      <c r="IL9" s="87"/>
-      <c r="IM9" s="85">
+      <c r="IG9" s="100"/>
+      <c r="IH9" s="100"/>
+      <c r="II9" s="100"/>
+      <c r="IJ9" s="100"/>
+      <c r="IK9" s="100"/>
+      <c r="IL9" s="101"/>
+      <c r="IM9" s="99">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="86"/>
-      <c r="IO9" s="86"/>
-      <c r="IP9" s="86"/>
-      <c r="IQ9" s="86"/>
-      <c r="IR9" s="86"/>
-      <c r="IS9" s="87"/>
+      <c r="IN9" s="100"/>
+      <c r="IO9" s="100"/>
+      <c r="IP9" s="100"/>
+      <c r="IQ9" s="100"/>
+      <c r="IR9" s="100"/>
+      <c r="IS9" s="101"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="82">
+      <c r="P10" s="90">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="82">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="90">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="82">
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="90">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="82">
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="90">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="82">
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="90">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="82">
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="90">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="82">
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="90">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="83"/>
-      <c r="BK10" s="83"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="82">
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="92"/>
+      <c r="BM10" s="90">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="83"/>
-      <c r="BP10" s="83"/>
-      <c r="BQ10" s="83"/>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="82">
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="90">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="83"/>
-      <c r="BW10" s="83"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="82">
+      <c r="BU10" s="91"/>
+      <c r="BV10" s="91"/>
+      <c r="BW10" s="91"/>
+      <c r="BX10" s="91"/>
+      <c r="BY10" s="91"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="90">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="83"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="82">
+      <c r="CB10" s="91"/>
+      <c r="CC10" s="91"/>
+      <c r="CD10" s="91"/>
+      <c r="CE10" s="91"/>
+      <c r="CF10" s="91"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="90">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="83"/>
-      <c r="CK10" s="83"/>
-      <c r="CL10" s="83"/>
-      <c r="CM10" s="83"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="82">
+      <c r="CI10" s="91"/>
+      <c r="CJ10" s="91"/>
+      <c r="CK10" s="91"/>
+      <c r="CL10" s="91"/>
+      <c r="CM10" s="91"/>
+      <c r="CN10" s="92"/>
+      <c r="CO10" s="90">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="83"/>
-      <c r="CQ10" s="83"/>
-      <c r="CR10" s="83"/>
-      <c r="CS10" s="83"/>
-      <c r="CT10" s="83"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="82">
+      <c r="CP10" s="91"/>
+      <c r="CQ10" s="91"/>
+      <c r="CR10" s="91"/>
+      <c r="CS10" s="91"/>
+      <c r="CT10" s="91"/>
+      <c r="CU10" s="92"/>
+      <c r="CV10" s="90">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="83"/>
-      <c r="CX10" s="83"/>
-      <c r="CY10" s="83"/>
-      <c r="CZ10" s="83"/>
-      <c r="DA10" s="83"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="82">
+      <c r="CW10" s="91"/>
+      <c r="CX10" s="91"/>
+      <c r="CY10" s="91"/>
+      <c r="CZ10" s="91"/>
+      <c r="DA10" s="91"/>
+      <c r="DB10" s="92"/>
+      <c r="DC10" s="90">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="83"/>
-      <c r="DE10" s="83"/>
-      <c r="DF10" s="83"/>
-      <c r="DG10" s="83"/>
-      <c r="DH10" s="83"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="82">
+      <c r="DD10" s="91"/>
+      <c r="DE10" s="91"/>
+      <c r="DF10" s="91"/>
+      <c r="DG10" s="91"/>
+      <c r="DH10" s="91"/>
+      <c r="DI10" s="92"/>
+      <c r="DJ10" s="90">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="83"/>
-      <c r="DL10" s="83"/>
-      <c r="DM10" s="83"/>
-      <c r="DN10" s="83"/>
-      <c r="DO10" s="83"/>
-      <c r="DP10" s="84"/>
-      <c r="DQ10" s="82">
+      <c r="DK10" s="91"/>
+      <c r="DL10" s="91"/>
+      <c r="DM10" s="91"/>
+      <c r="DN10" s="91"/>
+      <c r="DO10" s="91"/>
+      <c r="DP10" s="92"/>
+      <c r="DQ10" s="90">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="83"/>
-      <c r="DS10" s="83"/>
-      <c r="DT10" s="83"/>
-      <c r="DU10" s="83"/>
-      <c r="DV10" s="83"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="82">
+      <c r="DR10" s="91"/>
+      <c r="DS10" s="91"/>
+      <c r="DT10" s="91"/>
+      <c r="DU10" s="91"/>
+      <c r="DV10" s="91"/>
+      <c r="DW10" s="92"/>
+      <c r="DX10" s="90">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="83"/>
-      <c r="DZ10" s="83"/>
-      <c r="EA10" s="83"/>
-      <c r="EB10" s="83"/>
-      <c r="EC10" s="83"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="82">
+      <c r="DY10" s="91"/>
+      <c r="DZ10" s="91"/>
+      <c r="EA10" s="91"/>
+      <c r="EB10" s="91"/>
+      <c r="EC10" s="91"/>
+      <c r="ED10" s="92"/>
+      <c r="EE10" s="90">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="83"/>
-      <c r="EG10" s="83"/>
-      <c r="EH10" s="83"/>
-      <c r="EI10" s="83"/>
-      <c r="EJ10" s="83"/>
-      <c r="EK10" s="84"/>
-      <c r="EL10" s="82">
+      <c r="EF10" s="91"/>
+      <c r="EG10" s="91"/>
+      <c r="EH10" s="91"/>
+      <c r="EI10" s="91"/>
+      <c r="EJ10" s="91"/>
+      <c r="EK10" s="92"/>
+      <c r="EL10" s="90">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="83"/>
-      <c r="EN10" s="83"/>
-      <c r="EO10" s="83"/>
-      <c r="EP10" s="83"/>
-      <c r="EQ10" s="83"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="82">
+      <c r="EM10" s="91"/>
+      <c r="EN10" s="91"/>
+      <c r="EO10" s="91"/>
+      <c r="EP10" s="91"/>
+      <c r="EQ10" s="91"/>
+      <c r="ER10" s="92"/>
+      <c r="ES10" s="90">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="83"/>
-      <c r="EU10" s="83"/>
-      <c r="EV10" s="83"/>
-      <c r="EW10" s="83"/>
-      <c r="EX10" s="83"/>
-      <c r="EY10" s="84"/>
-      <c r="EZ10" s="82">
+      <c r="ET10" s="91"/>
+      <c r="EU10" s="91"/>
+      <c r="EV10" s="91"/>
+      <c r="EW10" s="91"/>
+      <c r="EX10" s="91"/>
+      <c r="EY10" s="92"/>
+      <c r="EZ10" s="90">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="83"/>
-      <c r="FB10" s="83"/>
-      <c r="FC10" s="83"/>
-      <c r="FD10" s="83"/>
-      <c r="FE10" s="83"/>
-      <c r="FF10" s="84"/>
-      <c r="FG10" s="82">
+      <c r="FA10" s="91"/>
+      <c r="FB10" s="91"/>
+      <c r="FC10" s="91"/>
+      <c r="FD10" s="91"/>
+      <c r="FE10" s="91"/>
+      <c r="FF10" s="92"/>
+      <c r="FG10" s="90">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="83"/>
-      <c r="FI10" s="83"/>
-      <c r="FJ10" s="83"/>
-      <c r="FK10" s="83"/>
-      <c r="FL10" s="83"/>
-      <c r="FM10" s="84"/>
-      <c r="FN10" s="82">
+      <c r="FH10" s="91"/>
+      <c r="FI10" s="91"/>
+      <c r="FJ10" s="91"/>
+      <c r="FK10" s="91"/>
+      <c r="FL10" s="91"/>
+      <c r="FM10" s="92"/>
+      <c r="FN10" s="90">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="83"/>
-      <c r="FP10" s="83"/>
-      <c r="FQ10" s="83"/>
-      <c r="FR10" s="83"/>
-      <c r="FS10" s="83"/>
-      <c r="FT10" s="84"/>
-      <c r="FU10" s="82">
+      <c r="FO10" s="91"/>
+      <c r="FP10" s="91"/>
+      <c r="FQ10" s="91"/>
+      <c r="FR10" s="91"/>
+      <c r="FS10" s="91"/>
+      <c r="FT10" s="92"/>
+      <c r="FU10" s="90">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="83"/>
-      <c r="FW10" s="83"/>
-      <c r="FX10" s="83"/>
-      <c r="FY10" s="83"/>
-      <c r="FZ10" s="83"/>
-      <c r="GA10" s="84"/>
-      <c r="GB10" s="82">
+      <c r="FV10" s="91"/>
+      <c r="FW10" s="91"/>
+      <c r="FX10" s="91"/>
+      <c r="FY10" s="91"/>
+      <c r="FZ10" s="91"/>
+      <c r="GA10" s="92"/>
+      <c r="GB10" s="90">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="83"/>
-      <c r="GD10" s="83"/>
-      <c r="GE10" s="83"/>
-      <c r="GF10" s="83"/>
-      <c r="GG10" s="83"/>
-      <c r="GH10" s="84"/>
-      <c r="GI10" s="82">
+      <c r="GC10" s="91"/>
+      <c r="GD10" s="91"/>
+      <c r="GE10" s="91"/>
+      <c r="GF10" s="91"/>
+      <c r="GG10" s="91"/>
+      <c r="GH10" s="92"/>
+      <c r="GI10" s="90">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="83"/>
-      <c r="GK10" s="83"/>
-      <c r="GL10" s="83"/>
-      <c r="GM10" s="83"/>
-      <c r="GN10" s="83"/>
-      <c r="GO10" s="84"/>
-      <c r="GP10" s="82">
+      <c r="GJ10" s="91"/>
+      <c r="GK10" s="91"/>
+      <c r="GL10" s="91"/>
+      <c r="GM10" s="91"/>
+      <c r="GN10" s="91"/>
+      <c r="GO10" s="92"/>
+      <c r="GP10" s="90">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="83"/>
-      <c r="GR10" s="83"/>
-      <c r="GS10" s="83"/>
-      <c r="GT10" s="83"/>
-      <c r="GU10" s="83"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="82">
+      <c r="GQ10" s="91"/>
+      <c r="GR10" s="91"/>
+      <c r="GS10" s="91"/>
+      <c r="GT10" s="91"/>
+      <c r="GU10" s="91"/>
+      <c r="GV10" s="92"/>
+      <c r="GW10" s="90">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="83"/>
-      <c r="GY10" s="83"/>
-      <c r="GZ10" s="83"/>
-      <c r="HA10" s="83"/>
-      <c r="HB10" s="83"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="82">
+      <c r="GX10" s="91"/>
+      <c r="GY10" s="91"/>
+      <c r="GZ10" s="91"/>
+      <c r="HA10" s="91"/>
+      <c r="HB10" s="91"/>
+      <c r="HC10" s="92"/>
+      <c r="HD10" s="90">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="83"/>
-      <c r="HF10" s="83"/>
-      <c r="HG10" s="83"/>
-      <c r="HH10" s="83"/>
-      <c r="HI10" s="83"/>
-      <c r="HJ10" s="84"/>
-      <c r="HK10" s="82">
+      <c r="HE10" s="91"/>
+      <c r="HF10" s="91"/>
+      <c r="HG10" s="91"/>
+      <c r="HH10" s="91"/>
+      <c r="HI10" s="91"/>
+      <c r="HJ10" s="92"/>
+      <c r="HK10" s="90">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="83"/>
-      <c r="HM10" s="83"/>
-      <c r="HN10" s="83"/>
-      <c r="HO10" s="83"/>
-      <c r="HP10" s="83"/>
-      <c r="HQ10" s="84"/>
-      <c r="HR10" s="82">
+      <c r="HL10" s="91"/>
+      <c r="HM10" s="91"/>
+      <c r="HN10" s="91"/>
+      <c r="HO10" s="91"/>
+      <c r="HP10" s="91"/>
+      <c r="HQ10" s="92"/>
+      <c r="HR10" s="90">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="83"/>
-      <c r="HT10" s="83"/>
-      <c r="HU10" s="83"/>
-      <c r="HV10" s="83"/>
-      <c r="HW10" s="83"/>
-      <c r="HX10" s="84"/>
-      <c r="HY10" s="82">
+      <c r="HS10" s="91"/>
+      <c r="HT10" s="91"/>
+      <c r="HU10" s="91"/>
+      <c r="HV10" s="91"/>
+      <c r="HW10" s="91"/>
+      <c r="HX10" s="92"/>
+      <c r="HY10" s="90">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="83"/>
-      <c r="IA10" s="83"/>
-      <c r="IB10" s="83"/>
-      <c r="IC10" s="83"/>
-      <c r="ID10" s="83"/>
-      <c r="IE10" s="84"/>
-      <c r="IF10" s="82">
+      <c r="HZ10" s="91"/>
+      <c r="IA10" s="91"/>
+      <c r="IB10" s="91"/>
+      <c r="IC10" s="91"/>
+      <c r="ID10" s="91"/>
+      <c r="IE10" s="92"/>
+      <c r="IF10" s="90">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="83"/>
-      <c r="IH10" s="83"/>
-      <c r="II10" s="83"/>
-      <c r="IJ10" s="83"/>
-      <c r="IK10" s="83"/>
-      <c r="IL10" s="84"/>
-      <c r="IM10" s="82">
+      <c r="IG10" s="91"/>
+      <c r="IH10" s="91"/>
+      <c r="II10" s="91"/>
+      <c r="IJ10" s="91"/>
+      <c r="IK10" s="91"/>
+      <c r="IL10" s="92"/>
+      <c r="IM10" s="90">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="83"/>
-      <c r="IO10" s="83"/>
-      <c r="IP10" s="83"/>
-      <c r="IQ10" s="83"/>
-      <c r="IR10" s="83"/>
-      <c r="IS10" s="84"/>
+      <c r="IN10" s="91"/>
+      <c r="IO10" s="91"/>
+      <c r="IP10" s="91"/>
+      <c r="IQ10" s="91"/>
+      <c r="IR10" s="91"/>
+      <c r="IS10" s="92"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,353 +6133,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="88">
+      <c r="P11" s="87">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="88">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="87">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="88">
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="87">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="88">
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="87">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="88">
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="87">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="88">
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="88"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="87">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="88">
+      <c r="AZ11" s="88"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="88"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="87">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="88">
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="88"/>
+      <c r="BK11" s="88"/>
+      <c r="BL11" s="89"/>
+      <c r="BM11" s="87">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="89"/>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="88">
+      <c r="BN11" s="88"/>
+      <c r="BO11" s="88"/>
+      <c r="BP11" s="88"/>
+      <c r="BQ11" s="88"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="87">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
-      <c r="BX11" s="89"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="88">
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="87">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="89"/>
-      <c r="CC11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="88">
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="89"/>
+      <c r="CH11" s="87">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CL11" s="89"/>
-      <c r="CM11" s="89"/>
-      <c r="CN11" s="90"/>
-      <c r="CO11" s="88">
+      <c r="CI11" s="88"/>
+      <c r="CJ11" s="88"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="87">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="89"/>
-      <c r="CQ11" s="89"/>
-      <c r="CR11" s="89"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="90"/>
-      <c r="CV11" s="88">
+      <c r="CP11" s="88"/>
+      <c r="CQ11" s="88"/>
+      <c r="CR11" s="88"/>
+      <c r="CS11" s="88"/>
+      <c r="CT11" s="88"/>
+      <c r="CU11" s="89"/>
+      <c r="CV11" s="87">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="89"/>
-      <c r="CX11" s="89"/>
-      <c r="CY11" s="89"/>
-      <c r="CZ11" s="89"/>
-      <c r="DA11" s="89"/>
-      <c r="DB11" s="90"/>
-      <c r="DC11" s="88">
+      <c r="CW11" s="88"/>
+      <c r="CX11" s="88"/>
+      <c r="CY11" s="88"/>
+      <c r="CZ11" s="88"/>
+      <c r="DA11" s="88"/>
+      <c r="DB11" s="89"/>
+      <c r="DC11" s="87">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="89"/>
-      <c r="DE11" s="89"/>
-      <c r="DF11" s="89"/>
-      <c r="DG11" s="89"/>
-      <c r="DH11" s="89"/>
-      <c r="DI11" s="90"/>
-      <c r="DJ11" s="88">
+      <c r="DD11" s="88"/>
+      <c r="DE11" s="88"/>
+      <c r="DF11" s="88"/>
+      <c r="DG11" s="88"/>
+      <c r="DH11" s="88"/>
+      <c r="DI11" s="89"/>
+      <c r="DJ11" s="87">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="89"/>
-      <c r="DL11" s="89"/>
-      <c r="DM11" s="89"/>
-      <c r="DN11" s="89"/>
-      <c r="DO11" s="89"/>
-      <c r="DP11" s="90"/>
-      <c r="DQ11" s="88">
+      <c r="DK11" s="88"/>
+      <c r="DL11" s="88"/>
+      <c r="DM11" s="88"/>
+      <c r="DN11" s="88"/>
+      <c r="DO11" s="88"/>
+      <c r="DP11" s="89"/>
+      <c r="DQ11" s="87">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="89"/>
-      <c r="DS11" s="89"/>
-      <c r="DT11" s="89"/>
-      <c r="DU11" s="89"/>
-      <c r="DV11" s="89"/>
-      <c r="DW11" s="90"/>
-      <c r="DX11" s="88">
+      <c r="DR11" s="88"/>
+      <c r="DS11" s="88"/>
+      <c r="DT11" s="88"/>
+      <c r="DU11" s="88"/>
+      <c r="DV11" s="88"/>
+      <c r="DW11" s="89"/>
+      <c r="DX11" s="87">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="89"/>
-      <c r="DZ11" s="89"/>
-      <c r="EA11" s="89"/>
-      <c r="EB11" s="89"/>
-      <c r="EC11" s="89"/>
-      <c r="ED11" s="90"/>
-      <c r="EE11" s="88">
+      <c r="DY11" s="88"/>
+      <c r="DZ11" s="88"/>
+      <c r="EA11" s="88"/>
+      <c r="EB11" s="88"/>
+      <c r="EC11" s="88"/>
+      <c r="ED11" s="89"/>
+      <c r="EE11" s="87">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="89"/>
-      <c r="EG11" s="89"/>
-      <c r="EH11" s="89"/>
-      <c r="EI11" s="89"/>
-      <c r="EJ11" s="89"/>
-      <c r="EK11" s="90"/>
-      <c r="EL11" s="88">
+      <c r="EF11" s="88"/>
+      <c r="EG11" s="88"/>
+      <c r="EH11" s="88"/>
+      <c r="EI11" s="88"/>
+      <c r="EJ11" s="88"/>
+      <c r="EK11" s="89"/>
+      <c r="EL11" s="87">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="89"/>
-      <c r="EN11" s="89"/>
-      <c r="EO11" s="89"/>
-      <c r="EP11" s="89"/>
-      <c r="EQ11" s="89"/>
-      <c r="ER11" s="90"/>
-      <c r="ES11" s="88">
+      <c r="EM11" s="88"/>
+      <c r="EN11" s="88"/>
+      <c r="EO11" s="88"/>
+      <c r="EP11" s="88"/>
+      <c r="EQ11" s="88"/>
+      <c r="ER11" s="89"/>
+      <c r="ES11" s="87">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="89"/>
-      <c r="EU11" s="89"/>
-      <c r="EV11" s="89"/>
-      <c r="EW11" s="89"/>
-      <c r="EX11" s="89"/>
-      <c r="EY11" s="90"/>
-      <c r="EZ11" s="88">
+      <c r="ET11" s="88"/>
+      <c r="EU11" s="88"/>
+      <c r="EV11" s="88"/>
+      <c r="EW11" s="88"/>
+      <c r="EX11" s="88"/>
+      <c r="EY11" s="89"/>
+      <c r="EZ11" s="87">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="89"/>
-      <c r="FB11" s="89"/>
-      <c r="FC11" s="89"/>
-      <c r="FD11" s="89"/>
-      <c r="FE11" s="89"/>
-      <c r="FF11" s="90"/>
-      <c r="FG11" s="88">
+      <c r="FA11" s="88"/>
+      <c r="FB11" s="88"/>
+      <c r="FC11" s="88"/>
+      <c r="FD11" s="88"/>
+      <c r="FE11" s="88"/>
+      <c r="FF11" s="89"/>
+      <c r="FG11" s="87">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="89"/>
-      <c r="FI11" s="89"/>
-      <c r="FJ11" s="89"/>
-      <c r="FK11" s="89"/>
-      <c r="FL11" s="89"/>
-      <c r="FM11" s="90"/>
-      <c r="FN11" s="88">
+      <c r="FH11" s="88"/>
+      <c r="FI11" s="88"/>
+      <c r="FJ11" s="88"/>
+      <c r="FK11" s="88"/>
+      <c r="FL11" s="88"/>
+      <c r="FM11" s="89"/>
+      <c r="FN11" s="87">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="89"/>
-      <c r="FP11" s="89"/>
-      <c r="FQ11" s="89"/>
-      <c r="FR11" s="89"/>
-      <c r="FS11" s="89"/>
-      <c r="FT11" s="90"/>
-      <c r="FU11" s="88">
+      <c r="FO11" s="88"/>
+      <c r="FP11" s="88"/>
+      <c r="FQ11" s="88"/>
+      <c r="FR11" s="88"/>
+      <c r="FS11" s="88"/>
+      <c r="FT11" s="89"/>
+      <c r="FU11" s="87">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="89"/>
-      <c r="FW11" s="89"/>
-      <c r="FX11" s="89"/>
-      <c r="FY11" s="89"/>
-      <c r="FZ11" s="89"/>
-      <c r="GA11" s="90"/>
-      <c r="GB11" s="88">
+      <c r="FV11" s="88"/>
+      <c r="FW11" s="88"/>
+      <c r="FX11" s="88"/>
+      <c r="FY11" s="88"/>
+      <c r="FZ11" s="88"/>
+      <c r="GA11" s="89"/>
+      <c r="GB11" s="87">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="89"/>
-      <c r="GD11" s="89"/>
-      <c r="GE11" s="89"/>
-      <c r="GF11" s="89"/>
-      <c r="GG11" s="89"/>
-      <c r="GH11" s="90"/>
-      <c r="GI11" s="88">
+      <c r="GC11" s="88"/>
+      <c r="GD11" s="88"/>
+      <c r="GE11" s="88"/>
+      <c r="GF11" s="88"/>
+      <c r="GG11" s="88"/>
+      <c r="GH11" s="89"/>
+      <c r="GI11" s="87">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="89"/>
-      <c r="GK11" s="89"/>
-      <c r="GL11" s="89"/>
-      <c r="GM11" s="89"/>
-      <c r="GN11" s="89"/>
-      <c r="GO11" s="90"/>
-      <c r="GP11" s="88">
+      <c r="GJ11" s="88"/>
+      <c r="GK11" s="88"/>
+      <c r="GL11" s="88"/>
+      <c r="GM11" s="88"/>
+      <c r="GN11" s="88"/>
+      <c r="GO11" s="89"/>
+      <c r="GP11" s="87">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="89"/>
-      <c r="GR11" s="89"/>
-      <c r="GS11" s="89"/>
-      <c r="GT11" s="89"/>
-      <c r="GU11" s="89"/>
-      <c r="GV11" s="90"/>
-      <c r="GW11" s="88">
+      <c r="GQ11" s="88"/>
+      <c r="GR11" s="88"/>
+      <c r="GS11" s="88"/>
+      <c r="GT11" s="88"/>
+      <c r="GU11" s="88"/>
+      <c r="GV11" s="89"/>
+      <c r="GW11" s="87">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="89"/>
-      <c r="GY11" s="89"/>
-      <c r="GZ11" s="89"/>
-      <c r="HA11" s="89"/>
-      <c r="HB11" s="89"/>
-      <c r="HC11" s="90"/>
-      <c r="HD11" s="88">
+      <c r="GX11" s="88"/>
+      <c r="GY11" s="88"/>
+      <c r="GZ11" s="88"/>
+      <c r="HA11" s="88"/>
+      <c r="HB11" s="88"/>
+      <c r="HC11" s="89"/>
+      <c r="HD11" s="87">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="89"/>
-      <c r="HF11" s="89"/>
-      <c r="HG11" s="89"/>
-      <c r="HH11" s="89"/>
-      <c r="HI11" s="89"/>
-      <c r="HJ11" s="90"/>
-      <c r="HK11" s="88">
+      <c r="HE11" s="88"/>
+      <c r="HF11" s="88"/>
+      <c r="HG11" s="88"/>
+      <c r="HH11" s="88"/>
+      <c r="HI11" s="88"/>
+      <c r="HJ11" s="89"/>
+      <c r="HK11" s="87">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="89"/>
-      <c r="HM11" s="89"/>
-      <c r="HN11" s="89"/>
-      <c r="HO11" s="89"/>
-      <c r="HP11" s="89"/>
-      <c r="HQ11" s="90"/>
-      <c r="HR11" s="88">
+      <c r="HL11" s="88"/>
+      <c r="HM11" s="88"/>
+      <c r="HN11" s="88"/>
+      <c r="HO11" s="88"/>
+      <c r="HP11" s="88"/>
+      <c r="HQ11" s="89"/>
+      <c r="HR11" s="87">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="89"/>
-      <c r="HT11" s="89"/>
-      <c r="HU11" s="89"/>
-      <c r="HV11" s="89"/>
-      <c r="HW11" s="89"/>
-      <c r="HX11" s="90"/>
-      <c r="HY11" s="88">
+      <c r="HS11" s="88"/>
+      <c r="HT11" s="88"/>
+      <c r="HU11" s="88"/>
+      <c r="HV11" s="88"/>
+      <c r="HW11" s="88"/>
+      <c r="HX11" s="89"/>
+      <c r="HY11" s="87">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="89"/>
-      <c r="IA11" s="89"/>
-      <c r="IB11" s="89"/>
-      <c r="IC11" s="89"/>
-      <c r="ID11" s="89"/>
-      <c r="IE11" s="90"/>
-      <c r="IF11" s="88">
+      <c r="HZ11" s="88"/>
+      <c r="IA11" s="88"/>
+      <c r="IB11" s="88"/>
+      <c r="IC11" s="88"/>
+      <c r="ID11" s="88"/>
+      <c r="IE11" s="89"/>
+      <c r="IF11" s="87">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="89"/>
-      <c r="IH11" s="89"/>
-      <c r="II11" s="89"/>
-      <c r="IJ11" s="89"/>
-      <c r="IK11" s="89"/>
-      <c r="IL11" s="90"/>
-      <c r="IM11" s="88">
+      <c r="IG11" s="88"/>
+      <c r="IH11" s="88"/>
+      <c r="II11" s="88"/>
+      <c r="IJ11" s="88"/>
+      <c r="IK11" s="88"/>
+      <c r="IL11" s="89"/>
+      <c r="IM11" s="87">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="89"/>
-      <c r="IO11" s="89"/>
-      <c r="IP11" s="89"/>
-      <c r="IQ11" s="89"/>
-      <c r="IR11" s="89"/>
-      <c r="IS11" s="90"/>
+      <c r="IN11" s="88"/>
+      <c r="IO11" s="88"/>
+      <c r="IP11" s="88"/>
+      <c r="IQ11" s="88"/>
+      <c r="IR11" s="88"/>
+      <c r="IS11" s="89"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -6773,7 +6773,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
@@ -7056,7 +7056,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -7339,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -7905,7 +7905,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -8188,7 +8188,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -8471,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -8753,8 +8753,8 @@
       <c r="B20" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="56" t="s">
-        <v>30</v>
+      <c r="C20" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -9037,7 +9037,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
@@ -9320,7 +9320,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
@@ -9603,7 +9603,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
@@ -9886,7 +9886,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -10171,7 +10171,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -10454,7 +10454,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="B27" s="68"/>
       <c r="C27" s="69" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -11020,7 +11020,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -11303,7 +11303,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
@@ -11586,7 +11586,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -11869,7 +11869,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
@@ -12152,7 +12152,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
@@ -12434,8 +12434,8 @@
       <c r="B33" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>30</v>
+      <c r="C33" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="B34" s="68"/>
       <c r="C34" s="69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="70"/>
       <c r="E34" s="70"/>
@@ -13001,7 +13001,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
@@ -13284,7 +13284,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="69" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
@@ -13850,7 +13850,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="B39" s="68"/>
       <c r="C39" s="69" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
@@ -14416,7 +14416,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
@@ -14699,7 +14699,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
@@ -14982,7 +14982,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
@@ -15265,7 +15265,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
@@ -15548,7 +15548,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -15831,7 +15831,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B46" s="68"/>
       <c r="C46" s="69" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D46" s="70"/>
       <c r="E46" s="70"/>
@@ -16397,7 +16397,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
@@ -16680,7 +16680,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -16963,7 +16963,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
@@ -17246,7 +17246,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
@@ -17527,7 +17527,7 @@
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="69" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D51" s="70"/>
       <c r="E51" s="70"/>
@@ -17812,7 +17812,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -18095,7 +18095,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
@@ -18378,7 +18378,7 @@
         <v>19</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D54" s="57"/>
       <c r="E54" s="57"/>
@@ -18654,8 +18654,99 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
-  <autoFilter ref="A11:N15"/>
+  <autoFilter ref="A11:N54"/>
   <mergeCells count="115">
+    <mergeCell ref="HK10:HQ10"/>
+    <mergeCell ref="FG10:FM10"/>
+    <mergeCell ref="IM9:IS9"/>
+    <mergeCell ref="GW9:HC9"/>
+    <mergeCell ref="AR11:AX11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="AD11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AR9:AX9"/>
+    <mergeCell ref="IM10:IS10"/>
+    <mergeCell ref="FU10:GA10"/>
+    <mergeCell ref="GB10:GH10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="AR10:AX10"/>
+    <mergeCell ref="DC10:DI10"/>
+    <mergeCell ref="DJ10:DP10"/>
+    <mergeCell ref="IF10:IL10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="M5:M11"/>
@@ -18680,97 +18771,6 @@
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HK10:HQ10"/>
-    <mergeCell ref="FG10:FM10"/>
-    <mergeCell ref="IM9:IS9"/>
-    <mergeCell ref="GW9:HC9"/>
-    <mergeCell ref="AR11:AX11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AR9:AX9"/>
-    <mergeCell ref="IM10:IS10"/>
-    <mergeCell ref="FU10:GA10"/>
-    <mergeCell ref="GB10:GH10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="W10:AC10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="AR10:AX10"/>
-    <mergeCell ref="DC10:DI10"/>
-    <mergeCell ref="DJ10:DP10"/>
-    <mergeCell ref="IF10:IL10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -2746,7 +2746,7 @@
           <xdr:col>137</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3123,7 +3123,7 @@
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:256" s="10" customFormat="1" ht="23.25" customHeight="1" collapsed="1">
+    <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="IV7" s="13"/>
     </row>
-    <row r="8" spans="1:256" s="9" customFormat="1" ht="22.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:256" s="9" customFormat="1" ht="6.75" customHeight="1">
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
@@ -5396,7 +5396,7 @@
       <c r="IS8" s="14"/>
       <c r="IV8" s="13"/>
     </row>
-    <row r="9" spans="1:256" s="9" customFormat="1" ht="29.25" customHeight="1">
+    <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="97" t="s">
         <v>16</v>
@@ -5761,7 +5761,7 @@
       <c r="IR9" s="100"/>
       <c r="IS9" s="101"/>
     </row>
-    <row r="10" spans="1:256" s="9" customFormat="1" ht="21.75" customHeight="1">
+    <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="97"/>
       <c r="D10" s="93"/>
@@ -6114,7 +6114,7 @@
       <c r="IR10" s="91"/>
       <c r="IS10" s="92"/>
     </row>
-    <row r="11" spans="1:256" s="7" customFormat="1" ht="25.5" customHeight="1">
+    <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -19417,7 +19417,7 @@
                     <xdr:col>137</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -868,6 +868,39 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -886,24 +919,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -921,21 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3080,7 +3080,7 @@
       <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3106,38 +3106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="86">
+      <c r="F5" s="97">
         <v>42387</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="95" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3214,20 +3214,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="86">
+      <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42391</v>
-      </c>
-      <c r="G6" s="86"/>
+        <v>42394</v>
+      </c>
+      <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Friday</v>
+        <v>Monday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4190,9 +4190,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5152,9 +5152,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5398,732 +5398,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="99">
+      <c r="P9" s="85">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="99">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="85">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="99">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="85">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="99">
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="85">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="99">
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="85">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="99">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="85">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="99">
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="85">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="99">
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="85">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="100"/>
-      <c r="BO9" s="100"/>
-      <c r="BP9" s="100"/>
-      <c r="BQ9" s="100"/>
-      <c r="BR9" s="100"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="99">
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="87"/>
+      <c r="BT9" s="85">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="100"/>
-      <c r="BW9" s="100"/>
-      <c r="BX9" s="100"/>
-      <c r="BY9" s="100"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="99">
+      <c r="BU9" s="86"/>
+      <c r="BV9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="87"/>
+      <c r="CA9" s="85">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="100"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="100"/>
-      <c r="CE9" s="100"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="101"/>
-      <c r="CH9" s="99">
+      <c r="CB9" s="86"/>
+      <c r="CC9" s="86"/>
+      <c r="CD9" s="86"/>
+      <c r="CE9" s="86"/>
+      <c r="CF9" s="86"/>
+      <c r="CG9" s="87"/>
+      <c r="CH9" s="85">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="100"/>
-      <c r="CJ9" s="100"/>
-      <c r="CK9" s="100"/>
-      <c r="CL9" s="100"/>
-      <c r="CM9" s="100"/>
-      <c r="CN9" s="101"/>
-      <c r="CO9" s="99">
+      <c r="CI9" s="86"/>
+      <c r="CJ9" s="86"/>
+      <c r="CK9" s="86"/>
+      <c r="CL9" s="86"/>
+      <c r="CM9" s="86"/>
+      <c r="CN9" s="87"/>
+      <c r="CO9" s="85">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="100"/>
-      <c r="CQ9" s="100"/>
-      <c r="CR9" s="100"/>
-      <c r="CS9" s="100"/>
-      <c r="CT9" s="100"/>
-      <c r="CU9" s="101"/>
-      <c r="CV9" s="99">
+      <c r="CP9" s="86"/>
+      <c r="CQ9" s="86"/>
+      <c r="CR9" s="86"/>
+      <c r="CS9" s="86"/>
+      <c r="CT9" s="86"/>
+      <c r="CU9" s="87"/>
+      <c r="CV9" s="85">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="100"/>
-      <c r="CX9" s="100"/>
-      <c r="CY9" s="100"/>
-      <c r="CZ9" s="100"/>
-      <c r="DA9" s="100"/>
-      <c r="DB9" s="101"/>
-      <c r="DC9" s="99">
+      <c r="CW9" s="86"/>
+      <c r="CX9" s="86"/>
+      <c r="CY9" s="86"/>
+      <c r="CZ9" s="86"/>
+      <c r="DA9" s="86"/>
+      <c r="DB9" s="87"/>
+      <c r="DC9" s="85">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="100"/>
-      <c r="DE9" s="100"/>
-      <c r="DF9" s="100"/>
-      <c r="DG9" s="100"/>
-      <c r="DH9" s="100"/>
-      <c r="DI9" s="101"/>
-      <c r="DJ9" s="99">
+      <c r="DD9" s="86"/>
+      <c r="DE9" s="86"/>
+      <c r="DF9" s="86"/>
+      <c r="DG9" s="86"/>
+      <c r="DH9" s="86"/>
+      <c r="DI9" s="87"/>
+      <c r="DJ9" s="85">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="100"/>
-      <c r="DL9" s="100"/>
-      <c r="DM9" s="100"/>
-      <c r="DN9" s="100"/>
-      <c r="DO9" s="100"/>
-      <c r="DP9" s="101"/>
-      <c r="DQ9" s="99">
+      <c r="DK9" s="86"/>
+      <c r="DL9" s="86"/>
+      <c r="DM9" s="86"/>
+      <c r="DN9" s="86"/>
+      <c r="DO9" s="86"/>
+      <c r="DP9" s="87"/>
+      <c r="DQ9" s="85">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="100"/>
-      <c r="DS9" s="100"/>
-      <c r="DT9" s="100"/>
-      <c r="DU9" s="100"/>
-      <c r="DV9" s="100"/>
-      <c r="DW9" s="101"/>
-      <c r="DX9" s="99">
+      <c r="DR9" s="86"/>
+      <c r="DS9" s="86"/>
+      <c r="DT9" s="86"/>
+      <c r="DU9" s="86"/>
+      <c r="DV9" s="86"/>
+      <c r="DW9" s="87"/>
+      <c r="DX9" s="85">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="100"/>
-      <c r="DZ9" s="100"/>
-      <c r="EA9" s="100"/>
-      <c r="EB9" s="100"/>
-      <c r="EC9" s="100"/>
-      <c r="ED9" s="101"/>
-      <c r="EE9" s="99">
+      <c r="DY9" s="86"/>
+      <c r="DZ9" s="86"/>
+      <c r="EA9" s="86"/>
+      <c r="EB9" s="86"/>
+      <c r="EC9" s="86"/>
+      <c r="ED9" s="87"/>
+      <c r="EE9" s="85">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="100"/>
-      <c r="EG9" s="100"/>
-      <c r="EH9" s="100"/>
-      <c r="EI9" s="100"/>
-      <c r="EJ9" s="100"/>
-      <c r="EK9" s="101"/>
-      <c r="EL9" s="99">
+      <c r="EF9" s="86"/>
+      <c r="EG9" s="86"/>
+      <c r="EH9" s="86"/>
+      <c r="EI9" s="86"/>
+      <c r="EJ9" s="86"/>
+      <c r="EK9" s="87"/>
+      <c r="EL9" s="85">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="100"/>
-      <c r="EN9" s="100"/>
-      <c r="EO9" s="100"/>
-      <c r="EP9" s="100"/>
-      <c r="EQ9" s="100"/>
-      <c r="ER9" s="101"/>
-      <c r="ES9" s="99">
+      <c r="EM9" s="86"/>
+      <c r="EN9" s="86"/>
+      <c r="EO9" s="86"/>
+      <c r="EP9" s="86"/>
+      <c r="EQ9" s="86"/>
+      <c r="ER9" s="87"/>
+      <c r="ES9" s="85">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="100"/>
-      <c r="EU9" s="100"/>
-      <c r="EV9" s="100"/>
-      <c r="EW9" s="100"/>
-      <c r="EX9" s="100"/>
-      <c r="EY9" s="101"/>
-      <c r="EZ9" s="99">
+      <c r="ET9" s="86"/>
+      <c r="EU9" s="86"/>
+      <c r="EV9" s="86"/>
+      <c r="EW9" s="86"/>
+      <c r="EX9" s="86"/>
+      <c r="EY9" s="87"/>
+      <c r="EZ9" s="85">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="100"/>
-      <c r="FB9" s="100"/>
-      <c r="FC9" s="100"/>
-      <c r="FD9" s="100"/>
-      <c r="FE9" s="100"/>
-      <c r="FF9" s="101"/>
-      <c r="FG9" s="99">
+      <c r="FA9" s="86"/>
+      <c r="FB9" s="86"/>
+      <c r="FC9" s="86"/>
+      <c r="FD9" s="86"/>
+      <c r="FE9" s="86"/>
+      <c r="FF9" s="87"/>
+      <c r="FG9" s="85">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="100"/>
-      <c r="FI9" s="100"/>
-      <c r="FJ9" s="100"/>
-      <c r="FK9" s="100"/>
-      <c r="FL9" s="100"/>
-      <c r="FM9" s="101"/>
-      <c r="FN9" s="99">
+      <c r="FH9" s="86"/>
+      <c r="FI9" s="86"/>
+      <c r="FJ9" s="86"/>
+      <c r="FK9" s="86"/>
+      <c r="FL9" s="86"/>
+      <c r="FM9" s="87"/>
+      <c r="FN9" s="85">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="100"/>
-      <c r="FP9" s="100"/>
-      <c r="FQ9" s="100"/>
-      <c r="FR9" s="100"/>
-      <c r="FS9" s="100"/>
-      <c r="FT9" s="101"/>
-      <c r="FU9" s="99">
+      <c r="FO9" s="86"/>
+      <c r="FP9" s="86"/>
+      <c r="FQ9" s="86"/>
+      <c r="FR9" s="86"/>
+      <c r="FS9" s="86"/>
+      <c r="FT9" s="87"/>
+      <c r="FU9" s="85">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="100"/>
-      <c r="FW9" s="100"/>
-      <c r="FX9" s="100"/>
-      <c r="FY9" s="100"/>
-      <c r="FZ9" s="100"/>
-      <c r="GA9" s="101"/>
-      <c r="GB9" s="99">
+      <c r="FV9" s="86"/>
+      <c r="FW9" s="86"/>
+      <c r="FX9" s="86"/>
+      <c r="FY9" s="86"/>
+      <c r="FZ9" s="86"/>
+      <c r="GA9" s="87"/>
+      <c r="GB9" s="85">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="100"/>
-      <c r="GD9" s="100"/>
-      <c r="GE9" s="100"/>
-      <c r="GF9" s="100"/>
-      <c r="GG9" s="100"/>
-      <c r="GH9" s="101"/>
-      <c r="GI9" s="99">
+      <c r="GC9" s="86"/>
+      <c r="GD9" s="86"/>
+      <c r="GE9" s="86"/>
+      <c r="GF9" s="86"/>
+      <c r="GG9" s="86"/>
+      <c r="GH9" s="87"/>
+      <c r="GI9" s="85">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="100"/>
-      <c r="GK9" s="100"/>
-      <c r="GL9" s="100"/>
-      <c r="GM9" s="100"/>
-      <c r="GN9" s="100"/>
-      <c r="GO9" s="101"/>
-      <c r="GP9" s="99">
+      <c r="GJ9" s="86"/>
+      <c r="GK9" s="86"/>
+      <c r="GL9" s="86"/>
+      <c r="GM9" s="86"/>
+      <c r="GN9" s="86"/>
+      <c r="GO9" s="87"/>
+      <c r="GP9" s="85">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="100"/>
-      <c r="GR9" s="100"/>
-      <c r="GS9" s="100"/>
-      <c r="GT9" s="100"/>
-      <c r="GU9" s="100"/>
-      <c r="GV9" s="101"/>
-      <c r="GW9" s="99">
+      <c r="GQ9" s="86"/>
+      <c r="GR9" s="86"/>
+      <c r="GS9" s="86"/>
+      <c r="GT9" s="86"/>
+      <c r="GU9" s="86"/>
+      <c r="GV9" s="87"/>
+      <c r="GW9" s="85">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="100"/>
-      <c r="GY9" s="100"/>
-      <c r="GZ9" s="100"/>
-      <c r="HA9" s="100"/>
-      <c r="HB9" s="100"/>
-      <c r="HC9" s="101"/>
-      <c r="HD9" s="99">
+      <c r="GX9" s="86"/>
+      <c r="GY9" s="86"/>
+      <c r="GZ9" s="86"/>
+      <c r="HA9" s="86"/>
+      <c r="HB9" s="86"/>
+      <c r="HC9" s="87"/>
+      <c r="HD9" s="85">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="100"/>
-      <c r="HF9" s="100"/>
-      <c r="HG9" s="100"/>
-      <c r="HH9" s="100"/>
-      <c r="HI9" s="100"/>
-      <c r="HJ9" s="101"/>
-      <c r="HK9" s="99">
+      <c r="HE9" s="86"/>
+      <c r="HF9" s="86"/>
+      <c r="HG9" s="86"/>
+      <c r="HH9" s="86"/>
+      <c r="HI9" s="86"/>
+      <c r="HJ9" s="87"/>
+      <c r="HK9" s="85">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="100"/>
-      <c r="HM9" s="100"/>
-      <c r="HN9" s="100"/>
-      <c r="HO9" s="100"/>
-      <c r="HP9" s="100"/>
-      <c r="HQ9" s="101"/>
-      <c r="HR9" s="99">
+      <c r="HL9" s="86"/>
+      <c r="HM9" s="86"/>
+      <c r="HN9" s="86"/>
+      <c r="HO9" s="86"/>
+      <c r="HP9" s="86"/>
+      <c r="HQ9" s="87"/>
+      <c r="HR9" s="85">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="100"/>
-      <c r="HT9" s="100"/>
-      <c r="HU9" s="100"/>
-      <c r="HV9" s="100"/>
-      <c r="HW9" s="100"/>
-      <c r="HX9" s="101"/>
-      <c r="HY9" s="99">
+      <c r="HS9" s="86"/>
+      <c r="HT9" s="86"/>
+      <c r="HU9" s="86"/>
+      <c r="HV9" s="86"/>
+      <c r="HW9" s="86"/>
+      <c r="HX9" s="87"/>
+      <c r="HY9" s="85">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="100"/>
-      <c r="IA9" s="100"/>
-      <c r="IB9" s="100"/>
-      <c r="IC9" s="100"/>
-      <c r="ID9" s="100"/>
-      <c r="IE9" s="101"/>
-      <c r="IF9" s="99">
+      <c r="HZ9" s="86"/>
+      <c r="IA9" s="86"/>
+      <c r="IB9" s="86"/>
+      <c r="IC9" s="86"/>
+      <c r="ID9" s="86"/>
+      <c r="IE9" s="87"/>
+      <c r="IF9" s="85">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="100"/>
-      <c r="IH9" s="100"/>
-      <c r="II9" s="100"/>
-      <c r="IJ9" s="100"/>
-      <c r="IK9" s="100"/>
-      <c r="IL9" s="101"/>
-      <c r="IM9" s="99">
+      <c r="IG9" s="86"/>
+      <c r="IH9" s="86"/>
+      <c r="II9" s="86"/>
+      <c r="IJ9" s="86"/>
+      <c r="IK9" s="86"/>
+      <c r="IL9" s="87"/>
+      <c r="IM9" s="85">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="100"/>
-      <c r="IO9" s="100"/>
-      <c r="IP9" s="100"/>
-      <c r="IQ9" s="100"/>
-      <c r="IR9" s="100"/>
-      <c r="IS9" s="101"/>
+      <c r="IN9" s="86"/>
+      <c r="IO9" s="86"/>
+      <c r="IP9" s="86"/>
+      <c r="IQ9" s="86"/>
+      <c r="IR9" s="86"/>
+      <c r="IS9" s="87"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="97"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="B10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="90">
+      <c r="P10" s="82">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="90">
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="82">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="90">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="82">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="90">
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="82">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="90">
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="82">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="90">
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="82">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="90">
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="82">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="90">
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="83"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="82">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="90">
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="83"/>
+      <c r="BP10" s="83"/>
+      <c r="BQ10" s="83"/>
+      <c r="BR10" s="83"/>
+      <c r="BS10" s="84"/>
+      <c r="BT10" s="82">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="91"/>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="91"/>
-      <c r="BX10" s="91"/>
-      <c r="BY10" s="91"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="90">
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="83"/>
+      <c r="BW10" s="83"/>
+      <c r="BX10" s="83"/>
+      <c r="BY10" s="83"/>
+      <c r="BZ10" s="84"/>
+      <c r="CA10" s="82">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="91"/>
-      <c r="CC10" s="91"/>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91"/>
-      <c r="CF10" s="91"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="90">
+      <c r="CB10" s="83"/>
+      <c r="CC10" s="83"/>
+      <c r="CD10" s="83"/>
+      <c r="CE10" s="83"/>
+      <c r="CF10" s="83"/>
+      <c r="CG10" s="84"/>
+      <c r="CH10" s="82">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="91"/>
-      <c r="CK10" s="91"/>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90">
+      <c r="CI10" s="83"/>
+      <c r="CJ10" s="83"/>
+      <c r="CK10" s="83"/>
+      <c r="CL10" s="83"/>
+      <c r="CM10" s="83"/>
+      <c r="CN10" s="84"/>
+      <c r="CO10" s="82">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="91"/>
-      <c r="CQ10" s="91"/>
-      <c r="CR10" s="91"/>
-      <c r="CS10" s="91"/>
-      <c r="CT10" s="91"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="90">
+      <c r="CP10" s="83"/>
+      <c r="CQ10" s="83"/>
+      <c r="CR10" s="83"/>
+      <c r="CS10" s="83"/>
+      <c r="CT10" s="83"/>
+      <c r="CU10" s="84"/>
+      <c r="CV10" s="82">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="91"/>
-      <c r="CX10" s="91"/>
-      <c r="CY10" s="91"/>
-      <c r="CZ10" s="91"/>
-      <c r="DA10" s="91"/>
-      <c r="DB10" s="92"/>
-      <c r="DC10" s="90">
+      <c r="CW10" s="83"/>
+      <c r="CX10" s="83"/>
+      <c r="CY10" s="83"/>
+      <c r="CZ10" s="83"/>
+      <c r="DA10" s="83"/>
+      <c r="DB10" s="84"/>
+      <c r="DC10" s="82">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="91"/>
-      <c r="DE10" s="91"/>
-      <c r="DF10" s="91"/>
-      <c r="DG10" s="91"/>
-      <c r="DH10" s="91"/>
-      <c r="DI10" s="92"/>
-      <c r="DJ10" s="90">
+      <c r="DD10" s="83"/>
+      <c r="DE10" s="83"/>
+      <c r="DF10" s="83"/>
+      <c r="DG10" s="83"/>
+      <c r="DH10" s="83"/>
+      <c r="DI10" s="84"/>
+      <c r="DJ10" s="82">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="91"/>
-      <c r="DL10" s="91"/>
-      <c r="DM10" s="91"/>
-      <c r="DN10" s="91"/>
-      <c r="DO10" s="91"/>
-      <c r="DP10" s="92"/>
-      <c r="DQ10" s="90">
+      <c r="DK10" s="83"/>
+      <c r="DL10" s="83"/>
+      <c r="DM10" s="83"/>
+      <c r="DN10" s="83"/>
+      <c r="DO10" s="83"/>
+      <c r="DP10" s="84"/>
+      <c r="DQ10" s="82">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="91"/>
-      <c r="DS10" s="91"/>
-      <c r="DT10" s="91"/>
-      <c r="DU10" s="91"/>
-      <c r="DV10" s="91"/>
-      <c r="DW10" s="92"/>
-      <c r="DX10" s="90">
+      <c r="DR10" s="83"/>
+      <c r="DS10" s="83"/>
+      <c r="DT10" s="83"/>
+      <c r="DU10" s="83"/>
+      <c r="DV10" s="83"/>
+      <c r="DW10" s="84"/>
+      <c r="DX10" s="82">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="91"/>
-      <c r="DZ10" s="91"/>
-      <c r="EA10" s="91"/>
-      <c r="EB10" s="91"/>
-      <c r="EC10" s="91"/>
-      <c r="ED10" s="92"/>
-      <c r="EE10" s="90">
+      <c r="DY10" s="83"/>
+      <c r="DZ10" s="83"/>
+      <c r="EA10" s="83"/>
+      <c r="EB10" s="83"/>
+      <c r="EC10" s="83"/>
+      <c r="ED10" s="84"/>
+      <c r="EE10" s="82">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="91"/>
-      <c r="EG10" s="91"/>
-      <c r="EH10" s="91"/>
-      <c r="EI10" s="91"/>
-      <c r="EJ10" s="91"/>
-      <c r="EK10" s="92"/>
-      <c r="EL10" s="90">
+      <c r="EF10" s="83"/>
+      <c r="EG10" s="83"/>
+      <c r="EH10" s="83"/>
+      <c r="EI10" s="83"/>
+      <c r="EJ10" s="83"/>
+      <c r="EK10" s="84"/>
+      <c r="EL10" s="82">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="91"/>
-      <c r="EN10" s="91"/>
-      <c r="EO10" s="91"/>
-      <c r="EP10" s="91"/>
-      <c r="EQ10" s="91"/>
-      <c r="ER10" s="92"/>
-      <c r="ES10" s="90">
+      <c r="EM10" s="83"/>
+      <c r="EN10" s="83"/>
+      <c r="EO10" s="83"/>
+      <c r="EP10" s="83"/>
+      <c r="EQ10" s="83"/>
+      <c r="ER10" s="84"/>
+      <c r="ES10" s="82">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="91"/>
-      <c r="EU10" s="91"/>
-      <c r="EV10" s="91"/>
-      <c r="EW10" s="91"/>
-      <c r="EX10" s="91"/>
-      <c r="EY10" s="92"/>
-      <c r="EZ10" s="90">
+      <c r="ET10" s="83"/>
+      <c r="EU10" s="83"/>
+      <c r="EV10" s="83"/>
+      <c r="EW10" s="83"/>
+      <c r="EX10" s="83"/>
+      <c r="EY10" s="84"/>
+      <c r="EZ10" s="82">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="91"/>
-      <c r="FB10" s="91"/>
-      <c r="FC10" s="91"/>
-      <c r="FD10" s="91"/>
-      <c r="FE10" s="91"/>
-      <c r="FF10" s="92"/>
-      <c r="FG10" s="90">
+      <c r="FA10" s="83"/>
+      <c r="FB10" s="83"/>
+      <c r="FC10" s="83"/>
+      <c r="FD10" s="83"/>
+      <c r="FE10" s="83"/>
+      <c r="FF10" s="84"/>
+      <c r="FG10" s="82">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="91"/>
-      <c r="FI10" s="91"/>
-      <c r="FJ10" s="91"/>
-      <c r="FK10" s="91"/>
-      <c r="FL10" s="91"/>
-      <c r="FM10" s="92"/>
-      <c r="FN10" s="90">
+      <c r="FH10" s="83"/>
+      <c r="FI10" s="83"/>
+      <c r="FJ10" s="83"/>
+      <c r="FK10" s="83"/>
+      <c r="FL10" s="83"/>
+      <c r="FM10" s="84"/>
+      <c r="FN10" s="82">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="91"/>
-      <c r="FP10" s="91"/>
-      <c r="FQ10" s="91"/>
-      <c r="FR10" s="91"/>
-      <c r="FS10" s="91"/>
-      <c r="FT10" s="92"/>
-      <c r="FU10" s="90">
+      <c r="FO10" s="83"/>
+      <c r="FP10" s="83"/>
+      <c r="FQ10" s="83"/>
+      <c r="FR10" s="83"/>
+      <c r="FS10" s="83"/>
+      <c r="FT10" s="84"/>
+      <c r="FU10" s="82">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91"/>
-      <c r="FX10" s="91"/>
-      <c r="FY10" s="91"/>
-      <c r="FZ10" s="91"/>
-      <c r="GA10" s="92"/>
-      <c r="GB10" s="90">
+      <c r="FV10" s="83"/>
+      <c r="FW10" s="83"/>
+      <c r="FX10" s="83"/>
+      <c r="FY10" s="83"/>
+      <c r="FZ10" s="83"/>
+      <c r="GA10" s="84"/>
+      <c r="GB10" s="82">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="91"/>
-      <c r="GD10" s="91"/>
-      <c r="GE10" s="91"/>
-      <c r="GF10" s="91"/>
-      <c r="GG10" s="91"/>
-      <c r="GH10" s="92"/>
-      <c r="GI10" s="90">
+      <c r="GC10" s="83"/>
+      <c r="GD10" s="83"/>
+      <c r="GE10" s="83"/>
+      <c r="GF10" s="83"/>
+      <c r="GG10" s="83"/>
+      <c r="GH10" s="84"/>
+      <c r="GI10" s="82">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="91"/>
-      <c r="GK10" s="91"/>
-      <c r="GL10" s="91"/>
-      <c r="GM10" s="91"/>
-      <c r="GN10" s="91"/>
-      <c r="GO10" s="92"/>
-      <c r="GP10" s="90">
+      <c r="GJ10" s="83"/>
+      <c r="GK10" s="83"/>
+      <c r="GL10" s="83"/>
+      <c r="GM10" s="83"/>
+      <c r="GN10" s="83"/>
+      <c r="GO10" s="84"/>
+      <c r="GP10" s="82">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="91"/>
-      <c r="GR10" s="91"/>
-      <c r="GS10" s="91"/>
-      <c r="GT10" s="91"/>
-      <c r="GU10" s="91"/>
-      <c r="GV10" s="92"/>
-      <c r="GW10" s="90">
+      <c r="GQ10" s="83"/>
+      <c r="GR10" s="83"/>
+      <c r="GS10" s="83"/>
+      <c r="GT10" s="83"/>
+      <c r="GU10" s="83"/>
+      <c r="GV10" s="84"/>
+      <c r="GW10" s="82">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="91"/>
-      <c r="GY10" s="91"/>
-      <c r="GZ10" s="91"/>
-      <c r="HA10" s="91"/>
-      <c r="HB10" s="91"/>
-      <c r="HC10" s="92"/>
-      <c r="HD10" s="90">
+      <c r="GX10" s="83"/>
+      <c r="GY10" s="83"/>
+      <c r="GZ10" s="83"/>
+      <c r="HA10" s="83"/>
+      <c r="HB10" s="83"/>
+      <c r="HC10" s="84"/>
+      <c r="HD10" s="82">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="91"/>
-      <c r="HF10" s="91"/>
-      <c r="HG10" s="91"/>
-      <c r="HH10" s="91"/>
-      <c r="HI10" s="91"/>
-      <c r="HJ10" s="92"/>
-      <c r="HK10" s="90">
+      <c r="HE10" s="83"/>
+      <c r="HF10" s="83"/>
+      <c r="HG10" s="83"/>
+      <c r="HH10" s="83"/>
+      <c r="HI10" s="83"/>
+      <c r="HJ10" s="84"/>
+      <c r="HK10" s="82">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="91"/>
-      <c r="HM10" s="91"/>
-      <c r="HN10" s="91"/>
-      <c r="HO10" s="91"/>
-      <c r="HP10" s="91"/>
-      <c r="HQ10" s="92"/>
-      <c r="HR10" s="90">
+      <c r="HL10" s="83"/>
+      <c r="HM10" s="83"/>
+      <c r="HN10" s="83"/>
+      <c r="HO10" s="83"/>
+      <c r="HP10" s="83"/>
+      <c r="HQ10" s="84"/>
+      <c r="HR10" s="82">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="91"/>
-      <c r="HT10" s="91"/>
-      <c r="HU10" s="91"/>
-      <c r="HV10" s="91"/>
-      <c r="HW10" s="91"/>
-      <c r="HX10" s="92"/>
-      <c r="HY10" s="90">
+      <c r="HS10" s="83"/>
+      <c r="HT10" s="83"/>
+      <c r="HU10" s="83"/>
+      <c r="HV10" s="83"/>
+      <c r="HW10" s="83"/>
+      <c r="HX10" s="84"/>
+      <c r="HY10" s="82">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="91"/>
-      <c r="IA10" s="91"/>
-      <c r="IB10" s="91"/>
-      <c r="IC10" s="91"/>
-      <c r="ID10" s="91"/>
-      <c r="IE10" s="92"/>
-      <c r="IF10" s="90">
+      <c r="HZ10" s="83"/>
+      <c r="IA10" s="83"/>
+      <c r="IB10" s="83"/>
+      <c r="IC10" s="83"/>
+      <c r="ID10" s="83"/>
+      <c r="IE10" s="84"/>
+      <c r="IF10" s="82">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="91"/>
-      <c r="IH10" s="91"/>
-      <c r="II10" s="91"/>
-      <c r="IJ10" s="91"/>
-      <c r="IK10" s="91"/>
-      <c r="IL10" s="92"/>
-      <c r="IM10" s="90">
+      <c r="IG10" s="83"/>
+      <c r="IH10" s="83"/>
+      <c r="II10" s="83"/>
+      <c r="IJ10" s="83"/>
+      <c r="IK10" s="83"/>
+      <c r="IL10" s="84"/>
+      <c r="IM10" s="82">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="91"/>
-      <c r="IO10" s="91"/>
-      <c r="IP10" s="91"/>
-      <c r="IQ10" s="91"/>
-      <c r="IR10" s="91"/>
-      <c r="IS10" s="92"/>
+      <c r="IN10" s="83"/>
+      <c r="IO10" s="83"/>
+      <c r="IP10" s="83"/>
+      <c r="IQ10" s="83"/>
+      <c r="IR10" s="83"/>
+      <c r="IS10" s="84"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,353 +6133,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="87">
+      <c r="P11" s="88">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="87">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="88">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="87">
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="88">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="87">
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="88">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="87">
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="88">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="87">
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="88">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="88"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="87">
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="88">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="88"/>
-      <c r="BK11" s="88"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="87">
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="88">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="88"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="88"/>
-      <c r="BQ11" s="88"/>
-      <c r="BR11" s="88"/>
-      <c r="BS11" s="89"/>
-      <c r="BT11" s="87">
+      <c r="BN11" s="89"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BR11" s="89"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="88">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="88"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="87">
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
+      <c r="BW11" s="89"/>
+      <c r="BX11" s="89"/>
+      <c r="BY11" s="89"/>
+      <c r="BZ11" s="90"/>
+      <c r="CA11" s="88">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="89"/>
-      <c r="CH11" s="87">
+      <c r="CB11" s="89"/>
+      <c r="CC11" s="89"/>
+      <c r="CD11" s="89"/>
+      <c r="CE11" s="89"/>
+      <c r="CF11" s="89"/>
+      <c r="CG11" s="90"/>
+      <c r="CH11" s="88">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="88"/>
-      <c r="CJ11" s="88"/>
-      <c r="CK11" s="88"/>
-      <c r="CL11" s="88"/>
-      <c r="CM11" s="88"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="87">
+      <c r="CI11" s="89"/>
+      <c r="CJ11" s="89"/>
+      <c r="CK11" s="89"/>
+      <c r="CL11" s="89"/>
+      <c r="CM11" s="89"/>
+      <c r="CN11" s="90"/>
+      <c r="CO11" s="88">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="88"/>
-      <c r="CQ11" s="88"/>
-      <c r="CR11" s="88"/>
-      <c r="CS11" s="88"/>
-      <c r="CT11" s="88"/>
-      <c r="CU11" s="89"/>
-      <c r="CV11" s="87">
+      <c r="CP11" s="89"/>
+      <c r="CQ11" s="89"/>
+      <c r="CR11" s="89"/>
+      <c r="CS11" s="89"/>
+      <c r="CT11" s="89"/>
+      <c r="CU11" s="90"/>
+      <c r="CV11" s="88">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="88"/>
-      <c r="CX11" s="88"/>
-      <c r="CY11" s="88"/>
-      <c r="CZ11" s="88"/>
-      <c r="DA11" s="88"/>
-      <c r="DB11" s="89"/>
-      <c r="DC11" s="87">
+      <c r="CW11" s="89"/>
+      <c r="CX11" s="89"/>
+      <c r="CY11" s="89"/>
+      <c r="CZ11" s="89"/>
+      <c r="DA11" s="89"/>
+      <c r="DB11" s="90"/>
+      <c r="DC11" s="88">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="88"/>
-      <c r="DE11" s="88"/>
-      <c r="DF11" s="88"/>
-      <c r="DG11" s="88"/>
-      <c r="DH11" s="88"/>
-      <c r="DI11" s="89"/>
-      <c r="DJ11" s="87">
+      <c r="DD11" s="89"/>
+      <c r="DE11" s="89"/>
+      <c r="DF11" s="89"/>
+      <c r="DG11" s="89"/>
+      <c r="DH11" s="89"/>
+      <c r="DI11" s="90"/>
+      <c r="DJ11" s="88">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="88"/>
-      <c r="DL11" s="88"/>
-      <c r="DM11" s="88"/>
-      <c r="DN11" s="88"/>
-      <c r="DO11" s="88"/>
-      <c r="DP11" s="89"/>
-      <c r="DQ11" s="87">
+      <c r="DK11" s="89"/>
+      <c r="DL11" s="89"/>
+      <c r="DM11" s="89"/>
+      <c r="DN11" s="89"/>
+      <c r="DO11" s="89"/>
+      <c r="DP11" s="90"/>
+      <c r="DQ11" s="88">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="88"/>
-      <c r="DS11" s="88"/>
-      <c r="DT11" s="88"/>
-      <c r="DU11" s="88"/>
-      <c r="DV11" s="88"/>
-      <c r="DW11" s="89"/>
-      <c r="DX11" s="87">
+      <c r="DR11" s="89"/>
+      <c r="DS11" s="89"/>
+      <c r="DT11" s="89"/>
+      <c r="DU11" s="89"/>
+      <c r="DV11" s="89"/>
+      <c r="DW11" s="90"/>
+      <c r="DX11" s="88">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="88"/>
-      <c r="DZ11" s="88"/>
-      <c r="EA11" s="88"/>
-      <c r="EB11" s="88"/>
-      <c r="EC11" s="88"/>
-      <c r="ED11" s="89"/>
-      <c r="EE11" s="87">
+      <c r="DY11" s="89"/>
+      <c r="DZ11" s="89"/>
+      <c r="EA11" s="89"/>
+      <c r="EB11" s="89"/>
+      <c r="EC11" s="89"/>
+      <c r="ED11" s="90"/>
+      <c r="EE11" s="88">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="88"/>
-      <c r="EG11" s="88"/>
-      <c r="EH11" s="88"/>
-      <c r="EI11" s="88"/>
-      <c r="EJ11" s="88"/>
-      <c r="EK11" s="89"/>
-      <c r="EL11" s="87">
+      <c r="EF11" s="89"/>
+      <c r="EG11" s="89"/>
+      <c r="EH11" s="89"/>
+      <c r="EI11" s="89"/>
+      <c r="EJ11" s="89"/>
+      <c r="EK11" s="90"/>
+      <c r="EL11" s="88">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="88"/>
-      <c r="EN11" s="88"/>
-      <c r="EO11" s="88"/>
-      <c r="EP11" s="88"/>
-      <c r="EQ11" s="88"/>
-      <c r="ER11" s="89"/>
-      <c r="ES11" s="87">
+      <c r="EM11" s="89"/>
+      <c r="EN11" s="89"/>
+      <c r="EO11" s="89"/>
+      <c r="EP11" s="89"/>
+      <c r="EQ11" s="89"/>
+      <c r="ER11" s="90"/>
+      <c r="ES11" s="88">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="88"/>
-      <c r="EU11" s="88"/>
-      <c r="EV11" s="88"/>
-      <c r="EW11" s="88"/>
-      <c r="EX11" s="88"/>
-      <c r="EY11" s="89"/>
-      <c r="EZ11" s="87">
+      <c r="ET11" s="89"/>
+      <c r="EU11" s="89"/>
+      <c r="EV11" s="89"/>
+      <c r="EW11" s="89"/>
+      <c r="EX11" s="89"/>
+      <c r="EY11" s="90"/>
+      <c r="EZ11" s="88">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="88"/>
-      <c r="FB11" s="88"/>
-      <c r="FC11" s="88"/>
-      <c r="FD11" s="88"/>
-      <c r="FE11" s="88"/>
-      <c r="FF11" s="89"/>
-      <c r="FG11" s="87">
+      <c r="FA11" s="89"/>
+      <c r="FB11" s="89"/>
+      <c r="FC11" s="89"/>
+      <c r="FD11" s="89"/>
+      <c r="FE11" s="89"/>
+      <c r="FF11" s="90"/>
+      <c r="FG11" s="88">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="88"/>
-      <c r="FI11" s="88"/>
-      <c r="FJ11" s="88"/>
-      <c r="FK11" s="88"/>
-      <c r="FL11" s="88"/>
-      <c r="FM11" s="89"/>
-      <c r="FN11" s="87">
+      <c r="FH11" s="89"/>
+      <c r="FI11" s="89"/>
+      <c r="FJ11" s="89"/>
+      <c r="FK11" s="89"/>
+      <c r="FL11" s="89"/>
+      <c r="FM11" s="90"/>
+      <c r="FN11" s="88">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="88"/>
-      <c r="FP11" s="88"/>
-      <c r="FQ11" s="88"/>
-      <c r="FR11" s="88"/>
-      <c r="FS11" s="88"/>
-      <c r="FT11" s="89"/>
-      <c r="FU11" s="87">
+      <c r="FO11" s="89"/>
+      <c r="FP11" s="89"/>
+      <c r="FQ11" s="89"/>
+      <c r="FR11" s="89"/>
+      <c r="FS11" s="89"/>
+      <c r="FT11" s="90"/>
+      <c r="FU11" s="88">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="88"/>
-      <c r="FW11" s="88"/>
-      <c r="FX11" s="88"/>
-      <c r="FY11" s="88"/>
-      <c r="FZ11" s="88"/>
-      <c r="GA11" s="89"/>
-      <c r="GB11" s="87">
+      <c r="FV11" s="89"/>
+      <c r="FW11" s="89"/>
+      <c r="FX11" s="89"/>
+      <c r="FY11" s="89"/>
+      <c r="FZ11" s="89"/>
+      <c r="GA11" s="90"/>
+      <c r="GB11" s="88">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="88"/>
-      <c r="GD11" s="88"/>
-      <c r="GE11" s="88"/>
-      <c r="GF11" s="88"/>
-      <c r="GG11" s="88"/>
-      <c r="GH11" s="89"/>
-      <c r="GI11" s="87">
+      <c r="GC11" s="89"/>
+      <c r="GD11" s="89"/>
+      <c r="GE11" s="89"/>
+      <c r="GF11" s="89"/>
+      <c r="GG11" s="89"/>
+      <c r="GH11" s="90"/>
+      <c r="GI11" s="88">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="88"/>
-      <c r="GK11" s="88"/>
-      <c r="GL11" s="88"/>
-      <c r="GM11" s="88"/>
-      <c r="GN11" s="88"/>
-      <c r="GO11" s="89"/>
-      <c r="GP11" s="87">
+      <c r="GJ11" s="89"/>
+      <c r="GK11" s="89"/>
+      <c r="GL11" s="89"/>
+      <c r="GM11" s="89"/>
+      <c r="GN11" s="89"/>
+      <c r="GO11" s="90"/>
+      <c r="GP11" s="88">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="88"/>
-      <c r="GR11" s="88"/>
-      <c r="GS11" s="88"/>
-      <c r="GT11" s="88"/>
-      <c r="GU11" s="88"/>
-      <c r="GV11" s="89"/>
-      <c r="GW11" s="87">
+      <c r="GQ11" s="89"/>
+      <c r="GR11" s="89"/>
+      <c r="GS11" s="89"/>
+      <c r="GT11" s="89"/>
+      <c r="GU11" s="89"/>
+      <c r="GV11" s="90"/>
+      <c r="GW11" s="88">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="88"/>
-      <c r="GY11" s="88"/>
-      <c r="GZ11" s="88"/>
-      <c r="HA11" s="88"/>
-      <c r="HB11" s="88"/>
-      <c r="HC11" s="89"/>
-      <c r="HD11" s="87">
+      <c r="GX11" s="89"/>
+      <c r="GY11" s="89"/>
+      <c r="GZ11" s="89"/>
+      <c r="HA11" s="89"/>
+      <c r="HB11" s="89"/>
+      <c r="HC11" s="90"/>
+      <c r="HD11" s="88">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="88"/>
-      <c r="HF11" s="88"/>
-      <c r="HG11" s="88"/>
-      <c r="HH11" s="88"/>
-      <c r="HI11" s="88"/>
-      <c r="HJ11" s="89"/>
-      <c r="HK11" s="87">
+      <c r="HE11" s="89"/>
+      <c r="HF11" s="89"/>
+      <c r="HG11" s="89"/>
+      <c r="HH11" s="89"/>
+      <c r="HI11" s="89"/>
+      <c r="HJ11" s="90"/>
+      <c r="HK11" s="88">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="88"/>
-      <c r="HM11" s="88"/>
-      <c r="HN11" s="88"/>
-      <c r="HO11" s="88"/>
-      <c r="HP11" s="88"/>
-      <c r="HQ11" s="89"/>
-      <c r="HR11" s="87">
+      <c r="HL11" s="89"/>
+      <c r="HM11" s="89"/>
+      <c r="HN11" s="89"/>
+      <c r="HO11" s="89"/>
+      <c r="HP11" s="89"/>
+      <c r="HQ11" s="90"/>
+      <c r="HR11" s="88">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="88"/>
-      <c r="HT11" s="88"/>
-      <c r="HU11" s="88"/>
-      <c r="HV11" s="88"/>
-      <c r="HW11" s="88"/>
-      <c r="HX11" s="89"/>
-      <c r="HY11" s="87">
+      <c r="HS11" s="89"/>
+      <c r="HT11" s="89"/>
+      <c r="HU11" s="89"/>
+      <c r="HV11" s="89"/>
+      <c r="HW11" s="89"/>
+      <c r="HX11" s="90"/>
+      <c r="HY11" s="88">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="88"/>
-      <c r="IA11" s="88"/>
-      <c r="IB11" s="88"/>
-      <c r="IC11" s="88"/>
-      <c r="ID11" s="88"/>
-      <c r="IE11" s="89"/>
-      <c r="IF11" s="87">
+      <c r="HZ11" s="89"/>
+      <c r="IA11" s="89"/>
+      <c r="IB11" s="89"/>
+      <c r="IC11" s="89"/>
+      <c r="ID11" s="89"/>
+      <c r="IE11" s="90"/>
+      <c r="IF11" s="88">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="88"/>
-      <c r="IH11" s="88"/>
-      <c r="II11" s="88"/>
-      <c r="IJ11" s="88"/>
-      <c r="IK11" s="88"/>
-      <c r="IL11" s="89"/>
-      <c r="IM11" s="87">
+      <c r="IG11" s="89"/>
+      <c r="IH11" s="89"/>
+      <c r="II11" s="89"/>
+      <c r="IJ11" s="89"/>
+      <c r="IK11" s="89"/>
+      <c r="IL11" s="90"/>
+      <c r="IM11" s="88">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="88"/>
-      <c r="IO11" s="88"/>
-      <c r="IP11" s="88"/>
-      <c r="IQ11" s="88"/>
-      <c r="IR11" s="88"/>
-      <c r="IS11" s="89"/>
+      <c r="IN11" s="89"/>
+      <c r="IO11" s="89"/>
+      <c r="IP11" s="89"/>
+      <c r="IQ11" s="89"/>
+      <c r="IR11" s="89"/>
+      <c r="IS11" s="90"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -7646,15 +7646,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>0</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -7930,14 +7930,14 @@
       </c>
       <c r="L17" s="64">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="63">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="65">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O17" s="66"/>
       <c r="P17" s="58"/>
@@ -18656,6 +18656,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N54"/>
   <mergeCells count="115">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="GI11:GO11"/>
+    <mergeCell ref="FG11:FM11"/>
+    <mergeCell ref="DC11:DI11"/>
+    <mergeCell ref="FU11:GA11"/>
+    <mergeCell ref="DX11:ED11"/>
+    <mergeCell ref="FN11:FT11"/>
+    <mergeCell ref="GB11:GH11"/>
+    <mergeCell ref="FN10:FT10"/>
+    <mergeCell ref="DQ11:DW11"/>
+    <mergeCell ref="BT11:BZ11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
     <mergeCell ref="HK10:HQ10"/>
     <mergeCell ref="FG10:FM10"/>
     <mergeCell ref="IM9:IS9"/>
@@ -18680,97 +18771,6 @@
     <mergeCell ref="DC10:DI10"/>
     <mergeCell ref="DJ10:DP10"/>
     <mergeCell ref="IF10:IL10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="GI11:GO11"/>
-    <mergeCell ref="FG11:FM11"/>
-    <mergeCell ref="DC11:DI11"/>
-    <mergeCell ref="FU11:GA11"/>
-    <mergeCell ref="DX11:ED11"/>
-    <mergeCell ref="FN11:FT11"/>
-    <mergeCell ref="GB11:GH11"/>
-    <mergeCell ref="FN10:FT10"/>
-    <mergeCell ref="DQ11:DW11"/>
-    <mergeCell ref="BT11:BZ11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="N9:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3216,7 +3216,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42394</v>
+        <v>42401</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
@@ -7646,15 +7646,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>0.4238095238095238</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="I17" s="61" t="str">
         <f t="shared" ref="I17" ca="1" si="23">IF(AND($F$6&lt;=H17,$F$6&gt;=G17),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J17" s="62">
         <v>5</v>
@@ -7930,14 +7930,14 @@
       </c>
       <c r="L17" s="64">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" s="63">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="65">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="O17" s="66"/>
       <c r="P17" s="58"/>
@@ -8213,14 +8213,14 @@
       </c>
       <c r="L18" s="64">
         <f t="shared" ref="L18:L27" si="26">ROUNDDOWN(N18*J18,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="63">
         <f t="shared" ref="M18:M27" si="27">J18-L18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="66"/>
       <c r="P18" s="58"/>
@@ -8496,14 +8496,14 @@
       </c>
       <c r="L19" s="64">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="63">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="65">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O19" s="66"/>
       <c r="P19" s="58"/>
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="65">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O20" s="66"/>
       <c r="P20" s="58"/>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="I21" s="61" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J21" s="62">
         <v>2</v>

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3216,12 +3216,12 @@
       <c r="E6" s="31"/>
       <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42401</v>
+        <v>42405</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Monday</v>
+        <v>Friday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
@@ -7646,15 +7646,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>0.4238095238095238</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -7930,14 +7930,14 @@
       </c>
       <c r="L17" s="64">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" s="63">
         <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="65">
         <v>1</v>
-      </c>
-      <c r="N17" s="65">
-        <v>0.9</v>
       </c>
       <c r="O17" s="66"/>
       <c r="P17" s="58"/>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="65">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O19" s="66"/>
       <c r="P19" s="58"/>
@@ -8779,14 +8779,14 @@
       </c>
       <c r="L20" s="64">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="63">
         <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="65">
         <v>1</v>
-      </c>
-      <c r="N20" s="65">
-        <v>0.8</v>
       </c>
       <c r="O20" s="66"/>
       <c r="P20" s="58"/>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="I21" s="61" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J21" s="62">
         <v>2</v>
@@ -9062,14 +9062,14 @@
       </c>
       <c r="L21" s="64">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="63">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="66"/>
       <c r="P21" s="58"/>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="I22" s="61" t="str">
         <f t="shared" ref="I22:I24" ca="1" si="29">IF(AND($F$6&lt;=H22,$F$6&gt;=G22),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J22" s="62">
         <v>3</v>
@@ -9345,14 +9345,14 @@
       </c>
       <c r="L22" s="64">
         <f t="shared" ref="L22:L24" si="31">ROUNDDOWN(N22*J22,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="63">
         <f t="shared" ref="M22:M24" si="32">J22-L22</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="66"/>
       <c r="P22" s="58"/>
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="65">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="58"/>

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -3080,7 +3080,7 @@
       <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3216,12 +3216,12 @@
       <c r="E6" s="31"/>
       <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42405</v>
+        <v>42408</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Friday</v>
+        <v>Monday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
@@ -7646,15 +7646,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>0.70000000000000007</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -8496,14 +8496,14 @@
       </c>
       <c r="L19" s="64">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="63">
         <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="65">
         <v>1</v>
-      </c>
-      <c r="N19" s="65">
-        <v>0.7</v>
       </c>
       <c r="O19" s="66"/>
       <c r="P19" s="58"/>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="I22" s="61" t="str">
         <f t="shared" ref="I22:I24" ca="1" si="29">IF(AND($F$6&lt;=H22,$F$6&gt;=G22),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J22" s="62">
         <v>3</v>
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="65">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="58"/>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="I24" s="61" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J24" s="75">
         <f>MAX(H25:H26)-G24+1</f>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I25" s="61" t="str">
         <f t="shared" ref="I25:I26" ca="1" si="34">IF(AND($F$6&lt;=H25,$F$6&gt;=G25),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J25" s="62">
         <v>2</v>

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3216,12 +3216,12 @@
       <c r="E6" s="31"/>
       <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42408</v>
+        <v>42413</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Monday</v>
+        <v>Saturday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="I16" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H16,$F$6&gt;=G16),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J16" s="75">
         <f ca="1">MAX(H17:I24)-G16+1</f>
@@ -7646,15 +7646,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>0.74285714285714288</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -9628,14 +9628,14 @@
       </c>
       <c r="L23" s="64">
         <f>ROUNDDOWN(N23*J23,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="63">
         <f>J23-L23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="65">
         <v>1</v>
-      </c>
-      <c r="N23" s="65">
-        <v>0.6</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="58"/>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="I24" s="61" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J24" s="75">
         <f>MAX(H25:H26)-G24+1</f>
@@ -9912,15 +9912,15 @@
       </c>
       <c r="L24" s="64">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="63">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" s="78">
         <f>SUMPRODUCT(J25:J26,N25:N26)/SUM(J25:J26)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="58"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I25" s="61" t="str">
         <f t="shared" ref="I25:I26" ca="1" si="34">IF(AND($F$6&lt;=H25,$F$6&gt;=G25),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J25" s="62">
         <v>2</v>
@@ -10479,14 +10479,14 @@
       </c>
       <c r="L26" s="64">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="63">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="66"/>
       <c r="P26" s="58"/>

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -868,39 +868,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -919,6 +886,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -936,6 +921,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3106,38 +3106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="97">
+      <c r="F5" s="86">
         <v>42387</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3214,20 +3214,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="97">
+      <c r="F6" s="86">
         <f ca="1">TODAY()</f>
-        <v>42413</v>
-      </c>
-      <c r="G6" s="97"/>
+        <v>42415</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4190,9 +4190,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5152,9 +5152,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5398,732 +5398,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="85">
+      <c r="P9" s="99">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="85">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="99">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="85">
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="99">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="85">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="99">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="85">
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="99">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="85">
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="99">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="85">
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="99">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="87"/>
-      <c r="BM9" s="85">
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="101"/>
+      <c r="BM9" s="99">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="85">
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="100"/>
+      <c r="BQ9" s="100"/>
+      <c r="BR9" s="100"/>
+      <c r="BS9" s="101"/>
+      <c r="BT9" s="99">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="87"/>
-      <c r="CA9" s="85">
+      <c r="BU9" s="100"/>
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="100"/>
+      <c r="BY9" s="100"/>
+      <c r="BZ9" s="101"/>
+      <c r="CA9" s="99">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="86"/>
-      <c r="CC9" s="86"/>
-      <c r="CD9" s="86"/>
-      <c r="CE9" s="86"/>
-      <c r="CF9" s="86"/>
-      <c r="CG9" s="87"/>
-      <c r="CH9" s="85">
+      <c r="CB9" s="100"/>
+      <c r="CC9" s="100"/>
+      <c r="CD9" s="100"/>
+      <c r="CE9" s="100"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="101"/>
+      <c r="CH9" s="99">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="86"/>
-      <c r="CJ9" s="86"/>
-      <c r="CK9" s="86"/>
-      <c r="CL9" s="86"/>
-      <c r="CM9" s="86"/>
-      <c r="CN9" s="87"/>
-      <c r="CO9" s="85">
+      <c r="CI9" s="100"/>
+      <c r="CJ9" s="100"/>
+      <c r="CK9" s="100"/>
+      <c r="CL9" s="100"/>
+      <c r="CM9" s="100"/>
+      <c r="CN9" s="101"/>
+      <c r="CO9" s="99">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="86"/>
-      <c r="CQ9" s="86"/>
-      <c r="CR9" s="86"/>
-      <c r="CS9" s="86"/>
-      <c r="CT9" s="86"/>
-      <c r="CU9" s="87"/>
-      <c r="CV9" s="85">
+      <c r="CP9" s="100"/>
+      <c r="CQ9" s="100"/>
+      <c r="CR9" s="100"/>
+      <c r="CS9" s="100"/>
+      <c r="CT9" s="100"/>
+      <c r="CU9" s="101"/>
+      <c r="CV9" s="99">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="86"/>
-      <c r="CX9" s="86"/>
-      <c r="CY9" s="86"/>
-      <c r="CZ9" s="86"/>
-      <c r="DA9" s="86"/>
-      <c r="DB9" s="87"/>
-      <c r="DC9" s="85">
+      <c r="CW9" s="100"/>
+      <c r="CX9" s="100"/>
+      <c r="CY9" s="100"/>
+      <c r="CZ9" s="100"/>
+      <c r="DA9" s="100"/>
+      <c r="DB9" s="101"/>
+      <c r="DC9" s="99">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="86"/>
-      <c r="DE9" s="86"/>
-      <c r="DF9" s="86"/>
-      <c r="DG9" s="86"/>
-      <c r="DH9" s="86"/>
-      <c r="DI9" s="87"/>
-      <c r="DJ9" s="85">
+      <c r="DD9" s="100"/>
+      <c r="DE9" s="100"/>
+      <c r="DF9" s="100"/>
+      <c r="DG9" s="100"/>
+      <c r="DH9" s="100"/>
+      <c r="DI9" s="101"/>
+      <c r="DJ9" s="99">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="86"/>
-      <c r="DL9" s="86"/>
-      <c r="DM9" s="86"/>
-      <c r="DN9" s="86"/>
-      <c r="DO9" s="86"/>
-      <c r="DP9" s="87"/>
-      <c r="DQ9" s="85">
+      <c r="DK9" s="100"/>
+      <c r="DL9" s="100"/>
+      <c r="DM9" s="100"/>
+      <c r="DN9" s="100"/>
+      <c r="DO9" s="100"/>
+      <c r="DP9" s="101"/>
+      <c r="DQ9" s="99">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="86"/>
-      <c r="DS9" s="86"/>
-      <c r="DT9" s="86"/>
-      <c r="DU9" s="86"/>
-      <c r="DV9" s="86"/>
-      <c r="DW9" s="87"/>
-      <c r="DX9" s="85">
+      <c r="DR9" s="100"/>
+      <c r="DS9" s="100"/>
+      <c r="DT9" s="100"/>
+      <c r="DU9" s="100"/>
+      <c r="DV9" s="100"/>
+      <c r="DW9" s="101"/>
+      <c r="DX9" s="99">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="86"/>
-      <c r="DZ9" s="86"/>
-      <c r="EA9" s="86"/>
-      <c r="EB9" s="86"/>
-      <c r="EC9" s="86"/>
-      <c r="ED9" s="87"/>
-      <c r="EE9" s="85">
+      <c r="DY9" s="100"/>
+      <c r="DZ9" s="100"/>
+      <c r="EA9" s="100"/>
+      <c r="EB9" s="100"/>
+      <c r="EC9" s="100"/>
+      <c r="ED9" s="101"/>
+      <c r="EE9" s="99">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="86"/>
-      <c r="EG9" s="86"/>
-      <c r="EH9" s="86"/>
-      <c r="EI9" s="86"/>
-      <c r="EJ9" s="86"/>
-      <c r="EK9" s="87"/>
-      <c r="EL9" s="85">
+      <c r="EF9" s="100"/>
+      <c r="EG9" s="100"/>
+      <c r="EH9" s="100"/>
+      <c r="EI9" s="100"/>
+      <c r="EJ9" s="100"/>
+      <c r="EK9" s="101"/>
+      <c r="EL9" s="99">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="86"/>
-      <c r="EN9" s="86"/>
-      <c r="EO9" s="86"/>
-      <c r="EP9" s="86"/>
-      <c r="EQ9" s="86"/>
-      <c r="ER9" s="87"/>
-      <c r="ES9" s="85">
+      <c r="EM9" s="100"/>
+      <c r="EN9" s="100"/>
+      <c r="EO9" s="100"/>
+      <c r="EP9" s="100"/>
+      <c r="EQ9" s="100"/>
+      <c r="ER9" s="101"/>
+      <c r="ES9" s="99">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="86"/>
-      <c r="EU9" s="86"/>
-      <c r="EV9" s="86"/>
-      <c r="EW9" s="86"/>
-      <c r="EX9" s="86"/>
-      <c r="EY9" s="87"/>
-      <c r="EZ9" s="85">
+      <c r="ET9" s="100"/>
+      <c r="EU9" s="100"/>
+      <c r="EV9" s="100"/>
+      <c r="EW9" s="100"/>
+      <c r="EX9" s="100"/>
+      <c r="EY9" s="101"/>
+      <c r="EZ9" s="99">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="86"/>
-      <c r="FB9" s="86"/>
-      <c r="FC9" s="86"/>
-      <c r="FD9" s="86"/>
-      <c r="FE9" s="86"/>
-      <c r="FF9" s="87"/>
-      <c r="FG9" s="85">
+      <c r="FA9" s="100"/>
+      <c r="FB9" s="100"/>
+      <c r="FC9" s="100"/>
+      <c r="FD9" s="100"/>
+      <c r="FE9" s="100"/>
+      <c r="FF9" s="101"/>
+      <c r="FG9" s="99">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="86"/>
-      <c r="FI9" s="86"/>
-      <c r="FJ9" s="86"/>
-      <c r="FK9" s="86"/>
-      <c r="FL9" s="86"/>
-      <c r="FM9" s="87"/>
-      <c r="FN9" s="85">
+      <c r="FH9" s="100"/>
+      <c r="FI9" s="100"/>
+      <c r="FJ9" s="100"/>
+      <c r="FK9" s="100"/>
+      <c r="FL9" s="100"/>
+      <c r="FM9" s="101"/>
+      <c r="FN9" s="99">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="86"/>
-      <c r="FP9" s="86"/>
-      <c r="FQ9" s="86"/>
-      <c r="FR9" s="86"/>
-      <c r="FS9" s="86"/>
-      <c r="FT9" s="87"/>
-      <c r="FU9" s="85">
+      <c r="FO9" s="100"/>
+      <c r="FP9" s="100"/>
+      <c r="FQ9" s="100"/>
+      <c r="FR9" s="100"/>
+      <c r="FS9" s="100"/>
+      <c r="FT9" s="101"/>
+      <c r="FU9" s="99">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="86"/>
-      <c r="FW9" s="86"/>
-      <c r="FX9" s="86"/>
-      <c r="FY9" s="86"/>
-      <c r="FZ9" s="86"/>
-      <c r="GA9" s="87"/>
-      <c r="GB9" s="85">
+      <c r="FV9" s="100"/>
+      <c r="FW9" s="100"/>
+      <c r="FX9" s="100"/>
+      <c r="FY9" s="100"/>
+      <c r="FZ9" s="100"/>
+      <c r="GA9" s="101"/>
+      <c r="GB9" s="99">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="86"/>
-      <c r="GD9" s="86"/>
-      <c r="GE9" s="86"/>
-      <c r="GF9" s="86"/>
-      <c r="GG9" s="86"/>
-      <c r="GH9" s="87"/>
-      <c r="GI9" s="85">
+      <c r="GC9" s="100"/>
+      <c r="GD9" s="100"/>
+      <c r="GE9" s="100"/>
+      <c r="GF9" s="100"/>
+      <c r="GG9" s="100"/>
+      <c r="GH9" s="101"/>
+      <c r="GI9" s="99">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="86"/>
-      <c r="GK9" s="86"/>
-      <c r="GL9" s="86"/>
-      <c r="GM9" s="86"/>
-      <c r="GN9" s="86"/>
-      <c r="GO9" s="87"/>
-      <c r="GP9" s="85">
+      <c r="GJ9" s="100"/>
+      <c r="GK9" s="100"/>
+      <c r="GL9" s="100"/>
+      <c r="GM9" s="100"/>
+      <c r="GN9" s="100"/>
+      <c r="GO9" s="101"/>
+      <c r="GP9" s="99">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="86"/>
-      <c r="GR9" s="86"/>
-      <c r="GS9" s="86"/>
-      <c r="GT9" s="86"/>
-      <c r="GU9" s="86"/>
-      <c r="GV9" s="87"/>
-      <c r="GW9" s="85">
+      <c r="GQ9" s="100"/>
+      <c r="GR9" s="100"/>
+      <c r="GS9" s="100"/>
+      <c r="GT9" s="100"/>
+      <c r="GU9" s="100"/>
+      <c r="GV9" s="101"/>
+      <c r="GW9" s="99">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="86"/>
-      <c r="GY9" s="86"/>
-      <c r="GZ9" s="86"/>
-      <c r="HA9" s="86"/>
-      <c r="HB9" s="86"/>
-      <c r="HC9" s="87"/>
-      <c r="HD9" s="85">
+      <c r="GX9" s="100"/>
+      <c r="GY9" s="100"/>
+      <c r="GZ9" s="100"/>
+      <c r="HA9" s="100"/>
+      <c r="HB9" s="100"/>
+      <c r="HC9" s="101"/>
+      <c r="HD9" s="99">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="86"/>
-      <c r="HF9" s="86"/>
-      <c r="HG9" s="86"/>
-      <c r="HH9" s="86"/>
-      <c r="HI9" s="86"/>
-      <c r="HJ9" s="87"/>
-      <c r="HK9" s="85">
+      <c r="HE9" s="100"/>
+      <c r="HF9" s="100"/>
+      <c r="HG9" s="100"/>
+      <c r="HH9" s="100"/>
+      <c r="HI9" s="100"/>
+      <c r="HJ9" s="101"/>
+      <c r="HK9" s="99">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="86"/>
-      <c r="HM9" s="86"/>
-      <c r="HN9" s="86"/>
-      <c r="HO9" s="86"/>
-      <c r="HP9" s="86"/>
-      <c r="HQ9" s="87"/>
-      <c r="HR9" s="85">
+      <c r="HL9" s="100"/>
+      <c r="HM9" s="100"/>
+      <c r="HN9" s="100"/>
+      <c r="HO9" s="100"/>
+      <c r="HP9" s="100"/>
+      <c r="HQ9" s="101"/>
+      <c r="HR9" s="99">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="86"/>
-      <c r="HT9" s="86"/>
-      <c r="HU9" s="86"/>
-      <c r="HV9" s="86"/>
-      <c r="HW9" s="86"/>
-      <c r="HX9" s="87"/>
-      <c r="HY9" s="85">
+      <c r="HS9" s="100"/>
+      <c r="HT9" s="100"/>
+      <c r="HU9" s="100"/>
+      <c r="HV9" s="100"/>
+      <c r="HW9" s="100"/>
+      <c r="HX9" s="101"/>
+      <c r="HY9" s="99">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="86"/>
-      <c r="IA9" s="86"/>
-      <c r="IB9" s="86"/>
-      <c r="IC9" s="86"/>
-      <c r="ID9" s="86"/>
-      <c r="IE9" s="87"/>
-      <c r="IF9" s="85">
+      <c r="HZ9" s="100"/>
+      <c r="IA9" s="100"/>
+      <c r="IB9" s="100"/>
+      <c r="IC9" s="100"/>
+      <c r="ID9" s="100"/>
+      <c r="IE9" s="101"/>
+      <c r="IF9" s="99">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="86"/>
-      <c r="IH9" s="86"/>
-      <c r="II9" s="86"/>
-      <c r="IJ9" s="86"/>
-      <c r="IK9" s="86"/>
-      <c r="IL9" s="87"/>
-      <c r="IM9" s="85">
+      <c r="IG9" s="100"/>
+      <c r="IH9" s="100"/>
+      <c r="II9" s="100"/>
+      <c r="IJ9" s="100"/>
+      <c r="IK9" s="100"/>
+      <c r="IL9" s="101"/>
+      <c r="IM9" s="99">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="86"/>
-      <c r="IO9" s="86"/>
-      <c r="IP9" s="86"/>
-      <c r="IQ9" s="86"/>
-      <c r="IR9" s="86"/>
-      <c r="IS9" s="87"/>
+      <c r="IN9" s="100"/>
+      <c r="IO9" s="100"/>
+      <c r="IP9" s="100"/>
+      <c r="IQ9" s="100"/>
+      <c r="IR9" s="100"/>
+      <c r="IS9" s="101"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="82">
+      <c r="P10" s="90">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="82">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="90">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="82">
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="90">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="82">
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="90">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="82">
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="90">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="82">
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="90">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="82">
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="90">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="83"/>
-      <c r="BK10" s="83"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="82">
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="92"/>
+      <c r="BM10" s="90">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="83"/>
-      <c r="BP10" s="83"/>
-      <c r="BQ10" s="83"/>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="82">
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="90">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="83"/>
-      <c r="BW10" s="83"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="82">
+      <c r="BU10" s="91"/>
+      <c r="BV10" s="91"/>
+      <c r="BW10" s="91"/>
+      <c r="BX10" s="91"/>
+      <c r="BY10" s="91"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="90">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="83"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="82">
+      <c r="CB10" s="91"/>
+      <c r="CC10" s="91"/>
+      <c r="CD10" s="91"/>
+      <c r="CE10" s="91"/>
+      <c r="CF10" s="91"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="90">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="83"/>
-      <c r="CK10" s="83"/>
-      <c r="CL10" s="83"/>
-      <c r="CM10" s="83"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="82">
+      <c r="CI10" s="91"/>
+      <c r="CJ10" s="91"/>
+      <c r="CK10" s="91"/>
+      <c r="CL10" s="91"/>
+      <c r="CM10" s="91"/>
+      <c r="CN10" s="92"/>
+      <c r="CO10" s="90">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="83"/>
-      <c r="CQ10" s="83"/>
-      <c r="CR10" s="83"/>
-      <c r="CS10" s="83"/>
-      <c r="CT10" s="83"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="82">
+      <c r="CP10" s="91"/>
+      <c r="CQ10" s="91"/>
+      <c r="CR10" s="91"/>
+      <c r="CS10" s="91"/>
+      <c r="CT10" s="91"/>
+      <c r="CU10" s="92"/>
+      <c r="CV10" s="90">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="83"/>
-      <c r="CX10" s="83"/>
-      <c r="CY10" s="83"/>
-      <c r="CZ10" s="83"/>
-      <c r="DA10" s="83"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="82">
+      <c r="CW10" s="91"/>
+      <c r="CX10" s="91"/>
+      <c r="CY10" s="91"/>
+      <c r="CZ10" s="91"/>
+      <c r="DA10" s="91"/>
+      <c r="DB10" s="92"/>
+      <c r="DC10" s="90">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="83"/>
-      <c r="DE10" s="83"/>
-      <c r="DF10" s="83"/>
-      <c r="DG10" s="83"/>
-      <c r="DH10" s="83"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="82">
+      <c r="DD10" s="91"/>
+      <c r="DE10" s="91"/>
+      <c r="DF10" s="91"/>
+      <c r="DG10" s="91"/>
+      <c r="DH10" s="91"/>
+      <c r="DI10" s="92"/>
+      <c r="DJ10" s="90">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="83"/>
-      <c r="DL10" s="83"/>
-      <c r="DM10" s="83"/>
-      <c r="DN10" s="83"/>
-      <c r="DO10" s="83"/>
-      <c r="DP10" s="84"/>
-      <c r="DQ10" s="82">
+      <c r="DK10" s="91"/>
+      <c r="DL10" s="91"/>
+      <c r="DM10" s="91"/>
+      <c r="DN10" s="91"/>
+      <c r="DO10" s="91"/>
+      <c r="DP10" s="92"/>
+      <c r="DQ10" s="90">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="83"/>
-      <c r="DS10" s="83"/>
-      <c r="DT10" s="83"/>
-      <c r="DU10" s="83"/>
-      <c r="DV10" s="83"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="82">
+      <c r="DR10" s="91"/>
+      <c r="DS10" s="91"/>
+      <c r="DT10" s="91"/>
+      <c r="DU10" s="91"/>
+      <c r="DV10" s="91"/>
+      <c r="DW10" s="92"/>
+      <c r="DX10" s="90">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="83"/>
-      <c r="DZ10" s="83"/>
-      <c r="EA10" s="83"/>
-      <c r="EB10" s="83"/>
-      <c r="EC10" s="83"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="82">
+      <c r="DY10" s="91"/>
+      <c r="DZ10" s="91"/>
+      <c r="EA10" s="91"/>
+      <c r="EB10" s="91"/>
+      <c r="EC10" s="91"/>
+      <c r="ED10" s="92"/>
+      <c r="EE10" s="90">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="83"/>
-      <c r="EG10" s="83"/>
-      <c r="EH10" s="83"/>
-      <c r="EI10" s="83"/>
-      <c r="EJ10" s="83"/>
-      <c r="EK10" s="84"/>
-      <c r="EL10" s="82">
+      <c r="EF10" s="91"/>
+      <c r="EG10" s="91"/>
+      <c r="EH10" s="91"/>
+      <c r="EI10" s="91"/>
+      <c r="EJ10" s="91"/>
+      <c r="EK10" s="92"/>
+      <c r="EL10" s="90">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="83"/>
-      <c r="EN10" s="83"/>
-      <c r="EO10" s="83"/>
-      <c r="EP10" s="83"/>
-      <c r="EQ10" s="83"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="82">
+      <c r="EM10" s="91"/>
+      <c r="EN10" s="91"/>
+      <c r="EO10" s="91"/>
+      <c r="EP10" s="91"/>
+      <c r="EQ10" s="91"/>
+      <c r="ER10" s="92"/>
+      <c r="ES10" s="90">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="83"/>
-      <c r="EU10" s="83"/>
-      <c r="EV10" s="83"/>
-      <c r="EW10" s="83"/>
-      <c r="EX10" s="83"/>
-      <c r="EY10" s="84"/>
-      <c r="EZ10" s="82">
+      <c r="ET10" s="91"/>
+      <c r="EU10" s="91"/>
+      <c r="EV10" s="91"/>
+      <c r="EW10" s="91"/>
+      <c r="EX10" s="91"/>
+      <c r="EY10" s="92"/>
+      <c r="EZ10" s="90">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="83"/>
-      <c r="FB10" s="83"/>
-      <c r="FC10" s="83"/>
-      <c r="FD10" s="83"/>
-      <c r="FE10" s="83"/>
-      <c r="FF10" s="84"/>
-      <c r="FG10" s="82">
+      <c r="FA10" s="91"/>
+      <c r="FB10" s="91"/>
+      <c r="FC10" s="91"/>
+      <c r="FD10" s="91"/>
+      <c r="FE10" s="91"/>
+      <c r="FF10" s="92"/>
+      <c r="FG10" s="90">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="83"/>
-      <c r="FI10" s="83"/>
-      <c r="FJ10" s="83"/>
-      <c r="FK10" s="83"/>
-      <c r="FL10" s="83"/>
-      <c r="FM10" s="84"/>
-      <c r="FN10" s="82">
+      <c r="FH10" s="91"/>
+      <c r="FI10" s="91"/>
+      <c r="FJ10" s="91"/>
+      <c r="FK10" s="91"/>
+      <c r="FL10" s="91"/>
+      <c r="FM10" s="92"/>
+      <c r="FN10" s="90">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="83"/>
-      <c r="FP10" s="83"/>
-      <c r="FQ10" s="83"/>
-      <c r="FR10" s="83"/>
-      <c r="FS10" s="83"/>
-      <c r="FT10" s="84"/>
-      <c r="FU10" s="82">
+      <c r="FO10" s="91"/>
+      <c r="FP10" s="91"/>
+      <c r="FQ10" s="91"/>
+      <c r="FR10" s="91"/>
+      <c r="FS10" s="91"/>
+      <c r="FT10" s="92"/>
+      <c r="FU10" s="90">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="83"/>
-      <c r="FW10" s="83"/>
-      <c r="FX10" s="83"/>
-      <c r="FY10" s="83"/>
-      <c r="FZ10" s="83"/>
-      <c r="GA10" s="84"/>
-      <c r="GB10" s="82">
+      <c r="FV10" s="91"/>
+      <c r="FW10" s="91"/>
+      <c r="FX10" s="91"/>
+      <c r="FY10" s="91"/>
+      <c r="FZ10" s="91"/>
+      <c r="GA10" s="92"/>
+      <c r="GB10" s="90">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="83"/>
-      <c r="GD10" s="83"/>
-      <c r="GE10" s="83"/>
-      <c r="GF10" s="83"/>
-      <c r="GG10" s="83"/>
-      <c r="GH10" s="84"/>
-      <c r="GI10" s="82">
+      <c r="GC10" s="91"/>
+      <c r="GD10" s="91"/>
+      <c r="GE10" s="91"/>
+      <c r="GF10" s="91"/>
+      <c r="GG10" s="91"/>
+      <c r="GH10" s="92"/>
+      <c r="GI10" s="90">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="83"/>
-      <c r="GK10" s="83"/>
-      <c r="GL10" s="83"/>
-      <c r="GM10" s="83"/>
-      <c r="GN10" s="83"/>
-      <c r="GO10" s="84"/>
-      <c r="GP10" s="82">
+      <c r="GJ10" s="91"/>
+      <c r="GK10" s="91"/>
+      <c r="GL10" s="91"/>
+      <c r="GM10" s="91"/>
+      <c r="GN10" s="91"/>
+      <c r="GO10" s="92"/>
+      <c r="GP10" s="90">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="83"/>
-      <c r="GR10" s="83"/>
-      <c r="GS10" s="83"/>
-      <c r="GT10" s="83"/>
-      <c r="GU10" s="83"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="82">
+      <c r="GQ10" s="91"/>
+      <c r="GR10" s="91"/>
+      <c r="GS10" s="91"/>
+      <c r="GT10" s="91"/>
+      <c r="GU10" s="91"/>
+      <c r="GV10" s="92"/>
+      <c r="GW10" s="90">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="83"/>
-      <c r="GY10" s="83"/>
-      <c r="GZ10" s="83"/>
-      <c r="HA10" s="83"/>
-      <c r="HB10" s="83"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="82">
+      <c r="GX10" s="91"/>
+      <c r="GY10" s="91"/>
+      <c r="GZ10" s="91"/>
+      <c r="HA10" s="91"/>
+      <c r="HB10" s="91"/>
+      <c r="HC10" s="92"/>
+      <c r="HD10" s="90">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="83"/>
-      <c r="HF10" s="83"/>
-      <c r="HG10" s="83"/>
-      <c r="HH10" s="83"/>
-      <c r="HI10" s="83"/>
-      <c r="HJ10" s="84"/>
-      <c r="HK10" s="82">
+      <c r="HE10" s="91"/>
+      <c r="HF10" s="91"/>
+      <c r="HG10" s="91"/>
+      <c r="HH10" s="91"/>
+      <c r="HI10" s="91"/>
+      <c r="HJ10" s="92"/>
+      <c r="HK10" s="90">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="83"/>
-      <c r="HM10" s="83"/>
-      <c r="HN10" s="83"/>
-      <c r="HO10" s="83"/>
-      <c r="HP10" s="83"/>
-      <c r="HQ10" s="84"/>
-      <c r="HR10" s="82">
+      <c r="HL10" s="91"/>
+      <c r="HM10" s="91"/>
+      <c r="HN10" s="91"/>
+      <c r="HO10" s="91"/>
+      <c r="HP10" s="91"/>
+      <c r="HQ10" s="92"/>
+      <c r="HR10" s="90">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="83"/>
-      <c r="HT10" s="83"/>
-      <c r="HU10" s="83"/>
-      <c r="HV10" s="83"/>
-      <c r="HW10" s="83"/>
-      <c r="HX10" s="84"/>
-      <c r="HY10" s="82">
+      <c r="HS10" s="91"/>
+      <c r="HT10" s="91"/>
+      <c r="HU10" s="91"/>
+      <c r="HV10" s="91"/>
+      <c r="HW10" s="91"/>
+      <c r="HX10" s="92"/>
+      <c r="HY10" s="90">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="83"/>
-      <c r="IA10" s="83"/>
-      <c r="IB10" s="83"/>
-      <c r="IC10" s="83"/>
-      <c r="ID10" s="83"/>
-      <c r="IE10" s="84"/>
-      <c r="IF10" s="82">
+      <c r="HZ10" s="91"/>
+      <c r="IA10" s="91"/>
+      <c r="IB10" s="91"/>
+      <c r="IC10" s="91"/>
+      <c r="ID10" s="91"/>
+      <c r="IE10" s="92"/>
+      <c r="IF10" s="90">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="83"/>
-      <c r="IH10" s="83"/>
-      <c r="II10" s="83"/>
-      <c r="IJ10" s="83"/>
-      <c r="IK10" s="83"/>
-      <c r="IL10" s="84"/>
-      <c r="IM10" s="82">
+      <c r="IG10" s="91"/>
+      <c r="IH10" s="91"/>
+      <c r="II10" s="91"/>
+      <c r="IJ10" s="91"/>
+      <c r="IK10" s="91"/>
+      <c r="IL10" s="92"/>
+      <c r="IM10" s="90">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="83"/>
-      <c r="IO10" s="83"/>
-      <c r="IP10" s="83"/>
-      <c r="IQ10" s="83"/>
-      <c r="IR10" s="83"/>
-      <c r="IS10" s="84"/>
+      <c r="IN10" s="91"/>
+      <c r="IO10" s="91"/>
+      <c r="IP10" s="91"/>
+      <c r="IQ10" s="91"/>
+      <c r="IR10" s="91"/>
+      <c r="IS10" s="92"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,353 +6133,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="88">
+      <c r="P11" s="87">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="88">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="87">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="88">
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="87">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="88">
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="87">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="88">
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="87">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="88">
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="88"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="87">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="88">
+      <c r="AZ11" s="88"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="88"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="87">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="88">
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="88"/>
+      <c r="BK11" s="88"/>
+      <c r="BL11" s="89"/>
+      <c r="BM11" s="87">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="89"/>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="88">
+      <c r="BN11" s="88"/>
+      <c r="BO11" s="88"/>
+      <c r="BP11" s="88"/>
+      <c r="BQ11" s="88"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="87">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
-      <c r="BX11" s="89"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="88">
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="87">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="89"/>
-      <c r="CC11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="88">
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="89"/>
+      <c r="CH11" s="87">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CL11" s="89"/>
-      <c r="CM11" s="89"/>
-      <c r="CN11" s="90"/>
-      <c r="CO11" s="88">
+      <c r="CI11" s="88"/>
+      <c r="CJ11" s="88"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="87">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="89"/>
-      <c r="CQ11" s="89"/>
-      <c r="CR11" s="89"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="90"/>
-      <c r="CV11" s="88">
+      <c r="CP11" s="88"/>
+      <c r="CQ11" s="88"/>
+      <c r="CR11" s="88"/>
+      <c r="CS11" s="88"/>
+      <c r="CT11" s="88"/>
+      <c r="CU11" s="89"/>
+      <c r="CV11" s="87">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="89"/>
-      <c r="CX11" s="89"/>
-      <c r="CY11" s="89"/>
-      <c r="CZ11" s="89"/>
-      <c r="DA11" s="89"/>
-      <c r="DB11" s="90"/>
-      <c r="DC11" s="88">
+      <c r="CW11" s="88"/>
+      <c r="CX11" s="88"/>
+      <c r="CY11" s="88"/>
+      <c r="CZ11" s="88"/>
+      <c r="DA11" s="88"/>
+      <c r="DB11" s="89"/>
+      <c r="DC11" s="87">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="89"/>
-      <c r="DE11" s="89"/>
-      <c r="DF11" s="89"/>
-      <c r="DG11" s="89"/>
-      <c r="DH11" s="89"/>
-      <c r="DI11" s="90"/>
-      <c r="DJ11" s="88">
+      <c r="DD11" s="88"/>
+      <c r="DE11" s="88"/>
+      <c r="DF11" s="88"/>
+      <c r="DG11" s="88"/>
+      <c r="DH11" s="88"/>
+      <c r="DI11" s="89"/>
+      <c r="DJ11" s="87">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="89"/>
-      <c r="DL11" s="89"/>
-      <c r="DM11" s="89"/>
-      <c r="DN11" s="89"/>
-      <c r="DO11" s="89"/>
-      <c r="DP11" s="90"/>
-      <c r="DQ11" s="88">
+      <c r="DK11" s="88"/>
+      <c r="DL11" s="88"/>
+      <c r="DM11" s="88"/>
+      <c r="DN11" s="88"/>
+      <c r="DO11" s="88"/>
+      <c r="DP11" s="89"/>
+      <c r="DQ11" s="87">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="89"/>
-      <c r="DS11" s="89"/>
-      <c r="DT11" s="89"/>
-      <c r="DU11" s="89"/>
-      <c r="DV11" s="89"/>
-      <c r="DW11" s="90"/>
-      <c r="DX11" s="88">
+      <c r="DR11" s="88"/>
+      <c r="DS11" s="88"/>
+      <c r="DT11" s="88"/>
+      <c r="DU11" s="88"/>
+      <c r="DV11" s="88"/>
+      <c r="DW11" s="89"/>
+      <c r="DX11" s="87">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="89"/>
-      <c r="DZ11" s="89"/>
-      <c r="EA11" s="89"/>
-      <c r="EB11" s="89"/>
-      <c r="EC11" s="89"/>
-      <c r="ED11" s="90"/>
-      <c r="EE11" s="88">
+      <c r="DY11" s="88"/>
+      <c r="DZ11" s="88"/>
+      <c r="EA11" s="88"/>
+      <c r="EB11" s="88"/>
+      <c r="EC11" s="88"/>
+      <c r="ED11" s="89"/>
+      <c r="EE11" s="87">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="89"/>
-      <c r="EG11" s="89"/>
-      <c r="EH11" s="89"/>
-      <c r="EI11" s="89"/>
-      <c r="EJ11" s="89"/>
-      <c r="EK11" s="90"/>
-      <c r="EL11" s="88">
+      <c r="EF11" s="88"/>
+      <c r="EG11" s="88"/>
+      <c r="EH11" s="88"/>
+      <c r="EI11" s="88"/>
+      <c r="EJ11" s="88"/>
+      <c r="EK11" s="89"/>
+      <c r="EL11" s="87">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="89"/>
-      <c r="EN11" s="89"/>
-      <c r="EO11" s="89"/>
-      <c r="EP11" s="89"/>
-      <c r="EQ11" s="89"/>
-      <c r="ER11" s="90"/>
-      <c r="ES11" s="88">
+      <c r="EM11" s="88"/>
+      <c r="EN11" s="88"/>
+      <c r="EO11" s="88"/>
+      <c r="EP11" s="88"/>
+      <c r="EQ11" s="88"/>
+      <c r="ER11" s="89"/>
+      <c r="ES11" s="87">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="89"/>
-      <c r="EU11" s="89"/>
-      <c r="EV11" s="89"/>
-      <c r="EW11" s="89"/>
-      <c r="EX11" s="89"/>
-      <c r="EY11" s="90"/>
-      <c r="EZ11" s="88">
+      <c r="ET11" s="88"/>
+      <c r="EU11" s="88"/>
+      <c r="EV11" s="88"/>
+      <c r="EW11" s="88"/>
+      <c r="EX11" s="88"/>
+      <c r="EY11" s="89"/>
+      <c r="EZ11" s="87">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="89"/>
-      <c r="FB11" s="89"/>
-      <c r="FC11" s="89"/>
-      <c r="FD11" s="89"/>
-      <c r="FE11" s="89"/>
-      <c r="FF11" s="90"/>
-      <c r="FG11" s="88">
+      <c r="FA11" s="88"/>
+      <c r="FB11" s="88"/>
+      <c r="FC11" s="88"/>
+      <c r="FD11" s="88"/>
+      <c r="FE11" s="88"/>
+      <c r="FF11" s="89"/>
+      <c r="FG11" s="87">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="89"/>
-      <c r="FI11" s="89"/>
-      <c r="FJ11" s="89"/>
-      <c r="FK11" s="89"/>
-      <c r="FL11" s="89"/>
-      <c r="FM11" s="90"/>
-      <c r="FN11" s="88">
+      <c r="FH11" s="88"/>
+      <c r="FI11" s="88"/>
+      <c r="FJ11" s="88"/>
+      <c r="FK11" s="88"/>
+      <c r="FL11" s="88"/>
+      <c r="FM11" s="89"/>
+      <c r="FN11" s="87">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="89"/>
-      <c r="FP11" s="89"/>
-      <c r="FQ11" s="89"/>
-      <c r="FR11" s="89"/>
-      <c r="FS11" s="89"/>
-      <c r="FT11" s="90"/>
-      <c r="FU11" s="88">
+      <c r="FO11" s="88"/>
+      <c r="FP11" s="88"/>
+      <c r="FQ11" s="88"/>
+      <c r="FR11" s="88"/>
+      <c r="FS11" s="88"/>
+      <c r="FT11" s="89"/>
+      <c r="FU11" s="87">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="89"/>
-      <c r="FW11" s="89"/>
-      <c r="FX11" s="89"/>
-      <c r="FY11" s="89"/>
-      <c r="FZ11" s="89"/>
-      <c r="GA11" s="90"/>
-      <c r="GB11" s="88">
+      <c r="FV11" s="88"/>
+      <c r="FW11" s="88"/>
+      <c r="FX11" s="88"/>
+      <c r="FY11" s="88"/>
+      <c r="FZ11" s="88"/>
+      <c r="GA11" s="89"/>
+      <c r="GB11" s="87">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="89"/>
-      <c r="GD11" s="89"/>
-      <c r="GE11" s="89"/>
-      <c r="GF11" s="89"/>
-      <c r="GG11" s="89"/>
-      <c r="GH11" s="90"/>
-      <c r="GI11" s="88">
+      <c r="GC11" s="88"/>
+      <c r="GD11" s="88"/>
+      <c r="GE11" s="88"/>
+      <c r="GF11" s="88"/>
+      <c r="GG11" s="88"/>
+      <c r="GH11" s="89"/>
+      <c r="GI11" s="87">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="89"/>
-      <c r="GK11" s="89"/>
-      <c r="GL11" s="89"/>
-      <c r="GM11" s="89"/>
-      <c r="GN11" s="89"/>
-      <c r="GO11" s="90"/>
-      <c r="GP11" s="88">
+      <c r="GJ11" s="88"/>
+      <c r="GK11" s="88"/>
+      <c r="GL11" s="88"/>
+      <c r="GM11" s="88"/>
+      <c r="GN11" s="88"/>
+      <c r="GO11" s="89"/>
+      <c r="GP11" s="87">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="89"/>
-      <c r="GR11" s="89"/>
-      <c r="GS11" s="89"/>
-      <c r="GT11" s="89"/>
-      <c r="GU11" s="89"/>
-      <c r="GV11" s="90"/>
-      <c r="GW11" s="88">
+      <c r="GQ11" s="88"/>
+      <c r="GR11" s="88"/>
+      <c r="GS11" s="88"/>
+      <c r="GT11" s="88"/>
+      <c r="GU11" s="88"/>
+      <c r="GV11" s="89"/>
+      <c r="GW11" s="87">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="89"/>
-      <c r="GY11" s="89"/>
-      <c r="GZ11" s="89"/>
-      <c r="HA11" s="89"/>
-      <c r="HB11" s="89"/>
-      <c r="HC11" s="90"/>
-      <c r="HD11" s="88">
+      <c r="GX11" s="88"/>
+      <c r="GY11" s="88"/>
+      <c r="GZ11" s="88"/>
+      <c r="HA11" s="88"/>
+      <c r="HB11" s="88"/>
+      <c r="HC11" s="89"/>
+      <c r="HD11" s="87">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="89"/>
-      <c r="HF11" s="89"/>
-      <c r="HG11" s="89"/>
-      <c r="HH11" s="89"/>
-      <c r="HI11" s="89"/>
-      <c r="HJ11" s="90"/>
-      <c r="HK11" s="88">
+      <c r="HE11" s="88"/>
+      <c r="HF11" s="88"/>
+      <c r="HG11" s="88"/>
+      <c r="HH11" s="88"/>
+      <c r="HI11" s="88"/>
+      <c r="HJ11" s="89"/>
+      <c r="HK11" s="87">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="89"/>
-      <c r="HM11" s="89"/>
-      <c r="HN11" s="89"/>
-      <c r="HO11" s="89"/>
-      <c r="HP11" s="89"/>
-      <c r="HQ11" s="90"/>
-      <c r="HR11" s="88">
+      <c r="HL11" s="88"/>
+      <c r="HM11" s="88"/>
+      <c r="HN11" s="88"/>
+      <c r="HO11" s="88"/>
+      <c r="HP11" s="88"/>
+      <c r="HQ11" s="89"/>
+      <c r="HR11" s="87">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="89"/>
-      <c r="HT11" s="89"/>
-      <c r="HU11" s="89"/>
-      <c r="HV11" s="89"/>
-      <c r="HW11" s="89"/>
-      <c r="HX11" s="90"/>
-      <c r="HY11" s="88">
+      <c r="HS11" s="88"/>
+      <c r="HT11" s="88"/>
+      <c r="HU11" s="88"/>
+      <c r="HV11" s="88"/>
+      <c r="HW11" s="88"/>
+      <c r="HX11" s="89"/>
+      <c r="HY11" s="87">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="89"/>
-      <c r="IA11" s="89"/>
-      <c r="IB11" s="89"/>
-      <c r="IC11" s="89"/>
-      <c r="ID11" s="89"/>
-      <c r="IE11" s="90"/>
-      <c r="IF11" s="88">
+      <c r="HZ11" s="88"/>
+      <c r="IA11" s="88"/>
+      <c r="IB11" s="88"/>
+      <c r="IC11" s="88"/>
+      <c r="ID11" s="88"/>
+      <c r="IE11" s="89"/>
+      <c r="IF11" s="87">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="89"/>
-      <c r="IH11" s="89"/>
-      <c r="II11" s="89"/>
-      <c r="IJ11" s="89"/>
-      <c r="IK11" s="89"/>
-      <c r="IL11" s="90"/>
-      <c r="IM11" s="88">
+      <c r="IG11" s="88"/>
+      <c r="IH11" s="88"/>
+      <c r="II11" s="88"/>
+      <c r="IJ11" s="88"/>
+      <c r="IK11" s="88"/>
+      <c r="IL11" s="89"/>
+      <c r="IM11" s="87">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="89"/>
-      <c r="IO11" s="89"/>
-      <c r="IP11" s="89"/>
-      <c r="IQ11" s="89"/>
-      <c r="IR11" s="89"/>
-      <c r="IS11" s="90"/>
+      <c r="IN11" s="88"/>
+      <c r="IO11" s="88"/>
+      <c r="IP11" s="88"/>
+      <c r="IQ11" s="88"/>
+      <c r="IR11" s="88"/>
+      <c r="IS11" s="89"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="I27" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H27,$F$6&gt;=G27),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J27" s="75">
         <f>MAX(H28:H32)-G27+1</f>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="I28" s="61" t="str">
         <f t="shared" ref="I28:I33" ca="1" si="38">IF(AND($F$6&lt;=H28,$F$6&gt;=G28),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J28" s="62">
         <v>5</v>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="I29" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J29" s="62">
         <v>3</v>
@@ -18656,6 +18656,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N54"/>
   <mergeCells count="115">
+    <mergeCell ref="HK10:HQ10"/>
+    <mergeCell ref="FG10:FM10"/>
+    <mergeCell ref="IM9:IS9"/>
+    <mergeCell ref="GW9:HC9"/>
+    <mergeCell ref="AR11:AX11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="AD11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AR9:AX9"/>
+    <mergeCell ref="IM10:IS10"/>
+    <mergeCell ref="FU10:GA10"/>
+    <mergeCell ref="GB10:GH10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="AR10:AX10"/>
+    <mergeCell ref="DC10:DI10"/>
+    <mergeCell ref="DJ10:DP10"/>
+    <mergeCell ref="IF10:IL10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="M5:M11"/>
@@ -18680,97 +18771,6 @@
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HK10:HQ10"/>
-    <mergeCell ref="FG10:FM10"/>
-    <mergeCell ref="IM9:IS9"/>
-    <mergeCell ref="GW9:HC9"/>
-    <mergeCell ref="AR11:AX11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AR9:AX9"/>
-    <mergeCell ref="IM10:IS10"/>
-    <mergeCell ref="FU10:GA10"/>
-    <mergeCell ref="GB10:GH10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="W10:AC10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="AR10:AX10"/>
-    <mergeCell ref="DC10:DI10"/>
-    <mergeCell ref="DJ10:DP10"/>
-    <mergeCell ref="IF10:IL10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -868,6 +868,39 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -886,24 +919,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -921,21 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3077,10 +3077,10 @@
   <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3106,38 +3106,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3183,23 +3183,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="86">
+      <c r="F5" s="97">
         <v>42387</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="95" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3214,20 +3214,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="86">
+      <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42415</v>
-      </c>
-      <c r="G6" s="86"/>
+        <v>42417</v>
+      </c>
+      <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Monday</v>
+        <v>Wednesday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4190,9 +4190,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5152,9 +5152,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5398,732 +5398,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="99">
+      <c r="P9" s="85">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="99">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="85">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="99">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="85">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="99">
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="85">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="99">
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="85">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="99">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="85">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="99">
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="85">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="99">
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="85">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="100"/>
-      <c r="BO9" s="100"/>
-      <c r="BP9" s="100"/>
-      <c r="BQ9" s="100"/>
-      <c r="BR9" s="100"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="99">
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="87"/>
+      <c r="BT9" s="85">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="100"/>
-      <c r="BW9" s="100"/>
-      <c r="BX9" s="100"/>
-      <c r="BY9" s="100"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="99">
+      <c r="BU9" s="86"/>
+      <c r="BV9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="87"/>
+      <c r="CA9" s="85">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="100"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="100"/>
-      <c r="CE9" s="100"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="101"/>
-      <c r="CH9" s="99">
+      <c r="CB9" s="86"/>
+      <c r="CC9" s="86"/>
+      <c r="CD9" s="86"/>
+      <c r="CE9" s="86"/>
+      <c r="CF9" s="86"/>
+      <c r="CG9" s="87"/>
+      <c r="CH9" s="85">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="100"/>
-      <c r="CJ9" s="100"/>
-      <c r="CK9" s="100"/>
-      <c r="CL9" s="100"/>
-      <c r="CM9" s="100"/>
-      <c r="CN9" s="101"/>
-      <c r="CO9" s="99">
+      <c r="CI9" s="86"/>
+      <c r="CJ9" s="86"/>
+      <c r="CK9" s="86"/>
+      <c r="CL9" s="86"/>
+      <c r="CM9" s="86"/>
+      <c r="CN9" s="87"/>
+      <c r="CO9" s="85">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="100"/>
-      <c r="CQ9" s="100"/>
-      <c r="CR9" s="100"/>
-      <c r="CS9" s="100"/>
-      <c r="CT9" s="100"/>
-      <c r="CU9" s="101"/>
-      <c r="CV9" s="99">
+      <c r="CP9" s="86"/>
+      <c r="CQ9" s="86"/>
+      <c r="CR9" s="86"/>
+      <c r="CS9" s="86"/>
+      <c r="CT9" s="86"/>
+      <c r="CU9" s="87"/>
+      <c r="CV9" s="85">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="100"/>
-      <c r="CX9" s="100"/>
-      <c r="CY9" s="100"/>
-      <c r="CZ9" s="100"/>
-      <c r="DA9" s="100"/>
-      <c r="DB9" s="101"/>
-      <c r="DC9" s="99">
+      <c r="CW9" s="86"/>
+      <c r="CX9" s="86"/>
+      <c r="CY9" s="86"/>
+      <c r="CZ9" s="86"/>
+      <c r="DA9" s="86"/>
+      <c r="DB9" s="87"/>
+      <c r="DC9" s="85">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="100"/>
-      <c r="DE9" s="100"/>
-      <c r="DF9" s="100"/>
-      <c r="DG9" s="100"/>
-      <c r="DH9" s="100"/>
-      <c r="DI9" s="101"/>
-      <c r="DJ9" s="99">
+      <c r="DD9" s="86"/>
+      <c r="DE9" s="86"/>
+      <c r="DF9" s="86"/>
+      <c r="DG9" s="86"/>
+      <c r="DH9" s="86"/>
+      <c r="DI9" s="87"/>
+      <c r="DJ9" s="85">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="100"/>
-      <c r="DL9" s="100"/>
-      <c r="DM9" s="100"/>
-      <c r="DN9" s="100"/>
-      <c r="DO9" s="100"/>
-      <c r="DP9" s="101"/>
-      <c r="DQ9" s="99">
+      <c r="DK9" s="86"/>
+      <c r="DL9" s="86"/>
+      <c r="DM9" s="86"/>
+      <c r="DN9" s="86"/>
+      <c r="DO9" s="86"/>
+      <c r="DP9" s="87"/>
+      <c r="DQ9" s="85">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="100"/>
-      <c r="DS9" s="100"/>
-      <c r="DT9" s="100"/>
-      <c r="DU9" s="100"/>
-      <c r="DV9" s="100"/>
-      <c r="DW9" s="101"/>
-      <c r="DX9" s="99">
+      <c r="DR9" s="86"/>
+      <c r="DS9" s="86"/>
+      <c r="DT9" s="86"/>
+      <c r="DU9" s="86"/>
+      <c r="DV9" s="86"/>
+      <c r="DW9" s="87"/>
+      <c r="DX9" s="85">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="100"/>
-      <c r="DZ9" s="100"/>
-      <c r="EA9" s="100"/>
-      <c r="EB9" s="100"/>
-      <c r="EC9" s="100"/>
-      <c r="ED9" s="101"/>
-      <c r="EE9" s="99">
+      <c r="DY9" s="86"/>
+      <c r="DZ9" s="86"/>
+      <c r="EA9" s="86"/>
+      <c r="EB9" s="86"/>
+      <c r="EC9" s="86"/>
+      <c r="ED9" s="87"/>
+      <c r="EE9" s="85">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="100"/>
-      <c r="EG9" s="100"/>
-      <c r="EH9" s="100"/>
-      <c r="EI9" s="100"/>
-      <c r="EJ9" s="100"/>
-      <c r="EK9" s="101"/>
-      <c r="EL9" s="99">
+      <c r="EF9" s="86"/>
+      <c r="EG9" s="86"/>
+      <c r="EH9" s="86"/>
+      <c r="EI9" s="86"/>
+      <c r="EJ9" s="86"/>
+      <c r="EK9" s="87"/>
+      <c r="EL9" s="85">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="100"/>
-      <c r="EN9" s="100"/>
-      <c r="EO9" s="100"/>
-      <c r="EP9" s="100"/>
-      <c r="EQ9" s="100"/>
-      <c r="ER9" s="101"/>
-      <c r="ES9" s="99">
+      <c r="EM9" s="86"/>
+      <c r="EN9" s="86"/>
+      <c r="EO9" s="86"/>
+      <c r="EP9" s="86"/>
+      <c r="EQ9" s="86"/>
+      <c r="ER9" s="87"/>
+      <c r="ES9" s="85">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="100"/>
-      <c r="EU9" s="100"/>
-      <c r="EV9" s="100"/>
-      <c r="EW9" s="100"/>
-      <c r="EX9" s="100"/>
-      <c r="EY9" s="101"/>
-      <c r="EZ9" s="99">
+      <c r="ET9" s="86"/>
+      <c r="EU9" s="86"/>
+      <c r="EV9" s="86"/>
+      <c r="EW9" s="86"/>
+      <c r="EX9" s="86"/>
+      <c r="EY9" s="87"/>
+      <c r="EZ9" s="85">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="100"/>
-      <c r="FB9" s="100"/>
-      <c r="FC9" s="100"/>
-      <c r="FD9" s="100"/>
-      <c r="FE9" s="100"/>
-      <c r="FF9" s="101"/>
-      <c r="FG9" s="99">
+      <c r="FA9" s="86"/>
+      <c r="FB9" s="86"/>
+      <c r="FC9" s="86"/>
+      <c r="FD9" s="86"/>
+      <c r="FE9" s="86"/>
+      <c r="FF9" s="87"/>
+      <c r="FG9" s="85">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="100"/>
-      <c r="FI9" s="100"/>
-      <c r="FJ9" s="100"/>
-      <c r="FK9" s="100"/>
-      <c r="FL9" s="100"/>
-      <c r="FM9" s="101"/>
-      <c r="FN9" s="99">
+      <c r="FH9" s="86"/>
+      <c r="FI9" s="86"/>
+      <c r="FJ9" s="86"/>
+      <c r="FK9" s="86"/>
+      <c r="FL9" s="86"/>
+      <c r="FM9" s="87"/>
+      <c r="FN9" s="85">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="100"/>
-      <c r="FP9" s="100"/>
-      <c r="FQ9" s="100"/>
-      <c r="FR9" s="100"/>
-      <c r="FS9" s="100"/>
-      <c r="FT9" s="101"/>
-      <c r="FU9" s="99">
+      <c r="FO9" s="86"/>
+      <c r="FP9" s="86"/>
+      <c r="FQ9" s="86"/>
+      <c r="FR9" s="86"/>
+      <c r="FS9" s="86"/>
+      <c r="FT9" s="87"/>
+      <c r="FU9" s="85">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="100"/>
-      <c r="FW9" s="100"/>
-      <c r="FX9" s="100"/>
-      <c r="FY9" s="100"/>
-      <c r="FZ9" s="100"/>
-      <c r="GA9" s="101"/>
-      <c r="GB9" s="99">
+      <c r="FV9" s="86"/>
+      <c r="FW9" s="86"/>
+      <c r="FX9" s="86"/>
+      <c r="FY9" s="86"/>
+      <c r="FZ9" s="86"/>
+      <c r="GA9" s="87"/>
+      <c r="GB9" s="85">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="100"/>
-      <c r="GD9" s="100"/>
-      <c r="GE9" s="100"/>
-      <c r="GF9" s="100"/>
-      <c r="GG9" s="100"/>
-      <c r="GH9" s="101"/>
-      <c r="GI9" s="99">
+      <c r="GC9" s="86"/>
+      <c r="GD9" s="86"/>
+      <c r="GE9" s="86"/>
+      <c r="GF9" s="86"/>
+      <c r="GG9" s="86"/>
+      <c r="GH9" s="87"/>
+      <c r="GI9" s="85">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="100"/>
-      <c r="GK9" s="100"/>
-      <c r="GL9" s="100"/>
-      <c r="GM9" s="100"/>
-      <c r="GN9" s="100"/>
-      <c r="GO9" s="101"/>
-      <c r="GP9" s="99">
+      <c r="GJ9" s="86"/>
+      <c r="GK9" s="86"/>
+      <c r="GL9" s="86"/>
+      <c r="GM9" s="86"/>
+      <c r="GN9" s="86"/>
+      <c r="GO9" s="87"/>
+      <c r="GP9" s="85">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="100"/>
-      <c r="GR9" s="100"/>
-      <c r="GS9" s="100"/>
-      <c r="GT9" s="100"/>
-      <c r="GU9" s="100"/>
-      <c r="GV9" s="101"/>
-      <c r="GW9" s="99">
+      <c r="GQ9" s="86"/>
+      <c r="GR9" s="86"/>
+      <c r="GS9" s="86"/>
+      <c r="GT9" s="86"/>
+      <c r="GU9" s="86"/>
+      <c r="GV9" s="87"/>
+      <c r="GW9" s="85">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="100"/>
-      <c r="GY9" s="100"/>
-      <c r="GZ9" s="100"/>
-      <c r="HA9" s="100"/>
-      <c r="HB9" s="100"/>
-      <c r="HC9" s="101"/>
-      <c r="HD9" s="99">
+      <c r="GX9" s="86"/>
+      <c r="GY9" s="86"/>
+      <c r="GZ9" s="86"/>
+      <c r="HA9" s="86"/>
+      <c r="HB9" s="86"/>
+      <c r="HC9" s="87"/>
+      <c r="HD9" s="85">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="100"/>
-      <c r="HF9" s="100"/>
-      <c r="HG9" s="100"/>
-      <c r="HH9" s="100"/>
-      <c r="HI9" s="100"/>
-      <c r="HJ9" s="101"/>
-      <c r="HK9" s="99">
+      <c r="HE9" s="86"/>
+      <c r="HF9" s="86"/>
+      <c r="HG9" s="86"/>
+      <c r="HH9" s="86"/>
+      <c r="HI9" s="86"/>
+      <c r="HJ9" s="87"/>
+      <c r="HK9" s="85">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="100"/>
-      <c r="HM9" s="100"/>
-      <c r="HN9" s="100"/>
-      <c r="HO9" s="100"/>
-      <c r="HP9" s="100"/>
-      <c r="HQ9" s="101"/>
-      <c r="HR9" s="99">
+      <c r="HL9" s="86"/>
+      <c r="HM9" s="86"/>
+      <c r="HN9" s="86"/>
+      <c r="HO9" s="86"/>
+      <c r="HP9" s="86"/>
+      <c r="HQ9" s="87"/>
+      <c r="HR9" s="85">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="100"/>
-      <c r="HT9" s="100"/>
-      <c r="HU9" s="100"/>
-      <c r="HV9" s="100"/>
-      <c r="HW9" s="100"/>
-      <c r="HX9" s="101"/>
-      <c r="HY9" s="99">
+      <c r="HS9" s="86"/>
+      <c r="HT9" s="86"/>
+      <c r="HU9" s="86"/>
+      <c r="HV9" s="86"/>
+      <c r="HW9" s="86"/>
+      <c r="HX9" s="87"/>
+      <c r="HY9" s="85">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="100"/>
-      <c r="IA9" s="100"/>
-      <c r="IB9" s="100"/>
-      <c r="IC9" s="100"/>
-      <c r="ID9" s="100"/>
-      <c r="IE9" s="101"/>
-      <c r="IF9" s="99">
+      <c r="HZ9" s="86"/>
+      <c r="IA9" s="86"/>
+      <c r="IB9" s="86"/>
+      <c r="IC9" s="86"/>
+      <c r="ID9" s="86"/>
+      <c r="IE9" s="87"/>
+      <c r="IF9" s="85">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="100"/>
-      <c r="IH9" s="100"/>
-      <c r="II9" s="100"/>
-      <c r="IJ9" s="100"/>
-      <c r="IK9" s="100"/>
-      <c r="IL9" s="101"/>
-      <c r="IM9" s="99">
+      <c r="IG9" s="86"/>
+      <c r="IH9" s="86"/>
+      <c r="II9" s="86"/>
+      <c r="IJ9" s="86"/>
+      <c r="IK9" s="86"/>
+      <c r="IL9" s="87"/>
+      <c r="IM9" s="85">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="100"/>
-      <c r="IO9" s="100"/>
-      <c r="IP9" s="100"/>
-      <c r="IQ9" s="100"/>
-      <c r="IR9" s="100"/>
-      <c r="IS9" s="101"/>
+      <c r="IN9" s="86"/>
+      <c r="IO9" s="86"/>
+      <c r="IP9" s="86"/>
+      <c r="IQ9" s="86"/>
+      <c r="IR9" s="86"/>
+      <c r="IS9" s="87"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="97"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="B10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="90">
+      <c r="P10" s="82">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="90">
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="82">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="90">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="82">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="90">
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="82">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="90">
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="82">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="90">
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="82">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="90">
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="82">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="90">
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="83"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="82">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="90">
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="83"/>
+      <c r="BP10" s="83"/>
+      <c r="BQ10" s="83"/>
+      <c r="BR10" s="83"/>
+      <c r="BS10" s="84"/>
+      <c r="BT10" s="82">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="91"/>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="91"/>
-      <c r="BX10" s="91"/>
-      <c r="BY10" s="91"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="90">
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="83"/>
+      <c r="BW10" s="83"/>
+      <c r="BX10" s="83"/>
+      <c r="BY10" s="83"/>
+      <c r="BZ10" s="84"/>
+      <c r="CA10" s="82">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="91"/>
-      <c r="CC10" s="91"/>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91"/>
-      <c r="CF10" s="91"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="90">
+      <c r="CB10" s="83"/>
+      <c r="CC10" s="83"/>
+      <c r="CD10" s="83"/>
+      <c r="CE10" s="83"/>
+      <c r="CF10" s="83"/>
+      <c r="CG10" s="84"/>
+      <c r="CH10" s="82">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="91"/>
-      <c r="CK10" s="91"/>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90">
+      <c r="CI10" s="83"/>
+      <c r="CJ10" s="83"/>
+      <c r="CK10" s="83"/>
+      <c r="CL10" s="83"/>
+      <c r="CM10" s="83"/>
+      <c r="CN10" s="84"/>
+      <c r="CO10" s="82">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="91"/>
-      <c r="CQ10" s="91"/>
-      <c r="CR10" s="91"/>
-      <c r="CS10" s="91"/>
-      <c r="CT10" s="91"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="90">
+      <c r="CP10" s="83"/>
+      <c r="CQ10" s="83"/>
+      <c r="CR10" s="83"/>
+      <c r="CS10" s="83"/>
+      <c r="CT10" s="83"/>
+      <c r="CU10" s="84"/>
+      <c r="CV10" s="82">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="91"/>
-      <c r="CX10" s="91"/>
-      <c r="CY10" s="91"/>
-      <c r="CZ10" s="91"/>
-      <c r="DA10" s="91"/>
-      <c r="DB10" s="92"/>
-      <c r="DC10" s="90">
+      <c r="CW10" s="83"/>
+      <c r="CX10" s="83"/>
+      <c r="CY10" s="83"/>
+      <c r="CZ10" s="83"/>
+      <c r="DA10" s="83"/>
+      <c r="DB10" s="84"/>
+      <c r="DC10" s="82">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="91"/>
-      <c r="DE10" s="91"/>
-      <c r="DF10" s="91"/>
-      <c r="DG10" s="91"/>
-      <c r="DH10" s="91"/>
-      <c r="DI10" s="92"/>
-      <c r="DJ10" s="90">
+      <c r="DD10" s="83"/>
+      <c r="DE10" s="83"/>
+      <c r="DF10" s="83"/>
+      <c r="DG10" s="83"/>
+      <c r="DH10" s="83"/>
+      <c r="DI10" s="84"/>
+      <c r="DJ10" s="82">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="91"/>
-      <c r="DL10" s="91"/>
-      <c r="DM10" s="91"/>
-      <c r="DN10" s="91"/>
-      <c r="DO10" s="91"/>
-      <c r="DP10" s="92"/>
-      <c r="DQ10" s="90">
+      <c r="DK10" s="83"/>
+      <c r="DL10" s="83"/>
+      <c r="DM10" s="83"/>
+      <c r="DN10" s="83"/>
+      <c r="DO10" s="83"/>
+      <c r="DP10" s="84"/>
+      <c r="DQ10" s="82">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="91"/>
-      <c r="DS10" s="91"/>
-      <c r="DT10" s="91"/>
-      <c r="DU10" s="91"/>
-      <c r="DV10" s="91"/>
-      <c r="DW10" s="92"/>
-      <c r="DX10" s="90">
+      <c r="DR10" s="83"/>
+      <c r="DS10" s="83"/>
+      <c r="DT10" s="83"/>
+      <c r="DU10" s="83"/>
+      <c r="DV10" s="83"/>
+      <c r="DW10" s="84"/>
+      <c r="DX10" s="82">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="91"/>
-      <c r="DZ10" s="91"/>
-      <c r="EA10" s="91"/>
-      <c r="EB10" s="91"/>
-      <c r="EC10" s="91"/>
-      <c r="ED10" s="92"/>
-      <c r="EE10" s="90">
+      <c r="DY10" s="83"/>
+      <c r="DZ10" s="83"/>
+      <c r="EA10" s="83"/>
+      <c r="EB10" s="83"/>
+      <c r="EC10" s="83"/>
+      <c r="ED10" s="84"/>
+      <c r="EE10" s="82">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="91"/>
-      <c r="EG10" s="91"/>
-      <c r="EH10" s="91"/>
-      <c r="EI10" s="91"/>
-      <c r="EJ10" s="91"/>
-      <c r="EK10" s="92"/>
-      <c r="EL10" s="90">
+      <c r="EF10" s="83"/>
+      <c r="EG10" s="83"/>
+      <c r="EH10" s="83"/>
+      <c r="EI10" s="83"/>
+      <c r="EJ10" s="83"/>
+      <c r="EK10" s="84"/>
+      <c r="EL10" s="82">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="91"/>
-      <c r="EN10" s="91"/>
-      <c r="EO10" s="91"/>
-      <c r="EP10" s="91"/>
-      <c r="EQ10" s="91"/>
-      <c r="ER10" s="92"/>
-      <c r="ES10" s="90">
+      <c r="EM10" s="83"/>
+      <c r="EN10" s="83"/>
+      <c r="EO10" s="83"/>
+      <c r="EP10" s="83"/>
+      <c r="EQ10" s="83"/>
+      <c r="ER10" s="84"/>
+      <c r="ES10" s="82">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="91"/>
-      <c r="EU10" s="91"/>
-      <c r="EV10" s="91"/>
-      <c r="EW10" s="91"/>
-      <c r="EX10" s="91"/>
-      <c r="EY10" s="92"/>
-      <c r="EZ10" s="90">
+      <c r="ET10" s="83"/>
+      <c r="EU10" s="83"/>
+      <c r="EV10" s="83"/>
+      <c r="EW10" s="83"/>
+      <c r="EX10" s="83"/>
+      <c r="EY10" s="84"/>
+      <c r="EZ10" s="82">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="91"/>
-      <c r="FB10" s="91"/>
-      <c r="FC10" s="91"/>
-      <c r="FD10" s="91"/>
-      <c r="FE10" s="91"/>
-      <c r="FF10" s="92"/>
-      <c r="FG10" s="90">
+      <c r="FA10" s="83"/>
+      <c r="FB10" s="83"/>
+      <c r="FC10" s="83"/>
+      <c r="FD10" s="83"/>
+      <c r="FE10" s="83"/>
+      <c r="FF10" s="84"/>
+      <c r="FG10" s="82">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="91"/>
-      <c r="FI10" s="91"/>
-      <c r="FJ10" s="91"/>
-      <c r="FK10" s="91"/>
-      <c r="FL10" s="91"/>
-      <c r="FM10" s="92"/>
-      <c r="FN10" s="90">
+      <c r="FH10" s="83"/>
+      <c r="FI10" s="83"/>
+      <c r="FJ10" s="83"/>
+      <c r="FK10" s="83"/>
+      <c r="FL10" s="83"/>
+      <c r="FM10" s="84"/>
+      <c r="FN10" s="82">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="91"/>
-      <c r="FP10" s="91"/>
-      <c r="FQ10" s="91"/>
-      <c r="FR10" s="91"/>
-      <c r="FS10" s="91"/>
-      <c r="FT10" s="92"/>
-      <c r="FU10" s="90">
+      <c r="FO10" s="83"/>
+      <c r="FP10" s="83"/>
+      <c r="FQ10" s="83"/>
+      <c r="FR10" s="83"/>
+      <c r="FS10" s="83"/>
+      <c r="FT10" s="84"/>
+      <c r="FU10" s="82">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91"/>
-      <c r="FX10" s="91"/>
-      <c r="FY10" s="91"/>
-      <c r="FZ10" s="91"/>
-      <c r="GA10" s="92"/>
-      <c r="GB10" s="90">
+      <c r="FV10" s="83"/>
+      <c r="FW10" s="83"/>
+      <c r="FX10" s="83"/>
+      <c r="FY10" s="83"/>
+      <c r="FZ10" s="83"/>
+      <c r="GA10" s="84"/>
+      <c r="GB10" s="82">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="91"/>
-      <c r="GD10" s="91"/>
-      <c r="GE10" s="91"/>
-      <c r="GF10" s="91"/>
-      <c r="GG10" s="91"/>
-      <c r="GH10" s="92"/>
-      <c r="GI10" s="90">
+      <c r="GC10" s="83"/>
+      <c r="GD10" s="83"/>
+      <c r="GE10" s="83"/>
+      <c r="GF10" s="83"/>
+      <c r="GG10" s="83"/>
+      <c r="GH10" s="84"/>
+      <c r="GI10" s="82">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="91"/>
-      <c r="GK10" s="91"/>
-      <c r="GL10" s="91"/>
-      <c r="GM10" s="91"/>
-      <c r="GN10" s="91"/>
-      <c r="GO10" s="92"/>
-      <c r="GP10" s="90">
+      <c r="GJ10" s="83"/>
+      <c r="GK10" s="83"/>
+      <c r="GL10" s="83"/>
+      <c r="GM10" s="83"/>
+      <c r="GN10" s="83"/>
+      <c r="GO10" s="84"/>
+      <c r="GP10" s="82">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="91"/>
-      <c r="GR10" s="91"/>
-      <c r="GS10" s="91"/>
-      <c r="GT10" s="91"/>
-      <c r="GU10" s="91"/>
-      <c r="GV10" s="92"/>
-      <c r="GW10" s="90">
+      <c r="GQ10" s="83"/>
+      <c r="GR10" s="83"/>
+      <c r="GS10" s="83"/>
+      <c r="GT10" s="83"/>
+      <c r="GU10" s="83"/>
+      <c r="GV10" s="84"/>
+      <c r="GW10" s="82">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="91"/>
-      <c r="GY10" s="91"/>
-      <c r="GZ10" s="91"/>
-      <c r="HA10" s="91"/>
-      <c r="HB10" s="91"/>
-      <c r="HC10" s="92"/>
-      <c r="HD10" s="90">
+      <c r="GX10" s="83"/>
+      <c r="GY10" s="83"/>
+      <c r="GZ10" s="83"/>
+      <c r="HA10" s="83"/>
+      <c r="HB10" s="83"/>
+      <c r="HC10" s="84"/>
+      <c r="HD10" s="82">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="91"/>
-      <c r="HF10" s="91"/>
-      <c r="HG10" s="91"/>
-      <c r="HH10" s="91"/>
-      <c r="HI10" s="91"/>
-      <c r="HJ10" s="92"/>
-      <c r="HK10" s="90">
+      <c r="HE10" s="83"/>
+      <c r="HF10" s="83"/>
+      <c r="HG10" s="83"/>
+      <c r="HH10" s="83"/>
+      <c r="HI10" s="83"/>
+      <c r="HJ10" s="84"/>
+      <c r="HK10" s="82">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="91"/>
-      <c r="HM10" s="91"/>
-      <c r="HN10" s="91"/>
-      <c r="HO10" s="91"/>
-      <c r="HP10" s="91"/>
-      <c r="HQ10" s="92"/>
-      <c r="HR10" s="90">
+      <c r="HL10" s="83"/>
+      <c r="HM10" s="83"/>
+      <c r="HN10" s="83"/>
+      <c r="HO10" s="83"/>
+      <c r="HP10" s="83"/>
+      <c r="HQ10" s="84"/>
+      <c r="HR10" s="82">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="91"/>
-      <c r="HT10" s="91"/>
-      <c r="HU10" s="91"/>
-      <c r="HV10" s="91"/>
-      <c r="HW10" s="91"/>
-      <c r="HX10" s="92"/>
-      <c r="HY10" s="90">
+      <c r="HS10" s="83"/>
+      <c r="HT10" s="83"/>
+      <c r="HU10" s="83"/>
+      <c r="HV10" s="83"/>
+      <c r="HW10" s="83"/>
+      <c r="HX10" s="84"/>
+      <c r="HY10" s="82">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="91"/>
-      <c r="IA10" s="91"/>
-      <c r="IB10" s="91"/>
-      <c r="IC10" s="91"/>
-      <c r="ID10" s="91"/>
-      <c r="IE10" s="92"/>
-      <c r="IF10" s="90">
+      <c r="HZ10" s="83"/>
+      <c r="IA10" s="83"/>
+      <c r="IB10" s="83"/>
+      <c r="IC10" s="83"/>
+      <c r="ID10" s="83"/>
+      <c r="IE10" s="84"/>
+      <c r="IF10" s="82">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="91"/>
-      <c r="IH10" s="91"/>
-      <c r="II10" s="91"/>
-      <c r="IJ10" s="91"/>
-      <c r="IK10" s="91"/>
-      <c r="IL10" s="92"/>
-      <c r="IM10" s="90">
+      <c r="IG10" s="83"/>
+      <c r="IH10" s="83"/>
+      <c r="II10" s="83"/>
+      <c r="IJ10" s="83"/>
+      <c r="IK10" s="83"/>
+      <c r="IL10" s="84"/>
+      <c r="IM10" s="82">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="91"/>
-      <c r="IO10" s="91"/>
-      <c r="IP10" s="91"/>
-      <c r="IQ10" s="91"/>
-      <c r="IR10" s="91"/>
-      <c r="IS10" s="92"/>
+      <c r="IN10" s="83"/>
+      <c r="IO10" s="83"/>
+      <c r="IP10" s="83"/>
+      <c r="IQ10" s="83"/>
+      <c r="IR10" s="83"/>
+      <c r="IS10" s="84"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,353 +6133,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="87">
+      <c r="P11" s="88">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="87">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="88">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="87">
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="88">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="87">
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="88">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="87">
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="88">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="87">
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="88">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="88"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="87">
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="88">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="88"/>
-      <c r="BK11" s="88"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="87">
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="88">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="88"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="88"/>
-      <c r="BQ11" s="88"/>
-      <c r="BR11" s="88"/>
-      <c r="BS11" s="89"/>
-      <c r="BT11" s="87">
+      <c r="BN11" s="89"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BR11" s="89"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="88">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="88"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="87">
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
+      <c r="BW11" s="89"/>
+      <c r="BX11" s="89"/>
+      <c r="BY11" s="89"/>
+      <c r="BZ11" s="90"/>
+      <c r="CA11" s="88">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="89"/>
-      <c r="CH11" s="87">
+      <c r="CB11" s="89"/>
+      <c r="CC11" s="89"/>
+      <c r="CD11" s="89"/>
+      <c r="CE11" s="89"/>
+      <c r="CF11" s="89"/>
+      <c r="CG11" s="90"/>
+      <c r="CH11" s="88">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="88"/>
-      <c r="CJ11" s="88"/>
-      <c r="CK11" s="88"/>
-      <c r="CL11" s="88"/>
-      <c r="CM11" s="88"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="87">
+      <c r="CI11" s="89"/>
+      <c r="CJ11" s="89"/>
+      <c r="CK11" s="89"/>
+      <c r="CL11" s="89"/>
+      <c r="CM11" s="89"/>
+      <c r="CN11" s="90"/>
+      <c r="CO11" s="88">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="88"/>
-      <c r="CQ11" s="88"/>
-      <c r="CR11" s="88"/>
-      <c r="CS11" s="88"/>
-      <c r="CT11" s="88"/>
-      <c r="CU11" s="89"/>
-      <c r="CV11" s="87">
+      <c r="CP11" s="89"/>
+      <c r="CQ11" s="89"/>
+      <c r="CR11" s="89"/>
+      <c r="CS11" s="89"/>
+      <c r="CT11" s="89"/>
+      <c r="CU11" s="90"/>
+      <c r="CV11" s="88">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="88"/>
-      <c r="CX11" s="88"/>
-      <c r="CY11" s="88"/>
-      <c r="CZ11" s="88"/>
-      <c r="DA11" s="88"/>
-      <c r="DB11" s="89"/>
-      <c r="DC11" s="87">
+      <c r="CW11" s="89"/>
+      <c r="CX11" s="89"/>
+      <c r="CY11" s="89"/>
+      <c r="CZ11" s="89"/>
+      <c r="DA11" s="89"/>
+      <c r="DB11" s="90"/>
+      <c r="DC11" s="88">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="88"/>
-      <c r="DE11" s="88"/>
-      <c r="DF11" s="88"/>
-      <c r="DG11" s="88"/>
-      <c r="DH11" s="88"/>
-      <c r="DI11" s="89"/>
-      <c r="DJ11" s="87">
+      <c r="DD11" s="89"/>
+      <c r="DE11" s="89"/>
+      <c r="DF11" s="89"/>
+      <c r="DG11" s="89"/>
+      <c r="DH11" s="89"/>
+      <c r="DI11" s="90"/>
+      <c r="DJ11" s="88">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="88"/>
-      <c r="DL11" s="88"/>
-      <c r="DM11" s="88"/>
-      <c r="DN11" s="88"/>
-      <c r="DO11" s="88"/>
-      <c r="DP11" s="89"/>
-      <c r="DQ11" s="87">
+      <c r="DK11" s="89"/>
+      <c r="DL11" s="89"/>
+      <c r="DM11" s="89"/>
+      <c r="DN11" s="89"/>
+      <c r="DO11" s="89"/>
+      <c r="DP11" s="90"/>
+      <c r="DQ11" s="88">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="88"/>
-      <c r="DS11" s="88"/>
-      <c r="DT11" s="88"/>
-      <c r="DU11" s="88"/>
-      <c r="DV11" s="88"/>
-      <c r="DW11" s="89"/>
-      <c r="DX11" s="87">
+      <c r="DR11" s="89"/>
+      <c r="DS11" s="89"/>
+      <c r="DT11" s="89"/>
+      <c r="DU11" s="89"/>
+      <c r="DV11" s="89"/>
+      <c r="DW11" s="90"/>
+      <c r="DX11" s="88">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="88"/>
-      <c r="DZ11" s="88"/>
-      <c r="EA11" s="88"/>
-      <c r="EB11" s="88"/>
-      <c r="EC11" s="88"/>
-      <c r="ED11" s="89"/>
-      <c r="EE11" s="87">
+      <c r="DY11" s="89"/>
+      <c r="DZ11" s="89"/>
+      <c r="EA11" s="89"/>
+      <c r="EB11" s="89"/>
+      <c r="EC11" s="89"/>
+      <c r="ED11" s="90"/>
+      <c r="EE11" s="88">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="88"/>
-      <c r="EG11" s="88"/>
-      <c r="EH11" s="88"/>
-      <c r="EI11" s="88"/>
-      <c r="EJ11" s="88"/>
-      <c r="EK11" s="89"/>
-      <c r="EL11" s="87">
+      <c r="EF11" s="89"/>
+      <c r="EG11" s="89"/>
+      <c r="EH11" s="89"/>
+      <c r="EI11" s="89"/>
+      <c r="EJ11" s="89"/>
+      <c r="EK11" s="90"/>
+      <c r="EL11" s="88">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="88"/>
-      <c r="EN11" s="88"/>
-      <c r="EO11" s="88"/>
-      <c r="EP11" s="88"/>
-      <c r="EQ11" s="88"/>
-      <c r="ER11" s="89"/>
-      <c r="ES11" s="87">
+      <c r="EM11" s="89"/>
+      <c r="EN11" s="89"/>
+      <c r="EO11" s="89"/>
+      <c r="EP11" s="89"/>
+      <c r="EQ11" s="89"/>
+      <c r="ER11" s="90"/>
+      <c r="ES11" s="88">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="88"/>
-      <c r="EU11" s="88"/>
-      <c r="EV11" s="88"/>
-      <c r="EW11" s="88"/>
-      <c r="EX11" s="88"/>
-      <c r="EY11" s="89"/>
-      <c r="EZ11" s="87">
+      <c r="ET11" s="89"/>
+      <c r="EU11" s="89"/>
+      <c r="EV11" s="89"/>
+      <c r="EW11" s="89"/>
+      <c r="EX11" s="89"/>
+      <c r="EY11" s="90"/>
+      <c r="EZ11" s="88">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="88"/>
-      <c r="FB11" s="88"/>
-      <c r="FC11" s="88"/>
-      <c r="FD11" s="88"/>
-      <c r="FE11" s="88"/>
-      <c r="FF11" s="89"/>
-      <c r="FG11" s="87">
+      <c r="FA11" s="89"/>
+      <c r="FB11" s="89"/>
+      <c r="FC11" s="89"/>
+      <c r="FD11" s="89"/>
+      <c r="FE11" s="89"/>
+      <c r="FF11" s="90"/>
+      <c r="FG11" s="88">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="88"/>
-      <c r="FI11" s="88"/>
-      <c r="FJ11" s="88"/>
-      <c r="FK11" s="88"/>
-      <c r="FL11" s="88"/>
-      <c r="FM11" s="89"/>
-      <c r="FN11" s="87">
+      <c r="FH11" s="89"/>
+      <c r="FI11" s="89"/>
+      <c r="FJ11" s="89"/>
+      <c r="FK11" s="89"/>
+      <c r="FL11" s="89"/>
+      <c r="FM11" s="90"/>
+      <c r="FN11" s="88">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="88"/>
-      <c r="FP11" s="88"/>
-      <c r="FQ11" s="88"/>
-      <c r="FR11" s="88"/>
-      <c r="FS11" s="88"/>
-      <c r="FT11" s="89"/>
-      <c r="FU11" s="87">
+      <c r="FO11" s="89"/>
+      <c r="FP11" s="89"/>
+      <c r="FQ11" s="89"/>
+      <c r="FR11" s="89"/>
+      <c r="FS11" s="89"/>
+      <c r="FT11" s="90"/>
+      <c r="FU11" s="88">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="88"/>
-      <c r="FW11" s="88"/>
-      <c r="FX11" s="88"/>
-      <c r="FY11" s="88"/>
-      <c r="FZ11" s="88"/>
-      <c r="GA11" s="89"/>
-      <c r="GB11" s="87">
+      <c r="FV11" s="89"/>
+      <c r="FW11" s="89"/>
+      <c r="FX11" s="89"/>
+      <c r="FY11" s="89"/>
+      <c r="FZ11" s="89"/>
+      <c r="GA11" s="90"/>
+      <c r="GB11" s="88">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="88"/>
-      <c r="GD11" s="88"/>
-      <c r="GE11" s="88"/>
-      <c r="GF11" s="88"/>
-      <c r="GG11" s="88"/>
-      <c r="GH11" s="89"/>
-      <c r="GI11" s="87">
+      <c r="GC11" s="89"/>
+      <c r="GD11" s="89"/>
+      <c r="GE11" s="89"/>
+      <c r="GF11" s="89"/>
+      <c r="GG11" s="89"/>
+      <c r="GH11" s="90"/>
+      <c r="GI11" s="88">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="88"/>
-      <c r="GK11" s="88"/>
-      <c r="GL11" s="88"/>
-      <c r="GM11" s="88"/>
-      <c r="GN11" s="88"/>
-      <c r="GO11" s="89"/>
-      <c r="GP11" s="87">
+      <c r="GJ11" s="89"/>
+      <c r="GK11" s="89"/>
+      <c r="GL11" s="89"/>
+      <c r="GM11" s="89"/>
+      <c r="GN11" s="89"/>
+      <c r="GO11" s="90"/>
+      <c r="GP11" s="88">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="88"/>
-      <c r="GR11" s="88"/>
-      <c r="GS11" s="88"/>
-      <c r="GT11" s="88"/>
-      <c r="GU11" s="88"/>
-      <c r="GV11" s="89"/>
-      <c r="GW11" s="87">
+      <c r="GQ11" s="89"/>
+      <c r="GR11" s="89"/>
+      <c r="GS11" s="89"/>
+      <c r="GT11" s="89"/>
+      <c r="GU11" s="89"/>
+      <c r="GV11" s="90"/>
+      <c r="GW11" s="88">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="88"/>
-      <c r="GY11" s="88"/>
-      <c r="GZ11" s="88"/>
-      <c r="HA11" s="88"/>
-      <c r="HB11" s="88"/>
-      <c r="HC11" s="89"/>
-      <c r="HD11" s="87">
+      <c r="GX11" s="89"/>
+      <c r="GY11" s="89"/>
+      <c r="GZ11" s="89"/>
+      <c r="HA11" s="89"/>
+      <c r="HB11" s="89"/>
+      <c r="HC11" s="90"/>
+      <c r="HD11" s="88">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="88"/>
-      <c r="HF11" s="88"/>
-      <c r="HG11" s="88"/>
-      <c r="HH11" s="88"/>
-      <c r="HI11" s="88"/>
-      <c r="HJ11" s="89"/>
-      <c r="HK11" s="87">
+      <c r="HE11" s="89"/>
+      <c r="HF11" s="89"/>
+      <c r="HG11" s="89"/>
+      <c r="HH11" s="89"/>
+      <c r="HI11" s="89"/>
+      <c r="HJ11" s="90"/>
+      <c r="HK11" s="88">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="88"/>
-      <c r="HM11" s="88"/>
-      <c r="HN11" s="88"/>
-      <c r="HO11" s="88"/>
-      <c r="HP11" s="88"/>
-      <c r="HQ11" s="89"/>
-      <c r="HR11" s="87">
+      <c r="HL11" s="89"/>
+      <c r="HM11" s="89"/>
+      <c r="HN11" s="89"/>
+      <c r="HO11" s="89"/>
+      <c r="HP11" s="89"/>
+      <c r="HQ11" s="90"/>
+      <c r="HR11" s="88">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="88"/>
-      <c r="HT11" s="88"/>
-      <c r="HU11" s="88"/>
-      <c r="HV11" s="88"/>
-      <c r="HW11" s="88"/>
-      <c r="HX11" s="89"/>
-      <c r="HY11" s="87">
+      <c r="HS11" s="89"/>
+      <c r="HT11" s="89"/>
+      <c r="HU11" s="89"/>
+      <c r="HV11" s="89"/>
+      <c r="HW11" s="89"/>
+      <c r="HX11" s="90"/>
+      <c r="HY11" s="88">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="88"/>
-      <c r="IA11" s="88"/>
-      <c r="IB11" s="88"/>
-      <c r="IC11" s="88"/>
-      <c r="ID11" s="88"/>
-      <c r="IE11" s="89"/>
-      <c r="IF11" s="87">
+      <c r="HZ11" s="89"/>
+      <c r="IA11" s="89"/>
+      <c r="IB11" s="89"/>
+      <c r="IC11" s="89"/>
+      <c r="ID11" s="89"/>
+      <c r="IE11" s="90"/>
+      <c r="IF11" s="88">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="88"/>
-      <c r="IH11" s="88"/>
-      <c r="II11" s="88"/>
-      <c r="IJ11" s="88"/>
-      <c r="IK11" s="88"/>
-      <c r="IL11" s="89"/>
-      <c r="IM11" s="87">
+      <c r="IG11" s="89"/>
+      <c r="IH11" s="89"/>
+      <c r="II11" s="89"/>
+      <c r="IJ11" s="89"/>
+      <c r="IK11" s="89"/>
+      <c r="IL11" s="90"/>
+      <c r="IM11" s="88">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="88"/>
-      <c r="IO11" s="88"/>
-      <c r="IP11" s="88"/>
-      <c r="IQ11" s="88"/>
-      <c r="IR11" s="88"/>
-      <c r="IS11" s="89"/>
+      <c r="IN11" s="89"/>
+      <c r="IO11" s="89"/>
+      <c r="IP11" s="89"/>
+      <c r="IQ11" s="89"/>
+      <c r="IR11" s="89"/>
+      <c r="IS11" s="90"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -7646,15 +7646,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>0.90476190476190477</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="N24" s="78">
         <f>SUMPRODUCT(J25:J26,N25:N26)/SUM(J25:J26)</f>
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="58"/>
@@ -10203,7 +10203,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="65">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O25" s="66"/>
       <c r="P25" s="58"/>
@@ -10761,15 +10761,15 @@
       </c>
       <c r="L27" s="77">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="76">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N27" s="78">
         <f>SUMPRODUCT(J28:J32,N28:N32)/SUM(J28:J32)</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="O27" s="79"/>
       <c r="P27" s="71"/>
@@ -11045,14 +11045,14 @@
       </c>
       <c r="L28" s="64">
         <f t="shared" ref="L28:L33" si="40">ROUNDDOWN(N28*J28,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="63">
         <f t="shared" ref="M28:M33" si="41">J28-L28</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" s="65">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="58"/>
@@ -18656,6 +18656,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N54"/>
   <mergeCells count="115">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="GI11:GO11"/>
+    <mergeCell ref="FG11:FM11"/>
+    <mergeCell ref="DC11:DI11"/>
+    <mergeCell ref="FU11:GA11"/>
+    <mergeCell ref="DX11:ED11"/>
+    <mergeCell ref="FN11:FT11"/>
+    <mergeCell ref="GB11:GH11"/>
+    <mergeCell ref="FN10:FT10"/>
+    <mergeCell ref="DQ11:DW11"/>
+    <mergeCell ref="BT11:BZ11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
     <mergeCell ref="HK10:HQ10"/>
     <mergeCell ref="FG10:FM10"/>
     <mergeCell ref="IM9:IS9"/>
@@ -18680,97 +18771,6 @@
     <mergeCell ref="DC10:DI10"/>
     <mergeCell ref="DJ10:DP10"/>
     <mergeCell ref="IF10:IL10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="GI11:GO11"/>
-    <mergeCell ref="FG11:FM11"/>
-    <mergeCell ref="DC11:DI11"/>
-    <mergeCell ref="FU11:GA11"/>
-    <mergeCell ref="DX11:ED11"/>
-    <mergeCell ref="FN11:FT11"/>
-    <mergeCell ref="GB11:GH11"/>
-    <mergeCell ref="FN10:FT10"/>
-    <mergeCell ref="DQ11:DW11"/>
-    <mergeCell ref="BT11:BZ11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="N9:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan\Desktop\KTH\Master_Thesis_Deliverables\1-Timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/Thesis/Master_Thesis_Deliverables/1-Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="3810" windowWidth="11100" windowHeight="2010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$54</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,7 +237,7 @@
     <numFmt numFmtId="166" formatCode="0\ \D\a\y\s"/>
     <numFmt numFmtId="167" formatCode="\(m/d\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +468,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +520,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="63"/>
@@ -530,7 +535,7 @@
         <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="63"/>
@@ -562,7 +567,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,7 +578,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +586,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,39 +873,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -919,6 +891,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -936,6 +926,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2744,7 +2749,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>137</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -2829,9 +2834,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2864,9 +2869,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3070,80 +3075,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="7.85546875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="52" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="3.7109375" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="5.140625" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.28515625" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="7.42578125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="33" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" style="12" customWidth="1"/>
-    <col min="17" max="253" width="0.42578125" style="12" customWidth="1"/>
-    <col min="254" max="255" width="9.140625" style="12" customWidth="1"/>
-    <col min="256" max="16384" width="10.7109375" style="12"/>
+    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="7.796875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.19921875" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" style="52" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="3.796875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="5.19921875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.3984375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="4.19921875" style="33" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0.796875" style="12" customWidth="1"/>
+    <col min="17" max="253" width="0.3984375" style="12" customWidth="1"/>
+    <col min="254" max="255" width="9.19921875" style="12" customWidth="1"/>
+    <col min="256" max="16384" width="10.796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+    <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
       <c r="P2" s="80"/>
     </row>
-    <row r="3" spans="1:256" s="9" customFormat="1" ht="9.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="3" spans="1:256" s="9" customFormat="1" ht="9.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="I3" s="49"/>
@@ -3154,9 +3158,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
+    <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="5" spans="1:256" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
@@ -3183,23 +3187,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="97">
+      <c r="F5" s="86">
         <v>42387</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3207,27 +3211,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="97">
+      <c r="F6" s="86">
         <f ca="1">TODAY()</f>
-        <v>42417</v>
-      </c>
-      <c r="G6" s="97"/>
+        <v>42429</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Wednesday</v>
+        <v>Monday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4184,15 +4188,15 @@
       </c>
       <c r="IV6" s="41"/>
     </row>
-    <row r="7" spans="1:256" s="9" customFormat="1" ht="22.5" hidden="1" customHeight="1">
+    <row r="7" spans="1:256" s="9" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5148,13 +5152,13 @@
       </c>
       <c r="IV7" s="13"/>
     </row>
-    <row r="8" spans="1:256" s="9" customFormat="1" ht="6.75" customHeight="1">
+    <row r="8" spans="1:256" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5396,734 +5400,734 @@
       <c r="IS8" s="14"/>
       <c r="IV8" s="13"/>
     </row>
-    <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
+    <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="85">
+      <c r="P9" s="99">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="85">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="99">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="85">
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="99">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="85">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="99">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="85">
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="99">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="85">
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="99">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="85">
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="99">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="87"/>
-      <c r="BM9" s="85">
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="101"/>
+      <c r="BM9" s="99">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="85">
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="100"/>
+      <c r="BQ9" s="100"/>
+      <c r="BR9" s="100"/>
+      <c r="BS9" s="101"/>
+      <c r="BT9" s="99">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="87"/>
-      <c r="CA9" s="85">
+      <c r="BU9" s="100"/>
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="100"/>
+      <c r="BY9" s="100"/>
+      <c r="BZ9" s="101"/>
+      <c r="CA9" s="99">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="86"/>
-      <c r="CC9" s="86"/>
-      <c r="CD9" s="86"/>
-      <c r="CE9" s="86"/>
-      <c r="CF9" s="86"/>
-      <c r="CG9" s="87"/>
-      <c r="CH9" s="85">
+      <c r="CB9" s="100"/>
+      <c r="CC9" s="100"/>
+      <c r="CD9" s="100"/>
+      <c r="CE9" s="100"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="101"/>
+      <c r="CH9" s="99">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="86"/>
-      <c r="CJ9" s="86"/>
-      <c r="CK9" s="86"/>
-      <c r="CL9" s="86"/>
-      <c r="CM9" s="86"/>
-      <c r="CN9" s="87"/>
-      <c r="CO9" s="85">
+      <c r="CI9" s="100"/>
+      <c r="CJ9" s="100"/>
+      <c r="CK9" s="100"/>
+      <c r="CL9" s="100"/>
+      <c r="CM9" s="100"/>
+      <c r="CN9" s="101"/>
+      <c r="CO9" s="99">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="86"/>
-      <c r="CQ9" s="86"/>
-      <c r="CR9" s="86"/>
-      <c r="CS9" s="86"/>
-      <c r="CT9" s="86"/>
-      <c r="CU9" s="87"/>
-      <c r="CV9" s="85">
+      <c r="CP9" s="100"/>
+      <c r="CQ9" s="100"/>
+      <c r="CR9" s="100"/>
+      <c r="CS9" s="100"/>
+      <c r="CT9" s="100"/>
+      <c r="CU9" s="101"/>
+      <c r="CV9" s="99">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="86"/>
-      <c r="CX9" s="86"/>
-      <c r="CY9" s="86"/>
-      <c r="CZ9" s="86"/>
-      <c r="DA9" s="86"/>
-      <c r="DB9" s="87"/>
-      <c r="DC9" s="85">
+      <c r="CW9" s="100"/>
+      <c r="CX9" s="100"/>
+      <c r="CY9" s="100"/>
+      <c r="CZ9" s="100"/>
+      <c r="DA9" s="100"/>
+      <c r="DB9" s="101"/>
+      <c r="DC9" s="99">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="86"/>
-      <c r="DE9" s="86"/>
-      <c r="DF9" s="86"/>
-      <c r="DG9" s="86"/>
-      <c r="DH9" s="86"/>
-      <c r="DI9" s="87"/>
-      <c r="DJ9" s="85">
+      <c r="DD9" s="100"/>
+      <c r="DE9" s="100"/>
+      <c r="DF9" s="100"/>
+      <c r="DG9" s="100"/>
+      <c r="DH9" s="100"/>
+      <c r="DI9" s="101"/>
+      <c r="DJ9" s="99">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="86"/>
-      <c r="DL9" s="86"/>
-      <c r="DM9" s="86"/>
-      <c r="DN9" s="86"/>
-      <c r="DO9" s="86"/>
-      <c r="DP9" s="87"/>
-      <c r="DQ9" s="85">
+      <c r="DK9" s="100"/>
+      <c r="DL9" s="100"/>
+      <c r="DM9" s="100"/>
+      <c r="DN9" s="100"/>
+      <c r="DO9" s="100"/>
+      <c r="DP9" s="101"/>
+      <c r="DQ9" s="99">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="86"/>
-      <c r="DS9" s="86"/>
-      <c r="DT9" s="86"/>
-      <c r="DU9" s="86"/>
-      <c r="DV9" s="86"/>
-      <c r="DW9" s="87"/>
-      <c r="DX9" s="85">
+      <c r="DR9" s="100"/>
+      <c r="DS9" s="100"/>
+      <c r="DT9" s="100"/>
+      <c r="DU9" s="100"/>
+      <c r="DV9" s="100"/>
+      <c r="DW9" s="101"/>
+      <c r="DX9" s="99">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="86"/>
-      <c r="DZ9" s="86"/>
-      <c r="EA9" s="86"/>
-      <c r="EB9" s="86"/>
-      <c r="EC9" s="86"/>
-      <c r="ED9" s="87"/>
-      <c r="EE9" s="85">
+      <c r="DY9" s="100"/>
+      <c r="DZ9" s="100"/>
+      <c r="EA9" s="100"/>
+      <c r="EB9" s="100"/>
+      <c r="EC9" s="100"/>
+      <c r="ED9" s="101"/>
+      <c r="EE9" s="99">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="86"/>
-      <c r="EG9" s="86"/>
-      <c r="EH9" s="86"/>
-      <c r="EI9" s="86"/>
-      <c r="EJ9" s="86"/>
-      <c r="EK9" s="87"/>
-      <c r="EL9" s="85">
+      <c r="EF9" s="100"/>
+      <c r="EG9" s="100"/>
+      <c r="EH9" s="100"/>
+      <c r="EI9" s="100"/>
+      <c r="EJ9" s="100"/>
+      <c r="EK9" s="101"/>
+      <c r="EL9" s="99">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="86"/>
-      <c r="EN9" s="86"/>
-      <c r="EO9" s="86"/>
-      <c r="EP9" s="86"/>
-      <c r="EQ9" s="86"/>
-      <c r="ER9" s="87"/>
-      <c r="ES9" s="85">
+      <c r="EM9" s="100"/>
+      <c r="EN9" s="100"/>
+      <c r="EO9" s="100"/>
+      <c r="EP9" s="100"/>
+      <c r="EQ9" s="100"/>
+      <c r="ER9" s="101"/>
+      <c r="ES9" s="99">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="86"/>
-      <c r="EU9" s="86"/>
-      <c r="EV9" s="86"/>
-      <c r="EW9" s="86"/>
-      <c r="EX9" s="86"/>
-      <c r="EY9" s="87"/>
-      <c r="EZ9" s="85">
+      <c r="ET9" s="100"/>
+      <c r="EU9" s="100"/>
+      <c r="EV9" s="100"/>
+      <c r="EW9" s="100"/>
+      <c r="EX9" s="100"/>
+      <c r="EY9" s="101"/>
+      <c r="EZ9" s="99">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="86"/>
-      <c r="FB9" s="86"/>
-      <c r="FC9" s="86"/>
-      <c r="FD9" s="86"/>
-      <c r="FE9" s="86"/>
-      <c r="FF9" s="87"/>
-      <c r="FG9" s="85">
+      <c r="FA9" s="100"/>
+      <c r="FB9" s="100"/>
+      <c r="FC9" s="100"/>
+      <c r="FD9" s="100"/>
+      <c r="FE9" s="100"/>
+      <c r="FF9" s="101"/>
+      <c r="FG9" s="99">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="86"/>
-      <c r="FI9" s="86"/>
-      <c r="FJ9" s="86"/>
-      <c r="FK9" s="86"/>
-      <c r="FL9" s="86"/>
-      <c r="FM9" s="87"/>
-      <c r="FN9" s="85">
+      <c r="FH9" s="100"/>
+      <c r="FI9" s="100"/>
+      <c r="FJ9" s="100"/>
+      <c r="FK9" s="100"/>
+      <c r="FL9" s="100"/>
+      <c r="FM9" s="101"/>
+      <c r="FN9" s="99">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="86"/>
-      <c r="FP9" s="86"/>
-      <c r="FQ9" s="86"/>
-      <c r="FR9" s="86"/>
-      <c r="FS9" s="86"/>
-      <c r="FT9" s="87"/>
-      <c r="FU9" s="85">
+      <c r="FO9" s="100"/>
+      <c r="FP9" s="100"/>
+      <c r="FQ9" s="100"/>
+      <c r="FR9" s="100"/>
+      <c r="FS9" s="100"/>
+      <c r="FT9" s="101"/>
+      <c r="FU9" s="99">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="86"/>
-      <c r="FW9" s="86"/>
-      <c r="FX9" s="86"/>
-      <c r="FY9" s="86"/>
-      <c r="FZ9" s="86"/>
-      <c r="GA9" s="87"/>
-      <c r="GB9" s="85">
+      <c r="FV9" s="100"/>
+      <c r="FW9" s="100"/>
+      <c r="FX9" s="100"/>
+      <c r="FY9" s="100"/>
+      <c r="FZ9" s="100"/>
+      <c r="GA9" s="101"/>
+      <c r="GB9" s="99">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="86"/>
-      <c r="GD9" s="86"/>
-      <c r="GE9" s="86"/>
-      <c r="GF9" s="86"/>
-      <c r="GG9" s="86"/>
-      <c r="GH9" s="87"/>
-      <c r="GI9" s="85">
+      <c r="GC9" s="100"/>
+      <c r="GD9" s="100"/>
+      <c r="GE9" s="100"/>
+      <c r="GF9" s="100"/>
+      <c r="GG9" s="100"/>
+      <c r="GH9" s="101"/>
+      <c r="GI9" s="99">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="86"/>
-      <c r="GK9" s="86"/>
-      <c r="GL9" s="86"/>
-      <c r="GM9" s="86"/>
-      <c r="GN9" s="86"/>
-      <c r="GO9" s="87"/>
-      <c r="GP9" s="85">
+      <c r="GJ9" s="100"/>
+      <c r="GK9" s="100"/>
+      <c r="GL9" s="100"/>
+      <c r="GM9" s="100"/>
+      <c r="GN9" s="100"/>
+      <c r="GO9" s="101"/>
+      <c r="GP9" s="99">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="86"/>
-      <c r="GR9" s="86"/>
-      <c r="GS9" s="86"/>
-      <c r="GT9" s="86"/>
-      <c r="GU9" s="86"/>
-      <c r="GV9" s="87"/>
-      <c r="GW9" s="85">
+      <c r="GQ9" s="100"/>
+      <c r="GR9" s="100"/>
+      <c r="GS9" s="100"/>
+      <c r="GT9" s="100"/>
+      <c r="GU9" s="100"/>
+      <c r="GV9" s="101"/>
+      <c r="GW9" s="99">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="86"/>
-      <c r="GY9" s="86"/>
-      <c r="GZ9" s="86"/>
-      <c r="HA9" s="86"/>
-      <c r="HB9" s="86"/>
-      <c r="HC9" s="87"/>
-      <c r="HD9" s="85">
+      <c r="GX9" s="100"/>
+      <c r="GY9" s="100"/>
+      <c r="GZ9" s="100"/>
+      <c r="HA9" s="100"/>
+      <c r="HB9" s="100"/>
+      <c r="HC9" s="101"/>
+      <c r="HD9" s="99">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="86"/>
-      <c r="HF9" s="86"/>
-      <c r="HG9" s="86"/>
-      <c r="HH9" s="86"/>
-      <c r="HI9" s="86"/>
-      <c r="HJ9" s="87"/>
-      <c r="HK9" s="85">
+      <c r="HE9" s="100"/>
+      <c r="HF9" s="100"/>
+      <c r="HG9" s="100"/>
+      <c r="HH9" s="100"/>
+      <c r="HI9" s="100"/>
+      <c r="HJ9" s="101"/>
+      <c r="HK9" s="99">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="86"/>
-      <c r="HM9" s="86"/>
-      <c r="HN9" s="86"/>
-      <c r="HO9" s="86"/>
-      <c r="HP9" s="86"/>
-      <c r="HQ9" s="87"/>
-      <c r="HR9" s="85">
+      <c r="HL9" s="100"/>
+      <c r="HM9" s="100"/>
+      <c r="HN9" s="100"/>
+      <c r="HO9" s="100"/>
+      <c r="HP9" s="100"/>
+      <c r="HQ9" s="101"/>
+      <c r="HR9" s="99">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="86"/>
-      <c r="HT9" s="86"/>
-      <c r="HU9" s="86"/>
-      <c r="HV9" s="86"/>
-      <c r="HW9" s="86"/>
-      <c r="HX9" s="87"/>
-      <c r="HY9" s="85">
+      <c r="HS9" s="100"/>
+      <c r="HT9" s="100"/>
+      <c r="HU9" s="100"/>
+      <c r="HV9" s="100"/>
+      <c r="HW9" s="100"/>
+      <c r="HX9" s="101"/>
+      <c r="HY9" s="99">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="86"/>
-      <c r="IA9" s="86"/>
-      <c r="IB9" s="86"/>
-      <c r="IC9" s="86"/>
-      <c r="ID9" s="86"/>
-      <c r="IE9" s="87"/>
-      <c r="IF9" s="85">
+      <c r="HZ9" s="100"/>
+      <c r="IA9" s="100"/>
+      <c r="IB9" s="100"/>
+      <c r="IC9" s="100"/>
+      <c r="ID9" s="100"/>
+      <c r="IE9" s="101"/>
+      <c r="IF9" s="99">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="86"/>
-      <c r="IH9" s="86"/>
-      <c r="II9" s="86"/>
-      <c r="IJ9" s="86"/>
-      <c r="IK9" s="86"/>
-      <c r="IL9" s="87"/>
-      <c r="IM9" s="85">
+      <c r="IG9" s="100"/>
+      <c r="IH9" s="100"/>
+      <c r="II9" s="100"/>
+      <c r="IJ9" s="100"/>
+      <c r="IK9" s="100"/>
+      <c r="IL9" s="101"/>
+      <c r="IM9" s="99">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="86"/>
-      <c r="IO9" s="86"/>
-      <c r="IP9" s="86"/>
-      <c r="IQ9" s="86"/>
-      <c r="IR9" s="86"/>
-      <c r="IS9" s="87"/>
+      <c r="IN9" s="100"/>
+      <c r="IO9" s="100"/>
+      <c r="IP9" s="100"/>
+      <c r="IQ9" s="100"/>
+      <c r="IR9" s="100"/>
+      <c r="IS9" s="101"/>
     </row>
-    <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
+    <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="82">
+      <c r="P10" s="90">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="82">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="90">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="82">
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="90">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="82">
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="90">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="82">
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="90">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="82">
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="90">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="82">
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="90">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="83"/>
-      <c r="BK10" s="83"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="82">
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="92"/>
+      <c r="BM10" s="90">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="83"/>
-      <c r="BP10" s="83"/>
-      <c r="BQ10" s="83"/>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="82">
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="90">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="83"/>
-      <c r="BW10" s="83"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="82">
+      <c r="BU10" s="91"/>
+      <c r="BV10" s="91"/>
+      <c r="BW10" s="91"/>
+      <c r="BX10" s="91"/>
+      <c r="BY10" s="91"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="90">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="83"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="82">
+      <c r="CB10" s="91"/>
+      <c r="CC10" s="91"/>
+      <c r="CD10" s="91"/>
+      <c r="CE10" s="91"/>
+      <c r="CF10" s="91"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="90">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="83"/>
-      <c r="CK10" s="83"/>
-      <c r="CL10" s="83"/>
-      <c r="CM10" s="83"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="82">
+      <c r="CI10" s="91"/>
+      <c r="CJ10" s="91"/>
+      <c r="CK10" s="91"/>
+      <c r="CL10" s="91"/>
+      <c r="CM10" s="91"/>
+      <c r="CN10" s="92"/>
+      <c r="CO10" s="90">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="83"/>
-      <c r="CQ10" s="83"/>
-      <c r="CR10" s="83"/>
-      <c r="CS10" s="83"/>
-      <c r="CT10" s="83"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="82">
+      <c r="CP10" s="91"/>
+      <c r="CQ10" s="91"/>
+      <c r="CR10" s="91"/>
+      <c r="CS10" s="91"/>
+      <c r="CT10" s="91"/>
+      <c r="CU10" s="92"/>
+      <c r="CV10" s="90">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="83"/>
-      <c r="CX10" s="83"/>
-      <c r="CY10" s="83"/>
-      <c r="CZ10" s="83"/>
-      <c r="DA10" s="83"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="82">
+      <c r="CW10" s="91"/>
+      <c r="CX10" s="91"/>
+      <c r="CY10" s="91"/>
+      <c r="CZ10" s="91"/>
+      <c r="DA10" s="91"/>
+      <c r="DB10" s="92"/>
+      <c r="DC10" s="90">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="83"/>
-      <c r="DE10" s="83"/>
-      <c r="DF10" s="83"/>
-      <c r="DG10" s="83"/>
-      <c r="DH10" s="83"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="82">
+      <c r="DD10" s="91"/>
+      <c r="DE10" s="91"/>
+      <c r="DF10" s="91"/>
+      <c r="DG10" s="91"/>
+      <c r="DH10" s="91"/>
+      <c r="DI10" s="92"/>
+      <c r="DJ10" s="90">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="83"/>
-      <c r="DL10" s="83"/>
-      <c r="DM10" s="83"/>
-      <c r="DN10" s="83"/>
-      <c r="DO10" s="83"/>
-      <c r="DP10" s="84"/>
-      <c r="DQ10" s="82">
+      <c r="DK10" s="91"/>
+      <c r="DL10" s="91"/>
+      <c r="DM10" s="91"/>
+      <c r="DN10" s="91"/>
+      <c r="DO10" s="91"/>
+      <c r="DP10" s="92"/>
+      <c r="DQ10" s="90">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="83"/>
-      <c r="DS10" s="83"/>
-      <c r="DT10" s="83"/>
-      <c r="DU10" s="83"/>
-      <c r="DV10" s="83"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="82">
+      <c r="DR10" s="91"/>
+      <c r="DS10" s="91"/>
+      <c r="DT10" s="91"/>
+      <c r="DU10" s="91"/>
+      <c r="DV10" s="91"/>
+      <c r="DW10" s="92"/>
+      <c r="DX10" s="90">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="83"/>
-      <c r="DZ10" s="83"/>
-      <c r="EA10" s="83"/>
-      <c r="EB10" s="83"/>
-      <c r="EC10" s="83"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="82">
+      <c r="DY10" s="91"/>
+      <c r="DZ10" s="91"/>
+      <c r="EA10" s="91"/>
+      <c r="EB10" s="91"/>
+      <c r="EC10" s="91"/>
+      <c r="ED10" s="92"/>
+      <c r="EE10" s="90">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="83"/>
-      <c r="EG10" s="83"/>
-      <c r="EH10" s="83"/>
-      <c r="EI10" s="83"/>
-      <c r="EJ10" s="83"/>
-      <c r="EK10" s="84"/>
-      <c r="EL10" s="82">
+      <c r="EF10" s="91"/>
+      <c r="EG10" s="91"/>
+      <c r="EH10" s="91"/>
+      <c r="EI10" s="91"/>
+      <c r="EJ10" s="91"/>
+      <c r="EK10" s="92"/>
+      <c r="EL10" s="90">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="83"/>
-      <c r="EN10" s="83"/>
-      <c r="EO10" s="83"/>
-      <c r="EP10" s="83"/>
-      <c r="EQ10" s="83"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="82">
+      <c r="EM10" s="91"/>
+      <c r="EN10" s="91"/>
+      <c r="EO10" s="91"/>
+      <c r="EP10" s="91"/>
+      <c r="EQ10" s="91"/>
+      <c r="ER10" s="92"/>
+      <c r="ES10" s="90">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="83"/>
-      <c r="EU10" s="83"/>
-      <c r="EV10" s="83"/>
-      <c r="EW10" s="83"/>
-      <c r="EX10" s="83"/>
-      <c r="EY10" s="84"/>
-      <c r="EZ10" s="82">
+      <c r="ET10" s="91"/>
+      <c r="EU10" s="91"/>
+      <c r="EV10" s="91"/>
+      <c r="EW10" s="91"/>
+      <c r="EX10" s="91"/>
+      <c r="EY10" s="92"/>
+      <c r="EZ10" s="90">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="83"/>
-      <c r="FB10" s="83"/>
-      <c r="FC10" s="83"/>
-      <c r="FD10" s="83"/>
-      <c r="FE10" s="83"/>
-      <c r="FF10" s="84"/>
-      <c r="FG10" s="82">
+      <c r="FA10" s="91"/>
+      <c r="FB10" s="91"/>
+      <c r="FC10" s="91"/>
+      <c r="FD10" s="91"/>
+      <c r="FE10" s="91"/>
+      <c r="FF10" s="92"/>
+      <c r="FG10" s="90">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="83"/>
-      <c r="FI10" s="83"/>
-      <c r="FJ10" s="83"/>
-      <c r="FK10" s="83"/>
-      <c r="FL10" s="83"/>
-      <c r="FM10" s="84"/>
-      <c r="FN10" s="82">
+      <c r="FH10" s="91"/>
+      <c r="FI10" s="91"/>
+      <c r="FJ10" s="91"/>
+      <c r="FK10" s="91"/>
+      <c r="FL10" s="91"/>
+      <c r="FM10" s="92"/>
+      <c r="FN10" s="90">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="83"/>
-      <c r="FP10" s="83"/>
-      <c r="FQ10" s="83"/>
-      <c r="FR10" s="83"/>
-      <c r="FS10" s="83"/>
-      <c r="FT10" s="84"/>
-      <c r="FU10" s="82">
+      <c r="FO10" s="91"/>
+      <c r="FP10" s="91"/>
+      <c r="FQ10" s="91"/>
+      <c r="FR10" s="91"/>
+      <c r="FS10" s="91"/>
+      <c r="FT10" s="92"/>
+      <c r="FU10" s="90">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="83"/>
-      <c r="FW10" s="83"/>
-      <c r="FX10" s="83"/>
-      <c r="FY10" s="83"/>
-      <c r="FZ10" s="83"/>
-      <c r="GA10" s="84"/>
-      <c r="GB10" s="82">
+      <c r="FV10" s="91"/>
+      <c r="FW10" s="91"/>
+      <c r="FX10" s="91"/>
+      <c r="FY10" s="91"/>
+      <c r="FZ10" s="91"/>
+      <c r="GA10" s="92"/>
+      <c r="GB10" s="90">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="83"/>
-      <c r="GD10" s="83"/>
-      <c r="GE10" s="83"/>
-      <c r="GF10" s="83"/>
-      <c r="GG10" s="83"/>
-      <c r="GH10" s="84"/>
-      <c r="GI10" s="82">
+      <c r="GC10" s="91"/>
+      <c r="GD10" s="91"/>
+      <c r="GE10" s="91"/>
+      <c r="GF10" s="91"/>
+      <c r="GG10" s="91"/>
+      <c r="GH10" s="92"/>
+      <c r="GI10" s="90">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="83"/>
-      <c r="GK10" s="83"/>
-      <c r="GL10" s="83"/>
-      <c r="GM10" s="83"/>
-      <c r="GN10" s="83"/>
-      <c r="GO10" s="84"/>
-      <c r="GP10" s="82">
+      <c r="GJ10" s="91"/>
+      <c r="GK10" s="91"/>
+      <c r="GL10" s="91"/>
+      <c r="GM10" s="91"/>
+      <c r="GN10" s="91"/>
+      <c r="GO10" s="92"/>
+      <c r="GP10" s="90">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="83"/>
-      <c r="GR10" s="83"/>
-      <c r="GS10" s="83"/>
-      <c r="GT10" s="83"/>
-      <c r="GU10" s="83"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="82">
+      <c r="GQ10" s="91"/>
+      <c r="GR10" s="91"/>
+      <c r="GS10" s="91"/>
+      <c r="GT10" s="91"/>
+      <c r="GU10" s="91"/>
+      <c r="GV10" s="92"/>
+      <c r="GW10" s="90">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="83"/>
-      <c r="GY10" s="83"/>
-      <c r="GZ10" s="83"/>
-      <c r="HA10" s="83"/>
-      <c r="HB10" s="83"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="82">
+      <c r="GX10" s="91"/>
+      <c r="GY10" s="91"/>
+      <c r="GZ10" s="91"/>
+      <c r="HA10" s="91"/>
+      <c r="HB10" s="91"/>
+      <c r="HC10" s="92"/>
+      <c r="HD10" s="90">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="83"/>
-      <c r="HF10" s="83"/>
-      <c r="HG10" s="83"/>
-      <c r="HH10" s="83"/>
-      <c r="HI10" s="83"/>
-      <c r="HJ10" s="84"/>
-      <c r="HK10" s="82">
+      <c r="HE10" s="91"/>
+      <c r="HF10" s="91"/>
+      <c r="HG10" s="91"/>
+      <c r="HH10" s="91"/>
+      <c r="HI10" s="91"/>
+      <c r="HJ10" s="92"/>
+      <c r="HK10" s="90">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="83"/>
-      <c r="HM10" s="83"/>
-      <c r="HN10" s="83"/>
-      <c r="HO10" s="83"/>
-      <c r="HP10" s="83"/>
-      <c r="HQ10" s="84"/>
-      <c r="HR10" s="82">
+      <c r="HL10" s="91"/>
+      <c r="HM10" s="91"/>
+      <c r="HN10" s="91"/>
+      <c r="HO10" s="91"/>
+      <c r="HP10" s="91"/>
+      <c r="HQ10" s="92"/>
+      <c r="HR10" s="90">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="83"/>
-      <c r="HT10" s="83"/>
-      <c r="HU10" s="83"/>
-      <c r="HV10" s="83"/>
-      <c r="HW10" s="83"/>
-      <c r="HX10" s="84"/>
-      <c r="HY10" s="82">
+      <c r="HS10" s="91"/>
+      <c r="HT10" s="91"/>
+      <c r="HU10" s="91"/>
+      <c r="HV10" s="91"/>
+      <c r="HW10" s="91"/>
+      <c r="HX10" s="92"/>
+      <c r="HY10" s="90">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="83"/>
-      <c r="IA10" s="83"/>
-      <c r="IB10" s="83"/>
-      <c r="IC10" s="83"/>
-      <c r="ID10" s="83"/>
-      <c r="IE10" s="84"/>
-      <c r="IF10" s="82">
+      <c r="HZ10" s="91"/>
+      <c r="IA10" s="91"/>
+      <c r="IB10" s="91"/>
+      <c r="IC10" s="91"/>
+      <c r="ID10" s="91"/>
+      <c r="IE10" s="92"/>
+      <c r="IF10" s="90">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="83"/>
-      <c r="IH10" s="83"/>
-      <c r="II10" s="83"/>
-      <c r="IJ10" s="83"/>
-      <c r="IK10" s="83"/>
-      <c r="IL10" s="84"/>
-      <c r="IM10" s="82">
+      <c r="IG10" s="91"/>
+      <c r="IH10" s="91"/>
+      <c r="II10" s="91"/>
+      <c r="IJ10" s="91"/>
+      <c r="IK10" s="91"/>
+      <c r="IL10" s="92"/>
+      <c r="IM10" s="90">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="83"/>
-      <c r="IO10" s="83"/>
-      <c r="IP10" s="83"/>
-      <c r="IQ10" s="83"/>
-      <c r="IR10" s="83"/>
-      <c r="IS10" s="84"/>
+      <c r="IN10" s="91"/>
+      <c r="IO10" s="91"/>
+      <c r="IP10" s="91"/>
+      <c r="IQ10" s="91"/>
+      <c r="IR10" s="91"/>
+      <c r="IS10" s="92"/>
     </row>
-    <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
+    <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6133,355 +6137,355 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="88">
+      <c r="P11" s="87">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="88">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="87">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="88">
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="87">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="88">
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="87">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="88">
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="87">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="88">
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="88"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="87">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="88">
+      <c r="AZ11" s="88"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="88"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="87">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="88">
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="88"/>
+      <c r="BK11" s="88"/>
+      <c r="BL11" s="89"/>
+      <c r="BM11" s="87">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="89"/>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="88">
+      <c r="BN11" s="88"/>
+      <c r="BO11" s="88"/>
+      <c r="BP11" s="88"/>
+      <c r="BQ11" s="88"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="87">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
-      <c r="BX11" s="89"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="88">
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="87">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="89"/>
-      <c r="CC11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="88">
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="89"/>
+      <c r="CH11" s="87">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CL11" s="89"/>
-      <c r="CM11" s="89"/>
-      <c r="CN11" s="90"/>
-      <c r="CO11" s="88">
+      <c r="CI11" s="88"/>
+      <c r="CJ11" s="88"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="87">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="89"/>
-      <c r="CQ11" s="89"/>
-      <c r="CR11" s="89"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="90"/>
-      <c r="CV11" s="88">
+      <c r="CP11" s="88"/>
+      <c r="CQ11" s="88"/>
+      <c r="CR11" s="88"/>
+      <c r="CS11" s="88"/>
+      <c r="CT11" s="88"/>
+      <c r="CU11" s="89"/>
+      <c r="CV11" s="87">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="89"/>
-      <c r="CX11" s="89"/>
-      <c r="CY11" s="89"/>
-      <c r="CZ11" s="89"/>
-      <c r="DA11" s="89"/>
-      <c r="DB11" s="90"/>
-      <c r="DC11" s="88">
+      <c r="CW11" s="88"/>
+      <c r="CX11" s="88"/>
+      <c r="CY11" s="88"/>
+      <c r="CZ11" s="88"/>
+      <c r="DA11" s="88"/>
+      <c r="DB11" s="89"/>
+      <c r="DC11" s="87">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="89"/>
-      <c r="DE11" s="89"/>
-      <c r="DF11" s="89"/>
-      <c r="DG11" s="89"/>
-      <c r="DH11" s="89"/>
-      <c r="DI11" s="90"/>
-      <c r="DJ11" s="88">
+      <c r="DD11" s="88"/>
+      <c r="DE11" s="88"/>
+      <c r="DF11" s="88"/>
+      <c r="DG11" s="88"/>
+      <c r="DH11" s="88"/>
+      <c r="DI11" s="89"/>
+      <c r="DJ11" s="87">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="89"/>
-      <c r="DL11" s="89"/>
-      <c r="DM11" s="89"/>
-      <c r="DN11" s="89"/>
-      <c r="DO11" s="89"/>
-      <c r="DP11" s="90"/>
-      <c r="DQ11" s="88">
+      <c r="DK11" s="88"/>
+      <c r="DL11" s="88"/>
+      <c r="DM11" s="88"/>
+      <c r="DN11" s="88"/>
+      <c r="DO11" s="88"/>
+      <c r="DP11" s="89"/>
+      <c r="DQ11" s="87">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="89"/>
-      <c r="DS11" s="89"/>
-      <c r="DT11" s="89"/>
-      <c r="DU11" s="89"/>
-      <c r="DV11" s="89"/>
-      <c r="DW11" s="90"/>
-      <c r="DX11" s="88">
+      <c r="DR11" s="88"/>
+      <c r="DS11" s="88"/>
+      <c r="DT11" s="88"/>
+      <c r="DU11" s="88"/>
+      <c r="DV11" s="88"/>
+      <c r="DW11" s="89"/>
+      <c r="DX11" s="87">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="89"/>
-      <c r="DZ11" s="89"/>
-      <c r="EA11" s="89"/>
-      <c r="EB11" s="89"/>
-      <c r="EC11" s="89"/>
-      <c r="ED11" s="90"/>
-      <c r="EE11" s="88">
+      <c r="DY11" s="88"/>
+      <c r="DZ11" s="88"/>
+      <c r="EA11" s="88"/>
+      <c r="EB11" s="88"/>
+      <c r="EC11" s="88"/>
+      <c r="ED11" s="89"/>
+      <c r="EE11" s="87">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="89"/>
-      <c r="EG11" s="89"/>
-      <c r="EH11" s="89"/>
-      <c r="EI11" s="89"/>
-      <c r="EJ11" s="89"/>
-      <c r="EK11" s="90"/>
-      <c r="EL11" s="88">
+      <c r="EF11" s="88"/>
+      <c r="EG11" s="88"/>
+      <c r="EH11" s="88"/>
+      <c r="EI11" s="88"/>
+      <c r="EJ11" s="88"/>
+      <c r="EK11" s="89"/>
+      <c r="EL11" s="87">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="89"/>
-      <c r="EN11" s="89"/>
-      <c r="EO11" s="89"/>
-      <c r="EP11" s="89"/>
-      <c r="EQ11" s="89"/>
-      <c r="ER11" s="90"/>
-      <c r="ES11" s="88">
+      <c r="EM11" s="88"/>
+      <c r="EN11" s="88"/>
+      <c r="EO11" s="88"/>
+      <c r="EP11" s="88"/>
+      <c r="EQ11" s="88"/>
+      <c r="ER11" s="89"/>
+      <c r="ES11" s="87">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="89"/>
-      <c r="EU11" s="89"/>
-      <c r="EV11" s="89"/>
-      <c r="EW11" s="89"/>
-      <c r="EX11" s="89"/>
-      <c r="EY11" s="90"/>
-      <c r="EZ11" s="88">
+      <c r="ET11" s="88"/>
+      <c r="EU11" s="88"/>
+      <c r="EV11" s="88"/>
+      <c r="EW11" s="88"/>
+      <c r="EX11" s="88"/>
+      <c r="EY11" s="89"/>
+      <c r="EZ11" s="87">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="89"/>
-      <c r="FB11" s="89"/>
-      <c r="FC11" s="89"/>
-      <c r="FD11" s="89"/>
-      <c r="FE11" s="89"/>
-      <c r="FF11" s="90"/>
-      <c r="FG11" s="88">
+      <c r="FA11" s="88"/>
+      <c r="FB11" s="88"/>
+      <c r="FC11" s="88"/>
+      <c r="FD11" s="88"/>
+      <c r="FE11" s="88"/>
+      <c r="FF11" s="89"/>
+      <c r="FG11" s="87">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="89"/>
-      <c r="FI11" s="89"/>
-      <c r="FJ11" s="89"/>
-      <c r="FK11" s="89"/>
-      <c r="FL11" s="89"/>
-      <c r="FM11" s="90"/>
-      <c r="FN11" s="88">
+      <c r="FH11" s="88"/>
+      <c r="FI11" s="88"/>
+      <c r="FJ11" s="88"/>
+      <c r="FK11" s="88"/>
+      <c r="FL11" s="88"/>
+      <c r="FM11" s="89"/>
+      <c r="FN11" s="87">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="89"/>
-      <c r="FP11" s="89"/>
-      <c r="FQ11" s="89"/>
-      <c r="FR11" s="89"/>
-      <c r="FS11" s="89"/>
-      <c r="FT11" s="90"/>
-      <c r="FU11" s="88">
+      <c r="FO11" s="88"/>
+      <c r="FP11" s="88"/>
+      <c r="FQ11" s="88"/>
+      <c r="FR11" s="88"/>
+      <c r="FS11" s="88"/>
+      <c r="FT11" s="89"/>
+      <c r="FU11" s="87">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="89"/>
-      <c r="FW11" s="89"/>
-      <c r="FX11" s="89"/>
-      <c r="FY11" s="89"/>
-      <c r="FZ11" s="89"/>
-      <c r="GA11" s="90"/>
-      <c r="GB11" s="88">
+      <c r="FV11" s="88"/>
+      <c r="FW11" s="88"/>
+      <c r="FX11" s="88"/>
+      <c r="FY11" s="88"/>
+      <c r="FZ11" s="88"/>
+      <c r="GA11" s="89"/>
+      <c r="GB11" s="87">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="89"/>
-      <c r="GD11" s="89"/>
-      <c r="GE11" s="89"/>
-      <c r="GF11" s="89"/>
-      <c r="GG11" s="89"/>
-      <c r="GH11" s="90"/>
-      <c r="GI11" s="88">
+      <c r="GC11" s="88"/>
+      <c r="GD11" s="88"/>
+      <c r="GE11" s="88"/>
+      <c r="GF11" s="88"/>
+      <c r="GG11" s="88"/>
+      <c r="GH11" s="89"/>
+      <c r="GI11" s="87">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="89"/>
-      <c r="GK11" s="89"/>
-      <c r="GL11" s="89"/>
-      <c r="GM11" s="89"/>
-      <c r="GN11" s="89"/>
-      <c r="GO11" s="90"/>
-      <c r="GP11" s="88">
+      <c r="GJ11" s="88"/>
+      <c r="GK11" s="88"/>
+      <c r="GL11" s="88"/>
+      <c r="GM11" s="88"/>
+      <c r="GN11" s="88"/>
+      <c r="GO11" s="89"/>
+      <c r="GP11" s="87">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="89"/>
-      <c r="GR11" s="89"/>
-      <c r="GS11" s="89"/>
-      <c r="GT11" s="89"/>
-      <c r="GU11" s="89"/>
-      <c r="GV11" s="90"/>
-      <c r="GW11" s="88">
+      <c r="GQ11" s="88"/>
+      <c r="GR11" s="88"/>
+      <c r="GS11" s="88"/>
+      <c r="GT11" s="88"/>
+      <c r="GU11" s="88"/>
+      <c r="GV11" s="89"/>
+      <c r="GW11" s="87">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="89"/>
-      <c r="GY11" s="89"/>
-      <c r="GZ11" s="89"/>
-      <c r="HA11" s="89"/>
-      <c r="HB11" s="89"/>
-      <c r="HC11" s="90"/>
-      <c r="HD11" s="88">
+      <c r="GX11" s="88"/>
+      <c r="GY11" s="88"/>
+      <c r="GZ11" s="88"/>
+      <c r="HA11" s="88"/>
+      <c r="HB11" s="88"/>
+      <c r="HC11" s="89"/>
+      <c r="HD11" s="87">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="89"/>
-      <c r="HF11" s="89"/>
-      <c r="HG11" s="89"/>
-      <c r="HH11" s="89"/>
-      <c r="HI11" s="89"/>
-      <c r="HJ11" s="90"/>
-      <c r="HK11" s="88">
+      <c r="HE11" s="88"/>
+      <c r="HF11" s="88"/>
+      <c r="HG11" s="88"/>
+      <c r="HH11" s="88"/>
+      <c r="HI11" s="88"/>
+      <c r="HJ11" s="89"/>
+      <c r="HK11" s="87">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="89"/>
-      <c r="HM11" s="89"/>
-      <c r="HN11" s="89"/>
-      <c r="HO11" s="89"/>
-      <c r="HP11" s="89"/>
-      <c r="HQ11" s="90"/>
-      <c r="HR11" s="88">
+      <c r="HL11" s="88"/>
+      <c r="HM11" s="88"/>
+      <c r="HN11" s="88"/>
+      <c r="HO11" s="88"/>
+      <c r="HP11" s="88"/>
+      <c r="HQ11" s="89"/>
+      <c r="HR11" s="87">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="89"/>
-      <c r="HT11" s="89"/>
-      <c r="HU11" s="89"/>
-      <c r="HV11" s="89"/>
-      <c r="HW11" s="89"/>
-      <c r="HX11" s="90"/>
-      <c r="HY11" s="88">
+      <c r="HS11" s="88"/>
+      <c r="HT11" s="88"/>
+      <c r="HU11" s="88"/>
+      <c r="HV11" s="88"/>
+      <c r="HW11" s="88"/>
+      <c r="HX11" s="89"/>
+      <c r="HY11" s="87">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="89"/>
-      <c r="IA11" s="89"/>
-      <c r="IB11" s="89"/>
-      <c r="IC11" s="89"/>
-      <c r="ID11" s="89"/>
-      <c r="IE11" s="90"/>
-      <c r="IF11" s="88">
+      <c r="HZ11" s="88"/>
+      <c r="IA11" s="88"/>
+      <c r="IB11" s="88"/>
+      <c r="IC11" s="88"/>
+      <c r="ID11" s="88"/>
+      <c r="IE11" s="89"/>
+      <c r="IF11" s="87">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="89"/>
-      <c r="IH11" s="89"/>
-      <c r="II11" s="89"/>
-      <c r="IJ11" s="89"/>
-      <c r="IK11" s="89"/>
-      <c r="IL11" s="90"/>
-      <c r="IM11" s="88">
+      <c r="IG11" s="88"/>
+      <c r="IH11" s="88"/>
+      <c r="II11" s="88"/>
+      <c r="IJ11" s="88"/>
+      <c r="IK11" s="88"/>
+      <c r="IL11" s="89"/>
+      <c r="IM11" s="87">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="89"/>
-      <c r="IO11" s="89"/>
-      <c r="IP11" s="89"/>
-      <c r="IQ11" s="89"/>
-      <c r="IR11" s="89"/>
-      <c r="IS11" s="90"/>
+      <c r="IN11" s="88"/>
+      <c r="IO11" s="88"/>
+      <c r="IP11" s="88"/>
+      <c r="IQ11" s="88"/>
+      <c r="IR11" s="88"/>
+      <c r="IS11" s="89"/>
     </row>
-    <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
+    <row r="12" spans="1:256" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A12,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A12,-1,0,1,1),".","`",1))),VALUE(OFFSET(A12,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A12,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A12,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>1</v>
@@ -6764,7 +6768,7 @@
       <c r="IR12" s="71"/>
       <c r="IS12" s="71"/>
     </row>
-    <row r="13" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="13" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A13,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))),OFFSET(A13,-1,0,1,1)&amp;".1",LEFT(OFFSET(A13,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A13,-1,0,1,1),LEN(OFFSET(A13,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A13,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -7047,7 +7051,7 @@
       <c r="IR13" s="58"/>
       <c r="IS13" s="58"/>
     </row>
-    <row r="14" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="14" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A14,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))),OFFSET(A14,-1,0,1,1)&amp;".1",LEFT(OFFSET(A14,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A14,-1,0,1,1),LEN(OFFSET(A14,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A14,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.2</v>
@@ -7330,7 +7334,7 @@
       <c r="IR14" s="17"/>
       <c r="IS14" s="17"/>
     </row>
-    <row r="15" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="15" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A15,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))),OFFSET(A15,-1,0,1,1)&amp;".1",LEFT(OFFSET(A15,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A15,-1,0,1,1),LEN(OFFSET(A15,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A15,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.3</v>
@@ -7613,7 +7617,7 @@
       <c r="IR15" s="17"/>
       <c r="IS15" s="17"/>
     </row>
-    <row r="16" spans="1:256" s="23" customFormat="1" ht="12">
+    <row r="16" spans="1:256" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A16,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))),VALUE(OFFSET(A16,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>2</v>
@@ -7896,7 +7900,7 @@
       <c r="IR16" s="71"/>
       <c r="IS16" s="71"/>
     </row>
-    <row r="17" spans="1:253" s="23" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:253" s="23" customFormat="1" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="str">
         <f t="shared" ref="A17:A24" ca="1" si="22">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A17,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))),OFFSET(A17,-1,0,1,1)&amp;".1",LEFT(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A17,-1,0,1,1),LEN(OFFSET(A17,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -8179,7 +8183,7 @@
       <c r="IR17" s="58"/>
       <c r="IS17" s="58"/>
     </row>
-    <row r="18" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.2</v>
@@ -8462,7 +8466,7 @@
       <c r="IR18" s="58"/>
       <c r="IS18" s="58"/>
     </row>
-    <row r="19" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="19" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.3</v>
@@ -8745,7 +8749,7 @@
       <c r="IR19" s="58"/>
       <c r="IS19" s="58"/>
     </row>
-    <row r="20" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="20" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.4</v>
@@ -9028,7 +9032,7 @@
       <c r="IR20" s="58"/>
       <c r="IS20" s="58"/>
     </row>
-    <row r="21" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="21" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.5</v>
@@ -9311,7 +9315,7 @@
       <c r="IR21" s="58"/>
       <c r="IS21" s="58"/>
     </row>
-    <row r="22" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="22" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A22" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.6</v>
@@ -9594,7 +9598,7 @@
       <c r="IR22" s="58"/>
       <c r="IS22" s="58"/>
     </row>
-    <row r="23" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="23" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A23,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))),OFFSET(A23,-1,0,1,1)&amp;".1",LEFT(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A23,-1,0,1,1),LEN(OFFSET(A23,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.7</v>
@@ -9877,7 +9881,7 @@
       <c r="IR23" s="58"/>
       <c r="IS23" s="58"/>
     </row>
-    <row r="24" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="24" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.8</v>
@@ -10162,7 +10166,7 @@
       <c r="IR24" s="58"/>
       <c r="IS24" s="58"/>
     </row>
-    <row r="25" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="25" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.8.1</v>
@@ -10445,7 +10449,7 @@
       <c r="IR25" s="58"/>
       <c r="IS25" s="58"/>
     </row>
-    <row r="26" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="26" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A26,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))),OFFSET(A26,-1,0,1,1)&amp;".1",LEFT(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A26,-1,0,1,1),LEN(OFFSET(A26,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.8.2</v>
@@ -10728,7 +10732,7 @@
       <c r="IR26" s="58"/>
       <c r="IS26" s="58"/>
     </row>
-    <row r="27" spans="1:253" s="23" customFormat="1" ht="12">
+    <row r="27" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),VALUE(OFFSET(A27,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>3</v>
@@ -10749,7 +10753,7 @@
       </c>
       <c r="I27" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H27,$F$6&gt;=G27),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J27" s="75">
         <f>MAX(H28:H32)-G27+1</f>
@@ -10761,15 +10765,15 @@
       </c>
       <c r="L27" s="77">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M27" s="76">
         <f t="shared" si="27"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N27" s="78">
         <f>SUMPRODUCT(J28:J32,N28:N32)/SUM(J28:J32)</f>
-        <v>0.13333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O27" s="79"/>
       <c r="P27" s="71"/>
@@ -11011,7 +11015,7 @@
       <c r="IR27" s="71"/>
       <c r="IS27" s="71"/>
     </row>
-    <row r="28" spans="1:253" s="23" customFormat="1" ht="24" outlineLevel="1">
+    <row r="28" spans="1:253" s="23" customFormat="1" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -11034,7 +11038,7 @@
       </c>
       <c r="I28" s="61" t="str">
         <f t="shared" ref="I28:I33" ca="1" si="38">IF(AND($F$6&lt;=H28,$F$6&gt;=G28),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J28" s="62">
         <v>5</v>
@@ -11045,14 +11049,14 @@
       </c>
       <c r="L28" s="64">
         <f t="shared" ref="L28:L33" si="40">ROUNDDOWN(N28*J28,0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M28" s="63">
         <f t="shared" ref="M28:M33" si="41">J28-L28</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28" s="65">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="58"/>
@@ -11294,7 +11298,7 @@
       <c r="IR28" s="58"/>
       <c r="IS28" s="58"/>
     </row>
-    <row r="29" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="29" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))),OFFSET(A29,-1,0,1,1)&amp;".1",LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A29,-1,0,1,1),LEN(OFFSET(A29,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -11317,7 +11321,7 @@
       </c>
       <c r="I29" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J29" s="62">
         <v>3</v>
@@ -11328,14 +11332,14 @@
       </c>
       <c r="L29" s="64">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="63">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="58"/>
@@ -11577,7 +11581,7 @@
       <c r="IR29" s="58"/>
       <c r="IS29" s="58"/>
     </row>
-    <row r="30" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="30" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))),OFFSET(A30,-1,0,1,1)&amp;".1",LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A30,-1,0,1,1),LEN(OFFSET(A30,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -11618,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="58"/>
@@ -11860,7 +11864,7 @@
       <c r="IR30" s="58"/>
       <c r="IS30" s="58"/>
     </row>
-    <row r="31" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="31" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -11901,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O31" s="66"/>
       <c r="P31" s="58"/>
@@ -12143,7 +12147,7 @@
       <c r="IR31" s="58"/>
       <c r="IS31" s="58"/>
     </row>
-    <row r="32" spans="1:253" s="23" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:253" s="23" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -12177,14 +12181,14 @@
       </c>
       <c r="L32" s="64">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="63">
         <f t="shared" si="41"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" s="65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O32" s="66"/>
       <c r="P32" s="58"/>
@@ -12426,7 +12430,7 @@
       <c r="IR32" s="58"/>
       <c r="IS32" s="58"/>
     </row>
-    <row r="33" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="33" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54" t="str">
         <f t="shared" ref="A33" ca="1" si="43">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.6</v>
@@ -12709,7 +12713,7 @@
       <c r="IR33" s="58"/>
       <c r="IS33" s="58"/>
     </row>
-    <row r="34" spans="1:253" s="23" customFormat="1" ht="12">
+    <row r="34" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),VALUE(OFFSET(A34,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>4</v>
@@ -12730,7 +12734,7 @@
       </c>
       <c r="I34" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H34,$F$6&gt;=G34),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J34" s="75">
         <f>MAX(H35:H36)-G34+1</f>
@@ -12992,7 +12996,7 @@
       <c r="IR34" s="71"/>
       <c r="IS34" s="71"/>
     </row>
-    <row r="35" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="35" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))),OFFSET(A35,-1,0,1,1)&amp;".1",LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A35,-1,0,1,1),LEN(OFFSET(A35,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -13015,7 +13019,7 @@
       </c>
       <c r="I35" s="61" t="str">
         <f t="shared" ref="I35" ca="1" si="47">IF(AND($F$6&lt;=H35,$F$6&gt;=G35),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J35" s="62">
         <v>19</v>
@@ -13275,7 +13279,7 @@
       <c r="IR35" s="58"/>
       <c r="IS35" s="58"/>
     </row>
-    <row r="36" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
+    <row r="36" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A36,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))),OFFSET(A36,-1,0,1,1)&amp;".1",LEFT(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A36,-1,0,1,1),LEN(OFFSET(A36,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -13558,7 +13562,7 @@
       <c r="IR36" s="58"/>
       <c r="IS36" s="58"/>
     </row>
-    <row r="37" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1">
+    <row r="37" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A37,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))),VALUE(OFFSET(A37,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A37,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>5</v>
@@ -13841,7 +13845,7 @@
       <c r="IR37" s="71"/>
       <c r="IS37" s="71"/>
     </row>
-    <row r="38" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),OFFSET(A38,-1,0,1,1)&amp;".1",LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A38,-1,0,1,1),LEN(OFFSET(A38,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>5.1</v>
@@ -14124,7 +14128,7 @@
       <c r="IR38" s="58"/>
       <c r="IS38" s="58"/>
     </row>
-    <row r="39" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1">
+    <row r="39" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),VALUE(OFFSET(A39,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>6</v>
@@ -14407,7 +14411,7 @@
       <c r="IR39" s="71"/>
       <c r="IS39" s="71"/>
     </row>
-    <row r="40" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="40" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="54" t="str">
         <f t="shared" ref="A40:A45" ca="1" si="57">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>6.1</v>
@@ -14690,7 +14694,7 @@
       <c r="IR40" s="58"/>
       <c r="IS40" s="58"/>
     </row>
-    <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A41" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.2</v>
@@ -14973,7 +14977,7 @@
       <c r="IR41" s="58"/>
       <c r="IS41" s="58"/>
     </row>
-    <row r="42" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.3</v>
@@ -15256,7 +15260,7 @@
       <c r="IR42" s="58"/>
       <c r="IS42" s="58"/>
     </row>
-    <row r="43" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="43" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.4</v>
@@ -15539,7 +15543,7 @@
       <c r="IR43" s="58"/>
       <c r="IS43" s="58"/>
     </row>
-    <row r="44" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="44" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.5</v>
@@ -15822,7 +15826,7 @@
       <c r="IR44" s="58"/>
       <c r="IS44" s="58"/>
     </row>
-    <row r="45" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="45" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.6</v>
@@ -16105,7 +16109,7 @@
       <c r="IR45" s="58"/>
       <c r="IS45" s="58"/>
     </row>
-    <row r="46" spans="1:253" s="23" customFormat="1" ht="12">
+    <row r="46" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A46" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A46,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))),VALUE(OFFSET(A46,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A46,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>7</v>
@@ -16388,7 +16392,7 @@
       <c r="IR46" s="71"/>
       <c r="IS46" s="71"/>
     </row>
-    <row r="47" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A47" s="54" t="str">
         <f t="shared" ref="A47:A50" ca="1" si="72">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A47,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))),OFFSET(A47,-1,0,1,1)&amp;".1",LEFT(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A47,-1,0,1,1),LEN(OFFSET(A47,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>7.1</v>
@@ -16671,7 +16675,7 @@
       <c r="IR47" s="58"/>
       <c r="IS47" s="58"/>
     </row>
-    <row r="48" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A48" s="54" t="str">
         <f t="shared" ca="1" si="72"/>
         <v>7.2</v>
@@ -16954,7 +16958,7 @@
       <c r="IR48" s="58"/>
       <c r="IS48" s="58"/>
     </row>
-    <row r="49" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="54" t="str">
         <f t="shared" ca="1" si="72"/>
         <v>7.3</v>
@@ -17237,7 +17241,7 @@
       <c r="IR49" s="58"/>
       <c r="IS49" s="58"/>
     </row>
-    <row r="50" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="54" t="str">
         <f t="shared" ca="1" si="72"/>
         <v>7.4</v>
@@ -17520,7 +17524,7 @@
       <c r="IR50" s="58"/>
       <c r="IS50" s="58"/>
     </row>
-    <row r="51" spans="1:253" s="23" customFormat="1" ht="12">
+    <row r="51" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A51" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A51,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))),VALUE(OFFSET(A51,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>8</v>
@@ -17803,7 +17807,7 @@
       <c r="IR51" s="71"/>
       <c r="IS51" s="71"/>
     </row>
-    <row r="52" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A52,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))),OFFSET(A52,-1,0,1,1)&amp;".1",LEFT(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A52,-1,0,1,1),LEN(OFFSET(A52,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>8.1</v>
@@ -18086,7 +18090,7 @@
       <c r="IR52" s="58"/>
       <c r="IS52" s="58"/>
     </row>
-    <row r="53" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A53,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))),OFFSET(A53,-1,0,1,1)&amp;".1",LEFT(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A53,-1,0,1,1),LEN(OFFSET(A53,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>8.2</v>
@@ -18369,7 +18373,7 @@
       <c r="IR53" s="58"/>
       <c r="IS53" s="58"/>
     </row>
-    <row r="54" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A54,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))),OFFSET(A54,-1,0,1,1)&amp;".1",LEFT(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A54,-1,0,1,1),LEN(OFFSET(A54,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>8.3</v>
@@ -18656,6 +18660,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N54"/>
   <mergeCells count="115">
+    <mergeCell ref="HK10:HQ10"/>
+    <mergeCell ref="FG10:FM10"/>
+    <mergeCell ref="IM9:IS9"/>
+    <mergeCell ref="GW9:HC9"/>
+    <mergeCell ref="AR11:AX11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="AD11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AR9:AX9"/>
+    <mergeCell ref="IM10:IS10"/>
+    <mergeCell ref="FU10:GA10"/>
+    <mergeCell ref="GB10:GH10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="AR10:AX10"/>
+    <mergeCell ref="DC10:DI10"/>
+    <mergeCell ref="DJ10:DP10"/>
+    <mergeCell ref="IF10:IL10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="M5:M11"/>
@@ -18680,97 +18775,6 @@
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HK10:HQ10"/>
-    <mergeCell ref="FG10:FM10"/>
-    <mergeCell ref="IM9:IS9"/>
-    <mergeCell ref="GW9:HC9"/>
-    <mergeCell ref="AR11:AX11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AR9:AX9"/>
-    <mergeCell ref="IM10:IS10"/>
-    <mergeCell ref="FU10:GA10"/>
-    <mergeCell ref="GB10:GH10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="W10:AC10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="AR10:AX10"/>
-    <mergeCell ref="DC10:DI10"/>
-    <mergeCell ref="DJ10:DP10"/>
-    <mergeCell ref="IF10:IL10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">
@@ -19415,7 +19419,7 @@
                   </from>
                   <to>
                     <xdr:col>137</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </to>
@@ -19423,9 +19427,11 @@
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
 </worksheet>
 </file>
--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/Thesis/Master_Thesis_Deliverables/1-Timeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\Master_Thesis_Deliverables\1-Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$54</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -230,14 +230,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/dd/yy"/>
     <numFmt numFmtId="165" formatCode="\W00"/>
     <numFmt numFmtId="166" formatCode="0\ \D\a\y\s"/>
     <numFmt numFmtId="167" formatCode="\(m/d\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2749,7 +2749,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>137</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -3075,7 +3075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3085,31 +3085,31 @@
       <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AL29" sqref="AL29"/>
+      <selection pane="bottomRight" activeCell="BR35" sqref="BR35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29.19921875" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="7.796875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.19921875" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" style="52" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="3.796875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="5.19921875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="7.3984375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="4.19921875" style="33" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0.796875" style="12" customWidth="1"/>
-    <col min="17" max="253" width="0.3984375" style="12" customWidth="1"/>
-    <col min="254" max="255" width="9.19921875" style="12" customWidth="1"/>
-    <col min="256" max="16384" width="10.796875" style="12"/>
+    <col min="1" max="1" width="6.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="7.85546875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="52" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="3.85546875" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="5.140625" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.42578125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="33" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0.85546875" style="12" customWidth="1"/>
+    <col min="17" max="253" width="0.42578125" style="12" customWidth="1"/>
+    <col min="254" max="255" width="9.140625" style="12" customWidth="1"/>
+    <col min="256" max="16384" width="10.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:256" ht="15.75" customHeight="1">
       <c r="A1" s="82" t="s">
         <v>53</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="P2" s="80"/>
     </row>
-    <row r="3" spans="1:256" s="9" customFormat="1" ht="9.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" s="9" customFormat="1" ht="9.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="I3" s="49"/>
@@ -3158,7 +3158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="6" t="s">
@@ -3179,7 +3179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" s="7" customFormat="1" ht="18.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
@@ -3211,7 +3211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="40"/>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="IV6" s="41"/>
     </row>
-    <row r="7" spans="1:256" s="9" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" s="9" customFormat="1" ht="22.5" hidden="1" customHeight="1">
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="IV7" s="13"/>
     </row>
-    <row r="8" spans="1:256" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" s="9" customFormat="1" ht="6.75" customHeight="1">
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
@@ -5400,7 +5400,7 @@
       <c r="IS8" s="14"/>
       <c r="IV8" s="13"/>
     </row>
-    <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="97" t="s">
         <v>16</v>
@@ -5765,7 +5765,7 @@
       <c r="IR9" s="100"/>
       <c r="IS9" s="101"/>
     </row>
-    <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="97"/>
       <c r="D10" s="93"/>
@@ -6118,7 +6118,7 @@
       <c r="IR10" s="91"/>
       <c r="IS10" s="92"/>
     </row>
-    <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="IR11" s="88"/>
       <c r="IS11" s="89"/>
     </row>
-    <row r="12" spans="1:256" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A12,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A12,-1,0,1,1),".","`",1))),VALUE(OFFSET(A12,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A12,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A12,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>1</v>
@@ -6768,7 +6768,7 @@
       <c r="IR12" s="71"/>
       <c r="IS12" s="71"/>
     </row>
-    <row r="13" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A13" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A13,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))),OFFSET(A13,-1,0,1,1)&amp;".1",LEFT(OFFSET(A13,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A13,-1,0,1,1),LEN(OFFSET(A13,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A13,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A13,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -7051,7 +7051,7 @@
       <c r="IR13" s="58"/>
       <c r="IS13" s="58"/>
     </row>
-    <row r="14" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A14" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A14,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))),OFFSET(A14,-1,0,1,1)&amp;".1",LEFT(OFFSET(A14,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A14,-1,0,1,1),LEN(OFFSET(A14,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A14,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A14,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.2</v>
@@ -7334,7 +7334,7 @@
       <c r="IR14" s="17"/>
       <c r="IS14" s="17"/>
     </row>
-    <row r="15" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A15" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A15,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))),OFFSET(A15,-1,0,1,1)&amp;".1",LEFT(OFFSET(A15,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A15,-1,0,1,1),LEN(OFFSET(A15,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A15,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A15,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.3</v>
@@ -7617,7 +7617,7 @@
       <c r="IR15" s="17"/>
       <c r="IS15" s="17"/>
     </row>
-    <row r="16" spans="1:256" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A16" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A16,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))),VALUE(OFFSET(A16,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A16,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A16,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>2</v>
@@ -7900,7 +7900,7 @@
       <c r="IR16" s="71"/>
       <c r="IS16" s="71"/>
     </row>
-    <row r="17" spans="1:253" s="23" customFormat="1" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:253" s="23" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A17" s="54" t="str">
         <f t="shared" ref="A17:A24" ca="1" si="22">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A17,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))),OFFSET(A17,-1,0,1,1)&amp;".1",LEFT(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A17,-1,0,1,1),LEN(OFFSET(A17,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -8183,7 +8183,7 @@
       <c r="IR17" s="58"/>
       <c r="IS17" s="58"/>
     </row>
-    <row r="18" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.2</v>
@@ -8466,7 +8466,7 @@
       <c r="IR18" s="58"/>
       <c r="IS18" s="58"/>
     </row>
-    <row r="19" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A19" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.3</v>
@@ -8749,7 +8749,7 @@
       <c r="IR19" s="58"/>
       <c r="IS19" s="58"/>
     </row>
-    <row r="20" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A20" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.4</v>
@@ -9032,7 +9032,7 @@
       <c r="IR20" s="58"/>
       <c r="IS20" s="58"/>
     </row>
-    <row r="21" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A21" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.5</v>
@@ -9315,7 +9315,7 @@
       <c r="IR21" s="58"/>
       <c r="IS21" s="58"/>
     </row>
-    <row r="22" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A22" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.6</v>
@@ -9598,7 +9598,7 @@
       <c r="IR22" s="58"/>
       <c r="IS22" s="58"/>
     </row>
-    <row r="23" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A23" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A23,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))),OFFSET(A23,-1,0,1,1)&amp;".1",LEFT(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A23,-1,0,1,1),LEN(OFFSET(A23,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.7</v>
@@ -9881,7 +9881,7 @@
       <c r="IR23" s="58"/>
       <c r="IS23" s="58"/>
     </row>
-    <row r="24" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A24" s="54" t="str">
         <f t="shared" ca="1" si="22"/>
         <v>2.8</v>
@@ -10166,7 +10166,7 @@
       <c r="IR24" s="58"/>
       <c r="IS24" s="58"/>
     </row>
-    <row r="25" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A25" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.8.1</v>
@@ -10449,7 +10449,7 @@
       <c r="IR25" s="58"/>
       <c r="IS25" s="58"/>
     </row>
-    <row r="26" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A26" s="24" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A26,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))),OFFSET(A26,-1,0,1,1)&amp;".1",LEFT(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A26,-1,0,1,1),LEN(OFFSET(A26,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.8.2</v>
@@ -10732,7 +10732,7 @@
       <c r="IR26" s="58"/>
       <c r="IS26" s="58"/>
     </row>
-    <row r="27" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:253" s="23" customFormat="1" ht="12">
       <c r="A27" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))),VALUE(OFFSET(A27,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>3</v>
@@ -11015,7 +11015,7 @@
       <c r="IR27" s="71"/>
       <c r="IS27" s="71"/>
     </row>
-    <row r="28" spans="1:253" s="23" customFormat="1" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:253" s="23" customFormat="1" ht="24" outlineLevel="1">
       <c r="A28" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -11298,7 +11298,7 @@
       <c r="IR28" s="58"/>
       <c r="IS28" s="58"/>
     </row>
-    <row r="29" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A29" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))),OFFSET(A29,-1,0,1,1)&amp;".1",LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A29,-1,0,1,1),LEN(OFFSET(A29,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -11581,7 +11581,7 @@
       <c r="IR29" s="58"/>
       <c r="IS29" s="58"/>
     </row>
-    <row r="30" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A30" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))),OFFSET(A30,-1,0,1,1)&amp;".1",LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A30,-1,0,1,1),LEN(OFFSET(A30,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -11864,7 +11864,7 @@
       <c r="IR30" s="58"/>
       <c r="IS30" s="58"/>
     </row>
-    <row r="31" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A31" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -12147,7 +12147,7 @@
       <c r="IR31" s="58"/>
       <c r="IS31" s="58"/>
     </row>
-    <row r="32" spans="1:253" s="23" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:253" s="23" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A32" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -12430,7 +12430,7 @@
       <c r="IR32" s="58"/>
       <c r="IS32" s="58"/>
     </row>
-    <row r="33" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A33" s="54" t="str">
         <f t="shared" ref="A33" ca="1" si="43">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.6</v>
@@ -12713,7 +12713,7 @@
       <c r="IR33" s="58"/>
       <c r="IS33" s="58"/>
     </row>
-    <row r="34" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:253" s="23" customFormat="1" ht="12">
       <c r="A34" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))),VALUE(OFFSET(A34,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>4</v>
@@ -12996,7 +12996,7 @@
       <c r="IR34" s="71"/>
       <c r="IS34" s="71"/>
     </row>
-    <row r="35" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A35" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))),OFFSET(A35,-1,0,1,1)&amp;".1",LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A35,-1,0,1,1),LEN(OFFSET(A35,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -13279,7 +13279,7 @@
       <c r="IR35" s="58"/>
       <c r="IS35" s="58"/>
     </row>
-    <row r="36" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:253" s="23" customFormat="1" ht="12" outlineLevel="1">
       <c r="A36" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A36,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))),OFFSET(A36,-1,0,1,1)&amp;".1",LEFT(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A36,-1,0,1,1),LEN(OFFSET(A36,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -13562,7 +13562,7 @@
       <c r="IR36" s="58"/>
       <c r="IS36" s="58"/>
     </row>
-    <row r="37" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A37,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))),VALUE(OFFSET(A37,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A37,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>5</v>
@@ -13845,7 +13845,7 @@
       <c r="IR37" s="71"/>
       <c r="IS37" s="71"/>
     </row>
-    <row r="38" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),OFFSET(A38,-1,0,1,1)&amp;".1",LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A38,-1,0,1,1),LEN(OFFSET(A38,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>5.1</v>
@@ -14128,7 +14128,7 @@
       <c r="IR38" s="58"/>
       <c r="IS38" s="58"/>
     </row>
-    <row r="39" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1">
       <c r="A39" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),VALUE(OFFSET(A39,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>6</v>
@@ -14411,7 +14411,7 @@
       <c r="IR39" s="71"/>
       <c r="IS39" s="71"/>
     </row>
-    <row r="40" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="54" t="str">
         <f t="shared" ref="A40:A45" ca="1" si="57">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>6.1</v>
@@ -14694,7 +14694,7 @@
       <c r="IR40" s="58"/>
       <c r="IS40" s="58"/>
     </row>
-    <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.2</v>
@@ -14977,7 +14977,7 @@
       <c r="IR41" s="58"/>
       <c r="IS41" s="58"/>
     </row>
-    <row r="42" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.3</v>
@@ -15260,7 +15260,7 @@
       <c r="IR42" s="58"/>
       <c r="IS42" s="58"/>
     </row>
-    <row r="43" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A43" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.4</v>
@@ -15543,7 +15543,7 @@
       <c r="IR43" s="58"/>
       <c r="IS43" s="58"/>
     </row>
-    <row r="44" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A44" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.5</v>
@@ -15826,7 +15826,7 @@
       <c r="IR44" s="58"/>
       <c r="IS44" s="58"/>
     </row>
-    <row r="45" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="54" t="str">
         <f t="shared" ca="1" si="57"/>
         <v>6.6</v>
@@ -16109,7 +16109,7 @@
       <c r="IR45" s="58"/>
       <c r="IS45" s="58"/>
     </row>
-    <row r="46" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:253" s="23" customFormat="1" ht="12">
       <c r="A46" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A46,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))),VALUE(OFFSET(A46,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A46,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>7</v>
@@ -16392,7 +16392,7 @@
       <c r="IR46" s="71"/>
       <c r="IS46" s="71"/>
     </row>
-    <row r="47" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="54" t="str">
         <f t="shared" ref="A47:A50" ca="1" si="72">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A47,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))),OFFSET(A47,-1,0,1,1)&amp;".1",LEFT(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A47,-1,0,1,1),LEN(OFFSET(A47,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>7.1</v>
@@ -16675,7 +16675,7 @@
       <c r="IR47" s="58"/>
       <c r="IS47" s="58"/>
     </row>
-    <row r="48" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A48" s="54" t="str">
         <f t="shared" ca="1" si="72"/>
         <v>7.2</v>
@@ -16958,7 +16958,7 @@
       <c r="IR48" s="58"/>
       <c r="IS48" s="58"/>
     </row>
-    <row r="49" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A49" s="54" t="str">
         <f t="shared" ca="1" si="72"/>
         <v>7.3</v>
@@ -17241,7 +17241,7 @@
       <c r="IR49" s="58"/>
       <c r="IS49" s="58"/>
     </row>
-    <row r="50" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A50" s="54" t="str">
         <f t="shared" ca="1" si="72"/>
         <v>7.4</v>
@@ -17524,7 +17524,7 @@
       <c r="IR50" s="58"/>
       <c r="IS50" s="58"/>
     </row>
-    <row r="51" spans="1:253" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:253" s="23" customFormat="1" ht="12">
       <c r="A51" s="67">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A51,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))),VALUE(OFFSET(A51,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>8</v>
@@ -17807,7 +17807,7 @@
       <c r="IR51" s="71"/>
       <c r="IS51" s="71"/>
     </row>
-    <row r="52" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
       <c r="A52" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A52,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))),OFFSET(A52,-1,0,1,1)&amp;".1",LEFT(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A52,-1,0,1,1),LEN(OFFSET(A52,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>8.1</v>
@@ -18090,7 +18090,7 @@
       <c r="IR52" s="58"/>
       <c r="IS52" s="58"/>
     </row>
-    <row r="53" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A53" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A53,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))),OFFSET(A53,-1,0,1,1)&amp;".1",LEFT(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A53,-1,0,1,1),LEN(OFFSET(A53,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>8.2</v>
@@ -18373,7 +18373,7 @@
       <c r="IR53" s="58"/>
       <c r="IS53" s="58"/>
     </row>
-    <row r="54" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1">
       <c r="A54" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A54,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))),OFFSET(A54,-1,0,1,1)&amp;".1",LEFT(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A54,-1,0,1,1),LEN(OFFSET(A54,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>8.3</v>
@@ -19382,7 +19382,7 @@
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G12:H54">
       <formula1>32874</formula1>
       <formula2>55153</formula2>
@@ -19419,7 +19419,7 @@
                   </from>
                   <to>
                     <xdr:col>137</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </to>
@@ -19427,11 +19427,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
 </worksheet>
 </file>
--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$52</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Today's Date:</t>
   </si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>Write Thesis Prepare Presentation</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>Easter Holidays</t>
   </si>
   <si>
     <t>Optimize Design</t>
@@ -873,6 +867,39 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -890,24 +917,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -927,28 +936,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="165">
+  <dxfs count="141">
     <dxf>
       <font>
         <condense val="0"/>
@@ -982,204 +976,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="48"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="60"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="48"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="37"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="48"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="60"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="48"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="37"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="30"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="60"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="30"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="37"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3079,13 +2875,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV54"/>
+  <dimension ref="A1:IV52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="BR35" sqref="BR35"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3110,38 +2906,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="A1" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3159,8 +2955,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3187,23 +2983,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="86">
+      <c r="F5" s="97">
         <v>42387</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="95" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3218,20 +3014,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="86">
+      <c r="F6" s="97">
         <f ca="1">TODAY()</f>
-        <v>42429</v>
-      </c>
-      <c r="G6" s="86"/>
+        <v>42475</v>
+      </c>
+      <c r="G6" s="97"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Monday</v>
+        <v>Friday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4194,9 +3990,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5156,9 +4952,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5402,732 +5198,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="99">
+      <c r="P9" s="85">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="99">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="85">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="99">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="85">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="99">
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="85">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="99">
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="85">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="99">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="85">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="99">
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="85">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="99">
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="85">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="100"/>
-      <c r="BO9" s="100"/>
-      <c r="BP9" s="100"/>
-      <c r="BQ9" s="100"/>
-      <c r="BR9" s="100"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="99">
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="87"/>
+      <c r="BT9" s="85">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="100"/>
-      <c r="BW9" s="100"/>
-      <c r="BX9" s="100"/>
-      <c r="BY9" s="100"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="99">
+      <c r="BU9" s="86"/>
+      <c r="BV9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="87"/>
+      <c r="CA9" s="85">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="100"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="100"/>
-      <c r="CE9" s="100"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="101"/>
-      <c r="CH9" s="99">
+      <c r="CB9" s="86"/>
+      <c r="CC9" s="86"/>
+      <c r="CD9" s="86"/>
+      <c r="CE9" s="86"/>
+      <c r="CF9" s="86"/>
+      <c r="CG9" s="87"/>
+      <c r="CH9" s="85">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="100"/>
-      <c r="CJ9" s="100"/>
-      <c r="CK9" s="100"/>
-      <c r="CL9" s="100"/>
-      <c r="CM9" s="100"/>
-      <c r="CN9" s="101"/>
-      <c r="CO9" s="99">
+      <c r="CI9" s="86"/>
+      <c r="CJ9" s="86"/>
+      <c r="CK9" s="86"/>
+      <c r="CL9" s="86"/>
+      <c r="CM9" s="86"/>
+      <c r="CN9" s="87"/>
+      <c r="CO9" s="85">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="100"/>
-      <c r="CQ9" s="100"/>
-      <c r="CR9" s="100"/>
-      <c r="CS9" s="100"/>
-      <c r="CT9" s="100"/>
-      <c r="CU9" s="101"/>
-      <c r="CV9" s="99">
+      <c r="CP9" s="86"/>
+      <c r="CQ9" s="86"/>
+      <c r="CR9" s="86"/>
+      <c r="CS9" s="86"/>
+      <c r="CT9" s="86"/>
+      <c r="CU9" s="87"/>
+      <c r="CV9" s="85">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="100"/>
-      <c r="CX9" s="100"/>
-      <c r="CY9" s="100"/>
-      <c r="CZ9" s="100"/>
-      <c r="DA9" s="100"/>
-      <c r="DB9" s="101"/>
-      <c r="DC9" s="99">
+      <c r="CW9" s="86"/>
+      <c r="CX9" s="86"/>
+      <c r="CY9" s="86"/>
+      <c r="CZ9" s="86"/>
+      <c r="DA9" s="86"/>
+      <c r="DB9" s="87"/>
+      <c r="DC9" s="85">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="100"/>
-      <c r="DE9" s="100"/>
-      <c r="DF9" s="100"/>
-      <c r="DG9" s="100"/>
-      <c r="DH9" s="100"/>
-      <c r="DI9" s="101"/>
-      <c r="DJ9" s="99">
+      <c r="DD9" s="86"/>
+      <c r="DE9" s="86"/>
+      <c r="DF9" s="86"/>
+      <c r="DG9" s="86"/>
+      <c r="DH9" s="86"/>
+      <c r="DI9" s="87"/>
+      <c r="DJ9" s="85">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="100"/>
-      <c r="DL9" s="100"/>
-      <c r="DM9" s="100"/>
-      <c r="DN9" s="100"/>
-      <c r="DO9" s="100"/>
-      <c r="DP9" s="101"/>
-      <c r="DQ9" s="99">
+      <c r="DK9" s="86"/>
+      <c r="DL9" s="86"/>
+      <c r="DM9" s="86"/>
+      <c r="DN9" s="86"/>
+      <c r="DO9" s="86"/>
+      <c r="DP9" s="87"/>
+      <c r="DQ9" s="85">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="100"/>
-      <c r="DS9" s="100"/>
-      <c r="DT9" s="100"/>
-      <c r="DU9" s="100"/>
-      <c r="DV9" s="100"/>
-      <c r="DW9" s="101"/>
-      <c r="DX9" s="99">
+      <c r="DR9" s="86"/>
+      <c r="DS9" s="86"/>
+      <c r="DT9" s="86"/>
+      <c r="DU9" s="86"/>
+      <c r="DV9" s="86"/>
+      <c r="DW9" s="87"/>
+      <c r="DX9" s="85">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="100"/>
-      <c r="DZ9" s="100"/>
-      <c r="EA9" s="100"/>
-      <c r="EB9" s="100"/>
-      <c r="EC9" s="100"/>
-      <c r="ED9" s="101"/>
-      <c r="EE9" s="99">
+      <c r="DY9" s="86"/>
+      <c r="DZ9" s="86"/>
+      <c r="EA9" s="86"/>
+      <c r="EB9" s="86"/>
+      <c r="EC9" s="86"/>
+      <c r="ED9" s="87"/>
+      <c r="EE9" s="85">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="100"/>
-      <c r="EG9" s="100"/>
-      <c r="EH9" s="100"/>
-      <c r="EI9" s="100"/>
-      <c r="EJ9" s="100"/>
-      <c r="EK9" s="101"/>
-      <c r="EL9" s="99">
+      <c r="EF9" s="86"/>
+      <c r="EG9" s="86"/>
+      <c r="EH9" s="86"/>
+      <c r="EI9" s="86"/>
+      <c r="EJ9" s="86"/>
+      <c r="EK9" s="87"/>
+      <c r="EL9" s="85">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="100"/>
-      <c r="EN9" s="100"/>
-      <c r="EO9" s="100"/>
-      <c r="EP9" s="100"/>
-      <c r="EQ9" s="100"/>
-      <c r="ER9" s="101"/>
-      <c r="ES9" s="99">
+      <c r="EM9" s="86"/>
+      <c r="EN9" s="86"/>
+      <c r="EO9" s="86"/>
+      <c r="EP9" s="86"/>
+      <c r="EQ9" s="86"/>
+      <c r="ER9" s="87"/>
+      <c r="ES9" s="85">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="100"/>
-      <c r="EU9" s="100"/>
-      <c r="EV9" s="100"/>
-      <c r="EW9" s="100"/>
-      <c r="EX9" s="100"/>
-      <c r="EY9" s="101"/>
-      <c r="EZ9" s="99">
+      <c r="ET9" s="86"/>
+      <c r="EU9" s="86"/>
+      <c r="EV9" s="86"/>
+      <c r="EW9" s="86"/>
+      <c r="EX9" s="86"/>
+      <c r="EY9" s="87"/>
+      <c r="EZ9" s="85">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="100"/>
-      <c r="FB9" s="100"/>
-      <c r="FC9" s="100"/>
-      <c r="FD9" s="100"/>
-      <c r="FE9" s="100"/>
-      <c r="FF9" s="101"/>
-      <c r="FG9" s="99">
+      <c r="FA9" s="86"/>
+      <c r="FB9" s="86"/>
+      <c r="FC9" s="86"/>
+      <c r="FD9" s="86"/>
+      <c r="FE9" s="86"/>
+      <c r="FF9" s="87"/>
+      <c r="FG9" s="85">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="100"/>
-      <c r="FI9" s="100"/>
-      <c r="FJ9" s="100"/>
-      <c r="FK9" s="100"/>
-      <c r="FL9" s="100"/>
-      <c r="FM9" s="101"/>
-      <c r="FN9" s="99">
+      <c r="FH9" s="86"/>
+      <c r="FI9" s="86"/>
+      <c r="FJ9" s="86"/>
+      <c r="FK9" s="86"/>
+      <c r="FL9" s="86"/>
+      <c r="FM9" s="87"/>
+      <c r="FN9" s="85">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="100"/>
-      <c r="FP9" s="100"/>
-      <c r="FQ9" s="100"/>
-      <c r="FR9" s="100"/>
-      <c r="FS9" s="100"/>
-      <c r="FT9" s="101"/>
-      <c r="FU9" s="99">
+      <c r="FO9" s="86"/>
+      <c r="FP9" s="86"/>
+      <c r="FQ9" s="86"/>
+      <c r="FR9" s="86"/>
+      <c r="FS9" s="86"/>
+      <c r="FT9" s="87"/>
+      <c r="FU9" s="85">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="100"/>
-      <c r="FW9" s="100"/>
-      <c r="FX9" s="100"/>
-      <c r="FY9" s="100"/>
-      <c r="FZ9" s="100"/>
-      <c r="GA9" s="101"/>
-      <c r="GB9" s="99">
+      <c r="FV9" s="86"/>
+      <c r="FW9" s="86"/>
+      <c r="FX9" s="86"/>
+      <c r="FY9" s="86"/>
+      <c r="FZ9" s="86"/>
+      <c r="GA9" s="87"/>
+      <c r="GB9" s="85">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="100"/>
-      <c r="GD9" s="100"/>
-      <c r="GE9" s="100"/>
-      <c r="GF9" s="100"/>
-      <c r="GG9" s="100"/>
-      <c r="GH9" s="101"/>
-      <c r="GI9" s="99">
+      <c r="GC9" s="86"/>
+      <c r="GD9" s="86"/>
+      <c r="GE9" s="86"/>
+      <c r="GF9" s="86"/>
+      <c r="GG9" s="86"/>
+      <c r="GH9" s="87"/>
+      <c r="GI9" s="85">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="100"/>
-      <c r="GK9" s="100"/>
-      <c r="GL9" s="100"/>
-      <c r="GM9" s="100"/>
-      <c r="GN9" s="100"/>
-      <c r="GO9" s="101"/>
-      <c r="GP9" s="99">
+      <c r="GJ9" s="86"/>
+      <c r="GK9" s="86"/>
+      <c r="GL9" s="86"/>
+      <c r="GM9" s="86"/>
+      <c r="GN9" s="86"/>
+      <c r="GO9" s="87"/>
+      <c r="GP9" s="85">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="100"/>
-      <c r="GR9" s="100"/>
-      <c r="GS9" s="100"/>
-      <c r="GT9" s="100"/>
-      <c r="GU9" s="100"/>
-      <c r="GV9" s="101"/>
-      <c r="GW9" s="99">
+      <c r="GQ9" s="86"/>
+      <c r="GR9" s="86"/>
+      <c r="GS9" s="86"/>
+      <c r="GT9" s="86"/>
+      <c r="GU9" s="86"/>
+      <c r="GV9" s="87"/>
+      <c r="GW9" s="85">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="100"/>
-      <c r="GY9" s="100"/>
-      <c r="GZ9" s="100"/>
-      <c r="HA9" s="100"/>
-      <c r="HB9" s="100"/>
-      <c r="HC9" s="101"/>
-      <c r="HD9" s="99">
+      <c r="GX9" s="86"/>
+      <c r="GY9" s="86"/>
+      <c r="GZ9" s="86"/>
+      <c r="HA9" s="86"/>
+      <c r="HB9" s="86"/>
+      <c r="HC9" s="87"/>
+      <c r="HD9" s="85">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="100"/>
-      <c r="HF9" s="100"/>
-      <c r="HG9" s="100"/>
-      <c r="HH9" s="100"/>
-      <c r="HI9" s="100"/>
-      <c r="HJ9" s="101"/>
-      <c r="HK9" s="99">
+      <c r="HE9" s="86"/>
+      <c r="HF9" s="86"/>
+      <c r="HG9" s="86"/>
+      <c r="HH9" s="86"/>
+      <c r="HI9" s="86"/>
+      <c r="HJ9" s="87"/>
+      <c r="HK9" s="85">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="100"/>
-      <c r="HM9" s="100"/>
-      <c r="HN9" s="100"/>
-      <c r="HO9" s="100"/>
-      <c r="HP9" s="100"/>
-      <c r="HQ9" s="101"/>
-      <c r="HR9" s="99">
+      <c r="HL9" s="86"/>
+      <c r="HM9" s="86"/>
+      <c r="HN9" s="86"/>
+      <c r="HO9" s="86"/>
+      <c r="HP9" s="86"/>
+      <c r="HQ9" s="87"/>
+      <c r="HR9" s="85">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="100"/>
-      <c r="HT9" s="100"/>
-      <c r="HU9" s="100"/>
-      <c r="HV9" s="100"/>
-      <c r="HW9" s="100"/>
-      <c r="HX9" s="101"/>
-      <c r="HY9" s="99">
+      <c r="HS9" s="86"/>
+      <c r="HT9" s="86"/>
+      <c r="HU9" s="86"/>
+      <c r="HV9" s="86"/>
+      <c r="HW9" s="86"/>
+      <c r="HX9" s="87"/>
+      <c r="HY9" s="85">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="100"/>
-      <c r="IA9" s="100"/>
-      <c r="IB9" s="100"/>
-      <c r="IC9" s="100"/>
-      <c r="ID9" s="100"/>
-      <c r="IE9" s="101"/>
-      <c r="IF9" s="99">
+      <c r="HZ9" s="86"/>
+      <c r="IA9" s="86"/>
+      <c r="IB9" s="86"/>
+      <c r="IC9" s="86"/>
+      <c r="ID9" s="86"/>
+      <c r="IE9" s="87"/>
+      <c r="IF9" s="85">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="100"/>
-      <c r="IH9" s="100"/>
-      <c r="II9" s="100"/>
-      <c r="IJ9" s="100"/>
-      <c r="IK9" s="100"/>
-      <c r="IL9" s="101"/>
-      <c r="IM9" s="99">
+      <c r="IG9" s="86"/>
+      <c r="IH9" s="86"/>
+      <c r="II9" s="86"/>
+      <c r="IJ9" s="86"/>
+      <c r="IK9" s="86"/>
+      <c r="IL9" s="87"/>
+      <c r="IM9" s="85">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="100"/>
-      <c r="IO9" s="100"/>
-      <c r="IP9" s="100"/>
-      <c r="IQ9" s="100"/>
-      <c r="IR9" s="100"/>
-      <c r="IS9" s="101"/>
+      <c r="IN9" s="86"/>
+      <c r="IO9" s="86"/>
+      <c r="IP9" s="86"/>
+      <c r="IQ9" s="86"/>
+      <c r="IR9" s="86"/>
+      <c r="IS9" s="87"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="97"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="B10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="90">
+      <c r="P10" s="82">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="90">
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="82">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="90">
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="82">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="90">
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="82">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="90">
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="82">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="90">
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="82">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="90">
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="83"/>
+      <c r="BB10" s="83"/>
+      <c r="BC10" s="83"/>
+      <c r="BD10" s="83"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="82">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="90">
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="83"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="82">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="90">
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="83"/>
+      <c r="BP10" s="83"/>
+      <c r="BQ10" s="83"/>
+      <c r="BR10" s="83"/>
+      <c r="BS10" s="84"/>
+      <c r="BT10" s="82">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="91"/>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="91"/>
-      <c r="BX10" s="91"/>
-      <c r="BY10" s="91"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="90">
+      <c r="BU10" s="83"/>
+      <c r="BV10" s="83"/>
+      <c r="BW10" s="83"/>
+      <c r="BX10" s="83"/>
+      <c r="BY10" s="83"/>
+      <c r="BZ10" s="84"/>
+      <c r="CA10" s="82">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="91"/>
-      <c r="CC10" s="91"/>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91"/>
-      <c r="CF10" s="91"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="90">
+      <c r="CB10" s="83"/>
+      <c r="CC10" s="83"/>
+      <c r="CD10" s="83"/>
+      <c r="CE10" s="83"/>
+      <c r="CF10" s="83"/>
+      <c r="CG10" s="84"/>
+      <c r="CH10" s="82">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="91"/>
-      <c r="CK10" s="91"/>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90">
+      <c r="CI10" s="83"/>
+      <c r="CJ10" s="83"/>
+      <c r="CK10" s="83"/>
+      <c r="CL10" s="83"/>
+      <c r="CM10" s="83"/>
+      <c r="CN10" s="84"/>
+      <c r="CO10" s="82">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="91"/>
-      <c r="CQ10" s="91"/>
-      <c r="CR10" s="91"/>
-      <c r="CS10" s="91"/>
-      <c r="CT10" s="91"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="90">
+      <c r="CP10" s="83"/>
+      <c r="CQ10" s="83"/>
+      <c r="CR10" s="83"/>
+      <c r="CS10" s="83"/>
+      <c r="CT10" s="83"/>
+      <c r="CU10" s="84"/>
+      <c r="CV10" s="82">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="91"/>
-      <c r="CX10" s="91"/>
-      <c r="CY10" s="91"/>
-      <c r="CZ10" s="91"/>
-      <c r="DA10" s="91"/>
-      <c r="DB10" s="92"/>
-      <c r="DC10" s="90">
+      <c r="CW10" s="83"/>
+      <c r="CX10" s="83"/>
+      <c r="CY10" s="83"/>
+      <c r="CZ10" s="83"/>
+      <c r="DA10" s="83"/>
+      <c r="DB10" s="84"/>
+      <c r="DC10" s="82">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="91"/>
-      <c r="DE10" s="91"/>
-      <c r="DF10" s="91"/>
-      <c r="DG10" s="91"/>
-      <c r="DH10" s="91"/>
-      <c r="DI10" s="92"/>
-      <c r="DJ10" s="90">
+      <c r="DD10" s="83"/>
+      <c r="DE10" s="83"/>
+      <c r="DF10" s="83"/>
+      <c r="DG10" s="83"/>
+      <c r="DH10" s="83"/>
+      <c r="DI10" s="84"/>
+      <c r="DJ10" s="82">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="91"/>
-      <c r="DL10" s="91"/>
-      <c r="DM10" s="91"/>
-      <c r="DN10" s="91"/>
-      <c r="DO10" s="91"/>
-      <c r="DP10" s="92"/>
-      <c r="DQ10" s="90">
+      <c r="DK10" s="83"/>
+      <c r="DL10" s="83"/>
+      <c r="DM10" s="83"/>
+      <c r="DN10" s="83"/>
+      <c r="DO10" s="83"/>
+      <c r="DP10" s="84"/>
+      <c r="DQ10" s="82">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="91"/>
-      <c r="DS10" s="91"/>
-      <c r="DT10" s="91"/>
-      <c r="DU10" s="91"/>
-      <c r="DV10" s="91"/>
-      <c r="DW10" s="92"/>
-      <c r="DX10" s="90">
+      <c r="DR10" s="83"/>
+      <c r="DS10" s="83"/>
+      <c r="DT10" s="83"/>
+      <c r="DU10" s="83"/>
+      <c r="DV10" s="83"/>
+      <c r="DW10" s="84"/>
+      <c r="DX10" s="82">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="91"/>
-      <c r="DZ10" s="91"/>
-      <c r="EA10" s="91"/>
-      <c r="EB10" s="91"/>
-      <c r="EC10" s="91"/>
-      <c r="ED10" s="92"/>
-      <c r="EE10" s="90">
+      <c r="DY10" s="83"/>
+      <c r="DZ10" s="83"/>
+      <c r="EA10" s="83"/>
+      <c r="EB10" s="83"/>
+      <c r="EC10" s="83"/>
+      <c r="ED10" s="84"/>
+      <c r="EE10" s="82">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="91"/>
-      <c r="EG10" s="91"/>
-      <c r="EH10" s="91"/>
-      <c r="EI10" s="91"/>
-      <c r="EJ10" s="91"/>
-      <c r="EK10" s="92"/>
-      <c r="EL10" s="90">
+      <c r="EF10" s="83"/>
+      <c r="EG10" s="83"/>
+      <c r="EH10" s="83"/>
+      <c r="EI10" s="83"/>
+      <c r="EJ10" s="83"/>
+      <c r="EK10" s="84"/>
+      <c r="EL10" s="82">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="91"/>
-      <c r="EN10" s="91"/>
-      <c r="EO10" s="91"/>
-      <c r="EP10" s="91"/>
-      <c r="EQ10" s="91"/>
-      <c r="ER10" s="92"/>
-      <c r="ES10" s="90">
+      <c r="EM10" s="83"/>
+      <c r="EN10" s="83"/>
+      <c r="EO10" s="83"/>
+      <c r="EP10" s="83"/>
+      <c r="EQ10" s="83"/>
+      <c r="ER10" s="84"/>
+      <c r="ES10" s="82">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="91"/>
-      <c r="EU10" s="91"/>
-      <c r="EV10" s="91"/>
-      <c r="EW10" s="91"/>
-      <c r="EX10" s="91"/>
-      <c r="EY10" s="92"/>
-      <c r="EZ10" s="90">
+      <c r="ET10" s="83"/>
+      <c r="EU10" s="83"/>
+      <c r="EV10" s="83"/>
+      <c r="EW10" s="83"/>
+      <c r="EX10" s="83"/>
+      <c r="EY10" s="84"/>
+      <c r="EZ10" s="82">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="91"/>
-      <c r="FB10" s="91"/>
-      <c r="FC10" s="91"/>
-      <c r="FD10" s="91"/>
-      <c r="FE10" s="91"/>
-      <c r="FF10" s="92"/>
-      <c r="FG10" s="90">
+      <c r="FA10" s="83"/>
+      <c r="FB10" s="83"/>
+      <c r="FC10" s="83"/>
+      <c r="FD10" s="83"/>
+      <c r="FE10" s="83"/>
+      <c r="FF10" s="84"/>
+      <c r="FG10" s="82">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="91"/>
-      <c r="FI10" s="91"/>
-      <c r="FJ10" s="91"/>
-      <c r="FK10" s="91"/>
-      <c r="FL10" s="91"/>
-      <c r="FM10" s="92"/>
-      <c r="FN10" s="90">
+      <c r="FH10" s="83"/>
+      <c r="FI10" s="83"/>
+      <c r="FJ10" s="83"/>
+      <c r="FK10" s="83"/>
+      <c r="FL10" s="83"/>
+      <c r="FM10" s="84"/>
+      <c r="FN10" s="82">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="91"/>
-      <c r="FP10" s="91"/>
-      <c r="FQ10" s="91"/>
-      <c r="FR10" s="91"/>
-      <c r="FS10" s="91"/>
-      <c r="FT10" s="92"/>
-      <c r="FU10" s="90">
+      <c r="FO10" s="83"/>
+      <c r="FP10" s="83"/>
+      <c r="FQ10" s="83"/>
+      <c r="FR10" s="83"/>
+      <c r="FS10" s="83"/>
+      <c r="FT10" s="84"/>
+      <c r="FU10" s="82">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91"/>
-      <c r="FX10" s="91"/>
-      <c r="FY10" s="91"/>
-      <c r="FZ10" s="91"/>
-      <c r="GA10" s="92"/>
-      <c r="GB10" s="90">
+      <c r="FV10" s="83"/>
+      <c r="FW10" s="83"/>
+      <c r="FX10" s="83"/>
+      <c r="FY10" s="83"/>
+      <c r="FZ10" s="83"/>
+      <c r="GA10" s="84"/>
+      <c r="GB10" s="82">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="91"/>
-      <c r="GD10" s="91"/>
-      <c r="GE10" s="91"/>
-      <c r="GF10" s="91"/>
-      <c r="GG10" s="91"/>
-      <c r="GH10" s="92"/>
-      <c r="GI10" s="90">
+      <c r="GC10" s="83"/>
+      <c r="GD10" s="83"/>
+      <c r="GE10" s="83"/>
+      <c r="GF10" s="83"/>
+      <c r="GG10" s="83"/>
+      <c r="GH10" s="84"/>
+      <c r="GI10" s="82">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="91"/>
-      <c r="GK10" s="91"/>
-      <c r="GL10" s="91"/>
-      <c r="GM10" s="91"/>
-      <c r="GN10" s="91"/>
-      <c r="GO10" s="92"/>
-      <c r="GP10" s="90">
+      <c r="GJ10" s="83"/>
+      <c r="GK10" s="83"/>
+      <c r="GL10" s="83"/>
+      <c r="GM10" s="83"/>
+      <c r="GN10" s="83"/>
+      <c r="GO10" s="84"/>
+      <c r="GP10" s="82">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="91"/>
-      <c r="GR10" s="91"/>
-      <c r="GS10" s="91"/>
-      <c r="GT10" s="91"/>
-      <c r="GU10" s="91"/>
-      <c r="GV10" s="92"/>
-      <c r="GW10" s="90">
+      <c r="GQ10" s="83"/>
+      <c r="GR10" s="83"/>
+      <c r="GS10" s="83"/>
+      <c r="GT10" s="83"/>
+      <c r="GU10" s="83"/>
+      <c r="GV10" s="84"/>
+      <c r="GW10" s="82">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="91"/>
-      <c r="GY10" s="91"/>
-      <c r="GZ10" s="91"/>
-      <c r="HA10" s="91"/>
-      <c r="HB10" s="91"/>
-      <c r="HC10" s="92"/>
-      <c r="HD10" s="90">
+      <c r="GX10" s="83"/>
+      <c r="GY10" s="83"/>
+      <c r="GZ10" s="83"/>
+      <c r="HA10" s="83"/>
+      <c r="HB10" s="83"/>
+      <c r="HC10" s="84"/>
+      <c r="HD10" s="82">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="91"/>
-      <c r="HF10" s="91"/>
-      <c r="HG10" s="91"/>
-      <c r="HH10" s="91"/>
-      <c r="HI10" s="91"/>
-      <c r="HJ10" s="92"/>
-      <c r="HK10" s="90">
+      <c r="HE10" s="83"/>
+      <c r="HF10" s="83"/>
+      <c r="HG10" s="83"/>
+      <c r="HH10" s="83"/>
+      <c r="HI10" s="83"/>
+      <c r="HJ10" s="84"/>
+      <c r="HK10" s="82">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="91"/>
-      <c r="HM10" s="91"/>
-      <c r="HN10" s="91"/>
-      <c r="HO10" s="91"/>
-      <c r="HP10" s="91"/>
-      <c r="HQ10" s="92"/>
-      <c r="HR10" s="90">
+      <c r="HL10" s="83"/>
+      <c r="HM10" s="83"/>
+      <c r="HN10" s="83"/>
+      <c r="HO10" s="83"/>
+      <c r="HP10" s="83"/>
+      <c r="HQ10" s="84"/>
+      <c r="HR10" s="82">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="91"/>
-      <c r="HT10" s="91"/>
-      <c r="HU10" s="91"/>
-      <c r="HV10" s="91"/>
-      <c r="HW10" s="91"/>
-      <c r="HX10" s="92"/>
-      <c r="HY10" s="90">
+      <c r="HS10" s="83"/>
+      <c r="HT10" s="83"/>
+      <c r="HU10" s="83"/>
+      <c r="HV10" s="83"/>
+      <c r="HW10" s="83"/>
+      <c r="HX10" s="84"/>
+      <c r="HY10" s="82">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="91"/>
-      <c r="IA10" s="91"/>
-      <c r="IB10" s="91"/>
-      <c r="IC10" s="91"/>
-      <c r="ID10" s="91"/>
-      <c r="IE10" s="92"/>
-      <c r="IF10" s="90">
+      <c r="HZ10" s="83"/>
+      <c r="IA10" s="83"/>
+      <c r="IB10" s="83"/>
+      <c r="IC10" s="83"/>
+      <c r="ID10" s="83"/>
+      <c r="IE10" s="84"/>
+      <c r="IF10" s="82">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="91"/>
-      <c r="IH10" s="91"/>
-      <c r="II10" s="91"/>
-      <c r="IJ10" s="91"/>
-      <c r="IK10" s="91"/>
-      <c r="IL10" s="92"/>
-      <c r="IM10" s="90">
+      <c r="IG10" s="83"/>
+      <c r="IH10" s="83"/>
+      <c r="II10" s="83"/>
+      <c r="IJ10" s="83"/>
+      <c r="IK10" s="83"/>
+      <c r="IL10" s="84"/>
+      <c r="IM10" s="82">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="91"/>
-      <c r="IO10" s="91"/>
-      <c r="IP10" s="91"/>
-      <c r="IQ10" s="91"/>
-      <c r="IR10" s="91"/>
-      <c r="IS10" s="92"/>
+      <c r="IN10" s="83"/>
+      <c r="IO10" s="83"/>
+      <c r="IP10" s="83"/>
+      <c r="IQ10" s="83"/>
+      <c r="IR10" s="83"/>
+      <c r="IS10" s="84"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6137,353 +5933,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="87">
+      <c r="P11" s="88">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="87">
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="88">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="87">
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="88">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="87">
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="88">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="87">
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="88">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="87">
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="88">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="88"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="87">
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="88">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="88"/>
-      <c r="BK11" s="88"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="87">
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
+      <c r="BJ11" s="89"/>
+      <c r="BK11" s="89"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="88">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="88"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="88"/>
-      <c r="BQ11" s="88"/>
-      <c r="BR11" s="88"/>
-      <c r="BS11" s="89"/>
-      <c r="BT11" s="87">
+      <c r="BN11" s="89"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BR11" s="89"/>
+      <c r="BS11" s="90"/>
+      <c r="BT11" s="88">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="88"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="87">
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
+      <c r="BW11" s="89"/>
+      <c r="BX11" s="89"/>
+      <c r="BY11" s="89"/>
+      <c r="BZ11" s="90"/>
+      <c r="CA11" s="88">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="89"/>
-      <c r="CH11" s="87">
+      <c r="CB11" s="89"/>
+      <c r="CC11" s="89"/>
+      <c r="CD11" s="89"/>
+      <c r="CE11" s="89"/>
+      <c r="CF11" s="89"/>
+      <c r="CG11" s="90"/>
+      <c r="CH11" s="88">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="88"/>
-      <c r="CJ11" s="88"/>
-      <c r="CK11" s="88"/>
-      <c r="CL11" s="88"/>
-      <c r="CM11" s="88"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="87">
+      <c r="CI11" s="89"/>
+      <c r="CJ11" s="89"/>
+      <c r="CK11" s="89"/>
+      <c r="CL11" s="89"/>
+      <c r="CM11" s="89"/>
+      <c r="CN11" s="90"/>
+      <c r="CO11" s="88">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="88"/>
-      <c r="CQ11" s="88"/>
-      <c r="CR11" s="88"/>
-      <c r="CS11" s="88"/>
-      <c r="CT11" s="88"/>
-      <c r="CU11" s="89"/>
-      <c r="CV11" s="87">
+      <c r="CP11" s="89"/>
+      <c r="CQ11" s="89"/>
+      <c r="CR11" s="89"/>
+      <c r="CS11" s="89"/>
+      <c r="CT11" s="89"/>
+      <c r="CU11" s="90"/>
+      <c r="CV11" s="88">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="88"/>
-      <c r="CX11" s="88"/>
-      <c r="CY11" s="88"/>
-      <c r="CZ11" s="88"/>
-      <c r="DA11" s="88"/>
-      <c r="DB11" s="89"/>
-      <c r="DC11" s="87">
+      <c r="CW11" s="89"/>
+      <c r="CX11" s="89"/>
+      <c r="CY11" s="89"/>
+      <c r="CZ11" s="89"/>
+      <c r="DA11" s="89"/>
+      <c r="DB11" s="90"/>
+      <c r="DC11" s="88">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="88"/>
-      <c r="DE11" s="88"/>
-      <c r="DF11" s="88"/>
-      <c r="DG11" s="88"/>
-      <c r="DH11" s="88"/>
-      <c r="DI11" s="89"/>
-      <c r="DJ11" s="87">
+      <c r="DD11" s="89"/>
+      <c r="DE11" s="89"/>
+      <c r="DF11" s="89"/>
+      <c r="DG11" s="89"/>
+      <c r="DH11" s="89"/>
+      <c r="DI11" s="90"/>
+      <c r="DJ11" s="88">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="88"/>
-      <c r="DL11" s="88"/>
-      <c r="DM11" s="88"/>
-      <c r="DN11" s="88"/>
-      <c r="DO11" s="88"/>
-      <c r="DP11" s="89"/>
-      <c r="DQ11" s="87">
+      <c r="DK11" s="89"/>
+      <c r="DL11" s="89"/>
+      <c r="DM11" s="89"/>
+      <c r="DN11" s="89"/>
+      <c r="DO11" s="89"/>
+      <c r="DP11" s="90"/>
+      <c r="DQ11" s="88">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="88"/>
-      <c r="DS11" s="88"/>
-      <c r="DT11" s="88"/>
-      <c r="DU11" s="88"/>
-      <c r="DV11" s="88"/>
-      <c r="DW11" s="89"/>
-      <c r="DX11" s="87">
+      <c r="DR11" s="89"/>
+      <c r="DS11" s="89"/>
+      <c r="DT11" s="89"/>
+      <c r="DU11" s="89"/>
+      <c r="DV11" s="89"/>
+      <c r="DW11" s="90"/>
+      <c r="DX11" s="88">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="88"/>
-      <c r="DZ11" s="88"/>
-      <c r="EA11" s="88"/>
-      <c r="EB11" s="88"/>
-      <c r="EC11" s="88"/>
-      <c r="ED11" s="89"/>
-      <c r="EE11" s="87">
+      <c r="DY11" s="89"/>
+      <c r="DZ11" s="89"/>
+      <c r="EA11" s="89"/>
+      <c r="EB11" s="89"/>
+      <c r="EC11" s="89"/>
+      <c r="ED11" s="90"/>
+      <c r="EE11" s="88">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="88"/>
-      <c r="EG11" s="88"/>
-      <c r="EH11" s="88"/>
-      <c r="EI11" s="88"/>
-      <c r="EJ11" s="88"/>
-      <c r="EK11" s="89"/>
-      <c r="EL11" s="87">
+      <c r="EF11" s="89"/>
+      <c r="EG11" s="89"/>
+      <c r="EH11" s="89"/>
+      <c r="EI11" s="89"/>
+      <c r="EJ11" s="89"/>
+      <c r="EK11" s="90"/>
+      <c r="EL11" s="88">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="88"/>
-      <c r="EN11" s="88"/>
-      <c r="EO11" s="88"/>
-      <c r="EP11" s="88"/>
-      <c r="EQ11" s="88"/>
-      <c r="ER11" s="89"/>
-      <c r="ES11" s="87">
+      <c r="EM11" s="89"/>
+      <c r="EN11" s="89"/>
+      <c r="EO11" s="89"/>
+      <c r="EP11" s="89"/>
+      <c r="EQ11" s="89"/>
+      <c r="ER11" s="90"/>
+      <c r="ES11" s="88">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="88"/>
-      <c r="EU11" s="88"/>
-      <c r="EV11" s="88"/>
-      <c r="EW11" s="88"/>
-      <c r="EX11" s="88"/>
-      <c r="EY11" s="89"/>
-      <c r="EZ11" s="87">
+      <c r="ET11" s="89"/>
+      <c r="EU11" s="89"/>
+      <c r="EV11" s="89"/>
+      <c r="EW11" s="89"/>
+      <c r="EX11" s="89"/>
+      <c r="EY11" s="90"/>
+      <c r="EZ11" s="88">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="88"/>
-      <c r="FB11" s="88"/>
-      <c r="FC11" s="88"/>
-      <c r="FD11" s="88"/>
-      <c r="FE11" s="88"/>
-      <c r="FF11" s="89"/>
-      <c r="FG11" s="87">
+      <c r="FA11" s="89"/>
+      <c r="FB11" s="89"/>
+      <c r="FC11" s="89"/>
+      <c r="FD11" s="89"/>
+      <c r="FE11" s="89"/>
+      <c r="FF11" s="90"/>
+      <c r="FG11" s="88">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="88"/>
-      <c r="FI11" s="88"/>
-      <c r="FJ11" s="88"/>
-      <c r="FK11" s="88"/>
-      <c r="FL11" s="88"/>
-      <c r="FM11" s="89"/>
-      <c r="FN11" s="87">
+      <c r="FH11" s="89"/>
+      <c r="FI11" s="89"/>
+      <c r="FJ11" s="89"/>
+      <c r="FK11" s="89"/>
+      <c r="FL11" s="89"/>
+      <c r="FM11" s="90"/>
+      <c r="FN11" s="88">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="88"/>
-      <c r="FP11" s="88"/>
-      <c r="FQ11" s="88"/>
-      <c r="FR11" s="88"/>
-      <c r="FS11" s="88"/>
-      <c r="FT11" s="89"/>
-      <c r="FU11" s="87">
+      <c r="FO11" s="89"/>
+      <c r="FP11" s="89"/>
+      <c r="FQ11" s="89"/>
+      <c r="FR11" s="89"/>
+      <c r="FS11" s="89"/>
+      <c r="FT11" s="90"/>
+      <c r="FU11" s="88">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="88"/>
-      <c r="FW11" s="88"/>
-      <c r="FX11" s="88"/>
-      <c r="FY11" s="88"/>
-      <c r="FZ11" s="88"/>
-      <c r="GA11" s="89"/>
-      <c r="GB11" s="87">
+      <c r="FV11" s="89"/>
+      <c r="FW11" s="89"/>
+      <c r="FX11" s="89"/>
+      <c r="FY11" s="89"/>
+      <c r="FZ11" s="89"/>
+      <c r="GA11" s="90"/>
+      <c r="GB11" s="88">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="88"/>
-      <c r="GD11" s="88"/>
-      <c r="GE11" s="88"/>
-      <c r="GF11" s="88"/>
-      <c r="GG11" s="88"/>
-      <c r="GH11" s="89"/>
-      <c r="GI11" s="87">
+      <c r="GC11" s="89"/>
+      <c r="GD11" s="89"/>
+      <c r="GE11" s="89"/>
+      <c r="GF11" s="89"/>
+      <c r="GG11" s="89"/>
+      <c r="GH11" s="90"/>
+      <c r="GI11" s="88">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="88"/>
-      <c r="GK11" s="88"/>
-      <c r="GL11" s="88"/>
-      <c r="GM11" s="88"/>
-      <c r="GN11" s="88"/>
-      <c r="GO11" s="89"/>
-      <c r="GP11" s="87">
+      <c r="GJ11" s="89"/>
+      <c r="GK11" s="89"/>
+      <c r="GL11" s="89"/>
+      <c r="GM11" s="89"/>
+      <c r="GN11" s="89"/>
+      <c r="GO11" s="90"/>
+      <c r="GP11" s="88">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="88"/>
-      <c r="GR11" s="88"/>
-      <c r="GS11" s="88"/>
-      <c r="GT11" s="88"/>
-      <c r="GU11" s="88"/>
-      <c r="GV11" s="89"/>
-      <c r="GW11" s="87">
+      <c r="GQ11" s="89"/>
+      <c r="GR11" s="89"/>
+      <c r="GS11" s="89"/>
+      <c r="GT11" s="89"/>
+      <c r="GU11" s="89"/>
+      <c r="GV11" s="90"/>
+      <c r="GW11" s="88">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="88"/>
-      <c r="GY11" s="88"/>
-      <c r="GZ11" s="88"/>
-      <c r="HA11" s="88"/>
-      <c r="HB11" s="88"/>
-      <c r="HC11" s="89"/>
-      <c r="HD11" s="87">
+      <c r="GX11" s="89"/>
+      <c r="GY11" s="89"/>
+      <c r="GZ11" s="89"/>
+      <c r="HA11" s="89"/>
+      <c r="HB11" s="89"/>
+      <c r="HC11" s="90"/>
+      <c r="HD11" s="88">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="88"/>
-      <c r="HF11" s="88"/>
-      <c r="HG11" s="88"/>
-      <c r="HH11" s="88"/>
-      <c r="HI11" s="88"/>
-      <c r="HJ11" s="89"/>
-      <c r="HK11" s="87">
+      <c r="HE11" s="89"/>
+      <c r="HF11" s="89"/>
+      <c r="HG11" s="89"/>
+      <c r="HH11" s="89"/>
+      <c r="HI11" s="89"/>
+      <c r="HJ11" s="90"/>
+      <c r="HK11" s="88">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="88"/>
-      <c r="HM11" s="88"/>
-      <c r="HN11" s="88"/>
-      <c r="HO11" s="88"/>
-      <c r="HP11" s="88"/>
-      <c r="HQ11" s="89"/>
-      <c r="HR11" s="87">
+      <c r="HL11" s="89"/>
+      <c r="HM11" s="89"/>
+      <c r="HN11" s="89"/>
+      <c r="HO11" s="89"/>
+      <c r="HP11" s="89"/>
+      <c r="HQ11" s="90"/>
+      <c r="HR11" s="88">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="88"/>
-      <c r="HT11" s="88"/>
-      <c r="HU11" s="88"/>
-      <c r="HV11" s="88"/>
-      <c r="HW11" s="88"/>
-      <c r="HX11" s="89"/>
-      <c r="HY11" s="87">
+      <c r="HS11" s="89"/>
+      <c r="HT11" s="89"/>
+      <c r="HU11" s="89"/>
+      <c r="HV11" s="89"/>
+      <c r="HW11" s="89"/>
+      <c r="HX11" s="90"/>
+      <c r="HY11" s="88">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="88"/>
-      <c r="IA11" s="88"/>
-      <c r="IB11" s="88"/>
-      <c r="IC11" s="88"/>
-      <c r="ID11" s="88"/>
-      <c r="IE11" s="89"/>
-      <c r="IF11" s="87">
+      <c r="HZ11" s="89"/>
+      <c r="IA11" s="89"/>
+      <c r="IB11" s="89"/>
+      <c r="IC11" s="89"/>
+      <c r="ID11" s="89"/>
+      <c r="IE11" s="90"/>
+      <c r="IF11" s="88">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="88"/>
-      <c r="IH11" s="88"/>
-      <c r="II11" s="88"/>
-      <c r="IJ11" s="88"/>
-      <c r="IK11" s="88"/>
-      <c r="IL11" s="89"/>
-      <c r="IM11" s="87">
+      <c r="IG11" s="89"/>
+      <c r="IH11" s="89"/>
+      <c r="II11" s="89"/>
+      <c r="IJ11" s="89"/>
+      <c r="IK11" s="89"/>
+      <c r="IL11" s="90"/>
+      <c r="IM11" s="88">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="88"/>
-      <c r="IO11" s="88"/>
-      <c r="IP11" s="88"/>
-      <c r="IQ11" s="88"/>
-      <c r="IR11" s="88"/>
-      <c r="IS11" s="89"/>
+      <c r="IN11" s="89"/>
+      <c r="IO11" s="89"/>
+      <c r="IP11" s="89"/>
+      <c r="IQ11" s="89"/>
+      <c r="IR11" s="89"/>
+      <c r="IS11" s="90"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -6777,7 +6573,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
@@ -7060,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -7343,7 +7139,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -7633,7 +7429,7 @@
         <v>42390</v>
       </c>
       <c r="H16" s="73">
-        <f t="shared" ref="H16:H54" ca="1" si="18">G16+J16-1</f>
+        <f t="shared" ref="H16:H52" ca="1" si="18">G16+J16-1</f>
         <v>42412</v>
       </c>
       <c r="I16" s="74" t="str">
@@ -7650,15 +7446,15 @@
       </c>
       <c r="L16" s="77">
         <f t="shared" ref="L16:L17" ca="1" si="20">ROUNDDOWN(N16*J16,0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M17" ca="1" si="21">J16-L16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="78">
         <f>SUMPRODUCT(J17:J24,N17:N24)/SUM(J17:J24)</f>
-        <v>0.93333333333333335</v>
+        <v>0.98095238095238102</v>
       </c>
       <c r="O16" s="79"/>
       <c r="P16" s="71"/>
@@ -7909,7 +7705,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -8758,7 +8554,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -9607,7 +9403,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
@@ -9916,15 +9712,15 @@
       </c>
       <c r="L24" s="64">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="63">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="78">
         <f>SUMPRODUCT(J25:J26,N25:N26)/SUM(J25:J26)</f>
-        <v>0.72</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="58"/>
@@ -10175,7 +9971,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -10200,14 +9996,14 @@
       </c>
       <c r="L25" s="64">
         <f t="shared" ref="L25:L26" si="36">ROUNDDOWN(N25*J25,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="63">
         <f t="shared" ref="M25:M26" si="37">J25-L25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="65">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="O25" s="66"/>
       <c r="P25" s="58"/>
@@ -10458,7 +10254,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
@@ -10749,31 +10545,31 @@
       </c>
       <c r="H27" s="73">
         <f t="shared" si="18"/>
-        <v>42426</v>
+        <v>42475</v>
       </c>
       <c r="I27" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H27,$F$6&gt;=G27),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J27" s="75">
         <f>MAX(H28:H32)-G27+1</f>
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="K27" s="76">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L27" s="77">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="M27" s="76">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="78">
         <f>SUMPRODUCT(J28:J32,N28:N32)/SUM(J28:J32)</f>
-        <v>0.66666666666666663</v>
+        <v>0.95416666666666672</v>
       </c>
       <c r="O27" s="79"/>
       <c r="P27" s="71"/>
@@ -11034,22 +10830,22 @@
       </c>
       <c r="H28" s="60">
         <f t="shared" si="18"/>
-        <v>42419</v>
+        <v>42429</v>
       </c>
       <c r="I28" s="61" t="str">
         <f t="shared" ref="I28:I33" ca="1" si="38">IF(AND($F$6&lt;=H28,$F$6&gt;=G28),"V","")</f>
         <v/>
       </c>
       <c r="J28" s="62">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K28" s="63">
         <f t="shared" ref="K28:K33" si="39">NETWORKDAYS(G28,H28)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L28" s="64">
         <f t="shared" ref="L28:L33" si="40">ROUNDDOWN(N28*J28,0)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M28" s="63">
         <f t="shared" ref="M28:M33" si="41">J28-L28</f>
@@ -11317,29 +11113,29 @@
       </c>
       <c r="H29" s="60">
         <f t="shared" ref="H29:H33" si="42">G29+J29-1</f>
-        <v>42417</v>
+        <v>42444</v>
       </c>
       <c r="I29" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="J29" s="62">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K29" s="63">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L29" s="64">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M29" s="63">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="58"/>
@@ -11600,29 +11396,29 @@
       </c>
       <c r="H30" s="60">
         <f t="shared" si="42"/>
-        <v>42418</v>
+        <v>42472</v>
       </c>
       <c r="I30" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="J30" s="62">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="K30" s="63">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="L30" s="64">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M30" s="63">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N30" s="65">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="58"/>
@@ -11879,33 +11675,33 @@
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
       <c r="G31" s="59">
-        <v>42419</v>
+        <v>42461</v>
       </c>
       <c r="H31" s="60">
         <f t="shared" si="42"/>
-        <v>42419</v>
+        <v>42475</v>
       </c>
       <c r="I31" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J31" s="62">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K31" s="63">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L31" s="64">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M31" s="63">
         <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="65">
         <v>1</v>
-      </c>
-      <c r="N31" s="65">
-        <v>0.5</v>
       </c>
       <c r="O31" s="66"/>
       <c r="P31" s="58"/>
@@ -12156,17 +11952,17 @@
         <v>19</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
       <c r="G32" s="59">
-        <v>42422</v>
+        <v>42470</v>
       </c>
       <c r="H32" s="60">
         <f t="shared" si="42"/>
-        <v>42426</v>
+        <v>42474</v>
       </c>
       <c r="I32" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -12177,18 +11973,18 @@
       </c>
       <c r="K32" s="63">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" s="64">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M32" s="63">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O32" s="66"/>
       <c r="P32" s="58"/>
@@ -12439,39 +12235,39 @@
         <v>21</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
       <c r="G33" s="59">
-        <v>42426</v>
+        <v>42472</v>
       </c>
       <c r="H33" s="60">
         <f t="shared" si="42"/>
-        <v>42426</v>
+        <v>42475</v>
       </c>
       <c r="I33" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J33" s="62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K33" s="63">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" s="64">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="63">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="N33" s="65">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O33" s="66"/>
       <c r="P33" s="58"/>
@@ -12726,30 +12522,30 @@
       <c r="E34" s="70"/>
       <c r="F34" s="71"/>
       <c r="G34" s="72">
-        <v>42429</v>
+        <v>42478</v>
       </c>
       <c r="H34" s="73">
         <f t="shared" si="18"/>
-        <v>42447</v>
+        <v>42496</v>
       </c>
       <c r="I34" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H34,$F$6&gt;=G34),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J34" s="75">
         <f>MAX(H35:H36)-G34+1</f>
         <v>19</v>
       </c>
       <c r="K34" s="76">
-        <f t="shared" ref="K34:K38" si="44">NETWORKDAYS(G34,H34)</f>
+        <f t="shared" ref="K34:K36" si="44">NETWORKDAYS(G34,H34)</f>
         <v>15</v>
       </c>
       <c r="L34" s="77">
-        <f t="shared" ref="L34:L38" si="45">ROUNDDOWN(N34*J34,0)</f>
+        <f t="shared" ref="L34:L36" si="45">ROUNDDOWN(N34*J34,0)</f>
         <v>0</v>
       </c>
       <c r="M34" s="76">
-        <f t="shared" ref="M34:M38" si="46">J34-L34</f>
+        <f t="shared" ref="M34:M36" si="46">J34-L34</f>
         <v>19</v>
       </c>
       <c r="N34" s="78">
@@ -13011,15 +12807,15 @@
       <c r="E35" s="57"/>
       <c r="F35" s="58"/>
       <c r="G35" s="59">
-        <v>42429</v>
+        <v>42478</v>
       </c>
       <c r="H35" s="60">
         <f t="shared" si="18"/>
-        <v>42447</v>
+        <v>42496</v>
       </c>
       <c r="I35" s="61" t="str">
         <f t="shared" ref="I35" ca="1" si="47">IF(AND($F$6&lt;=H35,$F$6&gt;=G35),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J35" s="62">
         <v>19</v>
@@ -13288,28 +13084,28 @@
         <v>21</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="58"/>
       <c r="G36" s="59">
-        <v>42447</v>
+        <v>42478</v>
       </c>
       <c r="H36" s="60">
         <f t="shared" si="18"/>
-        <v>42447</v>
+        <v>42480</v>
       </c>
       <c r="I36" s="61" t="str">
         <f t="shared" ref="I36" ca="1" si="51">IF(AND($F$6&lt;=H36,$F$6&gt;=G36),"V","")</f>
         <v/>
       </c>
       <c r="J36" s="62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36" s="63">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" s="64">
         <f t="shared" si="45"/>
@@ -13317,7 +13113,7 @@
       </c>
       <c r="M36" s="63">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36" s="65">
         <v>0</v>
@@ -13569,40 +13365,40 @@
       </c>
       <c r="B37" s="68"/>
       <c r="C37" s="69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="70"/>
       <c r="F37" s="71"/>
       <c r="G37" s="72">
-        <v>42450</v>
+        <v>42499</v>
       </c>
       <c r="H37" s="73">
-        <f t="shared" ref="H37:H38" si="52">G37+J37-1</f>
-        <v>42456</v>
+        <f t="shared" si="18"/>
+        <v>42517</v>
       </c>
       <c r="I37" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H37,$F$6&gt;=G37),"V","")</f>
         <v/>
       </c>
       <c r="J37" s="75">
-        <f>MAX(H38)-G37+1</f>
-        <v>7</v>
+        <f>MAX(H38:H43)-G37+1</f>
+        <v>19</v>
       </c>
       <c r="K37" s="76">
-        <f t="shared" si="44"/>
-        <v>5</v>
+        <f t="shared" ref="K37:K38" si="52">NETWORKDAYS(G37,H37)</f>
+        <v>15</v>
       </c>
       <c r="L37" s="77">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="L37:L38" si="53">ROUNDDOWN(N37*J37,0)</f>
         <v>0</v>
       </c>
       <c r="M37" s="76">
-        <f t="shared" si="46"/>
-        <v>7</v>
+        <f t="shared" ref="M37:M38" si="54">J37-L37</f>
+        <v>19</v>
       </c>
       <c r="N37" s="78">
-        <f>SUMPRODUCT(J39:J44,N39:N44)/SUM(J39:J44)</f>
+        <f>SUMPRODUCT(J38:J43,N38:N43)/SUM(J38:J43)</f>
         <v>0</v>
       </c>
       <c r="O37" s="79"/>
@@ -13847,43 +13643,43 @@
     </row>
     <row r="38" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),OFFSET(A38,-1,0,1,1)&amp;".1",LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A38,-1,0,1,1),LEN(OFFSET(A38,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A38:A43" ca="1" si="55">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),OFFSET(A38,-1,0,1,1)&amp;".1",LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A38,-1,0,1,1),LEN(OFFSET(A38,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
       <c r="F38" s="58"/>
       <c r="G38" s="59">
-        <v>42450</v>
+        <v>42499</v>
       </c>
       <c r="H38" s="60">
+        <f t="shared" si="18"/>
+        <v>42500</v>
+      </c>
+      <c r="I38" s="61" t="str">
+        <f t="shared" ref="I38" ca="1" si="56">IF(AND($F$6&lt;=H38,$F$6&gt;=G38),"V","")</f>
+        <v/>
+      </c>
+      <c r="J38" s="62">
+        <v>2</v>
+      </c>
+      <c r="K38" s="63">
         <f t="shared" si="52"/>
-        <v>42456</v>
-      </c>
-      <c r="I38" s="61" t="str">
-        <f t="shared" ref="I38" ca="1" si="53">IF(AND($F$6&lt;=H38,$F$6&gt;=G38),"V","")</f>
-        <v/>
-      </c>
-      <c r="J38" s="62">
-        <v>7</v>
-      </c>
-      <c r="K38" s="63">
-        <f t="shared" si="44"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L38" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M38" s="63">
-        <f t="shared" si="46"/>
-        <v>7</v>
+        <f t="shared" si="54"/>
+        <v>2</v>
       </c>
       <c r="N38" s="65">
         <v>0</v>
@@ -14128,328 +13924,328 @@
       <c r="IR38" s="58"/>
       <c r="IS38" s="58"/>
     </row>
-    <row r="39" spans="1:253" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A39" s="67">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),VALUE(OFFSET(A39,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>6</v>
-      </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="72">
-        <v>42457</v>
-      </c>
-      <c r="H39" s="73">
+    <row r="39" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A39" s="54" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>5.2</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59">
+        <v>42501</v>
+      </c>
+      <c r="H39" s="60">
         <f t="shared" si="18"/>
-        <v>42475</v>
-      </c>
-      <c r="I39" s="74" t="str">
-        <f ca="1">IF(AND($F$6&lt;=H39,$F$6&gt;=G39),"V","")</f>
+        <v>42503</v>
+      </c>
+      <c r="I39" s="61" t="str">
+        <f t="shared" ref="I39:I43" ca="1" si="57">IF(AND($F$6&lt;=H39,$F$6&gt;=G39),"V","")</f>
         <v/>
       </c>
-      <c r="J39" s="75">
-        <f>MAX(H40:H45)-G39+1</f>
-        <v>19</v>
-      </c>
-      <c r="K39" s="76">
-        <f t="shared" ref="K39:K40" si="54">NETWORKDAYS(G39,H39)</f>
-        <v>15</v>
-      </c>
-      <c r="L39" s="77">
-        <f t="shared" ref="L39:L40" si="55">ROUNDDOWN(N39*J39,0)</f>
+      <c r="J39" s="62">
+        <v>3</v>
+      </c>
+      <c r="K39" s="63">
+        <f t="shared" ref="K39:K52" si="58">NETWORKDAYS(G39,H39)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="64">
+        <f t="shared" ref="L39:L52" si="59">ROUNDDOWN(N39*J39,0)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="76">
-        <f t="shared" ref="M39:M40" si="56">J39-L39</f>
-        <v>19</v>
-      </c>
-      <c r="N39" s="78">
-        <f>SUMPRODUCT(J40:J45,N40:N45)/SUM(J40:J45)</f>
+      <c r="M39" s="63">
+        <f t="shared" ref="M39:M52" si="60">J39-L39</f>
+        <v>3</v>
+      </c>
+      <c r="N39" s="65">
         <v>0</v>
       </c>
-      <c r="O39" s="79"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="71"/>
-      <c r="AD39" s="71"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="71"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="71"/>
-      <c r="AO39" s="71"/>
-      <c r="AP39" s="71"/>
-      <c r="AQ39" s="71"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="71"/>
-      <c r="AT39" s="71"/>
-      <c r="AU39" s="71"/>
-      <c r="AV39" s="71"/>
-      <c r="AW39" s="71"/>
-      <c r="AX39" s="71"/>
-      <c r="AY39" s="71"/>
-      <c r="AZ39" s="71"/>
-      <c r="BA39" s="71"/>
-      <c r="BB39" s="71"/>
-      <c r="BC39" s="71"/>
-      <c r="BD39" s="71"/>
-      <c r="BE39" s="71"/>
-      <c r="BF39" s="71"/>
-      <c r="BG39" s="71"/>
-      <c r="BH39" s="71"/>
-      <c r="BI39" s="71"/>
-      <c r="BJ39" s="71"/>
-      <c r="BK39" s="71"/>
-      <c r="BL39" s="71"/>
-      <c r="BM39" s="71"/>
-      <c r="BN39" s="71"/>
-      <c r="BO39" s="71"/>
-      <c r="BP39" s="71"/>
-      <c r="BQ39" s="71"/>
-      <c r="BR39" s="71"/>
-      <c r="BS39" s="71"/>
-      <c r="BT39" s="71"/>
-      <c r="BU39" s="71"/>
-      <c r="BV39" s="71"/>
-      <c r="BW39" s="71"/>
-      <c r="BX39" s="71"/>
-      <c r="BY39" s="71"/>
-      <c r="BZ39" s="71"/>
-      <c r="CA39" s="71"/>
-      <c r="CB39" s="71"/>
-      <c r="CC39" s="71"/>
-      <c r="CD39" s="71"/>
-      <c r="CE39" s="71"/>
-      <c r="CF39" s="71"/>
-      <c r="CG39" s="71"/>
-      <c r="CH39" s="71"/>
-      <c r="CI39" s="71"/>
-      <c r="CJ39" s="71"/>
-      <c r="CK39" s="71"/>
-      <c r="CL39" s="71"/>
-      <c r="CM39" s="71"/>
-      <c r="CN39" s="71"/>
-      <c r="CO39" s="71"/>
-      <c r="CP39" s="71"/>
-      <c r="CQ39" s="71"/>
-      <c r="CR39" s="71"/>
-      <c r="CS39" s="71"/>
-      <c r="CT39" s="71"/>
-      <c r="CU39" s="71"/>
-      <c r="CV39" s="71"/>
-      <c r="CW39" s="71"/>
-      <c r="CX39" s="71"/>
-      <c r="CY39" s="71"/>
-      <c r="CZ39" s="71"/>
-      <c r="DA39" s="71"/>
-      <c r="DB39" s="71"/>
-      <c r="DC39" s="71"/>
-      <c r="DD39" s="71"/>
-      <c r="DE39" s="71"/>
-      <c r="DF39" s="71"/>
-      <c r="DG39" s="71"/>
-      <c r="DH39" s="71"/>
-      <c r="DI39" s="71"/>
-      <c r="DJ39" s="71"/>
-      <c r="DK39" s="71"/>
-      <c r="DL39" s="71"/>
-      <c r="DM39" s="71"/>
-      <c r="DN39" s="71"/>
-      <c r="DO39" s="71"/>
-      <c r="DP39" s="71"/>
-      <c r="DQ39" s="71"/>
-      <c r="DR39" s="71"/>
-      <c r="DS39" s="71"/>
-      <c r="DT39" s="71"/>
-      <c r="DU39" s="71"/>
-      <c r="DV39" s="71"/>
-      <c r="DW39" s="71"/>
-      <c r="DX39" s="71"/>
-      <c r="DY39" s="71"/>
-      <c r="DZ39" s="71"/>
-      <c r="EA39" s="71"/>
-      <c r="EB39" s="71"/>
-      <c r="EC39" s="71"/>
-      <c r="ED39" s="71"/>
-      <c r="EE39" s="71"/>
-      <c r="EF39" s="71"/>
-      <c r="EG39" s="71"/>
-      <c r="EH39" s="71"/>
-      <c r="EI39" s="71"/>
-      <c r="EJ39" s="71"/>
-      <c r="EK39" s="71"/>
-      <c r="EL39" s="71"/>
-      <c r="EM39" s="71"/>
-      <c r="EN39" s="71"/>
-      <c r="EO39" s="71"/>
-      <c r="EP39" s="71"/>
-      <c r="EQ39" s="71"/>
-      <c r="ER39" s="71"/>
-      <c r="ES39" s="71"/>
-      <c r="ET39" s="71"/>
-      <c r="EU39" s="71"/>
-      <c r="EV39" s="71"/>
-      <c r="EW39" s="71"/>
-      <c r="EX39" s="71"/>
-      <c r="EY39" s="71"/>
-      <c r="EZ39" s="71"/>
-      <c r="FA39" s="71"/>
-      <c r="FB39" s="71"/>
-      <c r="FC39" s="71"/>
-      <c r="FD39" s="71"/>
-      <c r="FE39" s="71"/>
-      <c r="FF39" s="71"/>
-      <c r="FG39" s="71"/>
-      <c r="FH39" s="71"/>
-      <c r="FI39" s="71"/>
-      <c r="FJ39" s="71"/>
-      <c r="FK39" s="71"/>
-      <c r="FL39" s="71"/>
-      <c r="FM39" s="71"/>
-      <c r="FN39" s="71"/>
-      <c r="FO39" s="71"/>
-      <c r="FP39" s="71"/>
-      <c r="FQ39" s="71"/>
-      <c r="FR39" s="71"/>
-      <c r="FS39" s="71"/>
-      <c r="FT39" s="71"/>
-      <c r="FU39" s="71"/>
-      <c r="FV39" s="71"/>
-      <c r="FW39" s="71"/>
-      <c r="FX39" s="71"/>
-      <c r="FY39" s="71"/>
-      <c r="FZ39" s="71"/>
-      <c r="GA39" s="71"/>
-      <c r="GB39" s="71"/>
-      <c r="GC39" s="71"/>
-      <c r="GD39" s="71"/>
-      <c r="GE39" s="71"/>
-      <c r="GF39" s="71"/>
-      <c r="GG39" s="71"/>
-      <c r="GH39" s="71"/>
-      <c r="GI39" s="71"/>
-      <c r="GJ39" s="71"/>
-      <c r="GK39" s="71"/>
-      <c r="GL39" s="71"/>
-      <c r="GM39" s="71"/>
-      <c r="GN39" s="71"/>
-      <c r="GO39" s="71"/>
-      <c r="GP39" s="71"/>
-      <c r="GQ39" s="71"/>
-      <c r="GR39" s="71"/>
-      <c r="GS39" s="71"/>
-      <c r="GT39" s="71"/>
-      <c r="GU39" s="71"/>
-      <c r="GV39" s="71"/>
-      <c r="GW39" s="71"/>
-      <c r="GX39" s="71"/>
-      <c r="GY39" s="71"/>
-      <c r="GZ39" s="71"/>
-      <c r="HA39" s="71"/>
-      <c r="HB39" s="71"/>
-      <c r="HC39" s="71"/>
-      <c r="HD39" s="71"/>
-      <c r="HE39" s="71"/>
-      <c r="HF39" s="71"/>
-      <c r="HG39" s="71"/>
-      <c r="HH39" s="71"/>
-      <c r="HI39" s="71"/>
-      <c r="HJ39" s="71"/>
-      <c r="HK39" s="71"/>
-      <c r="HL39" s="71"/>
-      <c r="HM39" s="71"/>
-      <c r="HN39" s="71"/>
-      <c r="HO39" s="71"/>
-      <c r="HP39" s="71"/>
-      <c r="HQ39" s="71"/>
-      <c r="HR39" s="71"/>
-      <c r="HS39" s="71"/>
-      <c r="HT39" s="71"/>
-      <c r="HU39" s="71"/>
-      <c r="HV39" s="71"/>
-      <c r="HW39" s="71"/>
-      <c r="HX39" s="71"/>
-      <c r="HY39" s="71"/>
-      <c r="HZ39" s="71"/>
-      <c r="IA39" s="71"/>
-      <c r="IB39" s="71"/>
-      <c r="IC39" s="71"/>
-      <c r="ID39" s="71"/>
-      <c r="IE39" s="71"/>
-      <c r="IF39" s="71"/>
-      <c r="IG39" s="71"/>
-      <c r="IH39" s="71"/>
-      <c r="II39" s="71"/>
-      <c r="IJ39" s="71"/>
-      <c r="IK39" s="71"/>
-      <c r="IL39" s="71"/>
-      <c r="IM39" s="71"/>
-      <c r="IN39" s="71"/>
-      <c r="IO39" s="71"/>
-      <c r="IP39" s="71"/>
-      <c r="IQ39" s="71"/>
-      <c r="IR39" s="71"/>
-      <c r="IS39" s="71"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="58"/>
+      <c r="BA39" s="58"/>
+      <c r="BB39" s="58"/>
+      <c r="BC39" s="58"/>
+      <c r="BD39" s="58"/>
+      <c r="BE39" s="58"/>
+      <c r="BF39" s="58"/>
+      <c r="BG39" s="58"/>
+      <c r="BH39" s="58"/>
+      <c r="BI39" s="58"/>
+      <c r="BJ39" s="58"/>
+      <c r="BK39" s="58"/>
+      <c r="BL39" s="58"/>
+      <c r="BM39" s="58"/>
+      <c r="BN39" s="58"/>
+      <c r="BO39" s="58"/>
+      <c r="BP39" s="58"/>
+      <c r="BQ39" s="58"/>
+      <c r="BR39" s="58"/>
+      <c r="BS39" s="58"/>
+      <c r="BT39" s="58"/>
+      <c r="BU39" s="58"/>
+      <c r="BV39" s="58"/>
+      <c r="BW39" s="58"/>
+      <c r="BX39" s="58"/>
+      <c r="BY39" s="58"/>
+      <c r="BZ39" s="58"/>
+      <c r="CA39" s="58"/>
+      <c r="CB39" s="58"/>
+      <c r="CC39" s="58"/>
+      <c r="CD39" s="58"/>
+      <c r="CE39" s="58"/>
+      <c r="CF39" s="58"/>
+      <c r="CG39" s="58"/>
+      <c r="CH39" s="58"/>
+      <c r="CI39" s="58"/>
+      <c r="CJ39" s="58"/>
+      <c r="CK39" s="58"/>
+      <c r="CL39" s="58"/>
+      <c r="CM39" s="58"/>
+      <c r="CN39" s="58"/>
+      <c r="CO39" s="58"/>
+      <c r="CP39" s="58"/>
+      <c r="CQ39" s="58"/>
+      <c r="CR39" s="58"/>
+      <c r="CS39" s="58"/>
+      <c r="CT39" s="58"/>
+      <c r="CU39" s="58"/>
+      <c r="CV39" s="58"/>
+      <c r="CW39" s="58"/>
+      <c r="CX39" s="58"/>
+      <c r="CY39" s="58"/>
+      <c r="CZ39" s="58"/>
+      <c r="DA39" s="58"/>
+      <c r="DB39" s="58"/>
+      <c r="DC39" s="58"/>
+      <c r="DD39" s="58"/>
+      <c r="DE39" s="58"/>
+      <c r="DF39" s="58"/>
+      <c r="DG39" s="58"/>
+      <c r="DH39" s="58"/>
+      <c r="DI39" s="58"/>
+      <c r="DJ39" s="58"/>
+      <c r="DK39" s="58"/>
+      <c r="DL39" s="58"/>
+      <c r="DM39" s="58"/>
+      <c r="DN39" s="58"/>
+      <c r="DO39" s="58"/>
+      <c r="DP39" s="58"/>
+      <c r="DQ39" s="58"/>
+      <c r="DR39" s="58"/>
+      <c r="DS39" s="58"/>
+      <c r="DT39" s="58"/>
+      <c r="DU39" s="58"/>
+      <c r="DV39" s="58"/>
+      <c r="DW39" s="58"/>
+      <c r="DX39" s="58"/>
+      <c r="DY39" s="58"/>
+      <c r="DZ39" s="58"/>
+      <c r="EA39" s="58"/>
+      <c r="EB39" s="58"/>
+      <c r="EC39" s="58"/>
+      <c r="ED39" s="58"/>
+      <c r="EE39" s="58"/>
+      <c r="EF39" s="58"/>
+      <c r="EG39" s="58"/>
+      <c r="EH39" s="58"/>
+      <c r="EI39" s="58"/>
+      <c r="EJ39" s="58"/>
+      <c r="EK39" s="58"/>
+      <c r="EL39" s="58"/>
+      <c r="EM39" s="58"/>
+      <c r="EN39" s="58"/>
+      <c r="EO39" s="58"/>
+      <c r="EP39" s="58"/>
+      <c r="EQ39" s="58"/>
+      <c r="ER39" s="58"/>
+      <c r="ES39" s="58"/>
+      <c r="ET39" s="58"/>
+      <c r="EU39" s="58"/>
+      <c r="EV39" s="58"/>
+      <c r="EW39" s="58"/>
+      <c r="EX39" s="58"/>
+      <c r="EY39" s="58"/>
+      <c r="EZ39" s="58"/>
+      <c r="FA39" s="58"/>
+      <c r="FB39" s="58"/>
+      <c r="FC39" s="58"/>
+      <c r="FD39" s="58"/>
+      <c r="FE39" s="58"/>
+      <c r="FF39" s="58"/>
+      <c r="FG39" s="58"/>
+      <c r="FH39" s="58"/>
+      <c r="FI39" s="58"/>
+      <c r="FJ39" s="58"/>
+      <c r="FK39" s="58"/>
+      <c r="FL39" s="58"/>
+      <c r="FM39" s="58"/>
+      <c r="FN39" s="58"/>
+      <c r="FO39" s="58"/>
+      <c r="FP39" s="58"/>
+      <c r="FQ39" s="58"/>
+      <c r="FR39" s="58"/>
+      <c r="FS39" s="58"/>
+      <c r="FT39" s="58"/>
+      <c r="FU39" s="58"/>
+      <c r="FV39" s="58"/>
+      <c r="FW39" s="58"/>
+      <c r="FX39" s="58"/>
+      <c r="FY39" s="58"/>
+      <c r="FZ39" s="58"/>
+      <c r="GA39" s="58"/>
+      <c r="GB39" s="58"/>
+      <c r="GC39" s="58"/>
+      <c r="GD39" s="58"/>
+      <c r="GE39" s="58"/>
+      <c r="GF39" s="58"/>
+      <c r="GG39" s="58"/>
+      <c r="GH39" s="58"/>
+      <c r="GI39" s="58"/>
+      <c r="GJ39" s="58"/>
+      <c r="GK39" s="58"/>
+      <c r="GL39" s="58"/>
+      <c r="GM39" s="58"/>
+      <c r="GN39" s="58"/>
+      <c r="GO39" s="58"/>
+      <c r="GP39" s="58"/>
+      <c r="GQ39" s="58"/>
+      <c r="GR39" s="58"/>
+      <c r="GS39" s="58"/>
+      <c r="GT39" s="58"/>
+      <c r="GU39" s="58"/>
+      <c r="GV39" s="58"/>
+      <c r="GW39" s="58"/>
+      <c r="GX39" s="58"/>
+      <c r="GY39" s="58"/>
+      <c r="GZ39" s="58"/>
+      <c r="HA39" s="58"/>
+      <c r="HB39" s="58"/>
+      <c r="HC39" s="58"/>
+      <c r="HD39" s="58"/>
+      <c r="HE39" s="58"/>
+      <c r="HF39" s="58"/>
+      <c r="HG39" s="58"/>
+      <c r="HH39" s="58"/>
+      <c r="HI39" s="58"/>
+      <c r="HJ39" s="58"/>
+      <c r="HK39" s="58"/>
+      <c r="HL39" s="58"/>
+      <c r="HM39" s="58"/>
+      <c r="HN39" s="58"/>
+      <c r="HO39" s="58"/>
+      <c r="HP39" s="58"/>
+      <c r="HQ39" s="58"/>
+      <c r="HR39" s="58"/>
+      <c r="HS39" s="58"/>
+      <c r="HT39" s="58"/>
+      <c r="HU39" s="58"/>
+      <c r="HV39" s="58"/>
+      <c r="HW39" s="58"/>
+      <c r="HX39" s="58"/>
+      <c r="HY39" s="58"/>
+      <c r="HZ39" s="58"/>
+      <c r="IA39" s="58"/>
+      <c r="IB39" s="58"/>
+      <c r="IC39" s="58"/>
+      <c r="ID39" s="58"/>
+      <c r="IE39" s="58"/>
+      <c r="IF39" s="58"/>
+      <c r="IG39" s="58"/>
+      <c r="IH39" s="58"/>
+      <c r="II39" s="58"/>
+      <c r="IJ39" s="58"/>
+      <c r="IK39" s="58"/>
+      <c r="IL39" s="58"/>
+      <c r="IM39" s="58"/>
+      <c r="IN39" s="58"/>
+      <c r="IO39" s="58"/>
+      <c r="IP39" s="58"/>
+      <c r="IQ39" s="58"/>
+      <c r="IR39" s="58"/>
+      <c r="IS39" s="58"/>
     </row>
     <row r="40" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="54" t="str">
-        <f t="shared" ref="A40:A45" ca="1" si="57">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>5.3</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
       <c r="F40" s="58"/>
       <c r="G40" s="59">
-        <v>42457</v>
+        <v>42506</v>
       </c>
       <c r="H40" s="60">
-        <f t="shared" si="18"/>
-        <v>42458</v>
+        <f t="shared" ref="H40" si="61">G40+J40-1</f>
+        <v>42506</v>
       </c>
       <c r="I40" s="61" t="str">
-        <f t="shared" ref="I40" ca="1" si="58">IF(AND($F$6&lt;=H40,$F$6&gt;=G40),"V","")</f>
+        <f t="shared" ref="I40" ca="1" si="62">IF(AND($F$6&lt;=H40,$F$6&gt;=G40),"V","")</f>
         <v/>
       </c>
       <c r="J40" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="63">
-        <f t="shared" si="54"/>
-        <v>2</v>
+        <f t="shared" ref="K40" si="63">NETWORKDAYS(G40,H40)</f>
+        <v>1</v>
       </c>
       <c r="L40" s="64">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="L40" si="64">ROUNDDOWN(N40*J40,0)</f>
         <v>0</v>
       </c>
       <c r="M40" s="63">
-        <f t="shared" si="56"/>
-        <v>2</v>
+        <f t="shared" ref="M40" si="65">J40-L40</f>
+        <v>1</v>
       </c>
       <c r="N40" s="65">
         <v>0</v>
@@ -14696,43 +14492,43 @@
     </row>
     <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="54" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>6.2</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>5.4</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
       <c r="F41" s="58"/>
       <c r="G41" s="59">
-        <v>42459</v>
+        <v>42506</v>
       </c>
       <c r="H41" s="60">
         <f t="shared" si="18"/>
-        <v>42461</v>
+        <v>42510</v>
       </c>
       <c r="I41" s="61" t="str">
-        <f t="shared" ref="I41:I45" ca="1" si="59">IF(AND($F$6&lt;=H41,$F$6&gt;=G41),"V","")</f>
+        <f t="shared" ref="I41:I42" ca="1" si="66">IF(AND($F$6&lt;=H41,$F$6&gt;=G41),"V","")</f>
         <v/>
       </c>
       <c r="J41" s="62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" s="63">
-        <f t="shared" ref="K41:K54" si="60">NETWORKDAYS(G41,H41)</f>
-        <v>3</v>
+        <f t="shared" ref="K41:K42" si="67">NETWORKDAYS(G41,H41)</f>
+        <v>5</v>
       </c>
       <c r="L41" s="64">
-        <f t="shared" ref="L41:L54" si="61">ROUNDDOWN(N41*J41,0)</f>
+        <f t="shared" ref="L41:L42" si="68">ROUNDDOWN(N41*J41,0)</f>
         <v>0</v>
       </c>
       <c r="M41" s="63">
-        <f t="shared" ref="M41:M54" si="62">J41-L41</f>
-        <v>3</v>
+        <f t="shared" ref="M41:M42" si="69">J41-L41</f>
+        <v>5</v>
       </c>
       <c r="N41" s="65">
         <v>0</v>
@@ -14979,43 +14775,43 @@
     </row>
     <row r="42" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A42" s="54" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>6.3</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>5.5</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
       <c r="F42" s="58"/>
       <c r="G42" s="59">
-        <v>42461</v>
+        <v>42513</v>
       </c>
       <c r="H42" s="60">
-        <f t="shared" ref="H42" si="63">G42+J42-1</f>
-        <v>42461</v>
+        <f t="shared" si="18"/>
+        <v>42517</v>
       </c>
       <c r="I42" s="61" t="str">
-        <f t="shared" ref="I42" ca="1" si="64">IF(AND($F$6&lt;=H42,$F$6&gt;=G42),"V","")</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="J42" s="62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K42" s="63">
-        <f t="shared" ref="K42" si="65">NETWORKDAYS(G42,H42)</f>
-        <v>1</v>
+        <f t="shared" si="67"/>
+        <v>5</v>
       </c>
       <c r="L42" s="64">
-        <f t="shared" ref="L42" si="66">ROUNDDOWN(N42*J42,0)</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M42" s="63">
-        <f t="shared" ref="M42" si="67">J42-L42</f>
-        <v>1</v>
+        <f t="shared" si="69"/>
+        <v>5</v>
       </c>
       <c r="N42" s="65">
         <v>0</v>
@@ -15262,43 +15058,43 @@
     </row>
     <row r="43" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A43" s="54" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>6.4</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>5.6</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
       <c r="F43" s="58"/>
       <c r="G43" s="59">
-        <v>42464</v>
+        <v>42517</v>
       </c>
       <c r="H43" s="60">
         <f t="shared" si="18"/>
-        <v>42468</v>
+        <v>42517</v>
       </c>
       <c r="I43" s="61" t="str">
-        <f t="shared" ref="I43:I44" ca="1" si="68">IF(AND($F$6&lt;=H43,$F$6&gt;=G43),"V","")</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="J43" s="62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K43" s="63">
-        <f t="shared" ref="K43:K44" si="69">NETWORKDAYS(G43,H43)</f>
-        <v>5</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="L43" s="64">
-        <f t="shared" ref="L43:L44" si="70">ROUNDDOWN(N43*J43,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M43" s="63">
-        <f t="shared" ref="M43:M44" si="71">J43-L43</f>
-        <v>5</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="N43" s="65">
         <v>0</v>
@@ -15543,328 +15339,328 @@
       <c r="IR43" s="58"/>
       <c r="IS43" s="58"/>
     </row>
-    <row r="44" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A44" s="54" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>6.5</v>
-      </c>
-      <c r="B44" s="55" t="s">
+    <row r="44" spans="1:253" s="23" customFormat="1" ht="12">
+      <c r="A44" s="67">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A44,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))),VALUE(OFFSET(A44,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>6</v>
+      </c>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72">
+        <v>42520</v>
+      </c>
+      <c r="H44" s="73">
+        <f t="shared" si="18"/>
+        <v>42541</v>
+      </c>
+      <c r="I44" s="74" t="str">
+        <f ca="1">IF(AND($F$6&lt;=H44,$F$6&gt;=G44),"V","")</f>
+        <v/>
+      </c>
+      <c r="J44" s="75">
+        <f>MAX(H45:H48)-G44+1</f>
+        <v>22</v>
+      </c>
+      <c r="K44" s="76">
+        <f t="shared" si="58"/>
+        <v>16</v>
+      </c>
+      <c r="L44" s="77">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="76">
+        <f t="shared" si="60"/>
+        <v>22</v>
+      </c>
+      <c r="N44" s="78">
+        <f>SUMPRODUCT(J49:J53,N49:N53)/SUM(J49:J53)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="79"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+      <c r="AJ44" s="71"/>
+      <c r="AK44" s="71"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="71"/>
+      <c r="AN44" s="71"/>
+      <c r="AO44" s="71"/>
+      <c r="AP44" s="71"/>
+      <c r="AQ44" s="71"/>
+      <c r="AR44" s="71"/>
+      <c r="AS44" s="71"/>
+      <c r="AT44" s="71"/>
+      <c r="AU44" s="71"/>
+      <c r="AV44" s="71"/>
+      <c r="AW44" s="71"/>
+      <c r="AX44" s="71"/>
+      <c r="AY44" s="71"/>
+      <c r="AZ44" s="71"/>
+      <c r="BA44" s="71"/>
+      <c r="BB44" s="71"/>
+      <c r="BC44" s="71"/>
+      <c r="BD44" s="71"/>
+      <c r="BE44" s="71"/>
+      <c r="BF44" s="71"/>
+      <c r="BG44" s="71"/>
+      <c r="BH44" s="71"/>
+      <c r="BI44" s="71"/>
+      <c r="BJ44" s="71"/>
+      <c r="BK44" s="71"/>
+      <c r="BL44" s="71"/>
+      <c r="BM44" s="71"/>
+      <c r="BN44" s="71"/>
+      <c r="BO44" s="71"/>
+      <c r="BP44" s="71"/>
+      <c r="BQ44" s="71"/>
+      <c r="BR44" s="71"/>
+      <c r="BS44" s="71"/>
+      <c r="BT44" s="71"/>
+      <c r="BU44" s="71"/>
+      <c r="BV44" s="71"/>
+      <c r="BW44" s="71"/>
+      <c r="BX44" s="71"/>
+      <c r="BY44" s="71"/>
+      <c r="BZ44" s="71"/>
+      <c r="CA44" s="71"/>
+      <c r="CB44" s="71"/>
+      <c r="CC44" s="71"/>
+      <c r="CD44" s="71"/>
+      <c r="CE44" s="71"/>
+      <c r="CF44" s="71"/>
+      <c r="CG44" s="71"/>
+      <c r="CH44" s="71"/>
+      <c r="CI44" s="71"/>
+      <c r="CJ44" s="71"/>
+      <c r="CK44" s="71"/>
+      <c r="CL44" s="71"/>
+      <c r="CM44" s="71"/>
+      <c r="CN44" s="71"/>
+      <c r="CO44" s="71"/>
+      <c r="CP44" s="71"/>
+      <c r="CQ44" s="71"/>
+      <c r="CR44" s="71"/>
+      <c r="CS44" s="71"/>
+      <c r="CT44" s="71"/>
+      <c r="CU44" s="71"/>
+      <c r="CV44" s="71"/>
+      <c r="CW44" s="71"/>
+      <c r="CX44" s="71"/>
+      <c r="CY44" s="71"/>
+      <c r="CZ44" s="71"/>
+      <c r="DA44" s="71"/>
+      <c r="DB44" s="71"/>
+      <c r="DC44" s="71"/>
+      <c r="DD44" s="71"/>
+      <c r="DE44" s="71"/>
+      <c r="DF44" s="71"/>
+      <c r="DG44" s="71"/>
+      <c r="DH44" s="71"/>
+      <c r="DI44" s="71"/>
+      <c r="DJ44" s="71"/>
+      <c r="DK44" s="71"/>
+      <c r="DL44" s="71"/>
+      <c r="DM44" s="71"/>
+      <c r="DN44" s="71"/>
+      <c r="DO44" s="71"/>
+      <c r="DP44" s="71"/>
+      <c r="DQ44" s="71"/>
+      <c r="DR44" s="71"/>
+      <c r="DS44" s="71"/>
+      <c r="DT44" s="71"/>
+      <c r="DU44" s="71"/>
+      <c r="DV44" s="71"/>
+      <c r="DW44" s="71"/>
+      <c r="DX44" s="71"/>
+      <c r="DY44" s="71"/>
+      <c r="DZ44" s="71"/>
+      <c r="EA44" s="71"/>
+      <c r="EB44" s="71"/>
+      <c r="EC44" s="71"/>
+      <c r="ED44" s="71"/>
+      <c r="EE44" s="71"/>
+      <c r="EF44" s="71"/>
+      <c r="EG44" s="71"/>
+      <c r="EH44" s="71"/>
+      <c r="EI44" s="71"/>
+      <c r="EJ44" s="71"/>
+      <c r="EK44" s="71"/>
+      <c r="EL44" s="71"/>
+      <c r="EM44" s="71"/>
+      <c r="EN44" s="71"/>
+      <c r="EO44" s="71"/>
+      <c r="EP44" s="71"/>
+      <c r="EQ44" s="71"/>
+      <c r="ER44" s="71"/>
+      <c r="ES44" s="71"/>
+      <c r="ET44" s="71"/>
+      <c r="EU44" s="71"/>
+      <c r="EV44" s="71"/>
+      <c r="EW44" s="71"/>
+      <c r="EX44" s="71"/>
+      <c r="EY44" s="71"/>
+      <c r="EZ44" s="71"/>
+      <c r="FA44" s="71"/>
+      <c r="FB44" s="71"/>
+      <c r="FC44" s="71"/>
+      <c r="FD44" s="71"/>
+      <c r="FE44" s="71"/>
+      <c r="FF44" s="71"/>
+      <c r="FG44" s="71"/>
+      <c r="FH44" s="71"/>
+      <c r="FI44" s="71"/>
+      <c r="FJ44" s="71"/>
+      <c r="FK44" s="71"/>
+      <c r="FL44" s="71"/>
+      <c r="FM44" s="71"/>
+      <c r="FN44" s="71"/>
+      <c r="FO44" s="71"/>
+      <c r="FP44" s="71"/>
+      <c r="FQ44" s="71"/>
+      <c r="FR44" s="71"/>
+      <c r="FS44" s="71"/>
+      <c r="FT44" s="71"/>
+      <c r="FU44" s="71"/>
+      <c r="FV44" s="71"/>
+      <c r="FW44" s="71"/>
+      <c r="FX44" s="71"/>
+      <c r="FY44" s="71"/>
+      <c r="FZ44" s="71"/>
+      <c r="GA44" s="71"/>
+      <c r="GB44" s="71"/>
+      <c r="GC44" s="71"/>
+      <c r="GD44" s="71"/>
+      <c r="GE44" s="71"/>
+      <c r="GF44" s="71"/>
+      <c r="GG44" s="71"/>
+      <c r="GH44" s="71"/>
+      <c r="GI44" s="71"/>
+      <c r="GJ44" s="71"/>
+      <c r="GK44" s="71"/>
+      <c r="GL44" s="71"/>
+      <c r="GM44" s="71"/>
+      <c r="GN44" s="71"/>
+      <c r="GO44" s="71"/>
+      <c r="GP44" s="71"/>
+      <c r="GQ44" s="71"/>
+      <c r="GR44" s="71"/>
+      <c r="GS44" s="71"/>
+      <c r="GT44" s="71"/>
+      <c r="GU44" s="71"/>
+      <c r="GV44" s="71"/>
+      <c r="GW44" s="71"/>
+      <c r="GX44" s="71"/>
+      <c r="GY44" s="71"/>
+      <c r="GZ44" s="71"/>
+      <c r="HA44" s="71"/>
+      <c r="HB44" s="71"/>
+      <c r="HC44" s="71"/>
+      <c r="HD44" s="71"/>
+      <c r="HE44" s="71"/>
+      <c r="HF44" s="71"/>
+      <c r="HG44" s="71"/>
+      <c r="HH44" s="71"/>
+      <c r="HI44" s="71"/>
+      <c r="HJ44" s="71"/>
+      <c r="HK44" s="71"/>
+      <c r="HL44" s="71"/>
+      <c r="HM44" s="71"/>
+      <c r="HN44" s="71"/>
+      <c r="HO44" s="71"/>
+      <c r="HP44" s="71"/>
+      <c r="HQ44" s="71"/>
+      <c r="HR44" s="71"/>
+      <c r="HS44" s="71"/>
+      <c r="HT44" s="71"/>
+      <c r="HU44" s="71"/>
+      <c r="HV44" s="71"/>
+      <c r="HW44" s="71"/>
+      <c r="HX44" s="71"/>
+      <c r="HY44" s="71"/>
+      <c r="HZ44" s="71"/>
+      <c r="IA44" s="71"/>
+      <c r="IB44" s="71"/>
+      <c r="IC44" s="71"/>
+      <c r="ID44" s="71"/>
+      <c r="IE44" s="71"/>
+      <c r="IF44" s="71"/>
+      <c r="IG44" s="71"/>
+      <c r="IH44" s="71"/>
+      <c r="II44" s="71"/>
+      <c r="IJ44" s="71"/>
+      <c r="IK44" s="71"/>
+      <c r="IL44" s="71"/>
+      <c r="IM44" s="71"/>
+      <c r="IN44" s="71"/>
+      <c r="IO44" s="71"/>
+      <c r="IP44" s="71"/>
+      <c r="IQ44" s="71"/>
+      <c r="IR44" s="71"/>
+      <c r="IS44" s="71"/>
+    </row>
+    <row r="45" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1">
+      <c r="A45" s="54" t="str">
+        <f t="shared" ref="A45:A48" ca="1" si="70">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A45,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))),OFFSET(A45,-1,0,1,1)&amp;".1",LEFT(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A45,-1,0,1,1),LEN(OFFSET(A45,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B45" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59">
-        <v>42471</v>
-      </c>
-      <c r="H44" s="60">
-        <f t="shared" si="18"/>
-        <v>42475</v>
-      </c>
-      <c r="I44" s="61" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="J44" s="62">
-        <v>5</v>
-      </c>
-      <c r="K44" s="63">
-        <f t="shared" si="69"/>
-        <v>5</v>
-      </c>
-      <c r="L44" s="64">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="63">
-        <f t="shared" si="71"/>
-        <v>5</v>
-      </c>
-      <c r="N44" s="65">
-        <v>0</v>
-      </c>
-      <c r="O44" s="66"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="58"/>
-      <c r="W44" s="58"/>
-      <c r="X44" s="58"/>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="58"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="58"/>
-      <c r="AI44" s="58"/>
-      <c r="AJ44" s="58"/>
-      <c r="AK44" s="58"/>
-      <c r="AL44" s="58"/>
-      <c r="AM44" s="58"/>
-      <c r="AN44" s="58"/>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="58"/>
-      <c r="AQ44" s="58"/>
-      <c r="AR44" s="58"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="58"/>
-      <c r="AU44" s="58"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="58"/>
-      <c r="AX44" s="58"/>
-      <c r="AY44" s="58"/>
-      <c r="AZ44" s="58"/>
-      <c r="BA44" s="58"/>
-      <c r="BB44" s="58"/>
-      <c r="BC44" s="58"/>
-      <c r="BD44" s="58"/>
-      <c r="BE44" s="58"/>
-      <c r="BF44" s="58"/>
-      <c r="BG44" s="58"/>
-      <c r="BH44" s="58"/>
-      <c r="BI44" s="58"/>
-      <c r="BJ44" s="58"/>
-      <c r="BK44" s="58"/>
-      <c r="BL44" s="58"/>
-      <c r="BM44" s="58"/>
-      <c r="BN44" s="58"/>
-      <c r="BO44" s="58"/>
-      <c r="BP44" s="58"/>
-      <c r="BQ44" s="58"/>
-      <c r="BR44" s="58"/>
-      <c r="BS44" s="58"/>
-      <c r="BT44" s="58"/>
-      <c r="BU44" s="58"/>
-      <c r="BV44" s="58"/>
-      <c r="BW44" s="58"/>
-      <c r="BX44" s="58"/>
-      <c r="BY44" s="58"/>
-      <c r="BZ44" s="58"/>
-      <c r="CA44" s="58"/>
-      <c r="CB44" s="58"/>
-      <c r="CC44" s="58"/>
-      <c r="CD44" s="58"/>
-      <c r="CE44" s="58"/>
-      <c r="CF44" s="58"/>
-      <c r="CG44" s="58"/>
-      <c r="CH44" s="58"/>
-      <c r="CI44" s="58"/>
-      <c r="CJ44" s="58"/>
-      <c r="CK44" s="58"/>
-      <c r="CL44" s="58"/>
-      <c r="CM44" s="58"/>
-      <c r="CN44" s="58"/>
-      <c r="CO44" s="58"/>
-      <c r="CP44" s="58"/>
-      <c r="CQ44" s="58"/>
-      <c r="CR44" s="58"/>
-      <c r="CS44" s="58"/>
-      <c r="CT44" s="58"/>
-      <c r="CU44" s="58"/>
-      <c r="CV44" s="58"/>
-      <c r="CW44" s="58"/>
-      <c r="CX44" s="58"/>
-      <c r="CY44" s="58"/>
-      <c r="CZ44" s="58"/>
-      <c r="DA44" s="58"/>
-      <c r="DB44" s="58"/>
-      <c r="DC44" s="58"/>
-      <c r="DD44" s="58"/>
-      <c r="DE44" s="58"/>
-      <c r="DF44" s="58"/>
-      <c r="DG44" s="58"/>
-      <c r="DH44" s="58"/>
-      <c r="DI44" s="58"/>
-      <c r="DJ44" s="58"/>
-      <c r="DK44" s="58"/>
-      <c r="DL44" s="58"/>
-      <c r="DM44" s="58"/>
-      <c r="DN44" s="58"/>
-      <c r="DO44" s="58"/>
-      <c r="DP44" s="58"/>
-      <c r="DQ44" s="58"/>
-      <c r="DR44" s="58"/>
-      <c r="DS44" s="58"/>
-      <c r="DT44" s="58"/>
-      <c r="DU44" s="58"/>
-      <c r="DV44" s="58"/>
-      <c r="DW44" s="58"/>
-      <c r="DX44" s="58"/>
-      <c r="DY44" s="58"/>
-      <c r="DZ44" s="58"/>
-      <c r="EA44" s="58"/>
-      <c r="EB44" s="58"/>
-      <c r="EC44" s="58"/>
-      <c r="ED44" s="58"/>
-      <c r="EE44" s="58"/>
-      <c r="EF44" s="58"/>
-      <c r="EG44" s="58"/>
-      <c r="EH44" s="58"/>
-      <c r="EI44" s="58"/>
-      <c r="EJ44" s="58"/>
-      <c r="EK44" s="58"/>
-      <c r="EL44" s="58"/>
-      <c r="EM44" s="58"/>
-      <c r="EN44" s="58"/>
-      <c r="EO44" s="58"/>
-      <c r="EP44" s="58"/>
-      <c r="EQ44" s="58"/>
-      <c r="ER44" s="58"/>
-      <c r="ES44" s="58"/>
-      <c r="ET44" s="58"/>
-      <c r="EU44" s="58"/>
-      <c r="EV44" s="58"/>
-      <c r="EW44" s="58"/>
-      <c r="EX44" s="58"/>
-      <c r="EY44" s="58"/>
-      <c r="EZ44" s="58"/>
-      <c r="FA44" s="58"/>
-      <c r="FB44" s="58"/>
-      <c r="FC44" s="58"/>
-      <c r="FD44" s="58"/>
-      <c r="FE44" s="58"/>
-      <c r="FF44" s="58"/>
-      <c r="FG44" s="58"/>
-      <c r="FH44" s="58"/>
-      <c r="FI44" s="58"/>
-      <c r="FJ44" s="58"/>
-      <c r="FK44" s="58"/>
-      <c r="FL44" s="58"/>
-      <c r="FM44" s="58"/>
-      <c r="FN44" s="58"/>
-      <c r="FO44" s="58"/>
-      <c r="FP44" s="58"/>
-      <c r="FQ44" s="58"/>
-      <c r="FR44" s="58"/>
-      <c r="FS44" s="58"/>
-      <c r="FT44" s="58"/>
-      <c r="FU44" s="58"/>
-      <c r="FV44" s="58"/>
-      <c r="FW44" s="58"/>
-      <c r="FX44" s="58"/>
-      <c r="FY44" s="58"/>
-      <c r="FZ44" s="58"/>
-      <c r="GA44" s="58"/>
-      <c r="GB44" s="58"/>
-      <c r="GC44" s="58"/>
-      <c r="GD44" s="58"/>
-      <c r="GE44" s="58"/>
-      <c r="GF44" s="58"/>
-      <c r="GG44" s="58"/>
-      <c r="GH44" s="58"/>
-      <c r="GI44" s="58"/>
-      <c r="GJ44" s="58"/>
-      <c r="GK44" s="58"/>
-      <c r="GL44" s="58"/>
-      <c r="GM44" s="58"/>
-      <c r="GN44" s="58"/>
-      <c r="GO44" s="58"/>
-      <c r="GP44" s="58"/>
-      <c r="GQ44" s="58"/>
-      <c r="GR44" s="58"/>
-      <c r="GS44" s="58"/>
-      <c r="GT44" s="58"/>
-      <c r="GU44" s="58"/>
-      <c r="GV44" s="58"/>
-      <c r="GW44" s="58"/>
-      <c r="GX44" s="58"/>
-      <c r="GY44" s="58"/>
-      <c r="GZ44" s="58"/>
-      <c r="HA44" s="58"/>
-      <c r="HB44" s="58"/>
-      <c r="HC44" s="58"/>
-      <c r="HD44" s="58"/>
-      <c r="HE44" s="58"/>
-      <c r="HF44" s="58"/>
-      <c r="HG44" s="58"/>
-      <c r="HH44" s="58"/>
-      <c r="HI44" s="58"/>
-      <c r="HJ44" s="58"/>
-      <c r="HK44" s="58"/>
-      <c r="HL44" s="58"/>
-      <c r="HM44" s="58"/>
-      <c r="HN44" s="58"/>
-      <c r="HO44" s="58"/>
-      <c r="HP44" s="58"/>
-      <c r="HQ44" s="58"/>
-      <c r="HR44" s="58"/>
-      <c r="HS44" s="58"/>
-      <c r="HT44" s="58"/>
-      <c r="HU44" s="58"/>
-      <c r="HV44" s="58"/>
-      <c r="HW44" s="58"/>
-      <c r="HX44" s="58"/>
-      <c r="HY44" s="58"/>
-      <c r="HZ44" s="58"/>
-      <c r="IA44" s="58"/>
-      <c r="IB44" s="58"/>
-      <c r="IC44" s="58"/>
-      <c r="ID44" s="58"/>
-      <c r="IE44" s="58"/>
-      <c r="IF44" s="58"/>
-      <c r="IG44" s="58"/>
-      <c r="IH44" s="58"/>
-      <c r="II44" s="58"/>
-      <c r="IJ44" s="58"/>
-      <c r="IK44" s="58"/>
-      <c r="IL44" s="58"/>
-      <c r="IM44" s="58"/>
-      <c r="IN44" s="58"/>
-      <c r="IO44" s="58"/>
-      <c r="IP44" s="58"/>
-      <c r="IQ44" s="58"/>
-      <c r="IR44" s="58"/>
-      <c r="IS44" s="58"/>
-    </row>
-    <row r="45" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A45" s="54" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v>6.6</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>21</v>
-      </c>
       <c r="C45" s="81" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="58"/>
       <c r="G45" s="59">
-        <v>42475</v>
+        <v>42520</v>
       </c>
       <c r="H45" s="60">
         <f t="shared" si="18"/>
-        <v>42475</v>
+        <v>42533</v>
       </c>
       <c r="I45" s="61" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ref="I45:I46" ca="1" si="71">IF(AND($F$6&lt;=H45,$F$6&gt;=G45),"V","")</f>
         <v/>
       </c>
       <c r="J45" s="62">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K45" s="63">
-        <f t="shared" si="60"/>
-        <v>1</v>
+        <f t="shared" ref="K45:K46" si="72">NETWORKDAYS(G45,H45)</f>
+        <v>10</v>
       </c>
       <c r="L45" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="L45:L46" si="73">ROUNDDOWN(N45*J45,0)</f>
         <v>0</v>
       </c>
       <c r="M45" s="63">
-        <f t="shared" si="62"/>
-        <v>1</v>
+        <f t="shared" ref="M45:M46" si="74">J45-L45</f>
+        <v>14</v>
       </c>
       <c r="N45" s="65">
         <v>0</v>
@@ -16109,328 +15905,328 @@
       <c r="IR45" s="58"/>
       <c r="IS45" s="58"/>
     </row>
-    <row r="46" spans="1:253" s="23" customFormat="1" ht="12">
-      <c r="A46" s="67">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A46,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))),VALUE(OFFSET(A46,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A46,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>7</v>
-      </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72">
-        <v>42478</v>
-      </c>
-      <c r="H46" s="73">
+    <row r="46" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A46" s="54" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>6.2</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59">
+        <v>42520</v>
+      </c>
+      <c r="H46" s="60">
         <f t="shared" si="18"/>
-        <v>42540</v>
-      </c>
-      <c r="I46" s="74" t="str">
-        <f ca="1">IF(AND($F$6&lt;=H46,$F$6&gt;=G46),"V","")</f>
+        <v>42520</v>
+      </c>
+      <c r="I46" s="61" t="str">
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
-      <c r="J46" s="75">
-        <f>MAX(H47:H50)-G46+1</f>
-        <v>63</v>
-      </c>
-      <c r="K46" s="76">
-        <f t="shared" si="60"/>
-        <v>45</v>
-      </c>
-      <c r="L46" s="77">
-        <f t="shared" si="61"/>
+      <c r="J46" s="62">
+        <v>1</v>
+      </c>
+      <c r="K46" s="63">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="L46" s="64">
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="M46" s="76">
-        <f t="shared" si="62"/>
-        <v>63</v>
-      </c>
-      <c r="N46" s="78">
-        <f>SUMPRODUCT(J51:J55,N51:N55)/SUM(J51:J55)</f>
+      <c r="M46" s="63">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="65">
         <v>0</v>
       </c>
-      <c r="O46" s="79"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-      <c r="AD46" s="71"/>
-      <c r="AE46" s="71"/>
-      <c r="AF46" s="71"/>
-      <c r="AG46" s="71"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="71"/>
-      <c r="AJ46" s="71"/>
-      <c r="AK46" s="71"/>
-      <c r="AL46" s="71"/>
-      <c r="AM46" s="71"/>
-      <c r="AN46" s="71"/>
-      <c r="AO46" s="71"/>
-      <c r="AP46" s="71"/>
-      <c r="AQ46" s="71"/>
-      <c r="AR46" s="71"/>
-      <c r="AS46" s="71"/>
-      <c r="AT46" s="71"/>
-      <c r="AU46" s="71"/>
-      <c r="AV46" s="71"/>
-      <c r="AW46" s="71"/>
-      <c r="AX46" s="71"/>
-      <c r="AY46" s="71"/>
-      <c r="AZ46" s="71"/>
-      <c r="BA46" s="71"/>
-      <c r="BB46" s="71"/>
-      <c r="BC46" s="71"/>
-      <c r="BD46" s="71"/>
-      <c r="BE46" s="71"/>
-      <c r="BF46" s="71"/>
-      <c r="BG46" s="71"/>
-      <c r="BH46" s="71"/>
-      <c r="BI46" s="71"/>
-      <c r="BJ46" s="71"/>
-      <c r="BK46" s="71"/>
-      <c r="BL46" s="71"/>
-      <c r="BM46" s="71"/>
-      <c r="BN46" s="71"/>
-      <c r="BO46" s="71"/>
-      <c r="BP46" s="71"/>
-      <c r="BQ46" s="71"/>
-      <c r="BR46" s="71"/>
-      <c r="BS46" s="71"/>
-      <c r="BT46" s="71"/>
-      <c r="BU46" s="71"/>
-      <c r="BV46" s="71"/>
-      <c r="BW46" s="71"/>
-      <c r="BX46" s="71"/>
-      <c r="BY46" s="71"/>
-      <c r="BZ46" s="71"/>
-      <c r="CA46" s="71"/>
-      <c r="CB46" s="71"/>
-      <c r="CC46" s="71"/>
-      <c r="CD46" s="71"/>
-      <c r="CE46" s="71"/>
-      <c r="CF46" s="71"/>
-      <c r="CG46" s="71"/>
-      <c r="CH46" s="71"/>
-      <c r="CI46" s="71"/>
-      <c r="CJ46" s="71"/>
-      <c r="CK46" s="71"/>
-      <c r="CL46" s="71"/>
-      <c r="CM46" s="71"/>
-      <c r="CN46" s="71"/>
-      <c r="CO46" s="71"/>
-      <c r="CP46" s="71"/>
-      <c r="CQ46" s="71"/>
-      <c r="CR46" s="71"/>
-      <c r="CS46" s="71"/>
-      <c r="CT46" s="71"/>
-      <c r="CU46" s="71"/>
-      <c r="CV46" s="71"/>
-      <c r="CW46" s="71"/>
-      <c r="CX46" s="71"/>
-      <c r="CY46" s="71"/>
-      <c r="CZ46" s="71"/>
-      <c r="DA46" s="71"/>
-      <c r="DB46" s="71"/>
-      <c r="DC46" s="71"/>
-      <c r="DD46" s="71"/>
-      <c r="DE46" s="71"/>
-      <c r="DF46" s="71"/>
-      <c r="DG46" s="71"/>
-      <c r="DH46" s="71"/>
-      <c r="DI46" s="71"/>
-      <c r="DJ46" s="71"/>
-      <c r="DK46" s="71"/>
-      <c r="DL46" s="71"/>
-      <c r="DM46" s="71"/>
-      <c r="DN46" s="71"/>
-      <c r="DO46" s="71"/>
-      <c r="DP46" s="71"/>
-      <c r="DQ46" s="71"/>
-      <c r="DR46" s="71"/>
-      <c r="DS46" s="71"/>
-      <c r="DT46" s="71"/>
-      <c r="DU46" s="71"/>
-      <c r="DV46" s="71"/>
-      <c r="DW46" s="71"/>
-      <c r="DX46" s="71"/>
-      <c r="DY46" s="71"/>
-      <c r="DZ46" s="71"/>
-      <c r="EA46" s="71"/>
-      <c r="EB46" s="71"/>
-      <c r="EC46" s="71"/>
-      <c r="ED46" s="71"/>
-      <c r="EE46" s="71"/>
-      <c r="EF46" s="71"/>
-      <c r="EG46" s="71"/>
-      <c r="EH46" s="71"/>
-      <c r="EI46" s="71"/>
-      <c r="EJ46" s="71"/>
-      <c r="EK46" s="71"/>
-      <c r="EL46" s="71"/>
-      <c r="EM46" s="71"/>
-      <c r="EN46" s="71"/>
-      <c r="EO46" s="71"/>
-      <c r="EP46" s="71"/>
-      <c r="EQ46" s="71"/>
-      <c r="ER46" s="71"/>
-      <c r="ES46" s="71"/>
-      <c r="ET46" s="71"/>
-      <c r="EU46" s="71"/>
-      <c r="EV46" s="71"/>
-      <c r="EW46" s="71"/>
-      <c r="EX46" s="71"/>
-      <c r="EY46" s="71"/>
-      <c r="EZ46" s="71"/>
-      <c r="FA46" s="71"/>
-      <c r="FB46" s="71"/>
-      <c r="FC46" s="71"/>
-      <c r="FD46" s="71"/>
-      <c r="FE46" s="71"/>
-      <c r="FF46" s="71"/>
-      <c r="FG46" s="71"/>
-      <c r="FH46" s="71"/>
-      <c r="FI46" s="71"/>
-      <c r="FJ46" s="71"/>
-      <c r="FK46" s="71"/>
-      <c r="FL46" s="71"/>
-      <c r="FM46" s="71"/>
-      <c r="FN46" s="71"/>
-      <c r="FO46" s="71"/>
-      <c r="FP46" s="71"/>
-      <c r="FQ46" s="71"/>
-      <c r="FR46" s="71"/>
-      <c r="FS46" s="71"/>
-      <c r="FT46" s="71"/>
-      <c r="FU46" s="71"/>
-      <c r="FV46" s="71"/>
-      <c r="FW46" s="71"/>
-      <c r="FX46" s="71"/>
-      <c r="FY46" s="71"/>
-      <c r="FZ46" s="71"/>
-      <c r="GA46" s="71"/>
-      <c r="GB46" s="71"/>
-      <c r="GC46" s="71"/>
-      <c r="GD46" s="71"/>
-      <c r="GE46" s="71"/>
-      <c r="GF46" s="71"/>
-      <c r="GG46" s="71"/>
-      <c r="GH46" s="71"/>
-      <c r="GI46" s="71"/>
-      <c r="GJ46" s="71"/>
-      <c r="GK46" s="71"/>
-      <c r="GL46" s="71"/>
-      <c r="GM46" s="71"/>
-      <c r="GN46" s="71"/>
-      <c r="GO46" s="71"/>
-      <c r="GP46" s="71"/>
-      <c r="GQ46" s="71"/>
-      <c r="GR46" s="71"/>
-      <c r="GS46" s="71"/>
-      <c r="GT46" s="71"/>
-      <c r="GU46" s="71"/>
-      <c r="GV46" s="71"/>
-      <c r="GW46" s="71"/>
-      <c r="GX46" s="71"/>
-      <c r="GY46" s="71"/>
-      <c r="GZ46" s="71"/>
-      <c r="HA46" s="71"/>
-      <c r="HB46" s="71"/>
-      <c r="HC46" s="71"/>
-      <c r="HD46" s="71"/>
-      <c r="HE46" s="71"/>
-      <c r="HF46" s="71"/>
-      <c r="HG46" s="71"/>
-      <c r="HH46" s="71"/>
-      <c r="HI46" s="71"/>
-      <c r="HJ46" s="71"/>
-      <c r="HK46" s="71"/>
-      <c r="HL46" s="71"/>
-      <c r="HM46" s="71"/>
-      <c r="HN46" s="71"/>
-      <c r="HO46" s="71"/>
-      <c r="HP46" s="71"/>
-      <c r="HQ46" s="71"/>
-      <c r="HR46" s="71"/>
-      <c r="HS46" s="71"/>
-      <c r="HT46" s="71"/>
-      <c r="HU46" s="71"/>
-      <c r="HV46" s="71"/>
-      <c r="HW46" s="71"/>
-      <c r="HX46" s="71"/>
-      <c r="HY46" s="71"/>
-      <c r="HZ46" s="71"/>
-      <c r="IA46" s="71"/>
-      <c r="IB46" s="71"/>
-      <c r="IC46" s="71"/>
-      <c r="ID46" s="71"/>
-      <c r="IE46" s="71"/>
-      <c r="IF46" s="71"/>
-      <c r="IG46" s="71"/>
-      <c r="IH46" s="71"/>
-      <c r="II46" s="71"/>
-      <c r="IJ46" s="71"/>
-      <c r="IK46" s="71"/>
-      <c r="IL46" s="71"/>
-      <c r="IM46" s="71"/>
-      <c r="IN46" s="71"/>
-      <c r="IO46" s="71"/>
-      <c r="IP46" s="71"/>
-      <c r="IQ46" s="71"/>
-      <c r="IR46" s="71"/>
-      <c r="IS46" s="71"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="58"/>
+      <c r="AN46" s="58"/>
+      <c r="AO46" s="58"/>
+      <c r="AP46" s="58"/>
+      <c r="AQ46" s="58"/>
+      <c r="AR46" s="58"/>
+      <c r="AS46" s="58"/>
+      <c r="AT46" s="58"/>
+      <c r="AU46" s="58"/>
+      <c r="AV46" s="58"/>
+      <c r="AW46" s="58"/>
+      <c r="AX46" s="58"/>
+      <c r="AY46" s="58"/>
+      <c r="AZ46" s="58"/>
+      <c r="BA46" s="58"/>
+      <c r="BB46" s="58"/>
+      <c r="BC46" s="58"/>
+      <c r="BD46" s="58"/>
+      <c r="BE46" s="58"/>
+      <c r="BF46" s="58"/>
+      <c r="BG46" s="58"/>
+      <c r="BH46" s="58"/>
+      <c r="BI46" s="58"/>
+      <c r="BJ46" s="58"/>
+      <c r="BK46" s="58"/>
+      <c r="BL46" s="58"/>
+      <c r="BM46" s="58"/>
+      <c r="BN46" s="58"/>
+      <c r="BO46" s="58"/>
+      <c r="BP46" s="58"/>
+      <c r="BQ46" s="58"/>
+      <c r="BR46" s="58"/>
+      <c r="BS46" s="58"/>
+      <c r="BT46" s="58"/>
+      <c r="BU46" s="58"/>
+      <c r="BV46" s="58"/>
+      <c r="BW46" s="58"/>
+      <c r="BX46" s="58"/>
+      <c r="BY46" s="58"/>
+      <c r="BZ46" s="58"/>
+      <c r="CA46" s="58"/>
+      <c r="CB46" s="58"/>
+      <c r="CC46" s="58"/>
+      <c r="CD46" s="58"/>
+      <c r="CE46" s="58"/>
+      <c r="CF46" s="58"/>
+      <c r="CG46" s="58"/>
+      <c r="CH46" s="58"/>
+      <c r="CI46" s="58"/>
+      <c r="CJ46" s="58"/>
+      <c r="CK46" s="58"/>
+      <c r="CL46" s="58"/>
+      <c r="CM46" s="58"/>
+      <c r="CN46" s="58"/>
+      <c r="CO46" s="58"/>
+      <c r="CP46" s="58"/>
+      <c r="CQ46" s="58"/>
+      <c r="CR46" s="58"/>
+      <c r="CS46" s="58"/>
+      <c r="CT46" s="58"/>
+      <c r="CU46" s="58"/>
+      <c r="CV46" s="58"/>
+      <c r="CW46" s="58"/>
+      <c r="CX46" s="58"/>
+      <c r="CY46" s="58"/>
+      <c r="CZ46" s="58"/>
+      <c r="DA46" s="58"/>
+      <c r="DB46" s="58"/>
+      <c r="DC46" s="58"/>
+      <c r="DD46" s="58"/>
+      <c r="DE46" s="58"/>
+      <c r="DF46" s="58"/>
+      <c r="DG46" s="58"/>
+      <c r="DH46" s="58"/>
+      <c r="DI46" s="58"/>
+      <c r="DJ46" s="58"/>
+      <c r="DK46" s="58"/>
+      <c r="DL46" s="58"/>
+      <c r="DM46" s="58"/>
+      <c r="DN46" s="58"/>
+      <c r="DO46" s="58"/>
+      <c r="DP46" s="58"/>
+      <c r="DQ46" s="58"/>
+      <c r="DR46" s="58"/>
+      <c r="DS46" s="58"/>
+      <c r="DT46" s="58"/>
+      <c r="DU46" s="58"/>
+      <c r="DV46" s="58"/>
+      <c r="DW46" s="58"/>
+      <c r="DX46" s="58"/>
+      <c r="DY46" s="58"/>
+      <c r="DZ46" s="58"/>
+      <c r="EA46" s="58"/>
+      <c r="EB46" s="58"/>
+      <c r="EC46" s="58"/>
+      <c r="ED46" s="58"/>
+      <c r="EE46" s="58"/>
+      <c r="EF46" s="58"/>
+      <c r="EG46" s="58"/>
+      <c r="EH46" s="58"/>
+      <c r="EI46" s="58"/>
+      <c r="EJ46" s="58"/>
+      <c r="EK46" s="58"/>
+      <c r="EL46" s="58"/>
+      <c r="EM46" s="58"/>
+      <c r="EN46" s="58"/>
+      <c r="EO46" s="58"/>
+      <c r="EP46" s="58"/>
+      <c r="EQ46" s="58"/>
+      <c r="ER46" s="58"/>
+      <c r="ES46" s="58"/>
+      <c r="ET46" s="58"/>
+      <c r="EU46" s="58"/>
+      <c r="EV46" s="58"/>
+      <c r="EW46" s="58"/>
+      <c r="EX46" s="58"/>
+      <c r="EY46" s="58"/>
+      <c r="EZ46" s="58"/>
+      <c r="FA46" s="58"/>
+      <c r="FB46" s="58"/>
+      <c r="FC46" s="58"/>
+      <c r="FD46" s="58"/>
+      <c r="FE46" s="58"/>
+      <c r="FF46" s="58"/>
+      <c r="FG46" s="58"/>
+      <c r="FH46" s="58"/>
+      <c r="FI46" s="58"/>
+      <c r="FJ46" s="58"/>
+      <c r="FK46" s="58"/>
+      <c r="FL46" s="58"/>
+      <c r="FM46" s="58"/>
+      <c r="FN46" s="58"/>
+      <c r="FO46" s="58"/>
+      <c r="FP46" s="58"/>
+      <c r="FQ46" s="58"/>
+      <c r="FR46" s="58"/>
+      <c r="FS46" s="58"/>
+      <c r="FT46" s="58"/>
+      <c r="FU46" s="58"/>
+      <c r="FV46" s="58"/>
+      <c r="FW46" s="58"/>
+      <c r="FX46" s="58"/>
+      <c r="FY46" s="58"/>
+      <c r="FZ46" s="58"/>
+      <c r="GA46" s="58"/>
+      <c r="GB46" s="58"/>
+      <c r="GC46" s="58"/>
+      <c r="GD46" s="58"/>
+      <c r="GE46" s="58"/>
+      <c r="GF46" s="58"/>
+      <c r="GG46" s="58"/>
+      <c r="GH46" s="58"/>
+      <c r="GI46" s="58"/>
+      <c r="GJ46" s="58"/>
+      <c r="GK46" s="58"/>
+      <c r="GL46" s="58"/>
+      <c r="GM46" s="58"/>
+      <c r="GN46" s="58"/>
+      <c r="GO46" s="58"/>
+      <c r="GP46" s="58"/>
+      <c r="GQ46" s="58"/>
+      <c r="GR46" s="58"/>
+      <c r="GS46" s="58"/>
+      <c r="GT46" s="58"/>
+      <c r="GU46" s="58"/>
+      <c r="GV46" s="58"/>
+      <c r="GW46" s="58"/>
+      <c r="GX46" s="58"/>
+      <c r="GY46" s="58"/>
+      <c r="GZ46" s="58"/>
+      <c r="HA46" s="58"/>
+      <c r="HB46" s="58"/>
+      <c r="HC46" s="58"/>
+      <c r="HD46" s="58"/>
+      <c r="HE46" s="58"/>
+      <c r="HF46" s="58"/>
+      <c r="HG46" s="58"/>
+      <c r="HH46" s="58"/>
+      <c r="HI46" s="58"/>
+      <c r="HJ46" s="58"/>
+      <c r="HK46" s="58"/>
+      <c r="HL46" s="58"/>
+      <c r="HM46" s="58"/>
+      <c r="HN46" s="58"/>
+      <c r="HO46" s="58"/>
+      <c r="HP46" s="58"/>
+      <c r="HQ46" s="58"/>
+      <c r="HR46" s="58"/>
+      <c r="HS46" s="58"/>
+      <c r="HT46" s="58"/>
+      <c r="HU46" s="58"/>
+      <c r="HV46" s="58"/>
+      <c r="HW46" s="58"/>
+      <c r="HX46" s="58"/>
+      <c r="HY46" s="58"/>
+      <c r="HZ46" s="58"/>
+      <c r="IA46" s="58"/>
+      <c r="IB46" s="58"/>
+      <c r="IC46" s="58"/>
+      <c r="ID46" s="58"/>
+      <c r="IE46" s="58"/>
+      <c r="IF46" s="58"/>
+      <c r="IG46" s="58"/>
+      <c r="IH46" s="58"/>
+      <c r="II46" s="58"/>
+      <c r="IJ46" s="58"/>
+      <c r="IK46" s="58"/>
+      <c r="IL46" s="58"/>
+      <c r="IM46" s="58"/>
+      <c r="IN46" s="58"/>
+      <c r="IO46" s="58"/>
+      <c r="IP46" s="58"/>
+      <c r="IQ46" s="58"/>
+      <c r="IR46" s="58"/>
+      <c r="IS46" s="58"/>
     </row>
-    <row r="47" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="54" t="str">
-        <f t="shared" ref="A47:A50" ca="1" si="72">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A47,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))),OFFSET(A47,-1,0,1,1)&amp;".1",LEFT(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A47,-1,0,1,1),LEN(OFFSET(A47,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>6.3</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
       <c r="G47" s="59">
-        <v>42478</v>
+        <v>42541</v>
       </c>
       <c r="H47" s="60">
-        <f t="shared" si="18"/>
-        <v>42524</v>
+        <f t="shared" ref="H47" si="75">G47+J47-1</f>
+        <v>42541</v>
       </c>
       <c r="I47" s="61" t="str">
-        <f t="shared" ref="I47:I48" ca="1" si="73">IF(AND($F$6&lt;=H47,$F$6&gt;=G47),"V","")</f>
+        <f t="shared" ref="I47" ca="1" si="76">IF(AND($F$6&lt;=H47,$F$6&gt;=G47),"V","")</f>
         <v/>
       </c>
       <c r="J47" s="62">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="K47" s="63">
-        <f t="shared" ref="K47:K48" si="74">NETWORKDAYS(G47,H47)</f>
-        <v>35</v>
+        <f t="shared" ref="K47" si="77">NETWORKDAYS(G47,H47)</f>
+        <v>1</v>
       </c>
       <c r="L47" s="64">
-        <f t="shared" ref="L47:L48" si="75">ROUNDDOWN(N47*J47,0)</f>
+        <f t="shared" ref="L47" si="78">ROUNDDOWN(N47*J47,0)</f>
         <v>0</v>
       </c>
       <c r="M47" s="63">
-        <f t="shared" ref="M47:M48" si="76">J47-L47</f>
-        <v>47</v>
+        <f t="shared" ref="M47" si="79">J47-L47</f>
+        <v>1</v>
       </c>
       <c r="N47" s="65">
         <v>0</v>
@@ -16677,43 +16473,43 @@
     </row>
     <row r="48" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A48" s="54" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v>7.2</v>
+        <f t="shared" ca="1" si="70"/>
+        <v>6.4</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
       <c r="G48" s="59">
-        <v>42490</v>
+        <v>42527</v>
       </c>
       <c r="H48" s="60">
         <f t="shared" si="18"/>
-        <v>42490</v>
+        <v>42540</v>
       </c>
       <c r="I48" s="61" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ref="I48" ca="1" si="80">IF(AND($F$6&lt;=H48,$F$6&gt;=G48),"V","")</f>
         <v/>
       </c>
       <c r="J48" s="62">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K48" s="63">
-        <f t="shared" si="74"/>
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="L48" s="64">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="L48" s="64">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
       <c r="M48" s="63">
-        <f t="shared" si="76"/>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>14</v>
       </c>
       <c r="N48" s="65">
         <v>0</v>
@@ -16958,328 +16754,328 @@
       <c r="IR48" s="58"/>
       <c r="IS48" s="58"/>
     </row>
-    <row r="49" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A49" s="54" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v>7.3</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59">
-        <v>42510</v>
-      </c>
-      <c r="H49" s="60">
-        <f t="shared" ref="H49" si="77">G49+J49-1</f>
-        <v>42510</v>
-      </c>
-      <c r="I49" s="61" t="str">
-        <f t="shared" ref="I49" ca="1" si="78">IF(AND($F$6&lt;=H49,$F$6&gt;=G49),"V","")</f>
+    <row r="49" spans="1:253" s="23" customFormat="1" ht="12">
+      <c r="A49" s="67">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A49,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))),VALUE(OFFSET(A49,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))-1))+1))</f>
+        <v>7</v>
+      </c>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72">
+        <v>42541</v>
+      </c>
+      <c r="H49" s="73">
+        <f t="shared" si="18"/>
+        <v>42549</v>
+      </c>
+      <c r="I49" s="74" t="str">
+        <f ca="1">IF(AND($F$6&lt;=H49,$F$6&gt;=G49),"V","")</f>
         <v/>
       </c>
-      <c r="J49" s="62">
-        <v>1</v>
-      </c>
-      <c r="K49" s="63">
-        <f t="shared" ref="K49" si="79">NETWORKDAYS(G49,H49)</f>
-        <v>1</v>
-      </c>
-      <c r="L49" s="64">
-        <f t="shared" ref="L49" si="80">ROUNDDOWN(N49*J49,0)</f>
+      <c r="J49" s="75">
+        <f>MAX(H50:H52)-G49+1</f>
+        <v>9</v>
+      </c>
+      <c r="K49" s="76">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="L49" s="77">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="M49" s="63">
-        <f t="shared" ref="M49" si="81">J49-L49</f>
-        <v>1</v>
-      </c>
-      <c r="N49" s="65">
+      <c r="M49" s="76">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="N49" s="78">
+        <f>SUMPRODUCT(J50:J52,N50:N52)/SUM(J50:J52)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="66"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="58"/>
-      <c r="AI49" s="58"/>
-      <c r="AJ49" s="58"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="58"/>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="58"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="58"/>
-      <c r="AZ49" s="58"/>
-      <c r="BA49" s="58"/>
-      <c r="BB49" s="58"/>
-      <c r="BC49" s="58"/>
-      <c r="BD49" s="58"/>
-      <c r="BE49" s="58"/>
-      <c r="BF49" s="58"/>
-      <c r="BG49" s="58"/>
-      <c r="BH49" s="58"/>
-      <c r="BI49" s="58"/>
-      <c r="BJ49" s="58"/>
-      <c r="BK49" s="58"/>
-      <c r="BL49" s="58"/>
-      <c r="BM49" s="58"/>
-      <c r="BN49" s="58"/>
-      <c r="BO49" s="58"/>
-      <c r="BP49" s="58"/>
-      <c r="BQ49" s="58"/>
-      <c r="BR49" s="58"/>
-      <c r="BS49" s="58"/>
-      <c r="BT49" s="58"/>
-      <c r="BU49" s="58"/>
-      <c r="BV49" s="58"/>
-      <c r="BW49" s="58"/>
-      <c r="BX49" s="58"/>
-      <c r="BY49" s="58"/>
-      <c r="BZ49" s="58"/>
-      <c r="CA49" s="58"/>
-      <c r="CB49" s="58"/>
-      <c r="CC49" s="58"/>
-      <c r="CD49" s="58"/>
-      <c r="CE49" s="58"/>
-      <c r="CF49" s="58"/>
-      <c r="CG49" s="58"/>
-      <c r="CH49" s="58"/>
-      <c r="CI49" s="58"/>
-      <c r="CJ49" s="58"/>
-      <c r="CK49" s="58"/>
-      <c r="CL49" s="58"/>
-      <c r="CM49" s="58"/>
-      <c r="CN49" s="58"/>
-      <c r="CO49" s="58"/>
-      <c r="CP49" s="58"/>
-      <c r="CQ49" s="58"/>
-      <c r="CR49" s="58"/>
-      <c r="CS49" s="58"/>
-      <c r="CT49" s="58"/>
-      <c r="CU49" s="58"/>
-      <c r="CV49" s="58"/>
-      <c r="CW49" s="58"/>
-      <c r="CX49" s="58"/>
-      <c r="CY49" s="58"/>
-      <c r="CZ49" s="58"/>
-      <c r="DA49" s="58"/>
-      <c r="DB49" s="58"/>
-      <c r="DC49" s="58"/>
-      <c r="DD49" s="58"/>
-      <c r="DE49" s="58"/>
-      <c r="DF49" s="58"/>
-      <c r="DG49" s="58"/>
-      <c r="DH49" s="58"/>
-      <c r="DI49" s="58"/>
-      <c r="DJ49" s="58"/>
-      <c r="DK49" s="58"/>
-      <c r="DL49" s="58"/>
-      <c r="DM49" s="58"/>
-      <c r="DN49" s="58"/>
-      <c r="DO49" s="58"/>
-      <c r="DP49" s="58"/>
-      <c r="DQ49" s="58"/>
-      <c r="DR49" s="58"/>
-      <c r="DS49" s="58"/>
-      <c r="DT49" s="58"/>
-      <c r="DU49" s="58"/>
-      <c r="DV49" s="58"/>
-      <c r="DW49" s="58"/>
-      <c r="DX49" s="58"/>
-      <c r="DY49" s="58"/>
-      <c r="DZ49" s="58"/>
-      <c r="EA49" s="58"/>
-      <c r="EB49" s="58"/>
-      <c r="EC49" s="58"/>
-      <c r="ED49" s="58"/>
-      <c r="EE49" s="58"/>
-      <c r="EF49" s="58"/>
-      <c r="EG49" s="58"/>
-      <c r="EH49" s="58"/>
-      <c r="EI49" s="58"/>
-      <c r="EJ49" s="58"/>
-      <c r="EK49" s="58"/>
-      <c r="EL49" s="58"/>
-      <c r="EM49" s="58"/>
-      <c r="EN49" s="58"/>
-      <c r="EO49" s="58"/>
-      <c r="EP49" s="58"/>
-      <c r="EQ49" s="58"/>
-      <c r="ER49" s="58"/>
-      <c r="ES49" s="58"/>
-      <c r="ET49" s="58"/>
-      <c r="EU49" s="58"/>
-      <c r="EV49" s="58"/>
-      <c r="EW49" s="58"/>
-      <c r="EX49" s="58"/>
-      <c r="EY49" s="58"/>
-      <c r="EZ49" s="58"/>
-      <c r="FA49" s="58"/>
-      <c r="FB49" s="58"/>
-      <c r="FC49" s="58"/>
-      <c r="FD49" s="58"/>
-      <c r="FE49" s="58"/>
-      <c r="FF49" s="58"/>
-      <c r="FG49" s="58"/>
-      <c r="FH49" s="58"/>
-      <c r="FI49" s="58"/>
-      <c r="FJ49" s="58"/>
-      <c r="FK49" s="58"/>
-      <c r="FL49" s="58"/>
-      <c r="FM49" s="58"/>
-      <c r="FN49" s="58"/>
-      <c r="FO49" s="58"/>
-      <c r="FP49" s="58"/>
-      <c r="FQ49" s="58"/>
-      <c r="FR49" s="58"/>
-      <c r="FS49" s="58"/>
-      <c r="FT49" s="58"/>
-      <c r="FU49" s="58"/>
-      <c r="FV49" s="58"/>
-      <c r="FW49" s="58"/>
-      <c r="FX49" s="58"/>
-      <c r="FY49" s="58"/>
-      <c r="FZ49" s="58"/>
-      <c r="GA49" s="58"/>
-      <c r="GB49" s="58"/>
-      <c r="GC49" s="58"/>
-      <c r="GD49" s="58"/>
-      <c r="GE49" s="58"/>
-      <c r="GF49" s="58"/>
-      <c r="GG49" s="58"/>
-      <c r="GH49" s="58"/>
-      <c r="GI49" s="58"/>
-      <c r="GJ49" s="58"/>
-      <c r="GK49" s="58"/>
-      <c r="GL49" s="58"/>
-      <c r="GM49" s="58"/>
-      <c r="GN49" s="58"/>
-      <c r="GO49" s="58"/>
-      <c r="GP49" s="58"/>
-      <c r="GQ49" s="58"/>
-      <c r="GR49" s="58"/>
-      <c r="GS49" s="58"/>
-      <c r="GT49" s="58"/>
-      <c r="GU49" s="58"/>
-      <c r="GV49" s="58"/>
-      <c r="GW49" s="58"/>
-      <c r="GX49" s="58"/>
-      <c r="GY49" s="58"/>
-      <c r="GZ49" s="58"/>
-      <c r="HA49" s="58"/>
-      <c r="HB49" s="58"/>
-      <c r="HC49" s="58"/>
-      <c r="HD49" s="58"/>
-      <c r="HE49" s="58"/>
-      <c r="HF49" s="58"/>
-      <c r="HG49" s="58"/>
-      <c r="HH49" s="58"/>
-      <c r="HI49" s="58"/>
-      <c r="HJ49" s="58"/>
-      <c r="HK49" s="58"/>
-      <c r="HL49" s="58"/>
-      <c r="HM49" s="58"/>
-      <c r="HN49" s="58"/>
-      <c r="HO49" s="58"/>
-      <c r="HP49" s="58"/>
-      <c r="HQ49" s="58"/>
-      <c r="HR49" s="58"/>
-      <c r="HS49" s="58"/>
-      <c r="HT49" s="58"/>
-      <c r="HU49" s="58"/>
-      <c r="HV49" s="58"/>
-      <c r="HW49" s="58"/>
-      <c r="HX49" s="58"/>
-      <c r="HY49" s="58"/>
-      <c r="HZ49" s="58"/>
-      <c r="IA49" s="58"/>
-      <c r="IB49" s="58"/>
-      <c r="IC49" s="58"/>
-      <c r="ID49" s="58"/>
-      <c r="IE49" s="58"/>
-      <c r="IF49" s="58"/>
-      <c r="IG49" s="58"/>
-      <c r="IH49" s="58"/>
-      <c r="II49" s="58"/>
-      <c r="IJ49" s="58"/>
-      <c r="IK49" s="58"/>
-      <c r="IL49" s="58"/>
-      <c r="IM49" s="58"/>
-      <c r="IN49" s="58"/>
-      <c r="IO49" s="58"/>
-      <c r="IP49" s="58"/>
-      <c r="IQ49" s="58"/>
-      <c r="IR49" s="58"/>
-      <c r="IS49" s="58"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="71"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="71"/>
+      <c r="AJ49" s="71"/>
+      <c r="AK49" s="71"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="71"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="71"/>
+      <c r="AQ49" s="71"/>
+      <c r="AR49" s="71"/>
+      <c r="AS49" s="71"/>
+      <c r="AT49" s="71"/>
+      <c r="AU49" s="71"/>
+      <c r="AV49" s="71"/>
+      <c r="AW49" s="71"/>
+      <c r="AX49" s="71"/>
+      <c r="AY49" s="71"/>
+      <c r="AZ49" s="71"/>
+      <c r="BA49" s="71"/>
+      <c r="BB49" s="71"/>
+      <c r="BC49" s="71"/>
+      <c r="BD49" s="71"/>
+      <c r="BE49" s="71"/>
+      <c r="BF49" s="71"/>
+      <c r="BG49" s="71"/>
+      <c r="BH49" s="71"/>
+      <c r="BI49" s="71"/>
+      <c r="BJ49" s="71"/>
+      <c r="BK49" s="71"/>
+      <c r="BL49" s="71"/>
+      <c r="BM49" s="71"/>
+      <c r="BN49" s="71"/>
+      <c r="BO49" s="71"/>
+      <c r="BP49" s="71"/>
+      <c r="BQ49" s="71"/>
+      <c r="BR49" s="71"/>
+      <c r="BS49" s="71"/>
+      <c r="BT49" s="71"/>
+      <c r="BU49" s="71"/>
+      <c r="BV49" s="71"/>
+      <c r="BW49" s="71"/>
+      <c r="BX49" s="71"/>
+      <c r="BY49" s="71"/>
+      <c r="BZ49" s="71"/>
+      <c r="CA49" s="71"/>
+      <c r="CB49" s="71"/>
+      <c r="CC49" s="71"/>
+      <c r="CD49" s="71"/>
+      <c r="CE49" s="71"/>
+      <c r="CF49" s="71"/>
+      <c r="CG49" s="71"/>
+      <c r="CH49" s="71"/>
+      <c r="CI49" s="71"/>
+      <c r="CJ49" s="71"/>
+      <c r="CK49" s="71"/>
+      <c r="CL49" s="71"/>
+      <c r="CM49" s="71"/>
+      <c r="CN49" s="71"/>
+      <c r="CO49" s="71"/>
+      <c r="CP49" s="71"/>
+      <c r="CQ49" s="71"/>
+      <c r="CR49" s="71"/>
+      <c r="CS49" s="71"/>
+      <c r="CT49" s="71"/>
+      <c r="CU49" s="71"/>
+      <c r="CV49" s="71"/>
+      <c r="CW49" s="71"/>
+      <c r="CX49" s="71"/>
+      <c r="CY49" s="71"/>
+      <c r="CZ49" s="71"/>
+      <c r="DA49" s="71"/>
+      <c r="DB49" s="71"/>
+      <c r="DC49" s="71"/>
+      <c r="DD49" s="71"/>
+      <c r="DE49" s="71"/>
+      <c r="DF49" s="71"/>
+      <c r="DG49" s="71"/>
+      <c r="DH49" s="71"/>
+      <c r="DI49" s="71"/>
+      <c r="DJ49" s="71"/>
+      <c r="DK49" s="71"/>
+      <c r="DL49" s="71"/>
+      <c r="DM49" s="71"/>
+      <c r="DN49" s="71"/>
+      <c r="DO49" s="71"/>
+      <c r="DP49" s="71"/>
+      <c r="DQ49" s="71"/>
+      <c r="DR49" s="71"/>
+      <c r="DS49" s="71"/>
+      <c r="DT49" s="71"/>
+      <c r="DU49" s="71"/>
+      <c r="DV49" s="71"/>
+      <c r="DW49" s="71"/>
+      <c r="DX49" s="71"/>
+      <c r="DY49" s="71"/>
+      <c r="DZ49" s="71"/>
+      <c r="EA49" s="71"/>
+      <c r="EB49" s="71"/>
+      <c r="EC49" s="71"/>
+      <c r="ED49" s="71"/>
+      <c r="EE49" s="71"/>
+      <c r="EF49" s="71"/>
+      <c r="EG49" s="71"/>
+      <c r="EH49" s="71"/>
+      <c r="EI49" s="71"/>
+      <c r="EJ49" s="71"/>
+      <c r="EK49" s="71"/>
+      <c r="EL49" s="71"/>
+      <c r="EM49" s="71"/>
+      <c r="EN49" s="71"/>
+      <c r="EO49" s="71"/>
+      <c r="EP49" s="71"/>
+      <c r="EQ49" s="71"/>
+      <c r="ER49" s="71"/>
+      <c r="ES49" s="71"/>
+      <c r="ET49" s="71"/>
+      <c r="EU49" s="71"/>
+      <c r="EV49" s="71"/>
+      <c r="EW49" s="71"/>
+      <c r="EX49" s="71"/>
+      <c r="EY49" s="71"/>
+      <c r="EZ49" s="71"/>
+      <c r="FA49" s="71"/>
+      <c r="FB49" s="71"/>
+      <c r="FC49" s="71"/>
+      <c r="FD49" s="71"/>
+      <c r="FE49" s="71"/>
+      <c r="FF49" s="71"/>
+      <c r="FG49" s="71"/>
+      <c r="FH49" s="71"/>
+      <c r="FI49" s="71"/>
+      <c r="FJ49" s="71"/>
+      <c r="FK49" s="71"/>
+      <c r="FL49" s="71"/>
+      <c r="FM49" s="71"/>
+      <c r="FN49" s="71"/>
+      <c r="FO49" s="71"/>
+      <c r="FP49" s="71"/>
+      <c r="FQ49" s="71"/>
+      <c r="FR49" s="71"/>
+      <c r="FS49" s="71"/>
+      <c r="FT49" s="71"/>
+      <c r="FU49" s="71"/>
+      <c r="FV49" s="71"/>
+      <c r="FW49" s="71"/>
+      <c r="FX49" s="71"/>
+      <c r="FY49" s="71"/>
+      <c r="FZ49" s="71"/>
+      <c r="GA49" s="71"/>
+      <c r="GB49" s="71"/>
+      <c r="GC49" s="71"/>
+      <c r="GD49" s="71"/>
+      <c r="GE49" s="71"/>
+      <c r="GF49" s="71"/>
+      <c r="GG49" s="71"/>
+      <c r="GH49" s="71"/>
+      <c r="GI49" s="71"/>
+      <c r="GJ49" s="71"/>
+      <c r="GK49" s="71"/>
+      <c r="GL49" s="71"/>
+      <c r="GM49" s="71"/>
+      <c r="GN49" s="71"/>
+      <c r="GO49" s="71"/>
+      <c r="GP49" s="71"/>
+      <c r="GQ49" s="71"/>
+      <c r="GR49" s="71"/>
+      <c r="GS49" s="71"/>
+      <c r="GT49" s="71"/>
+      <c r="GU49" s="71"/>
+      <c r="GV49" s="71"/>
+      <c r="GW49" s="71"/>
+      <c r="GX49" s="71"/>
+      <c r="GY49" s="71"/>
+      <c r="GZ49" s="71"/>
+      <c r="HA49" s="71"/>
+      <c r="HB49" s="71"/>
+      <c r="HC49" s="71"/>
+      <c r="HD49" s="71"/>
+      <c r="HE49" s="71"/>
+      <c r="HF49" s="71"/>
+      <c r="HG49" s="71"/>
+      <c r="HH49" s="71"/>
+      <c r="HI49" s="71"/>
+      <c r="HJ49" s="71"/>
+      <c r="HK49" s="71"/>
+      <c r="HL49" s="71"/>
+      <c r="HM49" s="71"/>
+      <c r="HN49" s="71"/>
+      <c r="HO49" s="71"/>
+      <c r="HP49" s="71"/>
+      <c r="HQ49" s="71"/>
+      <c r="HR49" s="71"/>
+      <c r="HS49" s="71"/>
+      <c r="HT49" s="71"/>
+      <c r="HU49" s="71"/>
+      <c r="HV49" s="71"/>
+      <c r="HW49" s="71"/>
+      <c r="HX49" s="71"/>
+      <c r="HY49" s="71"/>
+      <c r="HZ49" s="71"/>
+      <c r="IA49" s="71"/>
+      <c r="IB49" s="71"/>
+      <c r="IC49" s="71"/>
+      <c r="ID49" s="71"/>
+      <c r="IE49" s="71"/>
+      <c r="IF49" s="71"/>
+      <c r="IG49" s="71"/>
+      <c r="IH49" s="71"/>
+      <c r="II49" s="71"/>
+      <c r="IJ49" s="71"/>
+      <c r="IK49" s="71"/>
+      <c r="IL49" s="71"/>
+      <c r="IM49" s="71"/>
+      <c r="IN49" s="71"/>
+      <c r="IO49" s="71"/>
+      <c r="IP49" s="71"/>
+      <c r="IQ49" s="71"/>
+      <c r="IR49" s="71"/>
+      <c r="IS49" s="71"/>
     </row>
-    <row r="50" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
       <c r="A50" s="54" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v>7.4</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),OFFSET(A50,-1,0,1,1)&amp;".1",LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A50,-1,0,1,1),LEN(OFFSET(A50,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
       <c r="G50" s="59">
-        <v>42527</v>
+        <v>42541</v>
       </c>
       <c r="H50" s="60">
         <f t="shared" si="18"/>
-        <v>42540</v>
+        <v>42545</v>
       </c>
       <c r="I50" s="61" t="str">
-        <f t="shared" ref="I50" ca="1" si="82">IF(AND($F$6&lt;=H50,$F$6&gt;=G50),"V","")</f>
+        <f t="shared" ref="I50:I51" ca="1" si="81">IF(AND($F$6&lt;=H50,$F$6&gt;=G50),"V","")</f>
         <v/>
       </c>
       <c r="J50" s="62">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K50" s="63">
-        <f t="shared" si="60"/>
-        <v>10</v>
+        <f t="shared" ref="K50:K51" si="82">NETWORKDAYS(G50,H50)</f>
+        <v>5</v>
       </c>
       <c r="L50" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="L50:L51" si="83">ROUNDDOWN(N50*J50,0)</f>
         <v>0</v>
       </c>
       <c r="M50" s="63">
-        <f t="shared" si="62"/>
-        <v>14</v>
+        <f t="shared" ref="M50:M51" si="84">J50-L50</f>
+        <v>5</v>
       </c>
       <c r="N50" s="65">
         <v>0</v>
@@ -17524,328 +17320,328 @@
       <c r="IR50" s="58"/>
       <c r="IS50" s="58"/>
     </row>
-    <row r="51" spans="1:253" s="23" customFormat="1" ht="12">
-      <c r="A51" s="67">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A51,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))),VALUE(OFFSET(A51,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))-1))+1))</f>
-        <v>8</v>
-      </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="72">
-        <v>42541</v>
-      </c>
-      <c r="H51" s="73">
+    <row r="51" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A51" s="54" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A51,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))),OFFSET(A51,-1,0,1,1)&amp;".1",LEFT(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A51,-1,0,1,1),LEN(OFFSET(A51,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>7.2</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59">
+        <v>42545</v>
+      </c>
+      <c r="H51" s="60">
         <f t="shared" si="18"/>
-        <v>42549</v>
-      </c>
-      <c r="I51" s="74" t="str">
-        <f ca="1">IF(AND($F$6&lt;=H51,$F$6&gt;=G51),"V","")</f>
+        <v>42545</v>
+      </c>
+      <c r="I51" s="61" t="str">
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
-      <c r="J51" s="75">
-        <f>MAX(H52:H54)-G51+1</f>
-        <v>9</v>
-      </c>
-      <c r="K51" s="76">
-        <f t="shared" si="60"/>
-        <v>7</v>
-      </c>
-      <c r="L51" s="77">
-        <f t="shared" si="61"/>
+      <c r="J51" s="62">
+        <v>1</v>
+      </c>
+      <c r="K51" s="63">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="64">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="M51" s="76">
-        <f t="shared" si="62"/>
-        <v>9</v>
-      </c>
-      <c r="N51" s="78">
-        <f>SUMPRODUCT(J52:J54,N52:N54)/SUM(J52:J54)</f>
+      <c r="M51" s="63">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="65">
         <v>0</v>
       </c>
-      <c r="O51" s="79"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
-      <c r="AJ51" s="71"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="71"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="71"/>
-      <c r="AV51" s="71"/>
-      <c r="AW51" s="71"/>
-      <c r="AX51" s="71"/>
-      <c r="AY51" s="71"/>
-      <c r="AZ51" s="71"/>
-      <c r="BA51" s="71"/>
-      <c r="BB51" s="71"/>
-      <c r="BC51" s="71"/>
-      <c r="BD51" s="71"/>
-      <c r="BE51" s="71"/>
-      <c r="BF51" s="71"/>
-      <c r="BG51" s="71"/>
-      <c r="BH51" s="71"/>
-      <c r="BI51" s="71"/>
-      <c r="BJ51" s="71"/>
-      <c r="BK51" s="71"/>
-      <c r="BL51" s="71"/>
-      <c r="BM51" s="71"/>
-      <c r="BN51" s="71"/>
-      <c r="BO51" s="71"/>
-      <c r="BP51" s="71"/>
-      <c r="BQ51" s="71"/>
-      <c r="BR51" s="71"/>
-      <c r="BS51" s="71"/>
-      <c r="BT51" s="71"/>
-      <c r="BU51" s="71"/>
-      <c r="BV51" s="71"/>
-      <c r="BW51" s="71"/>
-      <c r="BX51" s="71"/>
-      <c r="BY51" s="71"/>
-      <c r="BZ51" s="71"/>
-      <c r="CA51" s="71"/>
-      <c r="CB51" s="71"/>
-      <c r="CC51" s="71"/>
-      <c r="CD51" s="71"/>
-      <c r="CE51" s="71"/>
-      <c r="CF51" s="71"/>
-      <c r="CG51" s="71"/>
-      <c r="CH51" s="71"/>
-      <c r="CI51" s="71"/>
-      <c r="CJ51" s="71"/>
-      <c r="CK51" s="71"/>
-      <c r="CL51" s="71"/>
-      <c r="CM51" s="71"/>
-      <c r="CN51" s="71"/>
-      <c r="CO51" s="71"/>
-      <c r="CP51" s="71"/>
-      <c r="CQ51" s="71"/>
-      <c r="CR51" s="71"/>
-      <c r="CS51" s="71"/>
-      <c r="CT51" s="71"/>
-      <c r="CU51" s="71"/>
-      <c r="CV51" s="71"/>
-      <c r="CW51" s="71"/>
-      <c r="CX51" s="71"/>
-      <c r="CY51" s="71"/>
-      <c r="CZ51" s="71"/>
-      <c r="DA51" s="71"/>
-      <c r="DB51" s="71"/>
-      <c r="DC51" s="71"/>
-      <c r="DD51" s="71"/>
-      <c r="DE51" s="71"/>
-      <c r="DF51" s="71"/>
-      <c r="DG51" s="71"/>
-      <c r="DH51" s="71"/>
-      <c r="DI51" s="71"/>
-      <c r="DJ51" s="71"/>
-      <c r="DK51" s="71"/>
-      <c r="DL51" s="71"/>
-      <c r="DM51" s="71"/>
-      <c r="DN51" s="71"/>
-      <c r="DO51" s="71"/>
-      <c r="DP51" s="71"/>
-      <c r="DQ51" s="71"/>
-      <c r="DR51" s="71"/>
-      <c r="DS51" s="71"/>
-      <c r="DT51" s="71"/>
-      <c r="DU51" s="71"/>
-      <c r="DV51" s="71"/>
-      <c r="DW51" s="71"/>
-      <c r="DX51" s="71"/>
-      <c r="DY51" s="71"/>
-      <c r="DZ51" s="71"/>
-      <c r="EA51" s="71"/>
-      <c r="EB51" s="71"/>
-      <c r="EC51" s="71"/>
-      <c r="ED51" s="71"/>
-      <c r="EE51" s="71"/>
-      <c r="EF51" s="71"/>
-      <c r="EG51" s="71"/>
-      <c r="EH51" s="71"/>
-      <c r="EI51" s="71"/>
-      <c r="EJ51" s="71"/>
-      <c r="EK51" s="71"/>
-      <c r="EL51" s="71"/>
-      <c r="EM51" s="71"/>
-      <c r="EN51" s="71"/>
-      <c r="EO51" s="71"/>
-      <c r="EP51" s="71"/>
-      <c r="EQ51" s="71"/>
-      <c r="ER51" s="71"/>
-      <c r="ES51" s="71"/>
-      <c r="ET51" s="71"/>
-      <c r="EU51" s="71"/>
-      <c r="EV51" s="71"/>
-      <c r="EW51" s="71"/>
-      <c r="EX51" s="71"/>
-      <c r="EY51" s="71"/>
-      <c r="EZ51" s="71"/>
-      <c r="FA51" s="71"/>
-      <c r="FB51" s="71"/>
-      <c r="FC51" s="71"/>
-      <c r="FD51" s="71"/>
-      <c r="FE51" s="71"/>
-      <c r="FF51" s="71"/>
-      <c r="FG51" s="71"/>
-      <c r="FH51" s="71"/>
-      <c r="FI51" s="71"/>
-      <c r="FJ51" s="71"/>
-      <c r="FK51" s="71"/>
-      <c r="FL51" s="71"/>
-      <c r="FM51" s="71"/>
-      <c r="FN51" s="71"/>
-      <c r="FO51" s="71"/>
-      <c r="FP51" s="71"/>
-      <c r="FQ51" s="71"/>
-      <c r="FR51" s="71"/>
-      <c r="FS51" s="71"/>
-      <c r="FT51" s="71"/>
-      <c r="FU51" s="71"/>
-      <c r="FV51" s="71"/>
-      <c r="FW51" s="71"/>
-      <c r="FX51" s="71"/>
-      <c r="FY51" s="71"/>
-      <c r="FZ51" s="71"/>
-      <c r="GA51" s="71"/>
-      <c r="GB51" s="71"/>
-      <c r="GC51" s="71"/>
-      <c r="GD51" s="71"/>
-      <c r="GE51" s="71"/>
-      <c r="GF51" s="71"/>
-      <c r="GG51" s="71"/>
-      <c r="GH51" s="71"/>
-      <c r="GI51" s="71"/>
-      <c r="GJ51" s="71"/>
-      <c r="GK51" s="71"/>
-      <c r="GL51" s="71"/>
-      <c r="GM51" s="71"/>
-      <c r="GN51" s="71"/>
-      <c r="GO51" s="71"/>
-      <c r="GP51" s="71"/>
-      <c r="GQ51" s="71"/>
-      <c r="GR51" s="71"/>
-      <c r="GS51" s="71"/>
-      <c r="GT51" s="71"/>
-      <c r="GU51" s="71"/>
-      <c r="GV51" s="71"/>
-      <c r="GW51" s="71"/>
-      <c r="GX51" s="71"/>
-      <c r="GY51" s="71"/>
-      <c r="GZ51" s="71"/>
-      <c r="HA51" s="71"/>
-      <c r="HB51" s="71"/>
-      <c r="HC51" s="71"/>
-      <c r="HD51" s="71"/>
-      <c r="HE51" s="71"/>
-      <c r="HF51" s="71"/>
-      <c r="HG51" s="71"/>
-      <c r="HH51" s="71"/>
-      <c r="HI51" s="71"/>
-      <c r="HJ51" s="71"/>
-      <c r="HK51" s="71"/>
-      <c r="HL51" s="71"/>
-      <c r="HM51" s="71"/>
-      <c r="HN51" s="71"/>
-      <c r="HO51" s="71"/>
-      <c r="HP51" s="71"/>
-      <c r="HQ51" s="71"/>
-      <c r="HR51" s="71"/>
-      <c r="HS51" s="71"/>
-      <c r="HT51" s="71"/>
-      <c r="HU51" s="71"/>
-      <c r="HV51" s="71"/>
-      <c r="HW51" s="71"/>
-      <c r="HX51" s="71"/>
-      <c r="HY51" s="71"/>
-      <c r="HZ51" s="71"/>
-      <c r="IA51" s="71"/>
-      <c r="IB51" s="71"/>
-      <c r="IC51" s="71"/>
-      <c r="ID51" s="71"/>
-      <c r="IE51" s="71"/>
-      <c r="IF51" s="71"/>
-      <c r="IG51" s="71"/>
-      <c r="IH51" s="71"/>
-      <c r="II51" s="71"/>
-      <c r="IJ51" s="71"/>
-      <c r="IK51" s="71"/>
-      <c r="IL51" s="71"/>
-      <c r="IM51" s="71"/>
-      <c r="IN51" s="71"/>
-      <c r="IO51" s="71"/>
-      <c r="IP51" s="71"/>
-      <c r="IQ51" s="71"/>
-      <c r="IR51" s="71"/>
-      <c r="IS51" s="71"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="58"/>
+      <c r="AL51" s="58"/>
+      <c r="AM51" s="58"/>
+      <c r="AN51" s="58"/>
+      <c r="AO51" s="58"/>
+      <c r="AP51" s="58"/>
+      <c r="AQ51" s="58"/>
+      <c r="AR51" s="58"/>
+      <c r="AS51" s="58"/>
+      <c r="AT51" s="58"/>
+      <c r="AU51" s="58"/>
+      <c r="AV51" s="58"/>
+      <c r="AW51" s="58"/>
+      <c r="AX51" s="58"/>
+      <c r="AY51" s="58"/>
+      <c r="AZ51" s="58"/>
+      <c r="BA51" s="58"/>
+      <c r="BB51" s="58"/>
+      <c r="BC51" s="58"/>
+      <c r="BD51" s="58"/>
+      <c r="BE51" s="58"/>
+      <c r="BF51" s="58"/>
+      <c r="BG51" s="58"/>
+      <c r="BH51" s="58"/>
+      <c r="BI51" s="58"/>
+      <c r="BJ51" s="58"/>
+      <c r="BK51" s="58"/>
+      <c r="BL51" s="58"/>
+      <c r="BM51" s="58"/>
+      <c r="BN51" s="58"/>
+      <c r="BO51" s="58"/>
+      <c r="BP51" s="58"/>
+      <c r="BQ51" s="58"/>
+      <c r="BR51" s="58"/>
+      <c r="BS51" s="58"/>
+      <c r="BT51" s="58"/>
+      <c r="BU51" s="58"/>
+      <c r="BV51" s="58"/>
+      <c r="BW51" s="58"/>
+      <c r="BX51" s="58"/>
+      <c r="BY51" s="58"/>
+      <c r="BZ51" s="58"/>
+      <c r="CA51" s="58"/>
+      <c r="CB51" s="58"/>
+      <c r="CC51" s="58"/>
+      <c r="CD51" s="58"/>
+      <c r="CE51" s="58"/>
+      <c r="CF51" s="58"/>
+      <c r="CG51" s="58"/>
+      <c r="CH51" s="58"/>
+      <c r="CI51" s="58"/>
+      <c r="CJ51" s="58"/>
+      <c r="CK51" s="58"/>
+      <c r="CL51" s="58"/>
+      <c r="CM51" s="58"/>
+      <c r="CN51" s="58"/>
+      <c r="CO51" s="58"/>
+      <c r="CP51" s="58"/>
+      <c r="CQ51" s="58"/>
+      <c r="CR51" s="58"/>
+      <c r="CS51" s="58"/>
+      <c r="CT51" s="58"/>
+      <c r="CU51" s="58"/>
+      <c r="CV51" s="58"/>
+      <c r="CW51" s="58"/>
+      <c r="CX51" s="58"/>
+      <c r="CY51" s="58"/>
+      <c r="CZ51" s="58"/>
+      <c r="DA51" s="58"/>
+      <c r="DB51" s="58"/>
+      <c r="DC51" s="58"/>
+      <c r="DD51" s="58"/>
+      <c r="DE51" s="58"/>
+      <c r="DF51" s="58"/>
+      <c r="DG51" s="58"/>
+      <c r="DH51" s="58"/>
+      <c r="DI51" s="58"/>
+      <c r="DJ51" s="58"/>
+      <c r="DK51" s="58"/>
+      <c r="DL51" s="58"/>
+      <c r="DM51" s="58"/>
+      <c r="DN51" s="58"/>
+      <c r="DO51" s="58"/>
+      <c r="DP51" s="58"/>
+      <c r="DQ51" s="58"/>
+      <c r="DR51" s="58"/>
+      <c r="DS51" s="58"/>
+      <c r="DT51" s="58"/>
+      <c r="DU51" s="58"/>
+      <c r="DV51" s="58"/>
+      <c r="DW51" s="58"/>
+      <c r="DX51" s="58"/>
+      <c r="DY51" s="58"/>
+      <c r="DZ51" s="58"/>
+      <c r="EA51" s="58"/>
+      <c r="EB51" s="58"/>
+      <c r="EC51" s="58"/>
+      <c r="ED51" s="58"/>
+      <c r="EE51" s="58"/>
+      <c r="EF51" s="58"/>
+      <c r="EG51" s="58"/>
+      <c r="EH51" s="58"/>
+      <c r="EI51" s="58"/>
+      <c r="EJ51" s="58"/>
+      <c r="EK51" s="58"/>
+      <c r="EL51" s="58"/>
+      <c r="EM51" s="58"/>
+      <c r="EN51" s="58"/>
+      <c r="EO51" s="58"/>
+      <c r="EP51" s="58"/>
+      <c r="EQ51" s="58"/>
+      <c r="ER51" s="58"/>
+      <c r="ES51" s="58"/>
+      <c r="ET51" s="58"/>
+      <c r="EU51" s="58"/>
+      <c r="EV51" s="58"/>
+      <c r="EW51" s="58"/>
+      <c r="EX51" s="58"/>
+      <c r="EY51" s="58"/>
+      <c r="EZ51" s="58"/>
+      <c r="FA51" s="58"/>
+      <c r="FB51" s="58"/>
+      <c r="FC51" s="58"/>
+      <c r="FD51" s="58"/>
+      <c r="FE51" s="58"/>
+      <c r="FF51" s="58"/>
+      <c r="FG51" s="58"/>
+      <c r="FH51" s="58"/>
+      <c r="FI51" s="58"/>
+      <c r="FJ51" s="58"/>
+      <c r="FK51" s="58"/>
+      <c r="FL51" s="58"/>
+      <c r="FM51" s="58"/>
+      <c r="FN51" s="58"/>
+      <c r="FO51" s="58"/>
+      <c r="FP51" s="58"/>
+      <c r="FQ51" s="58"/>
+      <c r="FR51" s="58"/>
+      <c r="FS51" s="58"/>
+      <c r="FT51" s="58"/>
+      <c r="FU51" s="58"/>
+      <c r="FV51" s="58"/>
+      <c r="FW51" s="58"/>
+      <c r="FX51" s="58"/>
+      <c r="FY51" s="58"/>
+      <c r="FZ51" s="58"/>
+      <c r="GA51" s="58"/>
+      <c r="GB51" s="58"/>
+      <c r="GC51" s="58"/>
+      <c r="GD51" s="58"/>
+      <c r="GE51" s="58"/>
+      <c r="GF51" s="58"/>
+      <c r="GG51" s="58"/>
+      <c r="GH51" s="58"/>
+      <c r="GI51" s="58"/>
+      <c r="GJ51" s="58"/>
+      <c r="GK51" s="58"/>
+      <c r="GL51" s="58"/>
+      <c r="GM51" s="58"/>
+      <c r="GN51" s="58"/>
+      <c r="GO51" s="58"/>
+      <c r="GP51" s="58"/>
+      <c r="GQ51" s="58"/>
+      <c r="GR51" s="58"/>
+      <c r="GS51" s="58"/>
+      <c r="GT51" s="58"/>
+      <c r="GU51" s="58"/>
+      <c r="GV51" s="58"/>
+      <c r="GW51" s="58"/>
+      <c r="GX51" s="58"/>
+      <c r="GY51" s="58"/>
+      <c r="GZ51" s="58"/>
+      <c r="HA51" s="58"/>
+      <c r="HB51" s="58"/>
+      <c r="HC51" s="58"/>
+      <c r="HD51" s="58"/>
+      <c r="HE51" s="58"/>
+      <c r="HF51" s="58"/>
+      <c r="HG51" s="58"/>
+      <c r="HH51" s="58"/>
+      <c r="HI51" s="58"/>
+      <c r="HJ51" s="58"/>
+      <c r="HK51" s="58"/>
+      <c r="HL51" s="58"/>
+      <c r="HM51" s="58"/>
+      <c r="HN51" s="58"/>
+      <c r="HO51" s="58"/>
+      <c r="HP51" s="58"/>
+      <c r="HQ51" s="58"/>
+      <c r="HR51" s="58"/>
+      <c r="HS51" s="58"/>
+      <c r="HT51" s="58"/>
+      <c r="HU51" s="58"/>
+      <c r="HV51" s="58"/>
+      <c r="HW51" s="58"/>
+      <c r="HX51" s="58"/>
+      <c r="HY51" s="58"/>
+      <c r="HZ51" s="58"/>
+      <c r="IA51" s="58"/>
+      <c r="IB51" s="58"/>
+      <c r="IC51" s="58"/>
+      <c r="ID51" s="58"/>
+      <c r="IE51" s="58"/>
+      <c r="IF51" s="58"/>
+      <c r="IG51" s="58"/>
+      <c r="IH51" s="58"/>
+      <c r="II51" s="58"/>
+      <c r="IJ51" s="58"/>
+      <c r="IK51" s="58"/>
+      <c r="IL51" s="58"/>
+      <c r="IM51" s="58"/>
+      <c r="IN51" s="58"/>
+      <c r="IO51" s="58"/>
+      <c r="IP51" s="58"/>
+      <c r="IQ51" s="58"/>
+      <c r="IR51" s="58"/>
+      <c r="IS51" s="58"/>
     </row>
-    <row r="52" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1">
       <c r="A52" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A52,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))),OFFSET(A52,-1,0,1,1)&amp;".1",LEFT(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A52,-1,0,1,1),LEN(OFFSET(A52,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="58"/>
       <c r="G52" s="59">
-        <v>42541</v>
+        <v>42549</v>
       </c>
       <c r="H52" s="60">
         <f t="shared" si="18"/>
-        <v>42545</v>
+        <v>42549</v>
       </c>
       <c r="I52" s="61" t="str">
-        <f t="shared" ref="I52:I53" ca="1" si="83">IF(AND($F$6&lt;=H52,$F$6&gt;=G52),"V","")</f>
+        <f t="shared" ref="I52" ca="1" si="85">IF(AND($F$6&lt;=H52,$F$6&gt;=G52),"V","")</f>
         <v/>
       </c>
       <c r="J52" s="62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K52" s="63">
-        <f t="shared" ref="K52:K53" si="84">NETWORKDAYS(G52,H52)</f>
-        <v>5</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="L52" s="64">
-        <f t="shared" ref="L52:L53" si="85">ROUNDDOWN(N52*J52,0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M52" s="63">
-        <f t="shared" ref="M52:M53" si="86">J52-L52</f>
-        <v>5</v>
+        <f t="shared" si="60"/>
+        <v>1</v>
       </c>
       <c r="N52" s="65">
         <v>0</v>
@@ -18090,576 +17886,101 @@
       <c r="IR52" s="58"/>
       <c r="IS52" s="58"/>
     </row>
-    <row r="53" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
-      <c r="A53" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A53,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))),OFFSET(A53,-1,0,1,1)&amp;".1",LEFT(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A53,-1,0,1,1),LEN(OFFSET(A53,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>8.2</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59">
-        <v>42545</v>
-      </c>
-      <c r="H53" s="60">
-        <f t="shared" si="18"/>
-        <v>42545</v>
-      </c>
-      <c r="I53" s="61" t="str">
-        <f t="shared" ca="1" si="83"/>
-        <v/>
-      </c>
-      <c r="J53" s="62">
-        <v>1</v>
-      </c>
-      <c r="K53" s="63">
-        <f t="shared" si="84"/>
-        <v>1</v>
-      </c>
-      <c r="L53" s="64">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="63">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="N53" s="65">
-        <v>0</v>
-      </c>
-      <c r="O53" s="66"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="58"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="58"/>
-      <c r="AJ53" s="58"/>
-      <c r="AK53" s="58"/>
-      <c r="AL53" s="58"/>
-      <c r="AM53" s="58"/>
-      <c r="AN53" s="58"/>
-      <c r="AO53" s="58"/>
-      <c r="AP53" s="58"/>
-      <c r="AQ53" s="58"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="58"/>
-      <c r="AT53" s="58"/>
-      <c r="AU53" s="58"/>
-      <c r="AV53" s="58"/>
-      <c r="AW53" s="58"/>
-      <c r="AX53" s="58"/>
-      <c r="AY53" s="58"/>
-      <c r="AZ53" s="58"/>
-      <c r="BA53" s="58"/>
-      <c r="BB53" s="58"/>
-      <c r="BC53" s="58"/>
-      <c r="BD53" s="58"/>
-      <c r="BE53" s="58"/>
-      <c r="BF53" s="58"/>
-      <c r="BG53" s="58"/>
-      <c r="BH53" s="58"/>
-      <c r="BI53" s="58"/>
-      <c r="BJ53" s="58"/>
-      <c r="BK53" s="58"/>
-      <c r="BL53" s="58"/>
-      <c r="BM53" s="58"/>
-      <c r="BN53" s="58"/>
-      <c r="BO53" s="58"/>
-      <c r="BP53" s="58"/>
-      <c r="BQ53" s="58"/>
-      <c r="BR53" s="58"/>
-      <c r="BS53" s="58"/>
-      <c r="BT53" s="58"/>
-      <c r="BU53" s="58"/>
-      <c r="BV53" s="58"/>
-      <c r="BW53" s="58"/>
-      <c r="BX53" s="58"/>
-      <c r="BY53" s="58"/>
-      <c r="BZ53" s="58"/>
-      <c r="CA53" s="58"/>
-      <c r="CB53" s="58"/>
-      <c r="CC53" s="58"/>
-      <c r="CD53" s="58"/>
-      <c r="CE53" s="58"/>
-      <c r="CF53" s="58"/>
-      <c r="CG53" s="58"/>
-      <c r="CH53" s="58"/>
-      <c r="CI53" s="58"/>
-      <c r="CJ53" s="58"/>
-      <c r="CK53" s="58"/>
-      <c r="CL53" s="58"/>
-      <c r="CM53" s="58"/>
-      <c r="CN53" s="58"/>
-      <c r="CO53" s="58"/>
-      <c r="CP53" s="58"/>
-      <c r="CQ53" s="58"/>
-      <c r="CR53" s="58"/>
-      <c r="CS53" s="58"/>
-      <c r="CT53" s="58"/>
-      <c r="CU53" s="58"/>
-      <c r="CV53" s="58"/>
-      <c r="CW53" s="58"/>
-      <c r="CX53" s="58"/>
-      <c r="CY53" s="58"/>
-      <c r="CZ53" s="58"/>
-      <c r="DA53" s="58"/>
-      <c r="DB53" s="58"/>
-      <c r="DC53" s="58"/>
-      <c r="DD53" s="58"/>
-      <c r="DE53" s="58"/>
-      <c r="DF53" s="58"/>
-      <c r="DG53" s="58"/>
-      <c r="DH53" s="58"/>
-      <c r="DI53" s="58"/>
-      <c r="DJ53" s="58"/>
-      <c r="DK53" s="58"/>
-      <c r="DL53" s="58"/>
-      <c r="DM53" s="58"/>
-      <c r="DN53" s="58"/>
-      <c r="DO53" s="58"/>
-      <c r="DP53" s="58"/>
-      <c r="DQ53" s="58"/>
-      <c r="DR53" s="58"/>
-      <c r="DS53" s="58"/>
-      <c r="DT53" s="58"/>
-      <c r="DU53" s="58"/>
-      <c r="DV53" s="58"/>
-      <c r="DW53" s="58"/>
-      <c r="DX53" s="58"/>
-      <c r="DY53" s="58"/>
-      <c r="DZ53" s="58"/>
-      <c r="EA53" s="58"/>
-      <c r="EB53" s="58"/>
-      <c r="EC53" s="58"/>
-      <c r="ED53" s="58"/>
-      <c r="EE53" s="58"/>
-      <c r="EF53" s="58"/>
-      <c r="EG53" s="58"/>
-      <c r="EH53" s="58"/>
-      <c r="EI53" s="58"/>
-      <c r="EJ53" s="58"/>
-      <c r="EK53" s="58"/>
-      <c r="EL53" s="58"/>
-      <c r="EM53" s="58"/>
-      <c r="EN53" s="58"/>
-      <c r="EO53" s="58"/>
-      <c r="EP53" s="58"/>
-      <c r="EQ53" s="58"/>
-      <c r="ER53" s="58"/>
-      <c r="ES53" s="58"/>
-      <c r="ET53" s="58"/>
-      <c r="EU53" s="58"/>
-      <c r="EV53" s="58"/>
-      <c r="EW53" s="58"/>
-      <c r="EX53" s="58"/>
-      <c r="EY53" s="58"/>
-      <c r="EZ53" s="58"/>
-      <c r="FA53" s="58"/>
-      <c r="FB53" s="58"/>
-      <c r="FC53" s="58"/>
-      <c r="FD53" s="58"/>
-      <c r="FE53" s="58"/>
-      <c r="FF53" s="58"/>
-      <c r="FG53" s="58"/>
-      <c r="FH53" s="58"/>
-      <c r="FI53" s="58"/>
-      <c r="FJ53" s="58"/>
-      <c r="FK53" s="58"/>
-      <c r="FL53" s="58"/>
-      <c r="FM53" s="58"/>
-      <c r="FN53" s="58"/>
-      <c r="FO53" s="58"/>
-      <c r="FP53" s="58"/>
-      <c r="FQ53" s="58"/>
-      <c r="FR53" s="58"/>
-      <c r="FS53" s="58"/>
-      <c r="FT53" s="58"/>
-      <c r="FU53" s="58"/>
-      <c r="FV53" s="58"/>
-      <c r="FW53" s="58"/>
-      <c r="FX53" s="58"/>
-      <c r="FY53" s="58"/>
-      <c r="FZ53" s="58"/>
-      <c r="GA53" s="58"/>
-      <c r="GB53" s="58"/>
-      <c r="GC53" s="58"/>
-      <c r="GD53" s="58"/>
-      <c r="GE53" s="58"/>
-      <c r="GF53" s="58"/>
-      <c r="GG53" s="58"/>
-      <c r="GH53" s="58"/>
-      <c r="GI53" s="58"/>
-      <c r="GJ53" s="58"/>
-      <c r="GK53" s="58"/>
-      <c r="GL53" s="58"/>
-      <c r="GM53" s="58"/>
-      <c r="GN53" s="58"/>
-      <c r="GO53" s="58"/>
-      <c r="GP53" s="58"/>
-      <c r="GQ53" s="58"/>
-      <c r="GR53" s="58"/>
-      <c r="GS53" s="58"/>
-      <c r="GT53" s="58"/>
-      <c r="GU53" s="58"/>
-      <c r="GV53" s="58"/>
-      <c r="GW53" s="58"/>
-      <c r="GX53" s="58"/>
-      <c r="GY53" s="58"/>
-      <c r="GZ53" s="58"/>
-      <c r="HA53" s="58"/>
-      <c r="HB53" s="58"/>
-      <c r="HC53" s="58"/>
-      <c r="HD53" s="58"/>
-      <c r="HE53" s="58"/>
-      <c r="HF53" s="58"/>
-      <c r="HG53" s="58"/>
-      <c r="HH53" s="58"/>
-      <c r="HI53" s="58"/>
-      <c r="HJ53" s="58"/>
-      <c r="HK53" s="58"/>
-      <c r="HL53" s="58"/>
-      <c r="HM53" s="58"/>
-      <c r="HN53" s="58"/>
-      <c r="HO53" s="58"/>
-      <c r="HP53" s="58"/>
-      <c r="HQ53" s="58"/>
-      <c r="HR53" s="58"/>
-      <c r="HS53" s="58"/>
-      <c r="HT53" s="58"/>
-      <c r="HU53" s="58"/>
-      <c r="HV53" s="58"/>
-      <c r="HW53" s="58"/>
-      <c r="HX53" s="58"/>
-      <c r="HY53" s="58"/>
-      <c r="HZ53" s="58"/>
-      <c r="IA53" s="58"/>
-      <c r="IB53" s="58"/>
-      <c r="IC53" s="58"/>
-      <c r="ID53" s="58"/>
-      <c r="IE53" s="58"/>
-      <c r="IF53" s="58"/>
-      <c r="IG53" s="58"/>
-      <c r="IH53" s="58"/>
-      <c r="II53" s="58"/>
-      <c r="IJ53" s="58"/>
-      <c r="IK53" s="58"/>
-      <c r="IL53" s="58"/>
-      <c r="IM53" s="58"/>
-      <c r="IN53" s="58"/>
-      <c r="IO53" s="58"/>
-      <c r="IP53" s="58"/>
-      <c r="IQ53" s="58"/>
-      <c r="IR53" s="58"/>
-      <c r="IS53" s="58"/>
-    </row>
-    <row r="54" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1">
-      <c r="A54" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A54,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))),OFFSET(A54,-1,0,1,1)&amp;".1",LEFT(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A54,-1,0,1,1),LEN(OFFSET(A54,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A54,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A54,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>8.3</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59">
-        <v>42549</v>
-      </c>
-      <c r="H54" s="60">
-        <f t="shared" si="18"/>
-        <v>42549</v>
-      </c>
-      <c r="I54" s="61" t="str">
-        <f t="shared" ref="I54" ca="1" si="87">IF(AND($F$6&lt;=H54,$F$6&gt;=G54),"V","")</f>
-        <v/>
-      </c>
-      <c r="J54" s="62">
-        <v>1</v>
-      </c>
-      <c r="K54" s="63">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="L54" s="64">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="63">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="65">
-        <v>0</v>
-      </c>
-      <c r="O54" s="66"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="58"/>
-      <c r="W54" s="58"/>
-      <c r="X54" s="58"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-      <c r="AJ54" s="58"/>
-      <c r="AK54" s="58"/>
-      <c r="AL54" s="58"/>
-      <c r="AM54" s="58"/>
-      <c r="AN54" s="58"/>
-      <c r="AO54" s="58"/>
-      <c r="AP54" s="58"/>
-      <c r="AQ54" s="58"/>
-      <c r="AR54" s="58"/>
-      <c r="AS54" s="58"/>
-      <c r="AT54" s="58"/>
-      <c r="AU54" s="58"/>
-      <c r="AV54" s="58"/>
-      <c r="AW54" s="58"/>
-      <c r="AX54" s="58"/>
-      <c r="AY54" s="58"/>
-      <c r="AZ54" s="58"/>
-      <c r="BA54" s="58"/>
-      <c r="BB54" s="58"/>
-      <c r="BC54" s="58"/>
-      <c r="BD54" s="58"/>
-      <c r="BE54" s="58"/>
-      <c r="BF54" s="58"/>
-      <c r="BG54" s="58"/>
-      <c r="BH54" s="58"/>
-      <c r="BI54" s="58"/>
-      <c r="BJ54" s="58"/>
-      <c r="BK54" s="58"/>
-      <c r="BL54" s="58"/>
-      <c r="BM54" s="58"/>
-      <c r="BN54" s="58"/>
-      <c r="BO54" s="58"/>
-      <c r="BP54" s="58"/>
-      <c r="BQ54" s="58"/>
-      <c r="BR54" s="58"/>
-      <c r="BS54" s="58"/>
-      <c r="BT54" s="58"/>
-      <c r="BU54" s="58"/>
-      <c r="BV54" s="58"/>
-      <c r="BW54" s="58"/>
-      <c r="BX54" s="58"/>
-      <c r="BY54" s="58"/>
-      <c r="BZ54" s="58"/>
-      <c r="CA54" s="58"/>
-      <c r="CB54" s="58"/>
-      <c r="CC54" s="58"/>
-      <c r="CD54" s="58"/>
-      <c r="CE54" s="58"/>
-      <c r="CF54" s="58"/>
-      <c r="CG54" s="58"/>
-      <c r="CH54" s="58"/>
-      <c r="CI54" s="58"/>
-      <c r="CJ54" s="58"/>
-      <c r="CK54" s="58"/>
-      <c r="CL54" s="58"/>
-      <c r="CM54" s="58"/>
-      <c r="CN54" s="58"/>
-      <c r="CO54" s="58"/>
-      <c r="CP54" s="58"/>
-      <c r="CQ54" s="58"/>
-      <c r="CR54" s="58"/>
-      <c r="CS54" s="58"/>
-      <c r="CT54" s="58"/>
-      <c r="CU54" s="58"/>
-      <c r="CV54" s="58"/>
-      <c r="CW54" s="58"/>
-      <c r="CX54" s="58"/>
-      <c r="CY54" s="58"/>
-      <c r="CZ54" s="58"/>
-      <c r="DA54" s="58"/>
-      <c r="DB54" s="58"/>
-      <c r="DC54" s="58"/>
-      <c r="DD54" s="58"/>
-      <c r="DE54" s="58"/>
-      <c r="DF54" s="58"/>
-      <c r="DG54" s="58"/>
-      <c r="DH54" s="58"/>
-      <c r="DI54" s="58"/>
-      <c r="DJ54" s="58"/>
-      <c r="DK54" s="58"/>
-      <c r="DL54" s="58"/>
-      <c r="DM54" s="58"/>
-      <c r="DN54" s="58"/>
-      <c r="DO54" s="58"/>
-      <c r="DP54" s="58"/>
-      <c r="DQ54" s="58"/>
-      <c r="DR54" s="58"/>
-      <c r="DS54" s="58"/>
-      <c r="DT54" s="58"/>
-      <c r="DU54" s="58"/>
-      <c r="DV54" s="58"/>
-      <c r="DW54" s="58"/>
-      <c r="DX54" s="58"/>
-      <c r="DY54" s="58"/>
-      <c r="DZ54" s="58"/>
-      <c r="EA54" s="58"/>
-      <c r="EB54" s="58"/>
-      <c r="EC54" s="58"/>
-      <c r="ED54" s="58"/>
-      <c r="EE54" s="58"/>
-      <c r="EF54" s="58"/>
-      <c r="EG54" s="58"/>
-      <c r="EH54" s="58"/>
-      <c r="EI54" s="58"/>
-      <c r="EJ54" s="58"/>
-      <c r="EK54" s="58"/>
-      <c r="EL54" s="58"/>
-      <c r="EM54" s="58"/>
-      <c r="EN54" s="58"/>
-      <c r="EO54" s="58"/>
-      <c r="EP54" s="58"/>
-      <c r="EQ54" s="58"/>
-      <c r="ER54" s="58"/>
-      <c r="ES54" s="58"/>
-      <c r="ET54" s="58"/>
-      <c r="EU54" s="58"/>
-      <c r="EV54" s="58"/>
-      <c r="EW54" s="58"/>
-      <c r="EX54" s="58"/>
-      <c r="EY54" s="58"/>
-      <c r="EZ54" s="58"/>
-      <c r="FA54" s="58"/>
-      <c r="FB54" s="58"/>
-      <c r="FC54" s="58"/>
-      <c r="FD54" s="58"/>
-      <c r="FE54" s="58"/>
-      <c r="FF54" s="58"/>
-      <c r="FG54" s="58"/>
-      <c r="FH54" s="58"/>
-      <c r="FI54" s="58"/>
-      <c r="FJ54" s="58"/>
-      <c r="FK54" s="58"/>
-      <c r="FL54" s="58"/>
-      <c r="FM54" s="58"/>
-      <c r="FN54" s="58"/>
-      <c r="FO54" s="58"/>
-      <c r="FP54" s="58"/>
-      <c r="FQ54" s="58"/>
-      <c r="FR54" s="58"/>
-      <c r="FS54" s="58"/>
-      <c r="FT54" s="58"/>
-      <c r="FU54" s="58"/>
-      <c r="FV54" s="58"/>
-      <c r="FW54" s="58"/>
-      <c r="FX54" s="58"/>
-      <c r="FY54" s="58"/>
-      <c r="FZ54" s="58"/>
-      <c r="GA54" s="58"/>
-      <c r="GB54" s="58"/>
-      <c r="GC54" s="58"/>
-      <c r="GD54" s="58"/>
-      <c r="GE54" s="58"/>
-      <c r="GF54" s="58"/>
-      <c r="GG54" s="58"/>
-      <c r="GH54" s="58"/>
-      <c r="GI54" s="58"/>
-      <c r="GJ54" s="58"/>
-      <c r="GK54" s="58"/>
-      <c r="GL54" s="58"/>
-      <c r="GM54" s="58"/>
-      <c r="GN54" s="58"/>
-      <c r="GO54" s="58"/>
-      <c r="GP54" s="58"/>
-      <c r="GQ54" s="58"/>
-      <c r="GR54" s="58"/>
-      <c r="GS54" s="58"/>
-      <c r="GT54" s="58"/>
-      <c r="GU54" s="58"/>
-      <c r="GV54" s="58"/>
-      <c r="GW54" s="58"/>
-      <c r="GX54" s="58"/>
-      <c r="GY54" s="58"/>
-      <c r="GZ54" s="58"/>
-      <c r="HA54" s="58"/>
-      <c r="HB54" s="58"/>
-      <c r="HC54" s="58"/>
-      <c r="HD54" s="58"/>
-      <c r="HE54" s="58"/>
-      <c r="HF54" s="58"/>
-      <c r="HG54" s="58"/>
-      <c r="HH54" s="58"/>
-      <c r="HI54" s="58"/>
-      <c r="HJ54" s="58"/>
-      <c r="HK54" s="58"/>
-      <c r="HL54" s="58"/>
-      <c r="HM54" s="58"/>
-      <c r="HN54" s="58"/>
-      <c r="HO54" s="58"/>
-      <c r="HP54" s="58"/>
-      <c r="HQ54" s="58"/>
-      <c r="HR54" s="58"/>
-      <c r="HS54" s="58"/>
-      <c r="HT54" s="58"/>
-      <c r="HU54" s="58"/>
-      <c r="HV54" s="58"/>
-      <c r="HW54" s="58"/>
-      <c r="HX54" s="58"/>
-      <c r="HY54" s="58"/>
-      <c r="HZ54" s="58"/>
-      <c r="IA54" s="58"/>
-      <c r="IB54" s="58"/>
-      <c r="IC54" s="58"/>
-      <c r="ID54" s="58"/>
-      <c r="IE54" s="58"/>
-      <c r="IF54" s="58"/>
-      <c r="IG54" s="58"/>
-      <c r="IH54" s="58"/>
-      <c r="II54" s="58"/>
-      <c r="IJ54" s="58"/>
-      <c r="IK54" s="58"/>
-      <c r="IL54" s="58"/>
-      <c r="IM54" s="58"/>
-      <c r="IN54" s="58"/>
-      <c r="IO54" s="58"/>
-      <c r="IP54" s="58"/>
-      <c r="IQ54" s="58"/>
-      <c r="IR54" s="58"/>
-      <c r="IS54" s="58"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
-  <autoFilter ref="A11:N54"/>
+  <autoFilter ref="A11:N52"/>
   <mergeCells count="115">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="GI11:GO11"/>
+    <mergeCell ref="FG11:FM11"/>
+    <mergeCell ref="DC11:DI11"/>
+    <mergeCell ref="FU11:GA11"/>
+    <mergeCell ref="DX11:ED11"/>
+    <mergeCell ref="FN11:FT11"/>
+    <mergeCell ref="GB11:GH11"/>
+    <mergeCell ref="FN10:FT10"/>
+    <mergeCell ref="DQ11:DW11"/>
+    <mergeCell ref="BT11:BZ11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
     <mergeCell ref="HK10:HQ10"/>
     <mergeCell ref="FG10:FM10"/>
     <mergeCell ref="IM9:IS9"/>
@@ -18684,694 +18005,515 @@
     <mergeCell ref="DC10:DI10"/>
     <mergeCell ref="DJ10:DP10"/>
     <mergeCell ref="IF10:IL10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="GI11:GO11"/>
-    <mergeCell ref="FG11:FM11"/>
-    <mergeCell ref="DC11:DI11"/>
-    <mergeCell ref="FU11:GA11"/>
-    <mergeCell ref="DX11:ED11"/>
-    <mergeCell ref="FN11:FT11"/>
-    <mergeCell ref="GB11:GH11"/>
-    <mergeCell ref="FN10:FT10"/>
-    <mergeCell ref="DQ11:DW11"/>
-    <mergeCell ref="BT11:BZ11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="N9:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">
-    <cfRule type="cellIs" dxfId="164" priority="1013" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="1013" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="1014" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1014" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="1015" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="1015" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12 P16 P27 P34 P39 P46 P51">
-    <cfRule type="expression" dxfId="161" priority="1016" stopIfTrue="1">
+  <conditionalFormatting sqref="P12 P16 P27 P34 P37 P44 P49">
+    <cfRule type="expression" dxfId="137" priority="1016" stopIfTrue="1">
       <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="1017" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="1017" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G12),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G12+($J12*$N12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="1018" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="1018" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G12),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H12))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13 P15 P17:P26 P28:P32 P35:P36 P52:P54 P47:P48 P40:P45 P50">
-    <cfRule type="expression" dxfId="158" priority="1022" stopIfTrue="1">
+  <conditionalFormatting sqref="P13 P15 P17:P26 P28:P32 P35:P36 P50:P52 P38:P43 P45:P48">
+    <cfRule type="expression" dxfId="134" priority="1022" stopIfTrue="1">
       <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="1023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="1023" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G13),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G13+($J13*$N13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="1024" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="1024" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G13),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:IS12 Q16:IS16 Q27:IS27 Q34:IS34 Q39:IS39 Q46:IS46 Q51:IS51">
-    <cfRule type="expression" dxfId="155" priority="1004" stopIfTrue="1">
+  <conditionalFormatting sqref="Q12:IS12 Q16:IS16 Q27:IS27 Q34:IS34 Q37:IS37 Q44:IS44 Q49:IS49">
+    <cfRule type="expression" dxfId="131" priority="1004" stopIfTrue="1">
       <formula>(P$6+1)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="1005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="1005" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G12),((P$6+1)&lt;($G12+($J12*$N12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="1006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1006" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G12),((P$6+1)&lt;=$H12))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:IS13 Q15:IS15 Q17:IS26 Q28:IS32 Q35:IS36 Q52:IS54 Q47:IS48 Q40:IS45 Q50:IS50">
-    <cfRule type="expression" dxfId="152" priority="1010" stopIfTrue="1">
+  <conditionalFormatting sqref="Q13:IS13 Q15:IS15 Q17:IS26 Q28:IS32 Q35:IS36 Q50:IS52 Q38:IS43 Q45:IS48">
+    <cfRule type="expression" dxfId="128" priority="1010" stopIfTrue="1">
       <formula>(P$6+1)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="1011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1011" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G13),((P$6+1)&lt;($G13+($J13*$N13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="1012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1012" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G13),((P$6+1)&lt;=$H13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="149" priority="661" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="661" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="662" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="662" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="663" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="663" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="146" priority="652" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="652" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="653" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="653" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="654" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="654" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="143" priority="643" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="643" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="644" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="644" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="645" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="645" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="140" priority="634" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="634" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="635" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="635" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="636" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="636" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="137" priority="514" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="514" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="515" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="516" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="516" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="134" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="523" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="524" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="524" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="525" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="525" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="131" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="469" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="470" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="470" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="471" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="471" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="128" priority="478" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="478" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="479" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="479" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="480" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="480" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="125" priority="451" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="451" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="452" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="452" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="453" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="453" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="122" priority="361" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="361" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="362" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="362" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="363" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="363" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="119" priority="343" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="343" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="344" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="345" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="116" priority="316" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="316" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="317" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="318" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="318" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="89" priority="298" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="299" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="300" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="cellIs" dxfId="86" priority="289" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="290" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="291" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="113" priority="298" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="280" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="281" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="282" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" dxfId="80" priority="271" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="272" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="273" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="cellIs" dxfId="77" priority="253" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="254" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="255" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="cellIs" dxfId="74" priority="244" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="245" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="246" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="cellIs" dxfId="71" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="68" priority="226" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="227" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="228" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="cellIs" dxfId="65" priority="217" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="218" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="219" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="62" priority="208" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="209" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="210" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="cellIs" dxfId="59" priority="199" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="200" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="201" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="56" priority="190" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="191" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="192" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="cellIs" dxfId="53" priority="163" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="164" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="165" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="50" priority="145" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="146" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="147" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="47" priority="139" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="140" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="141" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="44" priority="142" stopIfTrue="1">
+      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="143" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G14),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G14+($J14*$N14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="144" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G14),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:IS14">
+    <cfRule type="expression" dxfId="41" priority="136" stopIfTrue="1">
+      <formula>(P$6+1)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="137" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G14),((P$6+1)&lt;($G14+($J14*$N14))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="138" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G14),((P$6+1)&lt;=$H14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="38" priority="118" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="119" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="120" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="35" priority="109" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="110" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="111" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="32" priority="91" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="92" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="93" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="29" priority="82" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="83" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="84" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="26" priority="67" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="68" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="69" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="23" priority="73" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="20" priority="70" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="71" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="17" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="65" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="66" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="expression" dxfId="14" priority="61" stopIfTrue="1">
+      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="62" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G33+($J33*$N33))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="63" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33:IS33">
+    <cfRule type="expression" dxfId="11" priority="58" stopIfTrue="1">
+      <formula>(P$6+1)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="59" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;($G33+($J33*$N33))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="60" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;=$H33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="8" priority="55" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="56" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="57" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="110" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="46" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="290" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="47" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="291" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="107" priority="280" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="281" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="282" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="104" priority="271" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="272" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="273" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="101" priority="253" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="254" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="255" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="98" priority="244" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="245" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="246" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="95" priority="235" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="236" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="92" priority="226" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="227" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="228" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="89" priority="217" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="218" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="219" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="86" priority="208" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="209" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="210" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="83" priority="199" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="200" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="201" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="80" priority="190" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="191" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="48" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="77" priority="163" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="164" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="165" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="74" priority="145" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="146" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="147" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="71" priority="139" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="140" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="141" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="68" priority="142" stopIfTrue="1">
-      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="143" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G14),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G14+($J14*$N14))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="144" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G14),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:IS14">
-    <cfRule type="expression" dxfId="65" priority="136" stopIfTrue="1">
-      <formula>(P$6+1)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="137" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G14),((P$6+1)&lt;($G14+($J14*$N14))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="138" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G14),((P$6+1)&lt;=$H14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="62" priority="118" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="119" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="120" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="59" priority="109" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="110" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="111" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="56" priority="91" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="92" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="93" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="53" priority="82" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="83" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="84" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="50" priority="67" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="68" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="69" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="47" priority="73" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="74" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="75" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="44" priority="70" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="71" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="72" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="41" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="65" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="66" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="38" priority="61" stopIfTrue="1">
-      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="62" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G33+($J33*$N33))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="63" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q33:IS33">
-    <cfRule type="expression" dxfId="35" priority="58" stopIfTrue="1">
-      <formula>(P$6+1)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="59" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;($G33+($J33*$N33))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;=$H33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="32" priority="55" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="56" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="57" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="29" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="47" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="48" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
-      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G37),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G37+($J37*$N37))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G37),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H37))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37:IS37">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
-      <formula>(P$6+1)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G37),((P$6+1)&lt;($G37+($J37*$N37))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G37),((P$6+1)&lt;=$H37))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
-      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G38),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G38+($J38*$N38))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G38),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H38))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q38:IS38">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
-      <formula>(P$6+1)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G38),((P$6+1)&lt;($G38+($J38*$N38))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G38),((P$6+1)&lt;=$H38))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P49">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G49),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G49+($J49*$N49))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G49),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H49))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q49:IS49">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>(P$6+1)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G49),((P$6+1)&lt;($G49+($J49*$N49))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G49),((P$6+1)&lt;=$H49))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
@@ -19382,25 +18524,25 @@
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G12:H54">
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G12:H52">
       <formula1>32874</formula1>
       <formula2>55153</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N52">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J54">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J52">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B52">
       <formula1>$O$3:$O$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Gantt Chart'!$A$11:$N$53</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>Today's Date:</t>
   </si>
@@ -220,6 +220,12 @@
   <si>
     <t>Setup plan</t>
   </si>
+  <si>
+    <t>Present Thesis</t>
+  </si>
+  <si>
+    <t>Initial thesis draft</t>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,39 +879,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -917,6 +896,24 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -936,13 +933,156 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="150">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="23"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="60"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="23"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="48"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="37"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2875,13 +3015,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV52"/>
+  <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2906,38 +3046,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -2955,8 +3095,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2983,23 +3123,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="97">
+      <c r="F5" s="86">
         <v>42387</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="95" t="s">
+      <c r="M5" s="84" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3014,20 +3154,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="97">
+      <c r="F6" s="86">
         <f ca="1">TODAY()</f>
-        <v>42475</v>
-      </c>
-      <c r="G6" s="97"/>
+        <v>42485</v>
+      </c>
+      <c r="G6" s="86"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Friday</v>
+        <v>Monday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -3990,9 +4130,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -4952,9 +5092,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5198,732 +5338,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="85">
+      <c r="P9" s="99">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="85">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="99">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="85">
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="99">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="85">
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="99">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="85">
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="99">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="85">
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="101"/>
+      <c r="AY9" s="99">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="87"/>
-      <c r="BF9" s="85">
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="99">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="86"/>
-      <c r="BH9" s="86"/>
-      <c r="BI9" s="86"/>
-      <c r="BJ9" s="86"/>
-      <c r="BK9" s="86"/>
-      <c r="BL9" s="87"/>
-      <c r="BM9" s="85">
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="101"/>
+      <c r="BM9" s="99">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="86"/>
-      <c r="BO9" s="86"/>
-      <c r="BP9" s="86"/>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="85">
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="100"/>
+      <c r="BQ9" s="100"/>
+      <c r="BR9" s="100"/>
+      <c r="BS9" s="101"/>
+      <c r="BT9" s="99">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="86"/>
-      <c r="BV9" s="86"/>
-      <c r="BW9" s="86"/>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="86"/>
-      <c r="BZ9" s="87"/>
-      <c r="CA9" s="85">
+      <c r="BU9" s="100"/>
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="100"/>
+      <c r="BY9" s="100"/>
+      <c r="BZ9" s="101"/>
+      <c r="CA9" s="99">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="86"/>
-      <c r="CC9" s="86"/>
-      <c r="CD9" s="86"/>
-      <c r="CE9" s="86"/>
-      <c r="CF9" s="86"/>
-      <c r="CG9" s="87"/>
-      <c r="CH9" s="85">
+      <c r="CB9" s="100"/>
+      <c r="CC9" s="100"/>
+      <c r="CD9" s="100"/>
+      <c r="CE9" s="100"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="101"/>
+      <c r="CH9" s="99">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="86"/>
-      <c r="CJ9" s="86"/>
-      <c r="CK9" s="86"/>
-      <c r="CL9" s="86"/>
-      <c r="CM9" s="86"/>
-      <c r="CN9" s="87"/>
-      <c r="CO9" s="85">
+      <c r="CI9" s="100"/>
+      <c r="CJ9" s="100"/>
+      <c r="CK9" s="100"/>
+      <c r="CL9" s="100"/>
+      <c r="CM9" s="100"/>
+      <c r="CN9" s="101"/>
+      <c r="CO9" s="99">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="86"/>
-      <c r="CQ9" s="86"/>
-      <c r="CR9" s="86"/>
-      <c r="CS9" s="86"/>
-      <c r="CT9" s="86"/>
-      <c r="CU9" s="87"/>
-      <c r="CV9" s="85">
+      <c r="CP9" s="100"/>
+      <c r="CQ9" s="100"/>
+      <c r="CR9" s="100"/>
+      <c r="CS9" s="100"/>
+      <c r="CT9" s="100"/>
+      <c r="CU9" s="101"/>
+      <c r="CV9" s="99">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="86"/>
-      <c r="CX9" s="86"/>
-      <c r="CY9" s="86"/>
-      <c r="CZ9" s="86"/>
-      <c r="DA9" s="86"/>
-      <c r="DB9" s="87"/>
-      <c r="DC9" s="85">
+      <c r="CW9" s="100"/>
+      <c r="CX9" s="100"/>
+      <c r="CY9" s="100"/>
+      <c r="CZ9" s="100"/>
+      <c r="DA9" s="100"/>
+      <c r="DB9" s="101"/>
+      <c r="DC9" s="99">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="86"/>
-      <c r="DE9" s="86"/>
-      <c r="DF9" s="86"/>
-      <c r="DG9" s="86"/>
-      <c r="DH9" s="86"/>
-      <c r="DI9" s="87"/>
-      <c r="DJ9" s="85">
+      <c r="DD9" s="100"/>
+      <c r="DE9" s="100"/>
+      <c r="DF9" s="100"/>
+      <c r="DG9" s="100"/>
+      <c r="DH9" s="100"/>
+      <c r="DI9" s="101"/>
+      <c r="DJ9" s="99">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="86"/>
-      <c r="DL9" s="86"/>
-      <c r="DM9" s="86"/>
-      <c r="DN9" s="86"/>
-      <c r="DO9" s="86"/>
-      <c r="DP9" s="87"/>
-      <c r="DQ9" s="85">
+      <c r="DK9" s="100"/>
+      <c r="DL9" s="100"/>
+      <c r="DM9" s="100"/>
+      <c r="DN9" s="100"/>
+      <c r="DO9" s="100"/>
+      <c r="DP9" s="101"/>
+      <c r="DQ9" s="99">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="86"/>
-      <c r="DS9" s="86"/>
-      <c r="DT9" s="86"/>
-      <c r="DU9" s="86"/>
-      <c r="DV9" s="86"/>
-      <c r="DW9" s="87"/>
-      <c r="DX9" s="85">
+      <c r="DR9" s="100"/>
+      <c r="DS9" s="100"/>
+      <c r="DT9" s="100"/>
+      <c r="DU9" s="100"/>
+      <c r="DV9" s="100"/>
+      <c r="DW9" s="101"/>
+      <c r="DX9" s="99">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="86"/>
-      <c r="DZ9" s="86"/>
-      <c r="EA9" s="86"/>
-      <c r="EB9" s="86"/>
-      <c r="EC9" s="86"/>
-      <c r="ED9" s="87"/>
-      <c r="EE9" s="85">
+      <c r="DY9" s="100"/>
+      <c r="DZ9" s="100"/>
+      <c r="EA9" s="100"/>
+      <c r="EB9" s="100"/>
+      <c r="EC9" s="100"/>
+      <c r="ED9" s="101"/>
+      <c r="EE9" s="99">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="86"/>
-      <c r="EG9" s="86"/>
-      <c r="EH9" s="86"/>
-      <c r="EI9" s="86"/>
-      <c r="EJ9" s="86"/>
-      <c r="EK9" s="87"/>
-      <c r="EL9" s="85">
+      <c r="EF9" s="100"/>
+      <c r="EG9" s="100"/>
+      <c r="EH9" s="100"/>
+      <c r="EI9" s="100"/>
+      <c r="EJ9" s="100"/>
+      <c r="EK9" s="101"/>
+      <c r="EL9" s="99">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="86"/>
-      <c r="EN9" s="86"/>
-      <c r="EO9" s="86"/>
-      <c r="EP9" s="86"/>
-      <c r="EQ9" s="86"/>
-      <c r="ER9" s="87"/>
-      <c r="ES9" s="85">
+      <c r="EM9" s="100"/>
+      <c r="EN9" s="100"/>
+      <c r="EO9" s="100"/>
+      <c r="EP9" s="100"/>
+      <c r="EQ9" s="100"/>
+      <c r="ER9" s="101"/>
+      <c r="ES9" s="99">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="86"/>
-      <c r="EU9" s="86"/>
-      <c r="EV9" s="86"/>
-      <c r="EW9" s="86"/>
-      <c r="EX9" s="86"/>
-      <c r="EY9" s="87"/>
-      <c r="EZ9" s="85">
+      <c r="ET9" s="100"/>
+      <c r="EU9" s="100"/>
+      <c r="EV9" s="100"/>
+      <c r="EW9" s="100"/>
+      <c r="EX9" s="100"/>
+      <c r="EY9" s="101"/>
+      <c r="EZ9" s="99">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="86"/>
-      <c r="FB9" s="86"/>
-      <c r="FC9" s="86"/>
-      <c r="FD9" s="86"/>
-      <c r="FE9" s="86"/>
-      <c r="FF9" s="87"/>
-      <c r="FG9" s="85">
+      <c r="FA9" s="100"/>
+      <c r="FB9" s="100"/>
+      <c r="FC9" s="100"/>
+      <c r="FD9" s="100"/>
+      <c r="FE9" s="100"/>
+      <c r="FF9" s="101"/>
+      <c r="FG9" s="99">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="86"/>
-      <c r="FI9" s="86"/>
-      <c r="FJ9" s="86"/>
-      <c r="FK9" s="86"/>
-      <c r="FL9" s="86"/>
-      <c r="FM9" s="87"/>
-      <c r="FN9" s="85">
+      <c r="FH9" s="100"/>
+      <c r="FI9" s="100"/>
+      <c r="FJ9" s="100"/>
+      <c r="FK9" s="100"/>
+      <c r="FL9" s="100"/>
+      <c r="FM9" s="101"/>
+      <c r="FN9" s="99">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="86"/>
-      <c r="FP9" s="86"/>
-      <c r="FQ9" s="86"/>
-      <c r="FR9" s="86"/>
-      <c r="FS9" s="86"/>
-      <c r="FT9" s="87"/>
-      <c r="FU9" s="85">
+      <c r="FO9" s="100"/>
+      <c r="FP9" s="100"/>
+      <c r="FQ9" s="100"/>
+      <c r="FR9" s="100"/>
+      <c r="FS9" s="100"/>
+      <c r="FT9" s="101"/>
+      <c r="FU9" s="99">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="86"/>
-      <c r="FW9" s="86"/>
-      <c r="FX9" s="86"/>
-      <c r="FY9" s="86"/>
-      <c r="FZ9" s="86"/>
-      <c r="GA9" s="87"/>
-      <c r="GB9" s="85">
+      <c r="FV9" s="100"/>
+      <c r="FW9" s="100"/>
+      <c r="FX9" s="100"/>
+      <c r="FY9" s="100"/>
+      <c r="FZ9" s="100"/>
+      <c r="GA9" s="101"/>
+      <c r="GB9" s="99">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="86"/>
-      <c r="GD9" s="86"/>
-      <c r="GE9" s="86"/>
-      <c r="GF9" s="86"/>
-      <c r="GG9" s="86"/>
-      <c r="GH9" s="87"/>
-      <c r="GI9" s="85">
+      <c r="GC9" s="100"/>
+      <c r="GD9" s="100"/>
+      <c r="GE9" s="100"/>
+      <c r="GF9" s="100"/>
+      <c r="GG9" s="100"/>
+      <c r="GH9" s="101"/>
+      <c r="GI9" s="99">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="86"/>
-      <c r="GK9" s="86"/>
-      <c r="GL9" s="86"/>
-      <c r="GM9" s="86"/>
-      <c r="GN9" s="86"/>
-      <c r="GO9" s="87"/>
-      <c r="GP9" s="85">
+      <c r="GJ9" s="100"/>
+      <c r="GK9" s="100"/>
+      <c r="GL9" s="100"/>
+      <c r="GM9" s="100"/>
+      <c r="GN9" s="100"/>
+      <c r="GO9" s="101"/>
+      <c r="GP9" s="99">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="86"/>
-      <c r="GR9" s="86"/>
-      <c r="GS9" s="86"/>
-      <c r="GT9" s="86"/>
-      <c r="GU9" s="86"/>
-      <c r="GV9" s="87"/>
-      <c r="GW9" s="85">
+      <c r="GQ9" s="100"/>
+      <c r="GR9" s="100"/>
+      <c r="GS9" s="100"/>
+      <c r="GT9" s="100"/>
+      <c r="GU9" s="100"/>
+      <c r="GV9" s="101"/>
+      <c r="GW9" s="99">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="86"/>
-      <c r="GY9" s="86"/>
-      <c r="GZ9" s="86"/>
-      <c r="HA9" s="86"/>
-      <c r="HB9" s="86"/>
-      <c r="HC9" s="87"/>
-      <c r="HD9" s="85">
+      <c r="GX9" s="100"/>
+      <c r="GY9" s="100"/>
+      <c r="GZ9" s="100"/>
+      <c r="HA9" s="100"/>
+      <c r="HB9" s="100"/>
+      <c r="HC9" s="101"/>
+      <c r="HD9" s="99">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="86"/>
-      <c r="HF9" s="86"/>
-      <c r="HG9" s="86"/>
-      <c r="HH9" s="86"/>
-      <c r="HI9" s="86"/>
-      <c r="HJ9" s="87"/>
-      <c r="HK9" s="85">
+      <c r="HE9" s="100"/>
+      <c r="HF9" s="100"/>
+      <c r="HG9" s="100"/>
+      <c r="HH9" s="100"/>
+      <c r="HI9" s="100"/>
+      <c r="HJ9" s="101"/>
+      <c r="HK9" s="99">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="86"/>
-      <c r="HM9" s="86"/>
-      <c r="HN9" s="86"/>
-      <c r="HO9" s="86"/>
-      <c r="HP9" s="86"/>
-      <c r="HQ9" s="87"/>
-      <c r="HR9" s="85">
+      <c r="HL9" s="100"/>
+      <c r="HM9" s="100"/>
+      <c r="HN9" s="100"/>
+      <c r="HO9" s="100"/>
+      <c r="HP9" s="100"/>
+      <c r="HQ9" s="101"/>
+      <c r="HR9" s="99">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="86"/>
-      <c r="HT9" s="86"/>
-      <c r="HU9" s="86"/>
-      <c r="HV9" s="86"/>
-      <c r="HW9" s="86"/>
-      <c r="HX9" s="87"/>
-      <c r="HY9" s="85">
+      <c r="HS9" s="100"/>
+      <c r="HT9" s="100"/>
+      <c r="HU9" s="100"/>
+      <c r="HV9" s="100"/>
+      <c r="HW9" s="100"/>
+      <c r="HX9" s="101"/>
+      <c r="HY9" s="99">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="86"/>
-      <c r="IA9" s="86"/>
-      <c r="IB9" s="86"/>
-      <c r="IC9" s="86"/>
-      <c r="ID9" s="86"/>
-      <c r="IE9" s="87"/>
-      <c r="IF9" s="85">
+      <c r="HZ9" s="100"/>
+      <c r="IA9" s="100"/>
+      <c r="IB9" s="100"/>
+      <c r="IC9" s="100"/>
+      <c r="ID9" s="100"/>
+      <c r="IE9" s="101"/>
+      <c r="IF9" s="99">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="86"/>
-      <c r="IH9" s="86"/>
-      <c r="II9" s="86"/>
-      <c r="IJ9" s="86"/>
-      <c r="IK9" s="86"/>
-      <c r="IL9" s="87"/>
-      <c r="IM9" s="85">
+      <c r="IG9" s="100"/>
+      <c r="IH9" s="100"/>
+      <c r="II9" s="100"/>
+      <c r="IJ9" s="100"/>
+      <c r="IK9" s="100"/>
+      <c r="IL9" s="101"/>
+      <c r="IM9" s="99">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="86"/>
-      <c r="IO9" s="86"/>
-      <c r="IP9" s="86"/>
-      <c r="IQ9" s="86"/>
-      <c r="IR9" s="86"/>
-      <c r="IS9" s="87"/>
+      <c r="IN9" s="100"/>
+      <c r="IO9" s="100"/>
+      <c r="IP9" s="100"/>
+      <c r="IQ9" s="100"/>
+      <c r="IR9" s="100"/>
+      <c r="IS9" s="101"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
+      <c r="B10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="82">
+      <c r="P10" s="90">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="82">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="90">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="82">
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="90">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="82">
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="90">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="82">
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="91"/>
+      <c r="AO10" s="91"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="90">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="82">
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="90">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="82">
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="91"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="90">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="83"/>
-      <c r="BI10" s="83"/>
-      <c r="BJ10" s="83"/>
-      <c r="BK10" s="83"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="82">
+      <c r="BG10" s="91"/>
+      <c r="BH10" s="91"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="91"/>
+      <c r="BK10" s="91"/>
+      <c r="BL10" s="92"/>
+      <c r="BM10" s="90">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="83"/>
-      <c r="BP10" s="83"/>
-      <c r="BQ10" s="83"/>
-      <c r="BR10" s="83"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="82">
+      <c r="BN10" s="91"/>
+      <c r="BO10" s="91"/>
+      <c r="BP10" s="91"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="91"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="90">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="83"/>
-      <c r="BV10" s="83"/>
-      <c r="BW10" s="83"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="82">
+      <c r="BU10" s="91"/>
+      <c r="BV10" s="91"/>
+      <c r="BW10" s="91"/>
+      <c r="BX10" s="91"/>
+      <c r="BY10" s="91"/>
+      <c r="BZ10" s="92"/>
+      <c r="CA10" s="90">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="83"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="82">
+      <c r="CB10" s="91"/>
+      <c r="CC10" s="91"/>
+      <c r="CD10" s="91"/>
+      <c r="CE10" s="91"/>
+      <c r="CF10" s="91"/>
+      <c r="CG10" s="92"/>
+      <c r="CH10" s="90">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="83"/>
-      <c r="CK10" s="83"/>
-      <c r="CL10" s="83"/>
-      <c r="CM10" s="83"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="82">
+      <c r="CI10" s="91"/>
+      <c r="CJ10" s="91"/>
+      <c r="CK10" s="91"/>
+      <c r="CL10" s="91"/>
+      <c r="CM10" s="91"/>
+      <c r="CN10" s="92"/>
+      <c r="CO10" s="90">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="83"/>
-      <c r="CQ10" s="83"/>
-      <c r="CR10" s="83"/>
-      <c r="CS10" s="83"/>
-      <c r="CT10" s="83"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="82">
+      <c r="CP10" s="91"/>
+      <c r="CQ10" s="91"/>
+      <c r="CR10" s="91"/>
+      <c r="CS10" s="91"/>
+      <c r="CT10" s="91"/>
+      <c r="CU10" s="92"/>
+      <c r="CV10" s="90">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="83"/>
-      <c r="CX10" s="83"/>
-      <c r="CY10" s="83"/>
-      <c r="CZ10" s="83"/>
-      <c r="DA10" s="83"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="82">
+      <c r="CW10" s="91"/>
+      <c r="CX10" s="91"/>
+      <c r="CY10" s="91"/>
+      <c r="CZ10" s="91"/>
+      <c r="DA10" s="91"/>
+      <c r="DB10" s="92"/>
+      <c r="DC10" s="90">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="83"/>
-      <c r="DE10" s="83"/>
-      <c r="DF10" s="83"/>
-      <c r="DG10" s="83"/>
-      <c r="DH10" s="83"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="82">
+      <c r="DD10" s="91"/>
+      <c r="DE10" s="91"/>
+      <c r="DF10" s="91"/>
+      <c r="DG10" s="91"/>
+      <c r="DH10" s="91"/>
+      <c r="DI10" s="92"/>
+      <c r="DJ10" s="90">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="83"/>
-      <c r="DL10" s="83"/>
-      <c r="DM10" s="83"/>
-      <c r="DN10" s="83"/>
-      <c r="DO10" s="83"/>
-      <c r="DP10" s="84"/>
-      <c r="DQ10" s="82">
+      <c r="DK10" s="91"/>
+      <c r="DL10" s="91"/>
+      <c r="DM10" s="91"/>
+      <c r="DN10" s="91"/>
+      <c r="DO10" s="91"/>
+      <c r="DP10" s="92"/>
+      <c r="DQ10" s="90">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="83"/>
-      <c r="DS10" s="83"/>
-      <c r="DT10" s="83"/>
-      <c r="DU10" s="83"/>
-      <c r="DV10" s="83"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="82">
+      <c r="DR10" s="91"/>
+      <c r="DS10" s="91"/>
+      <c r="DT10" s="91"/>
+      <c r="DU10" s="91"/>
+      <c r="DV10" s="91"/>
+      <c r="DW10" s="92"/>
+      <c r="DX10" s="90">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="83"/>
-      <c r="DZ10" s="83"/>
-      <c r="EA10" s="83"/>
-      <c r="EB10" s="83"/>
-      <c r="EC10" s="83"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="82">
+      <c r="DY10" s="91"/>
+      <c r="DZ10" s="91"/>
+      <c r="EA10" s="91"/>
+      <c r="EB10" s="91"/>
+      <c r="EC10" s="91"/>
+      <c r="ED10" s="92"/>
+      <c r="EE10" s="90">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="83"/>
-      <c r="EG10" s="83"/>
-      <c r="EH10" s="83"/>
-      <c r="EI10" s="83"/>
-      <c r="EJ10" s="83"/>
-      <c r="EK10" s="84"/>
-      <c r="EL10" s="82">
+      <c r="EF10" s="91"/>
+      <c r="EG10" s="91"/>
+      <c r="EH10" s="91"/>
+      <c r="EI10" s="91"/>
+      <c r="EJ10" s="91"/>
+      <c r="EK10" s="92"/>
+      <c r="EL10" s="90">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="83"/>
-      <c r="EN10" s="83"/>
-      <c r="EO10" s="83"/>
-      <c r="EP10" s="83"/>
-      <c r="EQ10" s="83"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="82">
+      <c r="EM10" s="91"/>
+      <c r="EN10" s="91"/>
+      <c r="EO10" s="91"/>
+      <c r="EP10" s="91"/>
+      <c r="EQ10" s="91"/>
+      <c r="ER10" s="92"/>
+      <c r="ES10" s="90">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="83"/>
-      <c r="EU10" s="83"/>
-      <c r="EV10" s="83"/>
-      <c r="EW10" s="83"/>
-      <c r="EX10" s="83"/>
-      <c r="EY10" s="84"/>
-      <c r="EZ10" s="82">
+      <c r="ET10" s="91"/>
+      <c r="EU10" s="91"/>
+      <c r="EV10" s="91"/>
+      <c r="EW10" s="91"/>
+      <c r="EX10" s="91"/>
+      <c r="EY10" s="92"/>
+      <c r="EZ10" s="90">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="83"/>
-      <c r="FB10" s="83"/>
-      <c r="FC10" s="83"/>
-      <c r="FD10" s="83"/>
-      <c r="FE10" s="83"/>
-      <c r="FF10" s="84"/>
-      <c r="FG10" s="82">
+      <c r="FA10" s="91"/>
+      <c r="FB10" s="91"/>
+      <c r="FC10" s="91"/>
+      <c r="FD10" s="91"/>
+      <c r="FE10" s="91"/>
+      <c r="FF10" s="92"/>
+      <c r="FG10" s="90">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="83"/>
-      <c r="FI10" s="83"/>
-      <c r="FJ10" s="83"/>
-      <c r="FK10" s="83"/>
-      <c r="FL10" s="83"/>
-      <c r="FM10" s="84"/>
-      <c r="FN10" s="82">
+      <c r="FH10" s="91"/>
+      <c r="FI10" s="91"/>
+      <c r="FJ10" s="91"/>
+      <c r="FK10" s="91"/>
+      <c r="FL10" s="91"/>
+      <c r="FM10" s="92"/>
+      <c r="FN10" s="90">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="83"/>
-      <c r="FP10" s="83"/>
-      <c r="FQ10" s="83"/>
-      <c r="FR10" s="83"/>
-      <c r="FS10" s="83"/>
-      <c r="FT10" s="84"/>
-      <c r="FU10" s="82">
+      <c r="FO10" s="91"/>
+      <c r="FP10" s="91"/>
+      <c r="FQ10" s="91"/>
+      <c r="FR10" s="91"/>
+      <c r="FS10" s="91"/>
+      <c r="FT10" s="92"/>
+      <c r="FU10" s="90">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="83"/>
-      <c r="FW10" s="83"/>
-      <c r="FX10" s="83"/>
-      <c r="FY10" s="83"/>
-      <c r="FZ10" s="83"/>
-      <c r="GA10" s="84"/>
-      <c r="GB10" s="82">
+      <c r="FV10" s="91"/>
+      <c r="FW10" s="91"/>
+      <c r="FX10" s="91"/>
+      <c r="FY10" s="91"/>
+      <c r="FZ10" s="91"/>
+      <c r="GA10" s="92"/>
+      <c r="GB10" s="90">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="83"/>
-      <c r="GD10" s="83"/>
-      <c r="GE10" s="83"/>
-      <c r="GF10" s="83"/>
-      <c r="GG10" s="83"/>
-      <c r="GH10" s="84"/>
-      <c r="GI10" s="82">
+      <c r="GC10" s="91"/>
+      <c r="GD10" s="91"/>
+      <c r="GE10" s="91"/>
+      <c r="GF10" s="91"/>
+      <c r="GG10" s="91"/>
+      <c r="GH10" s="92"/>
+      <c r="GI10" s="90">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="83"/>
-      <c r="GK10" s="83"/>
-      <c r="GL10" s="83"/>
-      <c r="GM10" s="83"/>
-      <c r="GN10" s="83"/>
-      <c r="GO10" s="84"/>
-      <c r="GP10" s="82">
+      <c r="GJ10" s="91"/>
+      <c r="GK10" s="91"/>
+      <c r="GL10" s="91"/>
+      <c r="GM10" s="91"/>
+      <c r="GN10" s="91"/>
+      <c r="GO10" s="92"/>
+      <c r="GP10" s="90">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="83"/>
-      <c r="GR10" s="83"/>
-      <c r="GS10" s="83"/>
-      <c r="GT10" s="83"/>
-      <c r="GU10" s="83"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="82">
+      <c r="GQ10" s="91"/>
+      <c r="GR10" s="91"/>
+      <c r="GS10" s="91"/>
+      <c r="GT10" s="91"/>
+      <c r="GU10" s="91"/>
+      <c r="GV10" s="92"/>
+      <c r="GW10" s="90">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="83"/>
-      <c r="GY10" s="83"/>
-      <c r="GZ10" s="83"/>
-      <c r="HA10" s="83"/>
-      <c r="HB10" s="83"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="82">
+      <c r="GX10" s="91"/>
+      <c r="GY10" s="91"/>
+      <c r="GZ10" s="91"/>
+      <c r="HA10" s="91"/>
+      <c r="HB10" s="91"/>
+      <c r="HC10" s="92"/>
+      <c r="HD10" s="90">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="83"/>
-      <c r="HF10" s="83"/>
-      <c r="HG10" s="83"/>
-      <c r="HH10" s="83"/>
-      <c r="HI10" s="83"/>
-      <c r="HJ10" s="84"/>
-      <c r="HK10" s="82">
+      <c r="HE10" s="91"/>
+      <c r="HF10" s="91"/>
+      <c r="HG10" s="91"/>
+      <c r="HH10" s="91"/>
+      <c r="HI10" s="91"/>
+      <c r="HJ10" s="92"/>
+      <c r="HK10" s="90">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="83"/>
-      <c r="HM10" s="83"/>
-      <c r="HN10" s="83"/>
-      <c r="HO10" s="83"/>
-      <c r="HP10" s="83"/>
-      <c r="HQ10" s="84"/>
-      <c r="HR10" s="82">
+      <c r="HL10" s="91"/>
+      <c r="HM10" s="91"/>
+      <c r="HN10" s="91"/>
+      <c r="HO10" s="91"/>
+      <c r="HP10" s="91"/>
+      <c r="HQ10" s="92"/>
+      <c r="HR10" s="90">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="83"/>
-      <c r="HT10" s="83"/>
-      <c r="HU10" s="83"/>
-      <c r="HV10" s="83"/>
-      <c r="HW10" s="83"/>
-      <c r="HX10" s="84"/>
-      <c r="HY10" s="82">
+      <c r="HS10" s="91"/>
+      <c r="HT10" s="91"/>
+      <c r="HU10" s="91"/>
+      <c r="HV10" s="91"/>
+      <c r="HW10" s="91"/>
+      <c r="HX10" s="92"/>
+      <c r="HY10" s="90">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="83"/>
-      <c r="IA10" s="83"/>
-      <c r="IB10" s="83"/>
-      <c r="IC10" s="83"/>
-      <c r="ID10" s="83"/>
-      <c r="IE10" s="84"/>
-      <c r="IF10" s="82">
+      <c r="HZ10" s="91"/>
+      <c r="IA10" s="91"/>
+      <c r="IB10" s="91"/>
+      <c r="IC10" s="91"/>
+      <c r="ID10" s="91"/>
+      <c r="IE10" s="92"/>
+      <c r="IF10" s="90">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="83"/>
-      <c r="IH10" s="83"/>
-      <c r="II10" s="83"/>
-      <c r="IJ10" s="83"/>
-      <c r="IK10" s="83"/>
-      <c r="IL10" s="84"/>
-      <c r="IM10" s="82">
+      <c r="IG10" s="91"/>
+      <c r="IH10" s="91"/>
+      <c r="II10" s="91"/>
+      <c r="IJ10" s="91"/>
+      <c r="IK10" s="91"/>
+      <c r="IL10" s="92"/>
+      <c r="IM10" s="90">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="83"/>
-      <c r="IO10" s="83"/>
-      <c r="IP10" s="83"/>
-      <c r="IQ10" s="83"/>
-      <c r="IR10" s="83"/>
-      <c r="IS10" s="84"/>
+      <c r="IN10" s="91"/>
+      <c r="IO10" s="91"/>
+      <c r="IP10" s="91"/>
+      <c r="IQ10" s="91"/>
+      <c r="IR10" s="91"/>
+      <c r="IS10" s="92"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -5933,353 +6073,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="88">
+      <c r="P11" s="87">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="88">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="87">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="88">
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="87">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="88">
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="87">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="88">
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="87">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="88">
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="88"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="87">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="90"/>
-      <c r="BF11" s="88">
+      <c r="AZ11" s="88"/>
+      <c r="BA11" s="88"/>
+      <c r="BB11" s="88"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="87">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
-      <c r="BJ11" s="89"/>
-      <c r="BK11" s="89"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="88">
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="88"/>
+      <c r="BK11" s="88"/>
+      <c r="BL11" s="89"/>
+      <c r="BM11" s="87">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="89"/>
-      <c r="BS11" s="90"/>
-      <c r="BT11" s="88">
+      <c r="BN11" s="88"/>
+      <c r="BO11" s="88"/>
+      <c r="BP11" s="88"/>
+      <c r="BQ11" s="88"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="87">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
-      <c r="BX11" s="89"/>
-      <c r="BY11" s="89"/>
-      <c r="BZ11" s="90"/>
-      <c r="CA11" s="88">
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="89"/>
+      <c r="CA11" s="87">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="89"/>
-      <c r="CC11" s="89"/>
-      <c r="CD11" s="89"/>
-      <c r="CE11" s="89"/>
-      <c r="CF11" s="89"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="88">
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="89"/>
+      <c r="CH11" s="87">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="89"/>
-      <c r="CJ11" s="89"/>
-      <c r="CK11" s="89"/>
-      <c r="CL11" s="89"/>
-      <c r="CM11" s="89"/>
-      <c r="CN11" s="90"/>
-      <c r="CO11" s="88">
+      <c r="CI11" s="88"/>
+      <c r="CJ11" s="88"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="89"/>
+      <c r="CO11" s="87">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="89"/>
-      <c r="CQ11" s="89"/>
-      <c r="CR11" s="89"/>
-      <c r="CS11" s="89"/>
-      <c r="CT11" s="89"/>
-      <c r="CU11" s="90"/>
-      <c r="CV11" s="88">
+      <c r="CP11" s="88"/>
+      <c r="CQ11" s="88"/>
+      <c r="CR11" s="88"/>
+      <c r="CS11" s="88"/>
+      <c r="CT11" s="88"/>
+      <c r="CU11" s="89"/>
+      <c r="CV11" s="87">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="89"/>
-      <c r="CX11" s="89"/>
-      <c r="CY11" s="89"/>
-      <c r="CZ11" s="89"/>
-      <c r="DA11" s="89"/>
-      <c r="DB11" s="90"/>
-      <c r="DC11" s="88">
+      <c r="CW11" s="88"/>
+      <c r="CX11" s="88"/>
+      <c r="CY11" s="88"/>
+      <c r="CZ11" s="88"/>
+      <c r="DA11" s="88"/>
+      <c r="DB11" s="89"/>
+      <c r="DC11" s="87">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="89"/>
-      <c r="DE11" s="89"/>
-      <c r="DF11" s="89"/>
-      <c r="DG11" s="89"/>
-      <c r="DH11" s="89"/>
-      <c r="DI11" s="90"/>
-      <c r="DJ11" s="88">
+      <c r="DD11" s="88"/>
+      <c r="DE11" s="88"/>
+      <c r="DF11" s="88"/>
+      <c r="DG11" s="88"/>
+      <c r="DH11" s="88"/>
+      <c r="DI11" s="89"/>
+      <c r="DJ11" s="87">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="89"/>
-      <c r="DL11" s="89"/>
-      <c r="DM11" s="89"/>
-      <c r="DN11" s="89"/>
-      <c r="DO11" s="89"/>
-      <c r="DP11" s="90"/>
-      <c r="DQ11" s="88">
+      <c r="DK11" s="88"/>
+      <c r="DL11" s="88"/>
+      <c r="DM11" s="88"/>
+      <c r="DN11" s="88"/>
+      <c r="DO11" s="88"/>
+      <c r="DP11" s="89"/>
+      <c r="DQ11" s="87">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="89"/>
-      <c r="DS11" s="89"/>
-      <c r="DT11" s="89"/>
-      <c r="DU11" s="89"/>
-      <c r="DV11" s="89"/>
-      <c r="DW11" s="90"/>
-      <c r="DX11" s="88">
+      <c r="DR11" s="88"/>
+      <c r="DS11" s="88"/>
+      <c r="DT11" s="88"/>
+      <c r="DU11" s="88"/>
+      <c r="DV11" s="88"/>
+      <c r="DW11" s="89"/>
+      <c r="DX11" s="87">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="89"/>
-      <c r="DZ11" s="89"/>
-      <c r="EA11" s="89"/>
-      <c r="EB11" s="89"/>
-      <c r="EC11" s="89"/>
-      <c r="ED11" s="90"/>
-      <c r="EE11" s="88">
+      <c r="DY11" s="88"/>
+      <c r="DZ11" s="88"/>
+      <c r="EA11" s="88"/>
+      <c r="EB11" s="88"/>
+      <c r="EC11" s="88"/>
+      <c r="ED11" s="89"/>
+      <c r="EE11" s="87">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="89"/>
-      <c r="EG11" s="89"/>
-      <c r="EH11" s="89"/>
-      <c r="EI11" s="89"/>
-      <c r="EJ11" s="89"/>
-      <c r="EK11" s="90"/>
-      <c r="EL11" s="88">
+      <c r="EF11" s="88"/>
+      <c r="EG11" s="88"/>
+      <c r="EH11" s="88"/>
+      <c r="EI11" s="88"/>
+      <c r="EJ11" s="88"/>
+      <c r="EK11" s="89"/>
+      <c r="EL11" s="87">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="89"/>
-      <c r="EN11" s="89"/>
-      <c r="EO11" s="89"/>
-      <c r="EP11" s="89"/>
-      <c r="EQ11" s="89"/>
-      <c r="ER11" s="90"/>
-      <c r="ES11" s="88">
+      <c r="EM11" s="88"/>
+      <c r="EN11" s="88"/>
+      <c r="EO11" s="88"/>
+      <c r="EP11" s="88"/>
+      <c r="EQ11" s="88"/>
+      <c r="ER11" s="89"/>
+      <c r="ES11" s="87">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="89"/>
-      <c r="EU11" s="89"/>
-      <c r="EV11" s="89"/>
-      <c r="EW11" s="89"/>
-      <c r="EX11" s="89"/>
-      <c r="EY11" s="90"/>
-      <c r="EZ11" s="88">
+      <c r="ET11" s="88"/>
+      <c r="EU11" s="88"/>
+      <c r="EV11" s="88"/>
+      <c r="EW11" s="88"/>
+      <c r="EX11" s="88"/>
+      <c r="EY11" s="89"/>
+      <c r="EZ11" s="87">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="89"/>
-      <c r="FB11" s="89"/>
-      <c r="FC11" s="89"/>
-      <c r="FD11" s="89"/>
-      <c r="FE11" s="89"/>
-      <c r="FF11" s="90"/>
-      <c r="FG11" s="88">
+      <c r="FA11" s="88"/>
+      <c r="FB11" s="88"/>
+      <c r="FC11" s="88"/>
+      <c r="FD11" s="88"/>
+      <c r="FE11" s="88"/>
+      <c r="FF11" s="89"/>
+      <c r="FG11" s="87">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="89"/>
-      <c r="FI11" s="89"/>
-      <c r="FJ11" s="89"/>
-      <c r="FK11" s="89"/>
-      <c r="FL11" s="89"/>
-      <c r="FM11" s="90"/>
-      <c r="FN11" s="88">
+      <c r="FH11" s="88"/>
+      <c r="FI11" s="88"/>
+      <c r="FJ11" s="88"/>
+      <c r="FK11" s="88"/>
+      <c r="FL11" s="88"/>
+      <c r="FM11" s="89"/>
+      <c r="FN11" s="87">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="89"/>
-      <c r="FP11" s="89"/>
-      <c r="FQ11" s="89"/>
-      <c r="FR11" s="89"/>
-      <c r="FS11" s="89"/>
-      <c r="FT11" s="90"/>
-      <c r="FU11" s="88">
+      <c r="FO11" s="88"/>
+      <c r="FP11" s="88"/>
+      <c r="FQ11" s="88"/>
+      <c r="FR11" s="88"/>
+      <c r="FS11" s="88"/>
+      <c r="FT11" s="89"/>
+      <c r="FU11" s="87">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="89"/>
-      <c r="FW11" s="89"/>
-      <c r="FX11" s="89"/>
-      <c r="FY11" s="89"/>
-      <c r="FZ11" s="89"/>
-      <c r="GA11" s="90"/>
-      <c r="GB11" s="88">
+      <c r="FV11" s="88"/>
+      <c r="FW11" s="88"/>
+      <c r="FX11" s="88"/>
+      <c r="FY11" s="88"/>
+      <c r="FZ11" s="88"/>
+      <c r="GA11" s="89"/>
+      <c r="GB11" s="87">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="89"/>
-      <c r="GD11" s="89"/>
-      <c r="GE11" s="89"/>
-      <c r="GF11" s="89"/>
-      <c r="GG11" s="89"/>
-      <c r="GH11" s="90"/>
-      <c r="GI11" s="88">
+      <c r="GC11" s="88"/>
+      <c r="GD11" s="88"/>
+      <c r="GE11" s="88"/>
+      <c r="GF11" s="88"/>
+      <c r="GG11" s="88"/>
+      <c r="GH11" s="89"/>
+      <c r="GI11" s="87">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="89"/>
-      <c r="GK11" s="89"/>
-      <c r="GL11" s="89"/>
-      <c r="GM11" s="89"/>
-      <c r="GN11" s="89"/>
-      <c r="GO11" s="90"/>
-      <c r="GP11" s="88">
+      <c r="GJ11" s="88"/>
+      <c r="GK11" s="88"/>
+      <c r="GL11" s="88"/>
+      <c r="GM11" s="88"/>
+      <c r="GN11" s="88"/>
+      <c r="GO11" s="89"/>
+      <c r="GP11" s="87">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="89"/>
-      <c r="GR11" s="89"/>
-      <c r="GS11" s="89"/>
-      <c r="GT11" s="89"/>
-      <c r="GU11" s="89"/>
-      <c r="GV11" s="90"/>
-      <c r="GW11" s="88">
+      <c r="GQ11" s="88"/>
+      <c r="GR11" s="88"/>
+      <c r="GS11" s="88"/>
+      <c r="GT11" s="88"/>
+      <c r="GU11" s="88"/>
+      <c r="GV11" s="89"/>
+      <c r="GW11" s="87">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="89"/>
-      <c r="GY11" s="89"/>
-      <c r="GZ11" s="89"/>
-      <c r="HA11" s="89"/>
-      <c r="HB11" s="89"/>
-      <c r="HC11" s="90"/>
-      <c r="HD11" s="88">
+      <c r="GX11" s="88"/>
+      <c r="GY11" s="88"/>
+      <c r="GZ11" s="88"/>
+      <c r="HA11" s="88"/>
+      <c r="HB11" s="88"/>
+      <c r="HC11" s="89"/>
+      <c r="HD11" s="87">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="89"/>
-      <c r="HF11" s="89"/>
-      <c r="HG11" s="89"/>
-      <c r="HH11" s="89"/>
-      <c r="HI11" s="89"/>
-      <c r="HJ11" s="90"/>
-      <c r="HK11" s="88">
+      <c r="HE11" s="88"/>
+      <c r="HF11" s="88"/>
+      <c r="HG11" s="88"/>
+      <c r="HH11" s="88"/>
+      <c r="HI11" s="88"/>
+      <c r="HJ11" s="89"/>
+      <c r="HK11" s="87">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="89"/>
-      <c r="HM11" s="89"/>
-      <c r="HN11" s="89"/>
-      <c r="HO11" s="89"/>
-      <c r="HP11" s="89"/>
-      <c r="HQ11" s="90"/>
-      <c r="HR11" s="88">
+      <c r="HL11" s="88"/>
+      <c r="HM11" s="88"/>
+      <c r="HN11" s="88"/>
+      <c r="HO11" s="88"/>
+      <c r="HP11" s="88"/>
+      <c r="HQ11" s="89"/>
+      <c r="HR11" s="87">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="89"/>
-      <c r="HT11" s="89"/>
-      <c r="HU11" s="89"/>
-      <c r="HV11" s="89"/>
-      <c r="HW11" s="89"/>
-      <c r="HX11" s="90"/>
-      <c r="HY11" s="88">
+      <c r="HS11" s="88"/>
+      <c r="HT11" s="88"/>
+      <c r="HU11" s="88"/>
+      <c r="HV11" s="88"/>
+      <c r="HW11" s="88"/>
+      <c r="HX11" s="89"/>
+      <c r="HY11" s="87">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="89"/>
-      <c r="IA11" s="89"/>
-      <c r="IB11" s="89"/>
-      <c r="IC11" s="89"/>
-      <c r="ID11" s="89"/>
-      <c r="IE11" s="90"/>
-      <c r="IF11" s="88">
+      <c r="HZ11" s="88"/>
+      <c r="IA11" s="88"/>
+      <c r="IB11" s="88"/>
+      <c r="IC11" s="88"/>
+      <c r="ID11" s="88"/>
+      <c r="IE11" s="89"/>
+      <c r="IF11" s="87">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="89"/>
-      <c r="IH11" s="89"/>
-      <c r="II11" s="89"/>
-      <c r="IJ11" s="89"/>
-      <c r="IK11" s="89"/>
-      <c r="IL11" s="90"/>
-      <c r="IM11" s="88">
+      <c r="IG11" s="88"/>
+      <c r="IH11" s="88"/>
+      <c r="II11" s="88"/>
+      <c r="IJ11" s="88"/>
+      <c r="IK11" s="88"/>
+      <c r="IL11" s="89"/>
+      <c r="IM11" s="87">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="89"/>
-      <c r="IO11" s="89"/>
-      <c r="IP11" s="89"/>
-      <c r="IQ11" s="89"/>
-      <c r="IR11" s="89"/>
-      <c r="IS11" s="90"/>
+      <c r="IN11" s="88"/>
+      <c r="IO11" s="88"/>
+      <c r="IP11" s="88"/>
+      <c r="IQ11" s="88"/>
+      <c r="IR11" s="88"/>
+      <c r="IS11" s="89"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -7429,7 +7569,7 @@
         <v>42390</v>
       </c>
       <c r="H16" s="73">
-        <f t="shared" ref="H16:H52" ca="1" si="18">G16+J16-1</f>
+        <f t="shared" ref="H16:H53" ca="1" si="18">G16+J16-1</f>
         <v>42412</v>
       </c>
       <c r="I16" s="74" t="str">
@@ -10549,7 +10689,7 @@
       </c>
       <c r="I27" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H27,$F$6&gt;=G27),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J27" s="75">
         <f>MAX(H28:H32)-G27+1</f>
@@ -11683,7 +11823,7 @@
       </c>
       <c r="I31" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J31" s="62">
         <v>15</v>
@@ -12249,7 +12389,7 @@
       </c>
       <c r="I33" s="61" t="str">
         <f t="shared" ca="1" si="38"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J33" s="62">
         <v>4</v>
@@ -12530,7 +12670,7 @@
       </c>
       <c r="I34" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H34,$F$6&gt;=G34),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J34" s="75">
         <f>MAX(H35:H36)-G34+1</f>
@@ -12815,7 +12955,7 @@
       </c>
       <c r="I35" s="61" t="str">
         <f t="shared" ref="I35" ca="1" si="47">IF(AND($F$6&lt;=H35,$F$6&gt;=G35),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J35" s="62">
         <v>19</v>
@@ -13953,15 +14093,15 @@
         <v>3</v>
       </c>
       <c r="K39" s="63">
-        <f t="shared" ref="K39:K52" si="58">NETWORKDAYS(G39,H39)</f>
+        <f t="shared" ref="K39:K53" si="58">NETWORKDAYS(G39,H39)</f>
         <v>3</v>
       </c>
       <c r="L39" s="64">
-        <f t="shared" ref="L39:L52" si="59">ROUNDDOWN(N39*J39,0)</f>
+        <f t="shared" ref="L39:L53" si="59">ROUNDDOWN(N39*J39,0)</f>
         <v>0</v>
       </c>
       <c r="M39" s="63">
-        <f t="shared" ref="M39:M52" si="60">J39-L39</f>
+        <f t="shared" ref="M39:M53" si="60">J39-L39</f>
         <v>3</v>
       </c>
       <c r="N39" s="65">
@@ -14207,288 +14347,288 @@
       <c r="IR39" s="58"/>
       <c r="IS39" s="58"/>
     </row>
-    <row r="40" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A40" s="54" t="str">
+    <row r="40" spans="1:253" s="116" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A40" s="104" t="str">
         <f t="shared" ca="1" si="55"/>
         <v>5.3</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59">
-        <v>42506</v>
-      </c>
-      <c r="H40" s="60">
+      <c r="C40" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="109">
+        <v>42499</v>
+      </c>
+      <c r="H40" s="109">
         <f t="shared" ref="H40" si="61">G40+J40-1</f>
-        <v>42506</v>
-      </c>
-      <c r="I40" s="61" t="str">
+        <v>42499</v>
+      </c>
+      <c r="I40" s="110" t="str">
         <f t="shared" ref="I40" ca="1" si="62">IF(AND($F$6&lt;=H40,$F$6&gt;=G40),"V","")</f>
         <v/>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="111">
         <v>1</v>
       </c>
-      <c r="K40" s="63">
+      <c r="K40" s="112">
         <f t="shared" ref="K40" si="63">NETWORKDAYS(G40,H40)</f>
         <v>1</v>
       </c>
-      <c r="L40" s="64">
+      <c r="L40" s="113">
         <f t="shared" ref="L40" si="64">ROUNDDOWN(N40*J40,0)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="63">
+      <c r="M40" s="112">
         <f t="shared" ref="M40" si="65">J40-L40</f>
         <v>1</v>
       </c>
-      <c r="N40" s="65">
+      <c r="N40" s="114">
         <v>0</v>
       </c>
-      <c r="O40" s="66"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="58"/>
-      <c r="AG40" s="58"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="58"/>
-      <c r="AJ40" s="58"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="58"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="58"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="58"/>
-      <c r="BA40" s="58"/>
-      <c r="BB40" s="58"/>
-      <c r="BC40" s="58"/>
-      <c r="BD40" s="58"/>
-      <c r="BE40" s="58"/>
-      <c r="BF40" s="58"/>
-      <c r="BG40" s="58"/>
-      <c r="BH40" s="58"/>
-      <c r="BI40" s="58"/>
-      <c r="BJ40" s="58"/>
-      <c r="BK40" s="58"/>
-      <c r="BL40" s="58"/>
-      <c r="BM40" s="58"/>
-      <c r="BN40" s="58"/>
-      <c r="BO40" s="58"/>
-      <c r="BP40" s="58"/>
-      <c r="BQ40" s="58"/>
-      <c r="BR40" s="58"/>
-      <c r="BS40" s="58"/>
-      <c r="BT40" s="58"/>
-      <c r="BU40" s="58"/>
-      <c r="BV40" s="58"/>
-      <c r="BW40" s="58"/>
-      <c r="BX40" s="58"/>
-      <c r="BY40" s="58"/>
-      <c r="BZ40" s="58"/>
-      <c r="CA40" s="58"/>
-      <c r="CB40" s="58"/>
-      <c r="CC40" s="58"/>
-      <c r="CD40" s="58"/>
-      <c r="CE40" s="58"/>
-      <c r="CF40" s="58"/>
-      <c r="CG40" s="58"/>
-      <c r="CH40" s="58"/>
-      <c r="CI40" s="58"/>
-      <c r="CJ40" s="58"/>
-      <c r="CK40" s="58"/>
-      <c r="CL40" s="58"/>
-      <c r="CM40" s="58"/>
-      <c r="CN40" s="58"/>
-      <c r="CO40" s="58"/>
-      <c r="CP40" s="58"/>
-      <c r="CQ40" s="58"/>
-      <c r="CR40" s="58"/>
-      <c r="CS40" s="58"/>
-      <c r="CT40" s="58"/>
-      <c r="CU40" s="58"/>
-      <c r="CV40" s="58"/>
-      <c r="CW40" s="58"/>
-      <c r="CX40" s="58"/>
-      <c r="CY40" s="58"/>
-      <c r="CZ40" s="58"/>
-      <c r="DA40" s="58"/>
-      <c r="DB40" s="58"/>
-      <c r="DC40" s="58"/>
-      <c r="DD40" s="58"/>
-      <c r="DE40" s="58"/>
-      <c r="DF40" s="58"/>
-      <c r="DG40" s="58"/>
-      <c r="DH40" s="58"/>
-      <c r="DI40" s="58"/>
-      <c r="DJ40" s="58"/>
-      <c r="DK40" s="58"/>
-      <c r="DL40" s="58"/>
-      <c r="DM40" s="58"/>
-      <c r="DN40" s="58"/>
-      <c r="DO40" s="58"/>
-      <c r="DP40" s="58"/>
-      <c r="DQ40" s="58"/>
-      <c r="DR40" s="58"/>
-      <c r="DS40" s="58"/>
-      <c r="DT40" s="58"/>
-      <c r="DU40" s="58"/>
-      <c r="DV40" s="58"/>
-      <c r="DW40" s="58"/>
-      <c r="DX40" s="58"/>
-      <c r="DY40" s="58"/>
-      <c r="DZ40" s="58"/>
-      <c r="EA40" s="58"/>
-      <c r="EB40" s="58"/>
-      <c r="EC40" s="58"/>
-      <c r="ED40" s="58"/>
-      <c r="EE40" s="58"/>
-      <c r="EF40" s="58"/>
-      <c r="EG40" s="58"/>
-      <c r="EH40" s="58"/>
-      <c r="EI40" s="58"/>
-      <c r="EJ40" s="58"/>
-      <c r="EK40" s="58"/>
-      <c r="EL40" s="58"/>
-      <c r="EM40" s="58"/>
-      <c r="EN40" s="58"/>
-      <c r="EO40" s="58"/>
-      <c r="EP40" s="58"/>
-      <c r="EQ40" s="58"/>
-      <c r="ER40" s="58"/>
-      <c r="ES40" s="58"/>
-      <c r="ET40" s="58"/>
-      <c r="EU40" s="58"/>
-      <c r="EV40" s="58"/>
-      <c r="EW40" s="58"/>
-      <c r="EX40" s="58"/>
-      <c r="EY40" s="58"/>
-      <c r="EZ40" s="58"/>
-      <c r="FA40" s="58"/>
-      <c r="FB40" s="58"/>
-      <c r="FC40" s="58"/>
-      <c r="FD40" s="58"/>
-      <c r="FE40" s="58"/>
-      <c r="FF40" s="58"/>
-      <c r="FG40" s="58"/>
-      <c r="FH40" s="58"/>
-      <c r="FI40" s="58"/>
-      <c r="FJ40" s="58"/>
-      <c r="FK40" s="58"/>
-      <c r="FL40" s="58"/>
-      <c r="FM40" s="58"/>
-      <c r="FN40" s="58"/>
-      <c r="FO40" s="58"/>
-      <c r="FP40" s="58"/>
-      <c r="FQ40" s="58"/>
-      <c r="FR40" s="58"/>
-      <c r="FS40" s="58"/>
-      <c r="FT40" s="58"/>
-      <c r="FU40" s="58"/>
-      <c r="FV40" s="58"/>
-      <c r="FW40" s="58"/>
-      <c r="FX40" s="58"/>
-      <c r="FY40" s="58"/>
-      <c r="FZ40" s="58"/>
-      <c r="GA40" s="58"/>
-      <c r="GB40" s="58"/>
-      <c r="GC40" s="58"/>
-      <c r="GD40" s="58"/>
-      <c r="GE40" s="58"/>
-      <c r="GF40" s="58"/>
-      <c r="GG40" s="58"/>
-      <c r="GH40" s="58"/>
-      <c r="GI40" s="58"/>
-      <c r="GJ40" s="58"/>
-      <c r="GK40" s="58"/>
-      <c r="GL40" s="58"/>
-      <c r="GM40" s="58"/>
-      <c r="GN40" s="58"/>
-      <c r="GO40" s="58"/>
-      <c r="GP40" s="58"/>
-      <c r="GQ40" s="58"/>
-      <c r="GR40" s="58"/>
-      <c r="GS40" s="58"/>
-      <c r="GT40" s="58"/>
-      <c r="GU40" s="58"/>
-      <c r="GV40" s="58"/>
-      <c r="GW40" s="58"/>
-      <c r="GX40" s="58"/>
-      <c r="GY40" s="58"/>
-      <c r="GZ40" s="58"/>
-      <c r="HA40" s="58"/>
-      <c r="HB40" s="58"/>
-      <c r="HC40" s="58"/>
-      <c r="HD40" s="58"/>
-      <c r="HE40" s="58"/>
-      <c r="HF40" s="58"/>
-      <c r="HG40" s="58"/>
-      <c r="HH40" s="58"/>
-      <c r="HI40" s="58"/>
-      <c r="HJ40" s="58"/>
-      <c r="HK40" s="58"/>
-      <c r="HL40" s="58"/>
-      <c r="HM40" s="58"/>
-      <c r="HN40" s="58"/>
-      <c r="HO40" s="58"/>
-      <c r="HP40" s="58"/>
-      <c r="HQ40" s="58"/>
-      <c r="HR40" s="58"/>
-      <c r="HS40" s="58"/>
-      <c r="HT40" s="58"/>
-      <c r="HU40" s="58"/>
-      <c r="HV40" s="58"/>
-      <c r="HW40" s="58"/>
-      <c r="HX40" s="58"/>
-      <c r="HY40" s="58"/>
-      <c r="HZ40" s="58"/>
-      <c r="IA40" s="58"/>
-      <c r="IB40" s="58"/>
-      <c r="IC40" s="58"/>
-      <c r="ID40" s="58"/>
-      <c r="IE40" s="58"/>
-      <c r="IF40" s="58"/>
-      <c r="IG40" s="58"/>
-      <c r="IH40" s="58"/>
-      <c r="II40" s="58"/>
-      <c r="IJ40" s="58"/>
-      <c r="IK40" s="58"/>
-      <c r="IL40" s="58"/>
-      <c r="IM40" s="58"/>
-      <c r="IN40" s="58"/>
-      <c r="IO40" s="58"/>
-      <c r="IP40" s="58"/>
-      <c r="IQ40" s="58"/>
-      <c r="IR40" s="58"/>
-      <c r="IS40" s="58"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="108"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="108"/>
+      <c r="AN40" s="108"/>
+      <c r="AO40" s="108"/>
+      <c r="AP40" s="108"/>
+      <c r="AQ40" s="108"/>
+      <c r="AR40" s="108"/>
+      <c r="AS40" s="108"/>
+      <c r="AT40" s="108"/>
+      <c r="AU40" s="108"/>
+      <c r="AV40" s="108"/>
+      <c r="AW40" s="108"/>
+      <c r="AX40" s="108"/>
+      <c r="AY40" s="108"/>
+      <c r="AZ40" s="108"/>
+      <c r="BA40" s="108"/>
+      <c r="BB40" s="108"/>
+      <c r="BC40" s="108"/>
+      <c r="BD40" s="108"/>
+      <c r="BE40" s="108"/>
+      <c r="BF40" s="108"/>
+      <c r="BG40" s="108"/>
+      <c r="BH40" s="108"/>
+      <c r="BI40" s="108"/>
+      <c r="BJ40" s="108"/>
+      <c r="BK40" s="108"/>
+      <c r="BL40" s="108"/>
+      <c r="BM40" s="108"/>
+      <c r="BN40" s="108"/>
+      <c r="BO40" s="108"/>
+      <c r="BP40" s="108"/>
+      <c r="BQ40" s="108"/>
+      <c r="BR40" s="108"/>
+      <c r="BS40" s="108"/>
+      <c r="BT40" s="108"/>
+      <c r="BU40" s="108"/>
+      <c r="BV40" s="108"/>
+      <c r="BW40" s="108"/>
+      <c r="BX40" s="108"/>
+      <c r="BY40" s="108"/>
+      <c r="BZ40" s="108"/>
+      <c r="CA40" s="108"/>
+      <c r="CB40" s="108"/>
+      <c r="CC40" s="108"/>
+      <c r="CD40" s="108"/>
+      <c r="CE40" s="108"/>
+      <c r="CF40" s="108"/>
+      <c r="CG40" s="108"/>
+      <c r="CH40" s="108"/>
+      <c r="CI40" s="108"/>
+      <c r="CJ40" s="108"/>
+      <c r="CK40" s="108"/>
+      <c r="CL40" s="108"/>
+      <c r="CM40" s="108"/>
+      <c r="CN40" s="108"/>
+      <c r="CO40" s="108"/>
+      <c r="CP40" s="108"/>
+      <c r="CQ40" s="108"/>
+      <c r="CR40" s="108"/>
+      <c r="CS40" s="108"/>
+      <c r="CT40" s="108"/>
+      <c r="CU40" s="108"/>
+      <c r="CV40" s="108"/>
+      <c r="CW40" s="108"/>
+      <c r="CX40" s="108"/>
+      <c r="CY40" s="108"/>
+      <c r="CZ40" s="108"/>
+      <c r="DA40" s="108"/>
+      <c r="DB40" s="108"/>
+      <c r="DC40" s="108"/>
+      <c r="DD40" s="108"/>
+      <c r="DE40" s="108"/>
+      <c r="DF40" s="108"/>
+      <c r="DG40" s="108"/>
+      <c r="DH40" s="108"/>
+      <c r="DI40" s="108"/>
+      <c r="DJ40" s="108"/>
+      <c r="DK40" s="108"/>
+      <c r="DL40" s="108"/>
+      <c r="DM40" s="108"/>
+      <c r="DN40" s="108"/>
+      <c r="DO40" s="108"/>
+      <c r="DP40" s="108"/>
+      <c r="DQ40" s="108"/>
+      <c r="DR40" s="108"/>
+      <c r="DS40" s="108"/>
+      <c r="DT40" s="108"/>
+      <c r="DU40" s="108"/>
+      <c r="DV40" s="108"/>
+      <c r="DW40" s="108"/>
+      <c r="DX40" s="108"/>
+      <c r="DY40" s="108"/>
+      <c r="DZ40" s="108"/>
+      <c r="EA40" s="108"/>
+      <c r="EB40" s="108"/>
+      <c r="EC40" s="108"/>
+      <c r="ED40" s="108"/>
+      <c r="EE40" s="108"/>
+      <c r="EF40" s="108"/>
+      <c r="EG40" s="108"/>
+      <c r="EH40" s="108"/>
+      <c r="EI40" s="108"/>
+      <c r="EJ40" s="108"/>
+      <c r="EK40" s="108"/>
+      <c r="EL40" s="108"/>
+      <c r="EM40" s="108"/>
+      <c r="EN40" s="108"/>
+      <c r="EO40" s="108"/>
+      <c r="EP40" s="108"/>
+      <c r="EQ40" s="108"/>
+      <c r="ER40" s="108"/>
+      <c r="ES40" s="108"/>
+      <c r="ET40" s="108"/>
+      <c r="EU40" s="108"/>
+      <c r="EV40" s="108"/>
+      <c r="EW40" s="108"/>
+      <c r="EX40" s="108"/>
+      <c r="EY40" s="108"/>
+      <c r="EZ40" s="108"/>
+      <c r="FA40" s="108"/>
+      <c r="FB40" s="108"/>
+      <c r="FC40" s="108"/>
+      <c r="FD40" s="108"/>
+      <c r="FE40" s="108"/>
+      <c r="FF40" s="108"/>
+      <c r="FG40" s="108"/>
+      <c r="FH40" s="108"/>
+      <c r="FI40" s="108"/>
+      <c r="FJ40" s="108"/>
+      <c r="FK40" s="108"/>
+      <c r="FL40" s="108"/>
+      <c r="FM40" s="108"/>
+      <c r="FN40" s="108"/>
+      <c r="FO40" s="108"/>
+      <c r="FP40" s="108"/>
+      <c r="FQ40" s="108"/>
+      <c r="FR40" s="108"/>
+      <c r="FS40" s="108"/>
+      <c r="FT40" s="108"/>
+      <c r="FU40" s="108"/>
+      <c r="FV40" s="108"/>
+      <c r="FW40" s="108"/>
+      <c r="FX40" s="108"/>
+      <c r="FY40" s="108"/>
+      <c r="FZ40" s="108"/>
+      <c r="GA40" s="108"/>
+      <c r="GB40" s="108"/>
+      <c r="GC40" s="108"/>
+      <c r="GD40" s="108"/>
+      <c r="GE40" s="108"/>
+      <c r="GF40" s="108"/>
+      <c r="GG40" s="108"/>
+      <c r="GH40" s="108"/>
+      <c r="GI40" s="108"/>
+      <c r="GJ40" s="108"/>
+      <c r="GK40" s="108"/>
+      <c r="GL40" s="108"/>
+      <c r="GM40" s="108"/>
+      <c r="GN40" s="108"/>
+      <c r="GO40" s="108"/>
+      <c r="GP40" s="108"/>
+      <c r="GQ40" s="108"/>
+      <c r="GR40" s="108"/>
+      <c r="GS40" s="108"/>
+      <c r="GT40" s="108"/>
+      <c r="GU40" s="108"/>
+      <c r="GV40" s="108"/>
+      <c r="GW40" s="108"/>
+      <c r="GX40" s="108"/>
+      <c r="GY40" s="108"/>
+      <c r="GZ40" s="108"/>
+      <c r="HA40" s="108"/>
+      <c r="HB40" s="108"/>
+      <c r="HC40" s="108"/>
+      <c r="HD40" s="108"/>
+      <c r="HE40" s="108"/>
+      <c r="HF40" s="108"/>
+      <c r="HG40" s="108"/>
+      <c r="HH40" s="108"/>
+      <c r="HI40" s="108"/>
+      <c r="HJ40" s="108"/>
+      <c r="HK40" s="108"/>
+      <c r="HL40" s="108"/>
+      <c r="HM40" s="108"/>
+      <c r="HN40" s="108"/>
+      <c r="HO40" s="108"/>
+      <c r="HP40" s="108"/>
+      <c r="HQ40" s="108"/>
+      <c r="HR40" s="108"/>
+      <c r="HS40" s="108"/>
+      <c r="HT40" s="108"/>
+      <c r="HU40" s="108"/>
+      <c r="HV40" s="108"/>
+      <c r="HW40" s="108"/>
+      <c r="HX40" s="108"/>
+      <c r="HY40" s="108"/>
+      <c r="HZ40" s="108"/>
+      <c r="IA40" s="108"/>
+      <c r="IB40" s="108"/>
+      <c r="IC40" s="108"/>
+      <c r="ID40" s="108"/>
+      <c r="IE40" s="108"/>
+      <c r="IF40" s="108"/>
+      <c r="IG40" s="108"/>
+      <c r="IH40" s="108"/>
+      <c r="II40" s="108"/>
+      <c r="IJ40" s="108"/>
+      <c r="IK40" s="108"/>
+      <c r="IL40" s="108"/>
+      <c r="IM40" s="108"/>
+      <c r="IN40" s="108"/>
+      <c r="IO40" s="108"/>
+      <c r="IP40" s="108"/>
+      <c r="IQ40" s="108"/>
+      <c r="IR40" s="108"/>
+      <c r="IS40" s="108"/>
     </row>
     <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="54" t="str">
@@ -15363,7 +15503,7 @@
         <v/>
       </c>
       <c r="J44" s="75">
-        <f>MAX(H45:H48)-G44+1</f>
+        <f>MAX(H45:H49)-G44+1</f>
         <v>22</v>
       </c>
       <c r="K44" s="76">
@@ -15379,7 +15519,7 @@
         <v>22</v>
       </c>
       <c r="N44" s="78">
-        <f>SUMPRODUCT(J49:J53,N49:N53)/SUM(J49:J53)</f>
+        <f>SUMPRODUCT(J50:J54,N50:N54)/SUM(J50:J54)</f>
         <v>0</v>
       </c>
       <c r="O44" s="79"/>
@@ -15624,7 +15764,7 @@
     </row>
     <row r="45" spans="1:253" s="23" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="54" t="str">
-        <f t="shared" ref="A45:A48" ca="1" si="70">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A45,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))),OFFSET(A45,-1,0,1,1)&amp;".1",LEFT(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A45,-1,0,1,1),LEN(OFFSET(A45,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A45:A49" ca="1" si="70">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A45,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))),OFFSET(A45,-1,0,1,1)&amp;".1",LEFT(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A45,-1,0,1,1),LEN(OFFSET(A45,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A45,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A45,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
       <c r="B45" s="55" t="s">
@@ -16206,26 +16346,26 @@
         <v>42541</v>
       </c>
       <c r="H47" s="60">
-        <f t="shared" ref="H47" si="75">G47+J47-1</f>
+        <f t="shared" ref="H47:H48" si="75">G47+J47-1</f>
         <v>42541</v>
       </c>
       <c r="I47" s="61" t="str">
-        <f t="shared" ref="I47" ca="1" si="76">IF(AND($F$6&lt;=H47,$F$6&gt;=G47),"V","")</f>
+        <f t="shared" ref="I47:I48" ca="1" si="76">IF(AND($F$6&lt;=H47,$F$6&gt;=G47),"V","")</f>
         <v/>
       </c>
       <c r="J47" s="62">
         <v>1</v>
       </c>
       <c r="K47" s="63">
-        <f t="shared" ref="K47" si="77">NETWORKDAYS(G47,H47)</f>
+        <f t="shared" ref="K47:K48" si="77">NETWORKDAYS(G47,H47)</f>
         <v>1</v>
       </c>
       <c r="L47" s="64">
-        <f t="shared" ref="L47" si="78">ROUNDDOWN(N47*J47,0)</f>
+        <f t="shared" ref="L47:L48" si="78">ROUNDDOWN(N47*J47,0)</f>
         <v>0</v>
       </c>
       <c r="M47" s="63">
-        <f t="shared" ref="M47" si="79">J47-L47</f>
+        <f t="shared" ref="M47:M48" si="79">J47-L47</f>
         <v>1</v>
       </c>
       <c r="N47" s="65">
@@ -16489,26 +16629,26 @@
         <v>42527</v>
       </c>
       <c r="H48" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="75"/>
         <v>42540</v>
       </c>
       <c r="I48" s="61" t="str">
-        <f t="shared" ref="I48" ca="1" si="80">IF(AND($F$6&lt;=H48,$F$6&gt;=G48),"V","")</f>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="J48" s="62">
         <v>14</v>
       </c>
       <c r="K48" s="63">
-        <f t="shared" si="58"/>
+        <f t="shared" si="77"/>
         <v>10</v>
       </c>
       <c r="L48" s="64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M48" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="79"/>
         <v>14</v>
       </c>
       <c r="N48" s="65">
@@ -16754,611 +16894,611 @@
       <c r="IR48" s="58"/>
       <c r="IS48" s="58"/>
     </row>
-    <row r="49" spans="1:253" s="23" customFormat="1" ht="12">
-      <c r="A49" s="67">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A49,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))),VALUE(OFFSET(A49,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))-1))+1))</f>
+    <row r="49" spans="1:253" s="116" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A49" s="104" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v>6.5</v>
+      </c>
+      <c r="B49" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="109">
+        <v>42535</v>
+      </c>
+      <c r="H49" s="109">
+        <f t="shared" si="18"/>
+        <v>42535</v>
+      </c>
+      <c r="I49" s="110" t="str">
+        <f t="shared" ref="I49" ca="1" si="80">IF(AND($F$6&lt;=H49,$F$6&gt;=G49),"V","")</f>
+        <v/>
+      </c>
+      <c r="J49" s="111">
+        <v>1</v>
+      </c>
+      <c r="K49" s="112">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="L49" s="113">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="112">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="114">
+        <v>0</v>
+      </c>
+      <c r="O49" s="115"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="108"/>
+      <c r="Y49" s="108"/>
+      <c r="Z49" s="108"/>
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="108"/>
+      <c r="AC49" s="108"/>
+      <c r="AD49" s="108"/>
+      <c r="AE49" s="108"/>
+      <c r="AF49" s="108"/>
+      <c r="AG49" s="108"/>
+      <c r="AH49" s="108"/>
+      <c r="AI49" s="108"/>
+      <c r="AJ49" s="108"/>
+      <c r="AK49" s="108"/>
+      <c r="AL49" s="108"/>
+      <c r="AM49" s="108"/>
+      <c r="AN49" s="108"/>
+      <c r="AO49" s="108"/>
+      <c r="AP49" s="108"/>
+      <c r="AQ49" s="108"/>
+      <c r="AR49" s="108"/>
+      <c r="AS49" s="108"/>
+      <c r="AT49" s="108"/>
+      <c r="AU49" s="108"/>
+      <c r="AV49" s="108"/>
+      <c r="AW49" s="108"/>
+      <c r="AX49" s="108"/>
+      <c r="AY49" s="108"/>
+      <c r="AZ49" s="108"/>
+      <c r="BA49" s="108"/>
+      <c r="BB49" s="108"/>
+      <c r="BC49" s="108"/>
+      <c r="BD49" s="108"/>
+      <c r="BE49" s="108"/>
+      <c r="BF49" s="108"/>
+      <c r="BG49" s="108"/>
+      <c r="BH49" s="108"/>
+      <c r="BI49" s="108"/>
+      <c r="BJ49" s="108"/>
+      <c r="BK49" s="108"/>
+      <c r="BL49" s="108"/>
+      <c r="BM49" s="108"/>
+      <c r="BN49" s="108"/>
+      <c r="BO49" s="108"/>
+      <c r="BP49" s="108"/>
+      <c r="BQ49" s="108"/>
+      <c r="BR49" s="108"/>
+      <c r="BS49" s="108"/>
+      <c r="BT49" s="108"/>
+      <c r="BU49" s="108"/>
+      <c r="BV49" s="108"/>
+      <c r="BW49" s="108"/>
+      <c r="BX49" s="108"/>
+      <c r="BY49" s="108"/>
+      <c r="BZ49" s="108"/>
+      <c r="CA49" s="108"/>
+      <c r="CB49" s="108"/>
+      <c r="CC49" s="108"/>
+      <c r="CD49" s="108"/>
+      <c r="CE49" s="108"/>
+      <c r="CF49" s="108"/>
+      <c r="CG49" s="108"/>
+      <c r="CH49" s="108"/>
+      <c r="CI49" s="108"/>
+      <c r="CJ49" s="108"/>
+      <c r="CK49" s="108"/>
+      <c r="CL49" s="108"/>
+      <c r="CM49" s="108"/>
+      <c r="CN49" s="108"/>
+      <c r="CO49" s="108"/>
+      <c r="CP49" s="108"/>
+      <c r="CQ49" s="108"/>
+      <c r="CR49" s="108"/>
+      <c r="CS49" s="108"/>
+      <c r="CT49" s="108"/>
+      <c r="CU49" s="108"/>
+      <c r="CV49" s="108"/>
+      <c r="CW49" s="108"/>
+      <c r="CX49" s="108"/>
+      <c r="CY49" s="108"/>
+      <c r="CZ49" s="108"/>
+      <c r="DA49" s="108"/>
+      <c r="DB49" s="108"/>
+      <c r="DC49" s="108"/>
+      <c r="DD49" s="108"/>
+      <c r="DE49" s="108"/>
+      <c r="DF49" s="108"/>
+      <c r="DG49" s="108"/>
+      <c r="DH49" s="108"/>
+      <c r="DI49" s="108"/>
+      <c r="DJ49" s="108"/>
+      <c r="DK49" s="108"/>
+      <c r="DL49" s="108"/>
+      <c r="DM49" s="108"/>
+      <c r="DN49" s="108"/>
+      <c r="DO49" s="108"/>
+      <c r="DP49" s="108"/>
+      <c r="DQ49" s="108"/>
+      <c r="DR49" s="108"/>
+      <c r="DS49" s="108"/>
+      <c r="DT49" s="108"/>
+      <c r="DU49" s="108"/>
+      <c r="DV49" s="108"/>
+      <c r="DW49" s="108"/>
+      <c r="DX49" s="108"/>
+      <c r="DY49" s="108"/>
+      <c r="DZ49" s="108"/>
+      <c r="EA49" s="108"/>
+      <c r="EB49" s="108"/>
+      <c r="EC49" s="108"/>
+      <c r="ED49" s="108"/>
+      <c r="EE49" s="108"/>
+      <c r="EF49" s="108"/>
+      <c r="EG49" s="108"/>
+      <c r="EH49" s="108"/>
+      <c r="EI49" s="108"/>
+      <c r="EJ49" s="108"/>
+      <c r="EK49" s="108"/>
+      <c r="EL49" s="108"/>
+      <c r="EM49" s="108"/>
+      <c r="EN49" s="108"/>
+      <c r="EO49" s="108"/>
+      <c r="EP49" s="108"/>
+      <c r="EQ49" s="108"/>
+      <c r="ER49" s="108"/>
+      <c r="ES49" s="108"/>
+      <c r="ET49" s="108"/>
+      <c r="EU49" s="108"/>
+      <c r="EV49" s="108"/>
+      <c r="EW49" s="108"/>
+      <c r="EX49" s="108"/>
+      <c r="EY49" s="108"/>
+      <c r="EZ49" s="108"/>
+      <c r="FA49" s="108"/>
+      <c r="FB49" s="108"/>
+      <c r="FC49" s="108"/>
+      <c r="FD49" s="108"/>
+      <c r="FE49" s="108"/>
+      <c r="FF49" s="108"/>
+      <c r="FG49" s="108"/>
+      <c r="FH49" s="108"/>
+      <c r="FI49" s="108"/>
+      <c r="FJ49" s="108"/>
+      <c r="FK49" s="108"/>
+      <c r="FL49" s="108"/>
+      <c r="FM49" s="108"/>
+      <c r="FN49" s="108"/>
+      <c r="FO49" s="108"/>
+      <c r="FP49" s="108"/>
+      <c r="FQ49" s="108"/>
+      <c r="FR49" s="108"/>
+      <c r="FS49" s="108"/>
+      <c r="FT49" s="108"/>
+      <c r="FU49" s="108"/>
+      <c r="FV49" s="108"/>
+      <c r="FW49" s="108"/>
+      <c r="FX49" s="108"/>
+      <c r="FY49" s="108"/>
+      <c r="FZ49" s="108"/>
+      <c r="GA49" s="108"/>
+      <c r="GB49" s="108"/>
+      <c r="GC49" s="108"/>
+      <c r="GD49" s="108"/>
+      <c r="GE49" s="108"/>
+      <c r="GF49" s="108"/>
+      <c r="GG49" s="108"/>
+      <c r="GH49" s="108"/>
+      <c r="GI49" s="108"/>
+      <c r="GJ49" s="108"/>
+      <c r="GK49" s="108"/>
+      <c r="GL49" s="108"/>
+      <c r="GM49" s="108"/>
+      <c r="GN49" s="108"/>
+      <c r="GO49" s="108"/>
+      <c r="GP49" s="108"/>
+      <c r="GQ49" s="108"/>
+      <c r="GR49" s="108"/>
+      <c r="GS49" s="108"/>
+      <c r="GT49" s="108"/>
+      <c r="GU49" s="108"/>
+      <c r="GV49" s="108"/>
+      <c r="GW49" s="108"/>
+      <c r="GX49" s="108"/>
+      <c r="GY49" s="108"/>
+      <c r="GZ49" s="108"/>
+      <c r="HA49" s="108"/>
+      <c r="HB49" s="108"/>
+      <c r="HC49" s="108"/>
+      <c r="HD49" s="108"/>
+      <c r="HE49" s="108"/>
+      <c r="HF49" s="108"/>
+      <c r="HG49" s="108"/>
+      <c r="HH49" s="108"/>
+      <c r="HI49" s="108"/>
+      <c r="HJ49" s="108"/>
+      <c r="HK49" s="108"/>
+      <c r="HL49" s="108"/>
+      <c r="HM49" s="108"/>
+      <c r="HN49" s="108"/>
+      <c r="HO49" s="108"/>
+      <c r="HP49" s="108"/>
+      <c r="HQ49" s="108"/>
+      <c r="HR49" s="108"/>
+      <c r="HS49" s="108"/>
+      <c r="HT49" s="108"/>
+      <c r="HU49" s="108"/>
+      <c r="HV49" s="108"/>
+      <c r="HW49" s="108"/>
+      <c r="HX49" s="108"/>
+      <c r="HY49" s="108"/>
+      <c r="HZ49" s="108"/>
+      <c r="IA49" s="108"/>
+      <c r="IB49" s="108"/>
+      <c r="IC49" s="108"/>
+      <c r="ID49" s="108"/>
+      <c r="IE49" s="108"/>
+      <c r="IF49" s="108"/>
+      <c r="IG49" s="108"/>
+      <c r="IH49" s="108"/>
+      <c r="II49" s="108"/>
+      <c r="IJ49" s="108"/>
+      <c r="IK49" s="108"/>
+      <c r="IL49" s="108"/>
+      <c r="IM49" s="108"/>
+      <c r="IN49" s="108"/>
+      <c r="IO49" s="108"/>
+      <c r="IP49" s="108"/>
+      <c r="IQ49" s="108"/>
+      <c r="IR49" s="108"/>
+      <c r="IS49" s="108"/>
+    </row>
+    <row r="50" spans="1:253" s="23" customFormat="1" ht="12">
+      <c r="A50" s="67">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),1,IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),VALUE(OFFSET(A50,-1,0,1,1))+1,VALUE(LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1))+1))</f>
         <v>7</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69" t="s">
+      <c r="B50" s="68"/>
+      <c r="C50" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72">
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72">
         <v>42541</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H50" s="73">
         <f t="shared" si="18"/>
         <v>42549</v>
       </c>
-      <c r="I49" s="74" t="str">
-        <f ca="1">IF(AND($F$6&lt;=H49,$F$6&gt;=G49),"V","")</f>
+      <c r="I50" s="74" t="str">
+        <f ca="1">IF(AND($F$6&lt;=H50,$F$6&gt;=G50),"V","")</f>
         <v/>
       </c>
-      <c r="J49" s="75">
-        <f>MAX(H50:H52)-G49+1</f>
+      <c r="J50" s="75">
+        <f>MAX(H51:H53)-G50+1</f>
         <v>9</v>
       </c>
-      <c r="K49" s="76">
+      <c r="K50" s="76">
         <f t="shared" si="58"/>
         <v>7</v>
       </c>
-      <c r="L49" s="77">
+      <c r="L50" s="77">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="M49" s="76">
+      <c r="M50" s="76">
         <f t="shared" si="60"/>
         <v>9</v>
       </c>
-      <c r="N49" s="78">
-        <f>SUMPRODUCT(J50:J52,N50:N52)/SUM(J50:J52)</f>
+      <c r="N50" s="78">
+        <f>SUMPRODUCT(J51:J53,N51:N53)/SUM(J51:J53)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="79"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="71"/>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AF49" s="71"/>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="71"/>
-      <c r="AP49" s="71"/>
-      <c r="AQ49" s="71"/>
-      <c r="AR49" s="71"/>
-      <c r="AS49" s="71"/>
-      <c r="AT49" s="71"/>
-      <c r="AU49" s="71"/>
-      <c r="AV49" s="71"/>
-      <c r="AW49" s="71"/>
-      <c r="AX49" s="71"/>
-      <c r="AY49" s="71"/>
-      <c r="AZ49" s="71"/>
-      <c r="BA49" s="71"/>
-      <c r="BB49" s="71"/>
-      <c r="BC49" s="71"/>
-      <c r="BD49" s="71"/>
-      <c r="BE49" s="71"/>
-      <c r="BF49" s="71"/>
-      <c r="BG49" s="71"/>
-      <c r="BH49" s="71"/>
-      <c r="BI49" s="71"/>
-      <c r="BJ49" s="71"/>
-      <c r="BK49" s="71"/>
-      <c r="BL49" s="71"/>
-      <c r="BM49" s="71"/>
-      <c r="BN49" s="71"/>
-      <c r="BO49" s="71"/>
-      <c r="BP49" s="71"/>
-      <c r="BQ49" s="71"/>
-      <c r="BR49" s="71"/>
-      <c r="BS49" s="71"/>
-      <c r="BT49" s="71"/>
-      <c r="BU49" s="71"/>
-      <c r="BV49" s="71"/>
-      <c r="BW49" s="71"/>
-      <c r="BX49" s="71"/>
-      <c r="BY49" s="71"/>
-      <c r="BZ49" s="71"/>
-      <c r="CA49" s="71"/>
-      <c r="CB49" s="71"/>
-      <c r="CC49" s="71"/>
-      <c r="CD49" s="71"/>
-      <c r="CE49" s="71"/>
-      <c r="CF49" s="71"/>
-      <c r="CG49" s="71"/>
-      <c r="CH49" s="71"/>
-      <c r="CI49" s="71"/>
-      <c r="CJ49" s="71"/>
-      <c r="CK49" s="71"/>
-      <c r="CL49" s="71"/>
-      <c r="CM49" s="71"/>
-      <c r="CN49" s="71"/>
-      <c r="CO49" s="71"/>
-      <c r="CP49" s="71"/>
-      <c r="CQ49" s="71"/>
-      <c r="CR49" s="71"/>
-      <c r="CS49" s="71"/>
-      <c r="CT49" s="71"/>
-      <c r="CU49" s="71"/>
-      <c r="CV49" s="71"/>
-      <c r="CW49" s="71"/>
-      <c r="CX49" s="71"/>
-      <c r="CY49" s="71"/>
-      <c r="CZ49" s="71"/>
-      <c r="DA49" s="71"/>
-      <c r="DB49" s="71"/>
-      <c r="DC49" s="71"/>
-      <c r="DD49" s="71"/>
-      <c r="DE49" s="71"/>
-      <c r="DF49" s="71"/>
-      <c r="DG49" s="71"/>
-      <c r="DH49" s="71"/>
-      <c r="DI49" s="71"/>
-      <c r="DJ49" s="71"/>
-      <c r="DK49" s="71"/>
-      <c r="DL49" s="71"/>
-      <c r="DM49" s="71"/>
-      <c r="DN49" s="71"/>
-      <c r="DO49" s="71"/>
-      <c r="DP49" s="71"/>
-      <c r="DQ49" s="71"/>
-      <c r="DR49" s="71"/>
-      <c r="DS49" s="71"/>
-      <c r="DT49" s="71"/>
-      <c r="DU49" s="71"/>
-      <c r="DV49" s="71"/>
-      <c r="DW49" s="71"/>
-      <c r="DX49" s="71"/>
-      <c r="DY49" s="71"/>
-      <c r="DZ49" s="71"/>
-      <c r="EA49" s="71"/>
-      <c r="EB49" s="71"/>
-      <c r="EC49" s="71"/>
-      <c r="ED49" s="71"/>
-      <c r="EE49" s="71"/>
-      <c r="EF49" s="71"/>
-      <c r="EG49" s="71"/>
-      <c r="EH49" s="71"/>
-      <c r="EI49" s="71"/>
-      <c r="EJ49" s="71"/>
-      <c r="EK49" s="71"/>
-      <c r="EL49" s="71"/>
-      <c r="EM49" s="71"/>
-      <c r="EN49" s="71"/>
-      <c r="EO49" s="71"/>
-      <c r="EP49" s="71"/>
-      <c r="EQ49" s="71"/>
-      <c r="ER49" s="71"/>
-      <c r="ES49" s="71"/>
-      <c r="ET49" s="71"/>
-      <c r="EU49" s="71"/>
-      <c r="EV49" s="71"/>
-      <c r="EW49" s="71"/>
-      <c r="EX49" s="71"/>
-      <c r="EY49" s="71"/>
-      <c r="EZ49" s="71"/>
-      <c r="FA49" s="71"/>
-      <c r="FB49" s="71"/>
-      <c r="FC49" s="71"/>
-      <c r="FD49" s="71"/>
-      <c r="FE49" s="71"/>
-      <c r="FF49" s="71"/>
-      <c r="FG49" s="71"/>
-      <c r="FH49" s="71"/>
-      <c r="FI49" s="71"/>
-      <c r="FJ49" s="71"/>
-      <c r="FK49" s="71"/>
-      <c r="FL49" s="71"/>
-      <c r="FM49" s="71"/>
-      <c r="FN49" s="71"/>
-      <c r="FO49" s="71"/>
-      <c r="FP49" s="71"/>
-      <c r="FQ49" s="71"/>
-      <c r="FR49" s="71"/>
-      <c r="FS49" s="71"/>
-      <c r="FT49" s="71"/>
-      <c r="FU49" s="71"/>
-      <c r="FV49" s="71"/>
-      <c r="FW49" s="71"/>
-      <c r="FX49" s="71"/>
-      <c r="FY49" s="71"/>
-      <c r="FZ49" s="71"/>
-      <c r="GA49" s="71"/>
-      <c r="GB49" s="71"/>
-      <c r="GC49" s="71"/>
-      <c r="GD49" s="71"/>
-      <c r="GE49" s="71"/>
-      <c r="GF49" s="71"/>
-      <c r="GG49" s="71"/>
-      <c r="GH49" s="71"/>
-      <c r="GI49" s="71"/>
-      <c r="GJ49" s="71"/>
-      <c r="GK49" s="71"/>
-      <c r="GL49" s="71"/>
-      <c r="GM49" s="71"/>
-      <c r="GN49" s="71"/>
-      <c r="GO49" s="71"/>
-      <c r="GP49" s="71"/>
-      <c r="GQ49" s="71"/>
-      <c r="GR49" s="71"/>
-      <c r="GS49" s="71"/>
-      <c r="GT49" s="71"/>
-      <c r="GU49" s="71"/>
-      <c r="GV49" s="71"/>
-      <c r="GW49" s="71"/>
-      <c r="GX49" s="71"/>
-      <c r="GY49" s="71"/>
-      <c r="GZ49" s="71"/>
-      <c r="HA49" s="71"/>
-      <c r="HB49" s="71"/>
-      <c r="HC49" s="71"/>
-      <c r="HD49" s="71"/>
-      <c r="HE49" s="71"/>
-      <c r="HF49" s="71"/>
-      <c r="HG49" s="71"/>
-      <c r="HH49" s="71"/>
-      <c r="HI49" s="71"/>
-      <c r="HJ49" s="71"/>
-      <c r="HK49" s="71"/>
-      <c r="HL49" s="71"/>
-      <c r="HM49" s="71"/>
-      <c r="HN49" s="71"/>
-      <c r="HO49" s="71"/>
-      <c r="HP49" s="71"/>
-      <c r="HQ49" s="71"/>
-      <c r="HR49" s="71"/>
-      <c r="HS49" s="71"/>
-      <c r="HT49" s="71"/>
-      <c r="HU49" s="71"/>
-      <c r="HV49" s="71"/>
-      <c r="HW49" s="71"/>
-      <c r="HX49" s="71"/>
-      <c r="HY49" s="71"/>
-      <c r="HZ49" s="71"/>
-      <c r="IA49" s="71"/>
-      <c r="IB49" s="71"/>
-      <c r="IC49" s="71"/>
-      <c r="ID49" s="71"/>
-      <c r="IE49" s="71"/>
-      <c r="IF49" s="71"/>
-      <c r="IG49" s="71"/>
-      <c r="IH49" s="71"/>
-      <c r="II49" s="71"/>
-      <c r="IJ49" s="71"/>
-      <c r="IK49" s="71"/>
-      <c r="IL49" s="71"/>
-      <c r="IM49" s="71"/>
-      <c r="IN49" s="71"/>
-      <c r="IO49" s="71"/>
-      <c r="IP49" s="71"/>
-      <c r="IQ49" s="71"/>
-      <c r="IR49" s="71"/>
-      <c r="IS49" s="71"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="71"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="71"/>
+      <c r="AI50" s="71"/>
+      <c r="AJ50" s="71"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="71"/>
+      <c r="AN50" s="71"/>
+      <c r="AO50" s="71"/>
+      <c r="AP50" s="71"/>
+      <c r="AQ50" s="71"/>
+      <c r="AR50" s="71"/>
+      <c r="AS50" s="71"/>
+      <c r="AT50" s="71"/>
+      <c r="AU50" s="71"/>
+      <c r="AV50" s="71"/>
+      <c r="AW50" s="71"/>
+      <c r="AX50" s="71"/>
+      <c r="AY50" s="71"/>
+      <c r="AZ50" s="71"/>
+      <c r="BA50" s="71"/>
+      <c r="BB50" s="71"/>
+      <c r="BC50" s="71"/>
+      <c r="BD50" s="71"/>
+      <c r="BE50" s="71"/>
+      <c r="BF50" s="71"/>
+      <c r="BG50" s="71"/>
+      <c r="BH50" s="71"/>
+      <c r="BI50" s="71"/>
+      <c r="BJ50" s="71"/>
+      <c r="BK50" s="71"/>
+      <c r="BL50" s="71"/>
+      <c r="BM50" s="71"/>
+      <c r="BN50" s="71"/>
+      <c r="BO50" s="71"/>
+      <c r="BP50" s="71"/>
+      <c r="BQ50" s="71"/>
+      <c r="BR50" s="71"/>
+      <c r="BS50" s="71"/>
+      <c r="BT50" s="71"/>
+      <c r="BU50" s="71"/>
+      <c r="BV50" s="71"/>
+      <c r="BW50" s="71"/>
+      <c r="BX50" s="71"/>
+      <c r="BY50" s="71"/>
+      <c r="BZ50" s="71"/>
+      <c r="CA50" s="71"/>
+      <c r="CB50" s="71"/>
+      <c r="CC50" s="71"/>
+      <c r="CD50" s="71"/>
+      <c r="CE50" s="71"/>
+      <c r="CF50" s="71"/>
+      <c r="CG50" s="71"/>
+      <c r="CH50" s="71"/>
+      <c r="CI50" s="71"/>
+      <c r="CJ50" s="71"/>
+      <c r="CK50" s="71"/>
+      <c r="CL50" s="71"/>
+      <c r="CM50" s="71"/>
+      <c r="CN50" s="71"/>
+      <c r="CO50" s="71"/>
+      <c r="CP50" s="71"/>
+      <c r="CQ50" s="71"/>
+      <c r="CR50" s="71"/>
+      <c r="CS50" s="71"/>
+      <c r="CT50" s="71"/>
+      <c r="CU50" s="71"/>
+      <c r="CV50" s="71"/>
+      <c r="CW50" s="71"/>
+      <c r="CX50" s="71"/>
+      <c r="CY50" s="71"/>
+      <c r="CZ50" s="71"/>
+      <c r="DA50" s="71"/>
+      <c r="DB50" s="71"/>
+      <c r="DC50" s="71"/>
+      <c r="DD50" s="71"/>
+      <c r="DE50" s="71"/>
+      <c r="DF50" s="71"/>
+      <c r="DG50" s="71"/>
+      <c r="DH50" s="71"/>
+      <c r="DI50" s="71"/>
+      <c r="DJ50" s="71"/>
+      <c r="DK50" s="71"/>
+      <c r="DL50" s="71"/>
+      <c r="DM50" s="71"/>
+      <c r="DN50" s="71"/>
+      <c r="DO50" s="71"/>
+      <c r="DP50" s="71"/>
+      <c r="DQ50" s="71"/>
+      <c r="DR50" s="71"/>
+      <c r="DS50" s="71"/>
+      <c r="DT50" s="71"/>
+      <c r="DU50" s="71"/>
+      <c r="DV50" s="71"/>
+      <c r="DW50" s="71"/>
+      <c r="DX50" s="71"/>
+      <c r="DY50" s="71"/>
+      <c r="DZ50" s="71"/>
+      <c r="EA50" s="71"/>
+      <c r="EB50" s="71"/>
+      <c r="EC50" s="71"/>
+      <c r="ED50" s="71"/>
+      <c r="EE50" s="71"/>
+      <c r="EF50" s="71"/>
+      <c r="EG50" s="71"/>
+      <c r="EH50" s="71"/>
+      <c r="EI50" s="71"/>
+      <c r="EJ50" s="71"/>
+      <c r="EK50" s="71"/>
+      <c r="EL50" s="71"/>
+      <c r="EM50" s="71"/>
+      <c r="EN50" s="71"/>
+      <c r="EO50" s="71"/>
+      <c r="EP50" s="71"/>
+      <c r="EQ50" s="71"/>
+      <c r="ER50" s="71"/>
+      <c r="ES50" s="71"/>
+      <c r="ET50" s="71"/>
+      <c r="EU50" s="71"/>
+      <c r="EV50" s="71"/>
+      <c r="EW50" s="71"/>
+      <c r="EX50" s="71"/>
+      <c r="EY50" s="71"/>
+      <c r="EZ50" s="71"/>
+      <c r="FA50" s="71"/>
+      <c r="FB50" s="71"/>
+      <c r="FC50" s="71"/>
+      <c r="FD50" s="71"/>
+      <c r="FE50" s="71"/>
+      <c r="FF50" s="71"/>
+      <c r="FG50" s="71"/>
+      <c r="FH50" s="71"/>
+      <c r="FI50" s="71"/>
+      <c r="FJ50" s="71"/>
+      <c r="FK50" s="71"/>
+      <c r="FL50" s="71"/>
+      <c r="FM50" s="71"/>
+      <c r="FN50" s="71"/>
+      <c r="FO50" s="71"/>
+      <c r="FP50" s="71"/>
+      <c r="FQ50" s="71"/>
+      <c r="FR50" s="71"/>
+      <c r="FS50" s="71"/>
+      <c r="FT50" s="71"/>
+      <c r="FU50" s="71"/>
+      <c r="FV50" s="71"/>
+      <c r="FW50" s="71"/>
+      <c r="FX50" s="71"/>
+      <c r="FY50" s="71"/>
+      <c r="FZ50" s="71"/>
+      <c r="GA50" s="71"/>
+      <c r="GB50" s="71"/>
+      <c r="GC50" s="71"/>
+      <c r="GD50" s="71"/>
+      <c r="GE50" s="71"/>
+      <c r="GF50" s="71"/>
+      <c r="GG50" s="71"/>
+      <c r="GH50" s="71"/>
+      <c r="GI50" s="71"/>
+      <c r="GJ50" s="71"/>
+      <c r="GK50" s="71"/>
+      <c r="GL50" s="71"/>
+      <c r="GM50" s="71"/>
+      <c r="GN50" s="71"/>
+      <c r="GO50" s="71"/>
+      <c r="GP50" s="71"/>
+      <c r="GQ50" s="71"/>
+      <c r="GR50" s="71"/>
+      <c r="GS50" s="71"/>
+      <c r="GT50" s="71"/>
+      <c r="GU50" s="71"/>
+      <c r="GV50" s="71"/>
+      <c r="GW50" s="71"/>
+      <c r="GX50" s="71"/>
+      <c r="GY50" s="71"/>
+      <c r="GZ50" s="71"/>
+      <c r="HA50" s="71"/>
+      <c r="HB50" s="71"/>
+      <c r="HC50" s="71"/>
+      <c r="HD50" s="71"/>
+      <c r="HE50" s="71"/>
+      <c r="HF50" s="71"/>
+      <c r="HG50" s="71"/>
+      <c r="HH50" s="71"/>
+      <c r="HI50" s="71"/>
+      <c r="HJ50" s="71"/>
+      <c r="HK50" s="71"/>
+      <c r="HL50" s="71"/>
+      <c r="HM50" s="71"/>
+      <c r="HN50" s="71"/>
+      <c r="HO50" s="71"/>
+      <c r="HP50" s="71"/>
+      <c r="HQ50" s="71"/>
+      <c r="HR50" s="71"/>
+      <c r="HS50" s="71"/>
+      <c r="HT50" s="71"/>
+      <c r="HU50" s="71"/>
+      <c r="HV50" s="71"/>
+      <c r="HW50" s="71"/>
+      <c r="HX50" s="71"/>
+      <c r="HY50" s="71"/>
+      <c r="HZ50" s="71"/>
+      <c r="IA50" s="71"/>
+      <c r="IB50" s="71"/>
+      <c r="IC50" s="71"/>
+      <c r="ID50" s="71"/>
+      <c r="IE50" s="71"/>
+      <c r="IF50" s="71"/>
+      <c r="IG50" s="71"/>
+      <c r="IH50" s="71"/>
+      <c r="II50" s="71"/>
+      <c r="IJ50" s="71"/>
+      <c r="IK50" s="71"/>
+      <c r="IL50" s="71"/>
+      <c r="IM50" s="71"/>
+      <c r="IN50" s="71"/>
+      <c r="IO50" s="71"/>
+      <c r="IP50" s="71"/>
+      <c r="IQ50" s="71"/>
+      <c r="IR50" s="71"/>
+      <c r="IS50" s="71"/>
     </row>
-    <row r="50" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
-      <c r="A50" s="54" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),OFFSET(A50,-1,0,1,1)&amp;".1",LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A50,-1,0,1,1),LEN(OFFSET(A50,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59">
-        <v>42541</v>
-      </c>
-      <c r="H50" s="60">
-        <f t="shared" si="18"/>
-        <v>42545</v>
-      </c>
-      <c r="I50" s="61" t="str">
-        <f t="shared" ref="I50:I51" ca="1" si="81">IF(AND($F$6&lt;=H50,$F$6&gt;=G50),"V","")</f>
-        <v/>
-      </c>
-      <c r="J50" s="62">
-        <v>5</v>
-      </c>
-      <c r="K50" s="63">
-        <f t="shared" ref="K50:K51" si="82">NETWORKDAYS(G50,H50)</f>
-        <v>5</v>
-      </c>
-      <c r="L50" s="64">
-        <f t="shared" ref="L50:L51" si="83">ROUNDDOWN(N50*J50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="63">
-        <f t="shared" ref="M50:M51" si="84">J50-L50</f>
-        <v>5</v>
-      </c>
-      <c r="N50" s="65">
-        <v>0</v>
-      </c>
-      <c r="O50" s="66"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="58"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="58"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
-      <c r="AQ50" s="58"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="58"/>
-      <c r="AZ50" s="58"/>
-      <c r="BA50" s="58"/>
-      <c r="BB50" s="58"/>
-      <c r="BC50" s="58"/>
-      <c r="BD50" s="58"/>
-      <c r="BE50" s="58"/>
-      <c r="BF50" s="58"/>
-      <c r="BG50" s="58"/>
-      <c r="BH50" s="58"/>
-      <c r="BI50" s="58"/>
-      <c r="BJ50" s="58"/>
-      <c r="BK50" s="58"/>
-      <c r="BL50" s="58"/>
-      <c r="BM50" s="58"/>
-      <c r="BN50" s="58"/>
-      <c r="BO50" s="58"/>
-      <c r="BP50" s="58"/>
-      <c r="BQ50" s="58"/>
-      <c r="BR50" s="58"/>
-      <c r="BS50" s="58"/>
-      <c r="BT50" s="58"/>
-      <c r="BU50" s="58"/>
-      <c r="BV50" s="58"/>
-      <c r="BW50" s="58"/>
-      <c r="BX50" s="58"/>
-      <c r="BY50" s="58"/>
-      <c r="BZ50" s="58"/>
-      <c r="CA50" s="58"/>
-      <c r="CB50" s="58"/>
-      <c r="CC50" s="58"/>
-      <c r="CD50" s="58"/>
-      <c r="CE50" s="58"/>
-      <c r="CF50" s="58"/>
-      <c r="CG50" s="58"/>
-      <c r="CH50" s="58"/>
-      <c r="CI50" s="58"/>
-      <c r="CJ50" s="58"/>
-      <c r="CK50" s="58"/>
-      <c r="CL50" s="58"/>
-      <c r="CM50" s="58"/>
-      <c r="CN50" s="58"/>
-      <c r="CO50" s="58"/>
-      <c r="CP50" s="58"/>
-      <c r="CQ50" s="58"/>
-      <c r="CR50" s="58"/>
-      <c r="CS50" s="58"/>
-      <c r="CT50" s="58"/>
-      <c r="CU50" s="58"/>
-      <c r="CV50" s="58"/>
-      <c r="CW50" s="58"/>
-      <c r="CX50" s="58"/>
-      <c r="CY50" s="58"/>
-      <c r="CZ50" s="58"/>
-      <c r="DA50" s="58"/>
-      <c r="DB50" s="58"/>
-      <c r="DC50" s="58"/>
-      <c r="DD50" s="58"/>
-      <c r="DE50" s="58"/>
-      <c r="DF50" s="58"/>
-      <c r="DG50" s="58"/>
-      <c r="DH50" s="58"/>
-      <c r="DI50" s="58"/>
-      <c r="DJ50" s="58"/>
-      <c r="DK50" s="58"/>
-      <c r="DL50" s="58"/>
-      <c r="DM50" s="58"/>
-      <c r="DN50" s="58"/>
-      <c r="DO50" s="58"/>
-      <c r="DP50" s="58"/>
-      <c r="DQ50" s="58"/>
-      <c r="DR50" s="58"/>
-      <c r="DS50" s="58"/>
-      <c r="DT50" s="58"/>
-      <c r="DU50" s="58"/>
-      <c r="DV50" s="58"/>
-      <c r="DW50" s="58"/>
-      <c r="DX50" s="58"/>
-      <c r="DY50" s="58"/>
-      <c r="DZ50" s="58"/>
-      <c r="EA50" s="58"/>
-      <c r="EB50" s="58"/>
-      <c r="EC50" s="58"/>
-      <c r="ED50" s="58"/>
-      <c r="EE50" s="58"/>
-      <c r="EF50" s="58"/>
-      <c r="EG50" s="58"/>
-      <c r="EH50" s="58"/>
-      <c r="EI50" s="58"/>
-      <c r="EJ50" s="58"/>
-      <c r="EK50" s="58"/>
-      <c r="EL50" s="58"/>
-      <c r="EM50" s="58"/>
-      <c r="EN50" s="58"/>
-      <c r="EO50" s="58"/>
-      <c r="EP50" s="58"/>
-      <c r="EQ50" s="58"/>
-      <c r="ER50" s="58"/>
-      <c r="ES50" s="58"/>
-      <c r="ET50" s="58"/>
-      <c r="EU50" s="58"/>
-      <c r="EV50" s="58"/>
-      <c r="EW50" s="58"/>
-      <c r="EX50" s="58"/>
-      <c r="EY50" s="58"/>
-      <c r="EZ50" s="58"/>
-      <c r="FA50" s="58"/>
-      <c r="FB50" s="58"/>
-      <c r="FC50" s="58"/>
-      <c r="FD50" s="58"/>
-      <c r="FE50" s="58"/>
-      <c r="FF50" s="58"/>
-      <c r="FG50" s="58"/>
-      <c r="FH50" s="58"/>
-      <c r="FI50" s="58"/>
-      <c r="FJ50" s="58"/>
-      <c r="FK50" s="58"/>
-      <c r="FL50" s="58"/>
-      <c r="FM50" s="58"/>
-      <c r="FN50" s="58"/>
-      <c r="FO50" s="58"/>
-      <c r="FP50" s="58"/>
-      <c r="FQ50" s="58"/>
-      <c r="FR50" s="58"/>
-      <c r="FS50" s="58"/>
-      <c r="FT50" s="58"/>
-      <c r="FU50" s="58"/>
-      <c r="FV50" s="58"/>
-      <c r="FW50" s="58"/>
-      <c r="FX50" s="58"/>
-      <c r="FY50" s="58"/>
-      <c r="FZ50" s="58"/>
-      <c r="GA50" s="58"/>
-      <c r="GB50" s="58"/>
-      <c r="GC50" s="58"/>
-      <c r="GD50" s="58"/>
-      <c r="GE50" s="58"/>
-      <c r="GF50" s="58"/>
-      <c r="GG50" s="58"/>
-      <c r="GH50" s="58"/>
-      <c r="GI50" s="58"/>
-      <c r="GJ50" s="58"/>
-      <c r="GK50" s="58"/>
-      <c r="GL50" s="58"/>
-      <c r="GM50" s="58"/>
-      <c r="GN50" s="58"/>
-      <c r="GO50" s="58"/>
-      <c r="GP50" s="58"/>
-      <c r="GQ50" s="58"/>
-      <c r="GR50" s="58"/>
-      <c r="GS50" s="58"/>
-      <c r="GT50" s="58"/>
-      <c r="GU50" s="58"/>
-      <c r="GV50" s="58"/>
-      <c r="GW50" s="58"/>
-      <c r="GX50" s="58"/>
-      <c r="GY50" s="58"/>
-      <c r="GZ50" s="58"/>
-      <c r="HA50" s="58"/>
-      <c r="HB50" s="58"/>
-      <c r="HC50" s="58"/>
-      <c r="HD50" s="58"/>
-      <c r="HE50" s="58"/>
-      <c r="HF50" s="58"/>
-      <c r="HG50" s="58"/>
-      <c r="HH50" s="58"/>
-      <c r="HI50" s="58"/>
-      <c r="HJ50" s="58"/>
-      <c r="HK50" s="58"/>
-      <c r="HL50" s="58"/>
-      <c r="HM50" s="58"/>
-      <c r="HN50" s="58"/>
-      <c r="HO50" s="58"/>
-      <c r="HP50" s="58"/>
-      <c r="HQ50" s="58"/>
-      <c r="HR50" s="58"/>
-      <c r="HS50" s="58"/>
-      <c r="HT50" s="58"/>
-      <c r="HU50" s="58"/>
-      <c r="HV50" s="58"/>
-      <c r="HW50" s="58"/>
-      <c r="HX50" s="58"/>
-      <c r="HY50" s="58"/>
-      <c r="HZ50" s="58"/>
-      <c r="IA50" s="58"/>
-      <c r="IB50" s="58"/>
-      <c r="IC50" s="58"/>
-      <c r="ID50" s="58"/>
-      <c r="IE50" s="58"/>
-      <c r="IF50" s="58"/>
-      <c r="IG50" s="58"/>
-      <c r="IH50" s="58"/>
-      <c r="II50" s="58"/>
-      <c r="IJ50" s="58"/>
-      <c r="IK50" s="58"/>
-      <c r="IL50" s="58"/>
-      <c r="IM50" s="58"/>
-      <c r="IN50" s="58"/>
-      <c r="IO50" s="58"/>
-      <c r="IP50" s="58"/>
-      <c r="IQ50" s="58"/>
-      <c r="IR50" s="58"/>
-      <c r="IS50" s="58"/>
-    </row>
-    <row r="51" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:253" s="23" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
       <c r="A51" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A51,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))),OFFSET(A51,-1,0,1,1)&amp;".1",LEFT(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A51,-1,0,1,1),LEN(OFFSET(A51,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A51,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A51,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B51" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="58"/>
       <c r="G51" s="59">
-        <v>42545</v>
+        <v>42541</v>
       </c>
       <c r="H51" s="60">
         <f t="shared" si="18"/>
         <v>42545</v>
       </c>
       <c r="I51" s="61" t="str">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ref="I51:I52" ca="1" si="81">IF(AND($F$6&lt;=H51,$F$6&gt;=G51),"V","")</f>
         <v/>
       </c>
       <c r="J51" s="62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K51" s="63">
-        <f t="shared" si="82"/>
-        <v>1</v>
+        <f t="shared" ref="K51:K52" si="82">NETWORKDAYS(G51,H51)</f>
+        <v>5</v>
       </c>
       <c r="L51" s="64">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="L51:L52" si="83">ROUNDDOWN(N51*J51,0)</f>
         <v>0</v>
       </c>
       <c r="M51" s="63">
-        <f t="shared" si="84"/>
-        <v>1</v>
+        <f t="shared" ref="M51:M52" si="84">J51-L51</f>
+        <v>5</v>
       </c>
       <c r="N51" s="65">
         <v>0</v>
@@ -17603,44 +17743,44 @@
       <c r="IR51" s="58"/>
       <c r="IS51" s="58"/>
     </row>
-    <row r="52" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:253" s="23" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A52" s="54" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A52,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))),OFFSET(A52,-1,0,1,1)&amp;".1",LEFT(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A52,-1,0,1,1),LEN(OFFSET(A52,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A52,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A52,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="58"/>
       <c r="G52" s="59">
-        <v>42549</v>
+        <v>42545</v>
       </c>
       <c r="H52" s="60">
         <f t="shared" si="18"/>
-        <v>42549</v>
+        <v>42545</v>
       </c>
       <c r="I52" s="61" t="str">
-        <f t="shared" ref="I52" ca="1" si="85">IF(AND($F$6&lt;=H52,$F$6&gt;=G52),"V","")</f>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="J52" s="62">
         <v>1</v>
       </c>
       <c r="K52" s="63">
-        <f t="shared" si="58"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="L52" s="64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M52" s="63">
-        <f t="shared" si="60"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="N52" s="65">
@@ -17886,10 +18026,384 @@
       <c r="IR52" s="58"/>
       <c r="IS52" s="58"/>
     </row>
+    <row r="53" spans="1:253" s="23" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1">
+      <c r="A53" s="54" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A53,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))),OFFSET(A53,-1,0,1,1)&amp;".1",LEFT(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A53,-1,0,1,1),LEN(OFFSET(A53,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A53,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A53,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>7.3</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59">
+        <v>42549</v>
+      </c>
+      <c r="H53" s="60">
+        <f t="shared" si="18"/>
+        <v>42549</v>
+      </c>
+      <c r="I53" s="61" t="str">
+        <f t="shared" ref="I53" ca="1" si="85">IF(AND($F$6&lt;=H53,$F$6&gt;=G53),"V","")</f>
+        <v/>
+      </c>
+      <c r="J53" s="62">
+        <v>1</v>
+      </c>
+      <c r="K53" s="63">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="L53" s="64">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="63">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="N53" s="65">
+        <v>0</v>
+      </c>
+      <c r="O53" s="66"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="58"/>
+      <c r="Y53" s="58"/>
+      <c r="Z53" s="58"/>
+      <c r="AA53" s="58"/>
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="58"/>
+      <c r="AE53" s="58"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="58"/>
+      <c r="AH53" s="58"/>
+      <c r="AI53" s="58"/>
+      <c r="AJ53" s="58"/>
+      <c r="AK53" s="58"/>
+      <c r="AL53" s="58"/>
+      <c r="AM53" s="58"/>
+      <c r="AN53" s="58"/>
+      <c r="AO53" s="58"/>
+      <c r="AP53" s="58"/>
+      <c r="AQ53" s="58"/>
+      <c r="AR53" s="58"/>
+      <c r="AS53" s="58"/>
+      <c r="AT53" s="58"/>
+      <c r="AU53" s="58"/>
+      <c r="AV53" s="58"/>
+      <c r="AW53" s="58"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="58"/>
+      <c r="AZ53" s="58"/>
+      <c r="BA53" s="58"/>
+      <c r="BB53" s="58"/>
+      <c r="BC53" s="58"/>
+      <c r="BD53" s="58"/>
+      <c r="BE53" s="58"/>
+      <c r="BF53" s="58"/>
+      <c r="BG53" s="58"/>
+      <c r="BH53" s="58"/>
+      <c r="BI53" s="58"/>
+      <c r="BJ53" s="58"/>
+      <c r="BK53" s="58"/>
+      <c r="BL53" s="58"/>
+      <c r="BM53" s="58"/>
+      <c r="BN53" s="58"/>
+      <c r="BO53" s="58"/>
+      <c r="BP53" s="58"/>
+      <c r="BQ53" s="58"/>
+      <c r="BR53" s="58"/>
+      <c r="BS53" s="58"/>
+      <c r="BT53" s="58"/>
+      <c r="BU53" s="58"/>
+      <c r="BV53" s="58"/>
+      <c r="BW53" s="58"/>
+      <c r="BX53" s="58"/>
+      <c r="BY53" s="58"/>
+      <c r="BZ53" s="58"/>
+      <c r="CA53" s="58"/>
+      <c r="CB53" s="58"/>
+      <c r="CC53" s="58"/>
+      <c r="CD53" s="58"/>
+      <c r="CE53" s="58"/>
+      <c r="CF53" s="58"/>
+      <c r="CG53" s="58"/>
+      <c r="CH53" s="58"/>
+      <c r="CI53" s="58"/>
+      <c r="CJ53" s="58"/>
+      <c r="CK53" s="58"/>
+      <c r="CL53" s="58"/>
+      <c r="CM53" s="58"/>
+      <c r="CN53" s="58"/>
+      <c r="CO53" s="58"/>
+      <c r="CP53" s="58"/>
+      <c r="CQ53" s="58"/>
+      <c r="CR53" s="58"/>
+      <c r="CS53" s="58"/>
+      <c r="CT53" s="58"/>
+      <c r="CU53" s="58"/>
+      <c r="CV53" s="58"/>
+      <c r="CW53" s="58"/>
+      <c r="CX53" s="58"/>
+      <c r="CY53" s="58"/>
+      <c r="CZ53" s="58"/>
+      <c r="DA53" s="58"/>
+      <c r="DB53" s="58"/>
+      <c r="DC53" s="58"/>
+      <c r="DD53" s="58"/>
+      <c r="DE53" s="58"/>
+      <c r="DF53" s="58"/>
+      <c r="DG53" s="58"/>
+      <c r="DH53" s="58"/>
+      <c r="DI53" s="58"/>
+      <c r="DJ53" s="58"/>
+      <c r="DK53" s="58"/>
+      <c r="DL53" s="58"/>
+      <c r="DM53" s="58"/>
+      <c r="DN53" s="58"/>
+      <c r="DO53" s="58"/>
+      <c r="DP53" s="58"/>
+      <c r="DQ53" s="58"/>
+      <c r="DR53" s="58"/>
+      <c r="DS53" s="58"/>
+      <c r="DT53" s="58"/>
+      <c r="DU53" s="58"/>
+      <c r="DV53" s="58"/>
+      <c r="DW53" s="58"/>
+      <c r="DX53" s="58"/>
+      <c r="DY53" s="58"/>
+      <c r="DZ53" s="58"/>
+      <c r="EA53" s="58"/>
+      <c r="EB53" s="58"/>
+      <c r="EC53" s="58"/>
+      <c r="ED53" s="58"/>
+      <c r="EE53" s="58"/>
+      <c r="EF53" s="58"/>
+      <c r="EG53" s="58"/>
+      <c r="EH53" s="58"/>
+      <c r="EI53" s="58"/>
+      <c r="EJ53" s="58"/>
+      <c r="EK53" s="58"/>
+      <c r="EL53" s="58"/>
+      <c r="EM53" s="58"/>
+      <c r="EN53" s="58"/>
+      <c r="EO53" s="58"/>
+      <c r="EP53" s="58"/>
+      <c r="EQ53" s="58"/>
+      <c r="ER53" s="58"/>
+      <c r="ES53" s="58"/>
+      <c r="ET53" s="58"/>
+      <c r="EU53" s="58"/>
+      <c r="EV53" s="58"/>
+      <c r="EW53" s="58"/>
+      <c r="EX53" s="58"/>
+      <c r="EY53" s="58"/>
+      <c r="EZ53" s="58"/>
+      <c r="FA53" s="58"/>
+      <c r="FB53" s="58"/>
+      <c r="FC53" s="58"/>
+      <c r="FD53" s="58"/>
+      <c r="FE53" s="58"/>
+      <c r="FF53" s="58"/>
+      <c r="FG53" s="58"/>
+      <c r="FH53" s="58"/>
+      <c r="FI53" s="58"/>
+      <c r="FJ53" s="58"/>
+      <c r="FK53" s="58"/>
+      <c r="FL53" s="58"/>
+      <c r="FM53" s="58"/>
+      <c r="FN53" s="58"/>
+      <c r="FO53" s="58"/>
+      <c r="FP53" s="58"/>
+      <c r="FQ53" s="58"/>
+      <c r="FR53" s="58"/>
+      <c r="FS53" s="58"/>
+      <c r="FT53" s="58"/>
+      <c r="FU53" s="58"/>
+      <c r="FV53" s="58"/>
+      <c r="FW53" s="58"/>
+      <c r="FX53" s="58"/>
+      <c r="FY53" s="58"/>
+      <c r="FZ53" s="58"/>
+      <c r="GA53" s="58"/>
+      <c r="GB53" s="58"/>
+      <c r="GC53" s="58"/>
+      <c r="GD53" s="58"/>
+      <c r="GE53" s="58"/>
+      <c r="GF53" s="58"/>
+      <c r="GG53" s="58"/>
+      <c r="GH53" s="58"/>
+      <c r="GI53" s="58"/>
+      <c r="GJ53" s="58"/>
+      <c r="GK53" s="58"/>
+      <c r="GL53" s="58"/>
+      <c r="GM53" s="58"/>
+      <c r="GN53" s="58"/>
+      <c r="GO53" s="58"/>
+      <c r="GP53" s="58"/>
+      <c r="GQ53" s="58"/>
+      <c r="GR53" s="58"/>
+      <c r="GS53" s="58"/>
+      <c r="GT53" s="58"/>
+      <c r="GU53" s="58"/>
+      <c r="GV53" s="58"/>
+      <c r="GW53" s="58"/>
+      <c r="GX53" s="58"/>
+      <c r="GY53" s="58"/>
+      <c r="GZ53" s="58"/>
+      <c r="HA53" s="58"/>
+      <c r="HB53" s="58"/>
+      <c r="HC53" s="58"/>
+      <c r="HD53" s="58"/>
+      <c r="HE53" s="58"/>
+      <c r="HF53" s="58"/>
+      <c r="HG53" s="58"/>
+      <c r="HH53" s="58"/>
+      <c r="HI53" s="58"/>
+      <c r="HJ53" s="58"/>
+      <c r="HK53" s="58"/>
+      <c r="HL53" s="58"/>
+      <c r="HM53" s="58"/>
+      <c r="HN53" s="58"/>
+      <c r="HO53" s="58"/>
+      <c r="HP53" s="58"/>
+      <c r="HQ53" s="58"/>
+      <c r="HR53" s="58"/>
+      <c r="HS53" s="58"/>
+      <c r="HT53" s="58"/>
+      <c r="HU53" s="58"/>
+      <c r="HV53" s="58"/>
+      <c r="HW53" s="58"/>
+      <c r="HX53" s="58"/>
+      <c r="HY53" s="58"/>
+      <c r="HZ53" s="58"/>
+      <c r="IA53" s="58"/>
+      <c r="IB53" s="58"/>
+      <c r="IC53" s="58"/>
+      <c r="ID53" s="58"/>
+      <c r="IE53" s="58"/>
+      <c r="IF53" s="58"/>
+      <c r="IG53" s="58"/>
+      <c r="IH53" s="58"/>
+      <c r="II53" s="58"/>
+      <c r="IJ53" s="58"/>
+      <c r="IK53" s="58"/>
+      <c r="IL53" s="58"/>
+      <c r="IM53" s="58"/>
+      <c r="IN53" s="58"/>
+      <c r="IO53" s="58"/>
+      <c r="IP53" s="58"/>
+      <c r="IQ53" s="58"/>
+      <c r="IR53" s="58"/>
+      <c r="IS53" s="58"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
-  <autoFilter ref="A11:N52"/>
+  <autoFilter ref="A11:N53"/>
   <mergeCells count="115">
+    <mergeCell ref="HK10:HQ10"/>
+    <mergeCell ref="FG10:FM10"/>
+    <mergeCell ref="IM9:IS9"/>
+    <mergeCell ref="GW9:HC9"/>
+    <mergeCell ref="AR11:AX11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="AK9:AQ9"/>
+    <mergeCell ref="AD11:AJ11"/>
+    <mergeCell ref="AK11:AQ11"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AR9:AX9"/>
+    <mergeCell ref="IM10:IS10"/>
+    <mergeCell ref="FU10:GA10"/>
+    <mergeCell ref="GB10:GH10"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="W10:AC10"/>
+    <mergeCell ref="AD10:AJ10"/>
+    <mergeCell ref="AK10:AQ10"/>
+    <mergeCell ref="AR10:AX10"/>
+    <mergeCell ref="DC10:DI10"/>
+    <mergeCell ref="DJ10:DP10"/>
+    <mergeCell ref="IF10:IL10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="M5:M11"/>
@@ -17914,551 +18428,493 @@
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HK10:HQ10"/>
-    <mergeCell ref="FG10:FM10"/>
-    <mergeCell ref="IM9:IS9"/>
-    <mergeCell ref="GW9:HC9"/>
-    <mergeCell ref="AR11:AX11"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="AK9:AQ9"/>
-    <mergeCell ref="AD11:AJ11"/>
-    <mergeCell ref="AK11:AQ11"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AR9:AX9"/>
-    <mergeCell ref="IM10:IS10"/>
-    <mergeCell ref="FU10:GA10"/>
-    <mergeCell ref="GB10:GH10"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="W10:AC10"/>
-    <mergeCell ref="AD10:AJ10"/>
-    <mergeCell ref="AK10:AQ10"/>
-    <mergeCell ref="AR10:AX10"/>
-    <mergeCell ref="DC10:DI10"/>
-    <mergeCell ref="DJ10:DP10"/>
-    <mergeCell ref="IF10:IL10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">
-    <cfRule type="cellIs" dxfId="140" priority="1013" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="1022" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="1014" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="1023" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="1015" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1024" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12 P16 P27 P34 P37 P44 P49">
-    <cfRule type="expression" dxfId="137" priority="1016" stopIfTrue="1">
+  <conditionalFormatting sqref="P12 P16 P27 P34 P37 P44 P50">
+    <cfRule type="expression" dxfId="146" priority="1025" stopIfTrue="1">
       <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="1017" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="1026" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G12),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G12+($J12*$N12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="1018" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="1027" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G12),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H12))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13 P15 P17:P26 P28:P32 P35:P36 P50:P52 P38:P43 P45:P48">
-    <cfRule type="expression" dxfId="134" priority="1022" stopIfTrue="1">
+  <conditionalFormatting sqref="P13 P15 P17:P26 P28:P32 P35:P36 P51:P53 P38:P43 P45:P47 P49">
+    <cfRule type="expression" dxfId="143" priority="1031" stopIfTrue="1">
       <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="1023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="1032" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G13),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G13+($J13*$N13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="1024" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="1033" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G13),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12:IS12 Q16:IS16 Q27:IS27 Q34:IS34 Q37:IS37 Q44:IS44 Q49:IS49">
-    <cfRule type="expression" dxfId="131" priority="1004" stopIfTrue="1">
+  <conditionalFormatting sqref="Q12:IS12 Q16:IS16 Q27:IS27 Q34:IS34 Q37:IS37 Q44:IS44 Q50:IS50">
+    <cfRule type="expression" dxfId="140" priority="1013" stopIfTrue="1">
       <formula>(P$6+1)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="1005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="1014" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G12),((P$6+1)&lt;($G12+($J12*$N12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="1006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="1015" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G12),((P$6+1)&lt;=$H12))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:IS13 Q15:IS15 Q17:IS26 Q28:IS32 Q35:IS36 Q50:IS52 Q38:IS43 Q45:IS48">
-    <cfRule type="expression" dxfId="128" priority="1010" stopIfTrue="1">
+  <conditionalFormatting sqref="Q13:IS13 Q15:IS15 Q17:IS26 Q28:IS32 Q35:IS36 Q51:IS53 Q38:IS43 Q45:IS47 Q49:IS49">
+    <cfRule type="expression" dxfId="137" priority="1019" stopIfTrue="1">
       <formula>(P$6+1)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="1011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="1020" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G13),((P$6+1)&lt;($G13+($J13*$N13))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="1021" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G13),((P$6+1)&lt;=$H13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="125" priority="661" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="670" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="662" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="671" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="663" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="672" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="122" priority="652" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="661" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="653" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="662" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="654" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="663" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="119" priority="643" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="652" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="644" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="653" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="645" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="654" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="116" priority="634" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="643" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="635" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="644" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="636" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="645" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="113" priority="514" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="523" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="524" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="516" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="525" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="110" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="532" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="524" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="533" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="525" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="534" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="107" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="478" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="470" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="479" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="471" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="480" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="104" priority="478" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="487" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="479" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="488" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="480" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="489" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="101" priority="451" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="460" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="452" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="461" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="453" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="462" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="98" priority="361" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="370" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="362" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="371" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="363" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="372" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="95" priority="343" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="352" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="353" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="354" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="92" priority="316" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="325" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="326" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="318" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="327" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="89" priority="298" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="307" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="308" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="309" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="86" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="298" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="290" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="299" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="300" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="83" priority="280" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="289" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="281" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="290" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="282" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="291" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="80" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="280" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="272" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="281" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="282" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="77" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="262" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="254" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="263" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="264" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="74" priority="244" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="253" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="254" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="255" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="cellIs" dxfId="80" priority="244" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="245" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="246" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="77" priority="235" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="236" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="237" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="74" priority="226" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="227" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="228" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="71" priority="217" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="218" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="219" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="cellIs" dxfId="68" priority="208" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="209" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="210" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="71" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="199" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="236" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="200" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="237" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="68" priority="226" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="227" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="228" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="65" priority="217" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="218" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="219" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="62" priority="208" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="209" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="210" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="59" priority="199" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="200" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="201" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="56" priority="190" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="191" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="201" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="53" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="172" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="173" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="174" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="50" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="154" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="155" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="156" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="47" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="148" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="149" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="150" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="44" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="151" stopIfTrue="1">
       <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="152" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G14),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G14+($J14*$N14))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="153" stopIfTrue="1">
       <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G14),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:IS14">
-    <cfRule type="expression" dxfId="41" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="145" stopIfTrue="1">
       <formula>(P$6+1)=$F$6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="146" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G14),((P$6+1)&lt;($G14+($J14*$N14))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="147" stopIfTrue="1">
       <formula>AND(((P$6+1)&gt;=$G14),((P$6+1)&lt;=$H14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="38" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="127" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="128" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="129" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="35" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="118" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="119" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="120" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="32" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="100" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="101" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="102" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="29" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="91" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="92" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="93" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="26" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="76" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="77" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="78" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="23" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="82" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="83" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="84" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="20" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="79" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="80" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="81" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="26" priority="73" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="expression" dxfId="23" priority="70" stopIfTrue="1">
+      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="71" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G33+($J33*$N33))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="72" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33:IS33">
+    <cfRule type="expression" dxfId="20" priority="67" stopIfTrue="1">
+      <formula>(P$6+1)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="68" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;($G33+($J33*$N33))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="69" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;=$H33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
     <cfRule type="cellIs" dxfId="17" priority="64" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
@@ -18469,51 +18925,51 @@
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="14" priority="61" stopIfTrue="1">
-      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="62" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G33+($J33*$N33))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="63" stopIfTrue="1">
-      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G33),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q33:IS33">
-    <cfRule type="expression" dxfId="11" priority="58" stopIfTrue="1">
-      <formula>(P$6+1)=$F$6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="59" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;($G33+($J33*$N33))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="60" stopIfTrue="1">
-      <formula>AND(((P$6+1)&gt;=$G33),((P$6+1)&lt;=$H33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="8" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B40">
+    <cfRule type="cellIs" dxfId="14" priority="55" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="56" stopIfTrue="1" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="57" stopIfTrue="1" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="5" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$O$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="47" stopIfTrue="1" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="57" stopIfTrue="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$O$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>(($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G48),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;($G48+($J48*$N48))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>AND(((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&gt;=$G48),((($F$5-WEEKDAY($F$5,1)+1)+7*$O$2)&lt;=$H48))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48:IS48">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>(P$6+1)=$F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G48),((P$6+1)&lt;($G48+($J48*$N48))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>AND(((P$6+1)&gt;=$G48),((P$6+1)&lt;=$H48))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>$O$3</formula>
     </cfRule>
@@ -18525,19 +18981,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G12:H52">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G12:H53">
       <formula1>32874</formula1>
       <formula2>55153</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12:N53">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J52">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J53">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B53">
       <formula1>$O$3:$O$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/1-Timeline/Sandipan-Timeplan.xlsx
+++ b/1-Timeline/Sandipan-Timeplan.xlsx
@@ -879,75 +879,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -997,6 +928,75 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3018,10 +3018,10 @@
   <dimension ref="A1:IV53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="FB45" sqref="FB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3046,38 +3046,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="15.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="17.25" customHeight="1" collapsed="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
       <c r="O2" s="48">
         <v>0</v>
       </c>
@@ -3095,8 +3095,8 @@
       </c>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="16.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3123,23 +3123,23 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="86">
+      <c r="F5" s="110">
         <v>42387</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="5" t="str">
         <f>TEXT(F5,"dddd")</f>
         <v>Monday</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="108" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="11"/>
@@ -3154,20 +3154,20 @@
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="86">
+      <c r="F6" s="110">
         <f ca="1">TODAY()</f>
-        <v>42485</v>
-      </c>
-      <c r="G6" s="86"/>
+        <v>42507</v>
+      </c>
+      <c r="G6" s="110"/>
       <c r="H6" s="5" t="str">
         <f ca="1">TEXT(F6,"dddd")</f>
-        <v>Monday</v>
+        <v>Tuesday</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="44"/>
       <c r="O6" s="47"/>
       <c r="P6" s="41">
@@ -4130,9 +4130,9 @@
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="46"/>
       <c r="P7" s="14">
         <f t="shared" ref="P7:CA7" si="4">TRUNC((P6-DATE(YEAR(P6),1,1)+WEEKDAY(DATE(YEAR(P6),1,1))-1)/7)+1</f>
@@ -5092,9 +5092,9 @@
       <c r="F8" s="4"/>
       <c r="I8" s="49"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="46"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
@@ -5338,732 +5338,732 @@
     </row>
     <row r="9" spans="1:256" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="42"/>
-      <c r="P9" s="99">
+      <c r="P9" s="98">
         <f>P6</f>
         <v>42386</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="99">
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="98">
         <f>W6</f>
         <v>42393</v>
       </c>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="99">
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="98">
         <f>AD6</f>
         <v>42400</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="99">
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="98">
         <f>AK6</f>
         <v>42407</v>
       </c>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="99">
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="98">
         <f>AR6</f>
         <v>42414</v>
       </c>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="99">
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="100"/>
+      <c r="AY9" s="98">
         <f>AY6</f>
         <v>42421</v>
       </c>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="99">
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="99"/>
+      <c r="BC9" s="99"/>
+      <c r="BD9" s="99"/>
+      <c r="BE9" s="100"/>
+      <c r="BF9" s="98">
         <f>BF6</f>
         <v>42428</v>
       </c>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="99">
+      <c r="BG9" s="99"/>
+      <c r="BH9" s="99"/>
+      <c r="BI9" s="99"/>
+      <c r="BJ9" s="99"/>
+      <c r="BK9" s="99"/>
+      <c r="BL9" s="100"/>
+      <c r="BM9" s="98">
         <f>BM6</f>
         <v>42435</v>
       </c>
-      <c r="BN9" s="100"/>
-      <c r="BO9" s="100"/>
-      <c r="BP9" s="100"/>
-      <c r="BQ9" s="100"/>
-      <c r="BR9" s="100"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="99">
+      <c r="BN9" s="99"/>
+      <c r="BO9" s="99"/>
+      <c r="BP9" s="99"/>
+      <c r="BQ9" s="99"/>
+      <c r="BR9" s="99"/>
+      <c r="BS9" s="100"/>
+      <c r="BT9" s="98">
         <f>BT6</f>
         <v>42442</v>
       </c>
-      <c r="BU9" s="100"/>
-      <c r="BV9" s="100"/>
-      <c r="BW9" s="100"/>
-      <c r="BX9" s="100"/>
-      <c r="BY9" s="100"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="99">
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="99"/>
+      <c r="BX9" s="99"/>
+      <c r="BY9" s="99"/>
+      <c r="BZ9" s="100"/>
+      <c r="CA9" s="98">
         <f>CA6</f>
         <v>42449</v>
       </c>
-      <c r="CB9" s="100"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="100"/>
-      <c r="CE9" s="100"/>
-      <c r="CF9" s="100"/>
-      <c r="CG9" s="101"/>
-      <c r="CH9" s="99">
+      <c r="CB9" s="99"/>
+      <c r="CC9" s="99"/>
+      <c r="CD9" s="99"/>
+      <c r="CE9" s="99"/>
+      <c r="CF9" s="99"/>
+      <c r="CG9" s="100"/>
+      <c r="CH9" s="98">
         <f>CH6</f>
         <v>42456</v>
       </c>
-      <c r="CI9" s="100"/>
-      <c r="CJ9" s="100"/>
-      <c r="CK9" s="100"/>
-      <c r="CL9" s="100"/>
-      <c r="CM9" s="100"/>
-      <c r="CN9" s="101"/>
-      <c r="CO9" s="99">
+      <c r="CI9" s="99"/>
+      <c r="CJ9" s="99"/>
+      <c r="CK9" s="99"/>
+      <c r="CL9" s="99"/>
+      <c r="CM9" s="99"/>
+      <c r="CN9" s="100"/>
+      <c r="CO9" s="98">
         <f>CO6</f>
         <v>42463</v>
       </c>
-      <c r="CP9" s="100"/>
-      <c r="CQ9" s="100"/>
-      <c r="CR9" s="100"/>
-      <c r="CS9" s="100"/>
-      <c r="CT9" s="100"/>
-      <c r="CU9" s="101"/>
-      <c r="CV9" s="99">
+      <c r="CP9" s="99"/>
+      <c r="CQ9" s="99"/>
+      <c r="CR9" s="99"/>
+      <c r="CS9" s="99"/>
+      <c r="CT9" s="99"/>
+      <c r="CU9" s="100"/>
+      <c r="CV9" s="98">
         <f>CV6</f>
         <v>42470</v>
       </c>
-      <c r="CW9" s="100"/>
-      <c r="CX9" s="100"/>
-      <c r="CY9" s="100"/>
-      <c r="CZ9" s="100"/>
-      <c r="DA9" s="100"/>
-      <c r="DB9" s="101"/>
-      <c r="DC9" s="99">
+      <c r="CW9" s="99"/>
+      <c r="CX9" s="99"/>
+      <c r="CY9" s="99"/>
+      <c r="CZ9" s="99"/>
+      <c r="DA9" s="99"/>
+      <c r="DB9" s="100"/>
+      <c r="DC9" s="98">
         <f>DC6</f>
         <v>42477</v>
       </c>
-      <c r="DD9" s="100"/>
-      <c r="DE9" s="100"/>
-      <c r="DF9" s="100"/>
-      <c r="DG9" s="100"/>
-      <c r="DH9" s="100"/>
-      <c r="DI9" s="101"/>
-      <c r="DJ9" s="99">
+      <c r="DD9" s="99"/>
+      <c r="DE9" s="99"/>
+      <c r="DF9" s="99"/>
+      <c r="DG9" s="99"/>
+      <c r="DH9" s="99"/>
+      <c r="DI9" s="100"/>
+      <c r="DJ9" s="98">
         <f>DJ6</f>
         <v>42484</v>
       </c>
-      <c r="DK9" s="100"/>
-      <c r="DL9" s="100"/>
-      <c r="DM9" s="100"/>
-      <c r="DN9" s="100"/>
-      <c r="DO9" s="100"/>
-      <c r="DP9" s="101"/>
-      <c r="DQ9" s="99">
+      <c r="DK9" s="99"/>
+      <c r="DL9" s="99"/>
+      <c r="DM9" s="99"/>
+      <c r="DN9" s="99"/>
+      <c r="DO9" s="99"/>
+      <c r="DP9" s="100"/>
+      <c r="DQ9" s="98">
         <f>DQ6</f>
         <v>42491</v>
       </c>
-      <c r="DR9" s="100"/>
-      <c r="DS9" s="100"/>
-      <c r="DT9" s="100"/>
-      <c r="DU9" s="100"/>
-      <c r="DV9" s="100"/>
-      <c r="DW9" s="101"/>
-      <c r="DX9" s="99">
+      <c r="DR9" s="99"/>
+      <c r="DS9" s="99"/>
+      <c r="DT9" s="99"/>
+      <c r="DU9" s="99"/>
+      <c r="DV9" s="99"/>
+      <c r="DW9" s="100"/>
+      <c r="DX9" s="98">
         <f>DX6</f>
         <v>42498</v>
       </c>
-      <c r="DY9" s="100"/>
-      <c r="DZ9" s="100"/>
-      <c r="EA9" s="100"/>
-      <c r="EB9" s="100"/>
-      <c r="EC9" s="100"/>
-      <c r="ED9" s="101"/>
-      <c r="EE9" s="99">
+      <c r="DY9" s="99"/>
+      <c r="DZ9" s="99"/>
+      <c r="EA9" s="99"/>
+      <c r="EB9" s="99"/>
+      <c r="EC9" s="99"/>
+      <c r="ED9" s="100"/>
+      <c r="EE9" s="98">
         <f>EE6</f>
         <v>42505</v>
       </c>
-      <c r="EF9" s="100"/>
-      <c r="EG9" s="100"/>
-      <c r="EH9" s="100"/>
-      <c r="EI9" s="100"/>
-      <c r="EJ9" s="100"/>
-      <c r="EK9" s="101"/>
-      <c r="EL9" s="99">
+      <c r="EF9" s="99"/>
+      <c r="EG9" s="99"/>
+      <c r="EH9" s="99"/>
+      <c r="EI9" s="99"/>
+      <c r="EJ9" s="99"/>
+      <c r="EK9" s="100"/>
+      <c r="EL9" s="98">
         <f>EL6</f>
         <v>42512</v>
       </c>
-      <c r="EM9" s="100"/>
-      <c r="EN9" s="100"/>
-      <c r="EO9" s="100"/>
-      <c r="EP9" s="100"/>
-      <c r="EQ9" s="100"/>
-      <c r="ER9" s="101"/>
-      <c r="ES9" s="99">
+      <c r="EM9" s="99"/>
+      <c r="EN9" s="99"/>
+      <c r="EO9" s="99"/>
+      <c r="EP9" s="99"/>
+      <c r="EQ9" s="99"/>
+      <c r="ER9" s="100"/>
+      <c r="ES9" s="98">
         <f>ES6</f>
         <v>42519</v>
       </c>
-      <c r="ET9" s="100"/>
-      <c r="EU9" s="100"/>
-      <c r="EV9" s="100"/>
-      <c r="EW9" s="100"/>
-      <c r="EX9" s="100"/>
-      <c r="EY9" s="101"/>
-      <c r="EZ9" s="99">
+      <c r="ET9" s="99"/>
+      <c r="EU9" s="99"/>
+      <c r="EV9" s="99"/>
+      <c r="EW9" s="99"/>
+      <c r="EX9" s="99"/>
+      <c r="EY9" s="100"/>
+      <c r="EZ9" s="98">
         <f>EZ6</f>
         <v>42526</v>
       </c>
-      <c r="FA9" s="100"/>
-      <c r="FB9" s="100"/>
-      <c r="FC9" s="100"/>
-      <c r="FD9" s="100"/>
-      <c r="FE9" s="100"/>
-      <c r="FF9" s="101"/>
-      <c r="FG9" s="99">
+      <c r="FA9" s="99"/>
+      <c r="FB9" s="99"/>
+      <c r="FC9" s="99"/>
+      <c r="FD9" s="99"/>
+      <c r="FE9" s="99"/>
+      <c r="FF9" s="100"/>
+      <c r="FG9" s="98">
         <f>FG6</f>
         <v>42533</v>
       </c>
-      <c r="FH9" s="100"/>
-      <c r="FI9" s="100"/>
-      <c r="FJ9" s="100"/>
-      <c r="FK9" s="100"/>
-      <c r="FL9" s="100"/>
-      <c r="FM9" s="101"/>
-      <c r="FN9" s="99">
+      <c r="FH9" s="99"/>
+      <c r="FI9" s="99"/>
+      <c r="FJ9" s="99"/>
+      <c r="FK9" s="99"/>
+      <c r="FL9" s="99"/>
+      <c r="FM9" s="100"/>
+      <c r="FN9" s="98">
         <f>FN6</f>
         <v>42540</v>
       </c>
-      <c r="FO9" s="100"/>
-      <c r="FP9" s="100"/>
-      <c r="FQ9" s="100"/>
-      <c r="FR9" s="100"/>
-      <c r="FS9" s="100"/>
-      <c r="FT9" s="101"/>
-      <c r="FU9" s="99">
+      <c r="FO9" s="99"/>
+      <c r="FP9" s="99"/>
+      <c r="FQ9" s="99"/>
+      <c r="FR9" s="99"/>
+      <c r="FS9" s="99"/>
+      <c r="FT9" s="100"/>
+      <c r="FU9" s="98">
         <f>FU6</f>
         <v>42547</v>
       </c>
-      <c r="FV9" s="100"/>
-      <c r="FW9" s="100"/>
-      <c r="FX9" s="100"/>
-      <c r="FY9" s="100"/>
-      <c r="FZ9" s="100"/>
-      <c r="GA9" s="101"/>
-      <c r="GB9" s="99">
+      <c r="FV9" s="99"/>
+      <c r="FW9" s="99"/>
+      <c r="FX9" s="99"/>
+      <c r="FY9" s="99"/>
+      <c r="FZ9" s="99"/>
+      <c r="GA9" s="100"/>
+      <c r="GB9" s="98">
         <f>GB6</f>
         <v>42554</v>
       </c>
-      <c r="GC9" s="100"/>
-      <c r="GD9" s="100"/>
-      <c r="GE9" s="100"/>
-      <c r="GF9" s="100"/>
-      <c r="GG9" s="100"/>
-      <c r="GH9" s="101"/>
-      <c r="GI9" s="99">
+      <c r="GC9" s="99"/>
+      <c r="GD9" s="99"/>
+      <c r="GE9" s="99"/>
+      <c r="GF9" s="99"/>
+      <c r="GG9" s="99"/>
+      <c r="GH9" s="100"/>
+      <c r="GI9" s="98">
         <f>GI6</f>
         <v>42561</v>
       </c>
-      <c r="GJ9" s="100"/>
-      <c r="GK9" s="100"/>
-      <c r="GL9" s="100"/>
-      <c r="GM9" s="100"/>
-      <c r="GN9" s="100"/>
-      <c r="GO9" s="101"/>
-      <c r="GP9" s="99">
+      <c r="GJ9" s="99"/>
+      <c r="GK9" s="99"/>
+      <c r="GL9" s="99"/>
+      <c r="GM9" s="99"/>
+      <c r="GN9" s="99"/>
+      <c r="GO9" s="100"/>
+      <c r="GP9" s="98">
         <f>GP6</f>
         <v>42568</v>
       </c>
-      <c r="GQ9" s="100"/>
-      <c r="GR9" s="100"/>
-      <c r="GS9" s="100"/>
-      <c r="GT9" s="100"/>
-      <c r="GU9" s="100"/>
-      <c r="GV9" s="101"/>
-      <c r="GW9" s="99">
+      <c r="GQ9" s="99"/>
+      <c r="GR9" s="99"/>
+      <c r="GS9" s="99"/>
+      <c r="GT9" s="99"/>
+      <c r="GU9" s="99"/>
+      <c r="GV9" s="100"/>
+      <c r="GW9" s="98">
         <f>GW6</f>
         <v>42575</v>
       </c>
-      <c r="GX9" s="100"/>
-      <c r="GY9" s="100"/>
-      <c r="GZ9" s="100"/>
-      <c r="HA9" s="100"/>
-      <c r="HB9" s="100"/>
-      <c r="HC9" s="101"/>
-      <c r="HD9" s="99">
+      <c r="GX9" s="99"/>
+      <c r="GY9" s="99"/>
+      <c r="GZ9" s="99"/>
+      <c r="HA9" s="99"/>
+      <c r="HB9" s="99"/>
+      <c r="HC9" s="100"/>
+      <c r="HD9" s="98">
         <f>HD6</f>
         <v>42582</v>
       </c>
-      <c r="HE9" s="100"/>
-      <c r="HF9" s="100"/>
-      <c r="HG9" s="100"/>
-      <c r="HH9" s="100"/>
-      <c r="HI9" s="100"/>
-      <c r="HJ9" s="101"/>
-      <c r="HK9" s="99">
+      <c r="HE9" s="99"/>
+      <c r="HF9" s="99"/>
+      <c r="HG9" s="99"/>
+      <c r="HH9" s="99"/>
+      <c r="HI9" s="99"/>
+      <c r="HJ9" s="100"/>
+      <c r="HK9" s="98">
         <f>HK6</f>
         <v>42589</v>
       </c>
-      <c r="HL9" s="100"/>
-      <c r="HM9" s="100"/>
-      <c r="HN9" s="100"/>
-      <c r="HO9" s="100"/>
-      <c r="HP9" s="100"/>
-      <c r="HQ9" s="101"/>
-      <c r="HR9" s="99">
+      <c r="HL9" s="99"/>
+      <c r="HM9" s="99"/>
+      <c r="HN9" s="99"/>
+      <c r="HO9" s="99"/>
+      <c r="HP9" s="99"/>
+      <c r="HQ9" s="100"/>
+      <c r="HR9" s="98">
         <f>HR6</f>
         <v>42596</v>
       </c>
-      <c r="HS9" s="100"/>
-      <c r="HT9" s="100"/>
-      <c r="HU9" s="100"/>
-      <c r="HV9" s="100"/>
-      <c r="HW9" s="100"/>
-      <c r="HX9" s="101"/>
-      <c r="HY9" s="99">
+      <c r="HS9" s="99"/>
+      <c r="HT9" s="99"/>
+      <c r="HU9" s="99"/>
+      <c r="HV9" s="99"/>
+      <c r="HW9" s="99"/>
+      <c r="HX9" s="100"/>
+      <c r="HY9" s="98">
         <f>HY6</f>
         <v>42603</v>
       </c>
-      <c r="HZ9" s="100"/>
-      <c r="IA9" s="100"/>
-      <c r="IB9" s="100"/>
-      <c r="IC9" s="100"/>
-      <c r="ID9" s="100"/>
-      <c r="IE9" s="101"/>
-      <c r="IF9" s="99">
+      <c r="HZ9" s="99"/>
+      <c r="IA9" s="99"/>
+      <c r="IB9" s="99"/>
+      <c r="IC9" s="99"/>
+      <c r="ID9" s="99"/>
+      <c r="IE9" s="100"/>
+      <c r="IF9" s="98">
         <f>IF6</f>
         <v>42610</v>
       </c>
-      <c r="IG9" s="100"/>
-      <c r="IH9" s="100"/>
-      <c r="II9" s="100"/>
-      <c r="IJ9" s="100"/>
-      <c r="IK9" s="100"/>
-      <c r="IL9" s="101"/>
-      <c r="IM9" s="99">
+      <c r="IG9" s="99"/>
+      <c r="IH9" s="99"/>
+      <c r="II9" s="99"/>
+      <c r="IJ9" s="99"/>
+      <c r="IK9" s="99"/>
+      <c r="IL9" s="100"/>
+      <c r="IM9" s="98">
         <f>IM6</f>
         <v>42617</v>
       </c>
-      <c r="IN9" s="100"/>
-      <c r="IO9" s="100"/>
-      <c r="IP9" s="100"/>
-      <c r="IQ9" s="100"/>
-      <c r="IR9" s="100"/>
-      <c r="IS9" s="101"/>
+      <c r="IN9" s="99"/>
+      <c r="IO9" s="99"/>
+      <c r="IP9" s="99"/>
+      <c r="IQ9" s="99"/>
+      <c r="IR9" s="99"/>
+      <c r="IS9" s="100"/>
     </row>
     <row r="10" spans="1:256" s="9" customFormat="1" ht="24.75" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="97"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="B10" s="115"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="90">
+      <c r="P10" s="95">
         <f>P7</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="90">
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="95">
         <f>W7</f>
         <v>5</v>
       </c>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="90">
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="95">
         <f>AD7</f>
         <v>6</v>
       </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="90">
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="95">
         <f>AK7</f>
         <v>7</v>
       </c>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="90">
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="95">
         <f>AR7</f>
         <v>8</v>
       </c>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="90">
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="96"/>
+      <c r="AV10" s="96"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="95">
         <f>AY7</f>
         <v>9</v>
       </c>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="90">
+      <c r="AZ10" s="96"/>
+      <c r="BA10" s="96"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="96"/>
+      <c r="BD10" s="96"/>
+      <c r="BE10" s="97"/>
+      <c r="BF10" s="95">
         <f>BF7</f>
         <v>10</v>
       </c>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="90">
+      <c r="BG10" s="96"/>
+      <c r="BH10" s="96"/>
+      <c r="BI10" s="96"/>
+      <c r="BJ10" s="96"/>
+      <c r="BK10" s="96"/>
+      <c r="BL10" s="97"/>
+      <c r="BM10" s="95">
         <f>BM7</f>
         <v>11</v>
       </c>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="90">
+      <c r="BN10" s="96"/>
+      <c r="BO10" s="96"/>
+      <c r="BP10" s="96"/>
+      <c r="BQ10" s="96"/>
+      <c r="BR10" s="96"/>
+      <c r="BS10" s="97"/>
+      <c r="BT10" s="95">
         <f>BT7</f>
         <v>12</v>
       </c>
-      <c r="BU10" s="91"/>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="91"/>
-      <c r="BX10" s="91"/>
-      <c r="BY10" s="91"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="90">
+      <c r="BU10" s="96"/>
+      <c r="BV10" s="96"/>
+      <c r="BW10" s="96"/>
+      <c r="BX10" s="96"/>
+      <c r="BY10" s="96"/>
+      <c r="BZ10" s="97"/>
+      <c r="CA10" s="95">
         <f>CA7</f>
         <v>13</v>
       </c>
-      <c r="CB10" s="91"/>
-      <c r="CC10" s="91"/>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91"/>
-      <c r="CF10" s="91"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="90">
+      <c r="CB10" s="96"/>
+      <c r="CC10" s="96"/>
+      <c r="CD10" s="96"/>
+      <c r="CE10" s="96"/>
+      <c r="CF10" s="96"/>
+      <c r="CG10" s="97"/>
+      <c r="CH10" s="95">
         <f>CH7</f>
         <v>14</v>
       </c>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="91"/>
-      <c r="CK10" s="91"/>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90">
+      <c r="CI10" s="96"/>
+      <c r="CJ10" s="96"/>
+      <c r="CK10" s="96"/>
+      <c r="CL10" s="96"/>
+      <c r="CM10" s="96"/>
+      <c r="CN10" s="97"/>
+      <c r="CO10" s="95">
         <f>CO7</f>
         <v>15</v>
       </c>
-      <c r="CP10" s="91"/>
-      <c r="CQ10" s="91"/>
-      <c r="CR10" s="91"/>
-      <c r="CS10" s="91"/>
-      <c r="CT10" s="91"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="90">
+      <c r="CP10" s="96"/>
+      <c r="CQ10" s="96"/>
+      <c r="CR10" s="96"/>
+      <c r="CS10" s="96"/>
+      <c r="CT10" s="96"/>
+      <c r="CU10" s="97"/>
+      <c r="CV10" s="95">
         <f>CV7</f>
         <v>16</v>
       </c>
-      <c r="CW10" s="91"/>
-      <c r="CX10" s="91"/>
-      <c r="CY10" s="91"/>
-      <c r="CZ10" s="91"/>
-      <c r="DA10" s="91"/>
-      <c r="DB10" s="92"/>
-      <c r="DC10" s="90">
+      <c r="CW10" s="96"/>
+      <c r="CX10" s="96"/>
+      <c r="CY10" s="96"/>
+      <c r="CZ10" s="96"/>
+      <c r="DA10" s="96"/>
+      <c r="DB10" s="97"/>
+      <c r="DC10" s="95">
         <f>DC7</f>
         <v>17</v>
       </c>
-      <c r="DD10" s="91"/>
-      <c r="DE10" s="91"/>
-      <c r="DF10" s="91"/>
-      <c r="DG10" s="91"/>
-      <c r="DH10" s="91"/>
-      <c r="DI10" s="92"/>
-      <c r="DJ10" s="90">
+      <c r="DD10" s="96"/>
+      <c r="DE10" s="96"/>
+      <c r="DF10" s="96"/>
+      <c r="DG10" s="96"/>
+      <c r="DH10" s="96"/>
+      <c r="DI10" s="97"/>
+      <c r="DJ10" s="95">
         <f>DJ7</f>
         <v>18</v>
       </c>
-      <c r="DK10" s="91"/>
-      <c r="DL10" s="91"/>
-      <c r="DM10" s="91"/>
-      <c r="DN10" s="91"/>
-      <c r="DO10" s="91"/>
-      <c r="DP10" s="92"/>
-      <c r="DQ10" s="90">
+      <c r="DK10" s="96"/>
+      <c r="DL10" s="96"/>
+      <c r="DM10" s="96"/>
+      <c r="DN10" s="96"/>
+      <c r="DO10" s="96"/>
+      <c r="DP10" s="97"/>
+      <c r="DQ10" s="95">
         <f>DQ7</f>
         <v>19</v>
       </c>
-      <c r="DR10" s="91"/>
-      <c r="DS10" s="91"/>
-      <c r="DT10" s="91"/>
-      <c r="DU10" s="91"/>
-      <c r="DV10" s="91"/>
-      <c r="DW10" s="92"/>
-      <c r="DX10" s="90">
+      <c r="DR10" s="96"/>
+      <c r="DS10" s="96"/>
+      <c r="DT10" s="96"/>
+      <c r="DU10" s="96"/>
+      <c r="DV10" s="96"/>
+      <c r="DW10" s="97"/>
+      <c r="DX10" s="95">
         <f>DX7</f>
         <v>20</v>
       </c>
-      <c r="DY10" s="91"/>
-      <c r="DZ10" s="91"/>
-      <c r="EA10" s="91"/>
-      <c r="EB10" s="91"/>
-      <c r="EC10" s="91"/>
-      <c r="ED10" s="92"/>
-      <c r="EE10" s="90">
+      <c r="DY10" s="96"/>
+      <c r="DZ10" s="96"/>
+      <c r="EA10" s="96"/>
+      <c r="EB10" s="96"/>
+      <c r="EC10" s="96"/>
+      <c r="ED10" s="97"/>
+      <c r="EE10" s="95">
         <f>EE7</f>
         <v>21</v>
       </c>
-      <c r="EF10" s="91"/>
-      <c r="EG10" s="91"/>
-      <c r="EH10" s="91"/>
-      <c r="EI10" s="91"/>
-      <c r="EJ10" s="91"/>
-      <c r="EK10" s="92"/>
-      <c r="EL10" s="90">
+      <c r="EF10" s="96"/>
+      <c r="EG10" s="96"/>
+      <c r="EH10" s="96"/>
+      <c r="EI10" s="96"/>
+      <c r="EJ10" s="96"/>
+      <c r="EK10" s="97"/>
+      <c r="EL10" s="95">
         <f>EL7</f>
         <v>22</v>
       </c>
-      <c r="EM10" s="91"/>
-      <c r="EN10" s="91"/>
-      <c r="EO10" s="91"/>
-      <c r="EP10" s="91"/>
-      <c r="EQ10" s="91"/>
-      <c r="ER10" s="92"/>
-      <c r="ES10" s="90">
+      <c r="EM10" s="96"/>
+      <c r="EN10" s="96"/>
+      <c r="EO10" s="96"/>
+      <c r="EP10" s="96"/>
+      <c r="EQ10" s="96"/>
+      <c r="ER10" s="97"/>
+      <c r="ES10" s="95">
         <f>ES7</f>
         <v>23</v>
       </c>
-      <c r="ET10" s="91"/>
-      <c r="EU10" s="91"/>
-      <c r="EV10" s="91"/>
-      <c r="EW10" s="91"/>
-      <c r="EX10" s="91"/>
-      <c r="EY10" s="92"/>
-      <c r="EZ10" s="90">
+      <c r="ET10" s="96"/>
+      <c r="EU10" s="96"/>
+      <c r="EV10" s="96"/>
+      <c r="EW10" s="96"/>
+      <c r="EX10" s="96"/>
+      <c r="EY10" s="97"/>
+      <c r="EZ10" s="95">
         <f>EZ7</f>
         <v>24</v>
       </c>
-      <c r="FA10" s="91"/>
-      <c r="FB10" s="91"/>
-      <c r="FC10" s="91"/>
-      <c r="FD10" s="91"/>
-      <c r="FE10" s="91"/>
-      <c r="FF10" s="92"/>
-      <c r="FG10" s="90">
+      <c r="FA10" s="96"/>
+      <c r="FB10" s="96"/>
+      <c r="FC10" s="96"/>
+      <c r="FD10" s="96"/>
+      <c r="FE10" s="96"/>
+      <c r="FF10" s="97"/>
+      <c r="FG10" s="95">
         <f>FG7</f>
         <v>25</v>
       </c>
-      <c r="FH10" s="91"/>
-      <c r="FI10" s="91"/>
-      <c r="FJ10" s="91"/>
-      <c r="FK10" s="91"/>
-      <c r="FL10" s="91"/>
-      <c r="FM10" s="92"/>
-      <c r="FN10" s="90">
+      <c r="FH10" s="96"/>
+      <c r="FI10" s="96"/>
+      <c r="FJ10" s="96"/>
+      <c r="FK10" s="96"/>
+      <c r="FL10" s="96"/>
+      <c r="FM10" s="97"/>
+      <c r="FN10" s="95">
         <f>FN7</f>
         <v>26</v>
       </c>
-      <c r="FO10" s="91"/>
-      <c r="FP10" s="91"/>
-      <c r="FQ10" s="91"/>
-      <c r="FR10" s="91"/>
-      <c r="FS10" s="91"/>
-      <c r="FT10" s="92"/>
-      <c r="FU10" s="90">
+      <c r="FO10" s="96"/>
+      <c r="FP10" s="96"/>
+      <c r="FQ10" s="96"/>
+      <c r="FR10" s="96"/>
+      <c r="FS10" s="96"/>
+      <c r="FT10" s="97"/>
+      <c r="FU10" s="95">
         <f>FU7</f>
         <v>27</v>
       </c>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91"/>
-      <c r="FX10" s="91"/>
-      <c r="FY10" s="91"/>
-      <c r="FZ10" s="91"/>
-      <c r="GA10" s="92"/>
-      <c r="GB10" s="90">
+      <c r="FV10" s="96"/>
+      <c r="FW10" s="96"/>
+      <c r="FX10" s="96"/>
+      <c r="FY10" s="96"/>
+      <c r="FZ10" s="96"/>
+      <c r="GA10" s="97"/>
+      <c r="GB10" s="95">
         <f>GB7</f>
         <v>28</v>
       </c>
-      <c r="GC10" s="91"/>
-      <c r="GD10" s="91"/>
-      <c r="GE10" s="91"/>
-      <c r="GF10" s="91"/>
-      <c r="GG10" s="91"/>
-      <c r="GH10" s="92"/>
-      <c r="GI10" s="90">
+      <c r="GC10" s="96"/>
+      <c r="GD10" s="96"/>
+      <c r="GE10" s="96"/>
+      <c r="GF10" s="96"/>
+      <c r="GG10" s="96"/>
+      <c r="GH10" s="97"/>
+      <c r="GI10" s="95">
         <f>GI7</f>
         <v>29</v>
       </c>
-      <c r="GJ10" s="91"/>
-      <c r="GK10" s="91"/>
-      <c r="GL10" s="91"/>
-      <c r="GM10" s="91"/>
-      <c r="GN10" s="91"/>
-      <c r="GO10" s="92"/>
-      <c r="GP10" s="90">
+      <c r="GJ10" s="96"/>
+      <c r="GK10" s="96"/>
+      <c r="GL10" s="96"/>
+      <c r="GM10" s="96"/>
+      <c r="GN10" s="96"/>
+      <c r="GO10" s="97"/>
+      <c r="GP10" s="95">
         <f>GP7</f>
         <v>30</v>
       </c>
-      <c r="GQ10" s="91"/>
-      <c r="GR10" s="91"/>
-      <c r="GS10" s="91"/>
-      <c r="GT10" s="91"/>
-      <c r="GU10" s="91"/>
-      <c r="GV10" s="92"/>
-      <c r="GW10" s="90">
+      <c r="GQ10" s="96"/>
+      <c r="GR10" s="96"/>
+      <c r="GS10" s="96"/>
+      <c r="GT10" s="96"/>
+      <c r="GU10" s="96"/>
+      <c r="GV10" s="97"/>
+      <c r="GW10" s="95">
         <f>GW7</f>
         <v>31</v>
       </c>
-      <c r="GX10" s="91"/>
-      <c r="GY10" s="91"/>
-      <c r="GZ10" s="91"/>
-      <c r="HA10" s="91"/>
-      <c r="HB10" s="91"/>
-      <c r="HC10" s="92"/>
-      <c r="HD10" s="90">
+      <c r="GX10" s="96"/>
+      <c r="GY10" s="96"/>
+      <c r="GZ10" s="96"/>
+      <c r="HA10" s="96"/>
+      <c r="HB10" s="96"/>
+      <c r="HC10" s="97"/>
+      <c r="HD10" s="95">
         <f>HD7</f>
         <v>32</v>
       </c>
-      <c r="HE10" s="91"/>
-      <c r="HF10" s="91"/>
-      <c r="HG10" s="91"/>
-      <c r="HH10" s="91"/>
-      <c r="HI10" s="91"/>
-      <c r="HJ10" s="92"/>
-      <c r="HK10" s="90">
+      <c r="HE10" s="96"/>
+      <c r="HF10" s="96"/>
+      <c r="HG10" s="96"/>
+      <c r="HH10" s="96"/>
+      <c r="HI10" s="96"/>
+      <c r="HJ10" s="97"/>
+      <c r="HK10" s="95">
         <f>HK7</f>
         <v>33</v>
       </c>
-      <c r="HL10" s="91"/>
-      <c r="HM10" s="91"/>
-      <c r="HN10" s="91"/>
-      <c r="HO10" s="91"/>
-      <c r="HP10" s="91"/>
-      <c r="HQ10" s="92"/>
-      <c r="HR10" s="90">
+      <c r="HL10" s="96"/>
+      <c r="HM10" s="96"/>
+      <c r="HN10" s="96"/>
+      <c r="HO10" s="96"/>
+      <c r="HP10" s="96"/>
+      <c r="HQ10" s="97"/>
+      <c r="HR10" s="95">
         <f>HR7</f>
         <v>34</v>
       </c>
-      <c r="HS10" s="91"/>
-      <c r="HT10" s="91"/>
-      <c r="HU10" s="91"/>
-      <c r="HV10" s="91"/>
-      <c r="HW10" s="91"/>
-      <c r="HX10" s="92"/>
-      <c r="HY10" s="90">
+      <c r="HS10" s="96"/>
+      <c r="HT10" s="96"/>
+      <c r="HU10" s="96"/>
+      <c r="HV10" s="96"/>
+      <c r="HW10" s="96"/>
+      <c r="HX10" s="97"/>
+      <c r="HY10" s="95">
         <f>HY7</f>
         <v>35</v>
       </c>
-      <c r="HZ10" s="91"/>
-      <c r="IA10" s="91"/>
-      <c r="IB10" s="91"/>
-      <c r="IC10" s="91"/>
-      <c r="ID10" s="91"/>
-      <c r="IE10" s="92"/>
-      <c r="IF10" s="90">
+      <c r="HZ10" s="96"/>
+      <c r="IA10" s="96"/>
+      <c r="IB10" s="96"/>
+      <c r="IC10" s="96"/>
+      <c r="ID10" s="96"/>
+      <c r="IE10" s="97"/>
+      <c r="IF10" s="95">
         <f>IF7</f>
         <v>36</v>
       </c>
-      <c r="IG10" s="91"/>
-      <c r="IH10" s="91"/>
-      <c r="II10" s="91"/>
-      <c r="IJ10" s="91"/>
-      <c r="IK10" s="91"/>
-      <c r="IL10" s="92"/>
-      <c r="IM10" s="90">
+      <c r="IG10" s="96"/>
+      <c r="IH10" s="96"/>
+      <c r="II10" s="96"/>
+      <c r="IJ10" s="96"/>
+      <c r="IK10" s="96"/>
+      <c r="IL10" s="97"/>
+      <c r="IM10" s="95">
         <f>IM7</f>
         <v>37</v>
       </c>
-      <c r="IN10" s="91"/>
-      <c r="IO10" s="91"/>
-      <c r="IP10" s="91"/>
-      <c r="IQ10" s="91"/>
-      <c r="IR10" s="91"/>
-      <c r="IS10" s="92"/>
+      <c r="IN10" s="96"/>
+      <c r="IO10" s="96"/>
+      <c r="IP10" s="96"/>
+      <c r="IQ10" s="96"/>
+      <c r="IR10" s="96"/>
+      <c r="IS10" s="97"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
@@ -6073,353 +6073,353 @@
       <c r="H11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
       <c r="O11" s="34"/>
-      <c r="P11" s="87">
+      <c r="P11" s="101">
         <f>YEAR(P6)</f>
         <v>2016</v>
       </c>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="87">
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="101">
         <f>YEAR(W6)</f>
         <v>2016</v>
       </c>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="87">
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="101">
         <f>YEAR(AD6)</f>
         <v>2016</v>
       </c>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="87">
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="101">
         <f>YEAR(AK6)</f>
         <v>2016</v>
       </c>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="87">
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="103"/>
+      <c r="AR11" s="101">
         <f>YEAR(AR6)</f>
         <v>2016</v>
       </c>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="87">
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="103"/>
+      <c r="AY11" s="101">
         <f>YEAR(AY6)</f>
         <v>2016</v>
       </c>
-      <c r="AZ11" s="88"/>
-      <c r="BA11" s="88"/>
-      <c r="BB11" s="88"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="87">
+      <c r="AZ11" s="102"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="102"/>
+      <c r="BC11" s="102"/>
+      <c r="BD11" s="102"/>
+      <c r="BE11" s="103"/>
+      <c r="BF11" s="101">
         <f>YEAR(BF6)</f>
         <v>2016</v>
       </c>
-      <c r="BG11" s="88"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="88"/>
-      <c r="BJ11" s="88"/>
-      <c r="BK11" s="88"/>
-      <c r="BL11" s="89"/>
-      <c r="BM11" s="87">
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="102"/>
+      <c r="BI11" s="102"/>
+      <c r="BJ11" s="102"/>
+      <c r="BK11" s="102"/>
+      <c r="BL11" s="103"/>
+      <c r="BM11" s="101">
         <f>YEAR(BM6)</f>
         <v>2016</v>
       </c>
-      <c r="BN11" s="88"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="88"/>
-      <c r="BQ11" s="88"/>
-      <c r="BR11" s="88"/>
-      <c r="BS11" s="89"/>
-      <c r="BT11" s="87">
+      <c r="BN11" s="102"/>
+      <c r="BO11" s="102"/>
+      <c r="BP11" s="102"/>
+      <c r="BQ11" s="102"/>
+      <c r="BR11" s="102"/>
+      <c r="BS11" s="103"/>
+      <c r="BT11" s="101">
         <f>YEAR(BT6)</f>
         <v>2016</v>
       </c>
-      <c r="BU11" s="88"/>
-      <c r="BV11" s="88"/>
-      <c r="BW11" s="88"/>
-      <c r="BX11" s="88"/>
-      <c r="BY11" s="88"/>
-      <c r="BZ11" s="89"/>
-      <c r="CA11" s="87">
+      <c r="BU11" s="102"/>
+      <c r="BV11" s="102"/>
+      <c r="BW11" s="102"/>
+      <c r="BX11" s="102"/>
+      <c r="BY11" s="102"/>
+      <c r="BZ11" s="103"/>
+      <c r="CA11" s="101">
         <f>YEAR(CA6)</f>
         <v>2016</v>
       </c>
-      <c r="CB11" s="88"/>
-      <c r="CC11" s="88"/>
-      <c r="CD11" s="88"/>
-      <c r="CE11" s="88"/>
-      <c r="CF11" s="88"/>
-      <c r="CG11" s="89"/>
-      <c r="CH11" s="87">
+      <c r="CB11" s="102"/>
+      <c r="CC11" s="102"/>
+      <c r="CD11" s="102"/>
+      <c r="CE11" s="102"/>
+      <c r="CF11" s="102"/>
+      <c r="CG11" s="103"/>
+      <c r="CH11" s="101">
         <f>YEAR(CH6)</f>
         <v>2016</v>
       </c>
-      <c r="CI11" s="88"/>
-      <c r="CJ11" s="88"/>
-      <c r="CK11" s="88"/>
-      <c r="CL11" s="88"/>
-      <c r="CM11" s="88"/>
-      <c r="CN11" s="89"/>
-      <c r="CO11" s="87">
+      <c r="CI11" s="102"/>
+      <c r="CJ11" s="102"/>
+      <c r="CK11" s="102"/>
+      <c r="CL11" s="102"/>
+      <c r="CM11" s="102"/>
+      <c r="CN11" s="103"/>
+      <c r="CO11" s="101">
         <f>YEAR(CO6)</f>
         <v>2016</v>
       </c>
-      <c r="CP11" s="88"/>
-      <c r="CQ11" s="88"/>
-      <c r="CR11" s="88"/>
-      <c r="CS11" s="88"/>
-      <c r="CT11" s="88"/>
-      <c r="CU11" s="89"/>
-      <c r="CV11" s="87">
+      <c r="CP11" s="102"/>
+      <c r="CQ11" s="102"/>
+      <c r="CR11" s="102"/>
+      <c r="CS11" s="102"/>
+      <c r="CT11" s="102"/>
+      <c r="CU11" s="103"/>
+      <c r="CV11" s="101">
         <f>YEAR(CV6)</f>
         <v>2016</v>
       </c>
-      <c r="CW11" s="88"/>
-      <c r="CX11" s="88"/>
-      <c r="CY11" s="88"/>
-      <c r="CZ11" s="88"/>
-      <c r="DA11" s="88"/>
-      <c r="DB11" s="89"/>
-      <c r="DC11" s="87">
+      <c r="CW11" s="102"/>
+      <c r="CX11" s="102"/>
+      <c r="CY11" s="102"/>
+      <c r="CZ11" s="102"/>
+      <c r="DA11" s="102"/>
+      <c r="DB11" s="103"/>
+      <c r="DC11" s="101">
         <f>YEAR(DC6)</f>
         <v>2016</v>
       </c>
-      <c r="DD11" s="88"/>
-      <c r="DE11" s="88"/>
-      <c r="DF11" s="88"/>
-      <c r="DG11" s="88"/>
-      <c r="DH11" s="88"/>
-      <c r="DI11" s="89"/>
-      <c r="DJ11" s="87">
+      <c r="DD11" s="102"/>
+      <c r="DE11" s="102"/>
+      <c r="DF11" s="102"/>
+      <c r="DG11" s="102"/>
+      <c r="DH11" s="102"/>
+      <c r="DI11" s="103"/>
+      <c r="DJ11" s="101">
         <f>YEAR(DJ6)</f>
         <v>2016</v>
       </c>
-      <c r="DK11" s="88"/>
-      <c r="DL11" s="88"/>
-      <c r="DM11" s="88"/>
-      <c r="DN11" s="88"/>
-      <c r="DO11" s="88"/>
-      <c r="DP11" s="89"/>
-      <c r="DQ11" s="87">
+      <c r="DK11" s="102"/>
+      <c r="DL11" s="102"/>
+      <c r="DM11" s="102"/>
+      <c r="DN11" s="102"/>
+      <c r="DO11" s="102"/>
+      <c r="DP11" s="103"/>
+      <c r="DQ11" s="101">
         <f>YEAR(DQ6)</f>
         <v>2016</v>
       </c>
-      <c r="DR11" s="88"/>
-      <c r="DS11" s="88"/>
-      <c r="DT11" s="88"/>
-      <c r="DU11" s="88"/>
-      <c r="DV11" s="88"/>
-      <c r="DW11" s="89"/>
-      <c r="DX11" s="87">
+      <c r="DR11" s="102"/>
+      <c r="DS11" s="102"/>
+      <c r="DT11" s="102"/>
+      <c r="DU11" s="102"/>
+      <c r="DV11" s="102"/>
+      <c r="DW11" s="103"/>
+      <c r="DX11" s="101">
         <f>YEAR(DX6)</f>
         <v>2016</v>
       </c>
-      <c r="DY11" s="88"/>
-      <c r="DZ11" s="88"/>
-      <c r="EA11" s="88"/>
-      <c r="EB11" s="88"/>
-      <c r="EC11" s="88"/>
-      <c r="ED11" s="89"/>
-      <c r="EE11" s="87">
+      <c r="DY11" s="102"/>
+      <c r="DZ11" s="102"/>
+      <c r="EA11" s="102"/>
+      <c r="EB11" s="102"/>
+      <c r="EC11" s="102"/>
+      <c r="ED11" s="103"/>
+      <c r="EE11" s="101">
         <f>YEAR(EE6)</f>
         <v>2016</v>
       </c>
-      <c r="EF11" s="88"/>
-      <c r="EG11" s="88"/>
-      <c r="EH11" s="88"/>
-      <c r="EI11" s="88"/>
-      <c r="EJ11" s="88"/>
-      <c r="EK11" s="89"/>
-      <c r="EL11" s="87">
+      <c r="EF11" s="102"/>
+      <c r="EG11" s="102"/>
+      <c r="EH11" s="102"/>
+      <c r="EI11" s="102"/>
+      <c r="EJ11" s="102"/>
+      <c r="EK11" s="103"/>
+      <c r="EL11" s="101">
         <f>YEAR(EL6)</f>
         <v>2016</v>
       </c>
-      <c r="EM11" s="88"/>
-      <c r="EN11" s="88"/>
-      <c r="EO11" s="88"/>
-      <c r="EP11" s="88"/>
-      <c r="EQ11" s="88"/>
-      <c r="ER11" s="89"/>
-      <c r="ES11" s="87">
+      <c r="EM11" s="102"/>
+      <c r="EN11" s="102"/>
+      <c r="EO11" s="102"/>
+      <c r="EP11" s="102"/>
+      <c r="EQ11" s="102"/>
+      <c r="ER11" s="103"/>
+      <c r="ES11" s="101">
         <f>YEAR(ES6)</f>
         <v>2016</v>
       </c>
-      <c r="ET11" s="88"/>
-      <c r="EU11" s="88"/>
-      <c r="EV11" s="88"/>
-      <c r="EW11" s="88"/>
-      <c r="EX11" s="88"/>
-      <c r="EY11" s="89"/>
-      <c r="EZ11" s="87">
+      <c r="ET11" s="102"/>
+      <c r="EU11" s="102"/>
+      <c r="EV11" s="102"/>
+      <c r="EW11" s="102"/>
+      <c r="EX11" s="102"/>
+      <c r="EY11" s="103"/>
+      <c r="EZ11" s="101">
         <f>YEAR(EZ6)</f>
         <v>2016</v>
       </c>
-      <c r="FA11" s="88"/>
-      <c r="FB11" s="88"/>
-      <c r="FC11" s="88"/>
-      <c r="FD11" s="88"/>
-      <c r="FE11" s="88"/>
-      <c r="FF11" s="89"/>
-      <c r="FG11" s="87">
+      <c r="FA11" s="102"/>
+      <c r="FB11" s="102"/>
+      <c r="FC11" s="102"/>
+      <c r="FD11" s="102"/>
+      <c r="FE11" s="102"/>
+      <c r="FF11" s="103"/>
+      <c r="FG11" s="101">
         <f>YEAR(FG6)</f>
         <v>2016</v>
       </c>
-      <c r="FH11" s="88"/>
-      <c r="FI11" s="88"/>
-      <c r="FJ11" s="88"/>
-      <c r="FK11" s="88"/>
-      <c r="FL11" s="88"/>
-      <c r="FM11" s="89"/>
-      <c r="FN11" s="87">
+      <c r="FH11" s="102"/>
+      <c r="FI11" s="102"/>
+      <c r="FJ11" s="102"/>
+      <c r="FK11" s="102"/>
+      <c r="FL11" s="102"/>
+      <c r="FM11" s="103"/>
+      <c r="FN11" s="101">
         <f>YEAR(FN6)</f>
         <v>2016</v>
       </c>
-      <c r="FO11" s="88"/>
-      <c r="FP11" s="88"/>
-      <c r="FQ11" s="88"/>
-      <c r="FR11" s="88"/>
-      <c r="FS11" s="88"/>
-      <c r="FT11" s="89"/>
-      <c r="FU11" s="87">
+      <c r="FO11" s="102"/>
+      <c r="FP11" s="102"/>
+      <c r="FQ11" s="102"/>
+      <c r="FR11" s="102"/>
+      <c r="FS11" s="102"/>
+      <c r="FT11" s="103"/>
+      <c r="FU11" s="101">
         <f>YEAR(FU6)</f>
         <v>2016</v>
       </c>
-      <c r="FV11" s="88"/>
-      <c r="FW11" s="88"/>
-      <c r="FX11" s="88"/>
-      <c r="FY11" s="88"/>
-      <c r="FZ11" s="88"/>
-      <c r="GA11" s="89"/>
-      <c r="GB11" s="87">
+      <c r="FV11" s="102"/>
+      <c r="FW11" s="102"/>
+      <c r="FX11" s="102"/>
+      <c r="FY11" s="102"/>
+      <c r="FZ11" s="102"/>
+      <c r="GA11" s="103"/>
+      <c r="GB11" s="101">
         <f>YEAR(GB6)</f>
         <v>2016</v>
       </c>
-      <c r="GC11" s="88"/>
-      <c r="GD11" s="88"/>
-      <c r="GE11" s="88"/>
-      <c r="GF11" s="88"/>
-      <c r="GG11" s="88"/>
-      <c r="GH11" s="89"/>
-      <c r="GI11" s="87">
+      <c r="GC11" s="102"/>
+      <c r="GD11" s="102"/>
+      <c r="GE11" s="102"/>
+      <c r="GF11" s="102"/>
+      <c r="GG11" s="102"/>
+      <c r="GH11" s="103"/>
+      <c r="GI11" s="101">
         <f>YEAR(GI6)</f>
         <v>2016</v>
       </c>
-      <c r="GJ11" s="88"/>
-      <c r="GK11" s="88"/>
-      <c r="GL11" s="88"/>
-      <c r="GM11" s="88"/>
-      <c r="GN11" s="88"/>
-      <c r="GO11" s="89"/>
-      <c r="GP11" s="87">
+      <c r="GJ11" s="102"/>
+      <c r="GK11" s="102"/>
+      <c r="GL11" s="102"/>
+      <c r="GM11" s="102"/>
+      <c r="GN11" s="102"/>
+      <c r="GO11" s="103"/>
+      <c r="GP11" s="101">
         <f>YEAR(GP6)</f>
         <v>2016</v>
       </c>
-      <c r="GQ11" s="88"/>
-      <c r="GR11" s="88"/>
-      <c r="GS11" s="88"/>
-      <c r="GT11" s="88"/>
-      <c r="GU11" s="88"/>
-      <c r="GV11" s="89"/>
-      <c r="GW11" s="87">
+      <c r="GQ11" s="102"/>
+      <c r="GR11" s="102"/>
+      <c r="GS11" s="102"/>
+      <c r="GT11" s="102"/>
+      <c r="GU11" s="102"/>
+      <c r="GV11" s="103"/>
+      <c r="GW11" s="101">
         <f>YEAR(GW6)</f>
         <v>2016</v>
       </c>
-      <c r="GX11" s="88"/>
-      <c r="GY11" s="88"/>
-      <c r="GZ11" s="88"/>
-      <c r="HA11" s="88"/>
-      <c r="HB11" s="88"/>
-      <c r="HC11" s="89"/>
-      <c r="HD11" s="87">
+      <c r="GX11" s="102"/>
+      <c r="GY11" s="102"/>
+      <c r="GZ11" s="102"/>
+      <c r="HA11" s="102"/>
+      <c r="HB11" s="102"/>
+      <c r="HC11" s="103"/>
+      <c r="HD11" s="101">
         <f>YEAR(HD6)</f>
         <v>2016</v>
       </c>
-      <c r="HE11" s="88"/>
-      <c r="HF11" s="88"/>
-      <c r="HG11" s="88"/>
-      <c r="HH11" s="88"/>
-      <c r="HI11" s="88"/>
-      <c r="HJ11" s="89"/>
-      <c r="HK11" s="87">
+      <c r="HE11" s="102"/>
+      <c r="HF11" s="102"/>
+      <c r="HG11" s="102"/>
+      <c r="HH11" s="102"/>
+      <c r="HI11" s="102"/>
+      <c r="HJ11" s="103"/>
+      <c r="HK11" s="101">
         <f>YEAR(HK6)</f>
         <v>2016</v>
       </c>
-      <c r="HL11" s="88"/>
-      <c r="HM11" s="88"/>
-      <c r="HN11" s="88"/>
-      <c r="HO11" s="88"/>
-      <c r="HP11" s="88"/>
-      <c r="HQ11" s="89"/>
-      <c r="HR11" s="87">
+      <c r="HL11" s="102"/>
+      <c r="HM11" s="102"/>
+      <c r="HN11" s="102"/>
+      <c r="HO11" s="102"/>
+      <c r="HP11" s="102"/>
+      <c r="HQ11" s="103"/>
+      <c r="HR11" s="101">
         <f>YEAR(HR6)</f>
         <v>2016</v>
       </c>
-      <c r="HS11" s="88"/>
-      <c r="HT11" s="88"/>
-      <c r="HU11" s="88"/>
-      <c r="HV11" s="88"/>
-      <c r="HW11" s="88"/>
-      <c r="HX11" s="89"/>
-      <c r="HY11" s="87">
+      <c r="HS11" s="102"/>
+      <c r="HT11" s="102"/>
+      <c r="HU11" s="102"/>
+      <c r="HV11" s="102"/>
+      <c r="HW11" s="102"/>
+      <c r="HX11" s="103"/>
+      <c r="HY11" s="101">
         <f>YEAR(HY6)</f>
         <v>2016</v>
       </c>
-      <c r="HZ11" s="88"/>
-      <c r="IA11" s="88"/>
-      <c r="IB11" s="88"/>
-      <c r="IC11" s="88"/>
-      <c r="ID11" s="88"/>
-      <c r="IE11" s="89"/>
-      <c r="IF11" s="87">
+      <c r="HZ11" s="102"/>
+      <c r="IA11" s="102"/>
+      <c r="IB11" s="102"/>
+      <c r="IC11" s="102"/>
+      <c r="ID11" s="102"/>
+      <c r="IE11" s="103"/>
+      <c r="IF11" s="101">
         <f>YEAR(IF6)</f>
         <v>2016</v>
       </c>
-      <c r="IG11" s="88"/>
-      <c r="IH11" s="88"/>
-      <c r="II11" s="88"/>
-      <c r="IJ11" s="88"/>
-      <c r="IK11" s="88"/>
-      <c r="IL11" s="89"/>
-      <c r="IM11" s="87">
+      <c r="IG11" s="102"/>
+      <c r="IH11" s="102"/>
+      <c r="II11" s="102"/>
+      <c r="IJ11" s="102"/>
+      <c r="IK11" s="102"/>
+      <c r="IL11" s="103"/>
+      <c r="IM11" s="101">
         <f>YEAR(IM6)</f>
         <v>2016</v>
       </c>
-      <c r="IN11" s="88"/>
-      <c r="IO11" s="88"/>
-      <c r="IP11" s="88"/>
-      <c r="IQ11" s="88"/>
-      <c r="IR11" s="88"/>
-      <c r="IS11" s="89"/>
+      <c r="IN11" s="102"/>
+      <c r="IO11" s="102"/>
+      <c r="IP11" s="102"/>
+      <c r="IQ11" s="102"/>
+      <c r="IR11" s="102"/>
+      <c r="IS11" s="103"/>
     </row>
     <row r="12" spans="1:256" s="23" customFormat="1" ht="12">
       <c r="A12" s="67">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="I34" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H34,$F$6&gt;=G34),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J34" s="75">
         <f>MAX(H35:H36)-G34+1</f>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="I35" s="61" t="str">
         <f t="shared" ref="I35" ca="1" si="47">IF(AND($F$6&lt;=H35,$F$6&gt;=G35),"V","")</f>
-        <v>V</v>
+        <v/>
       </c>
       <c r="J35" s="62">
         <v>19</v>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="I37" s="74" t="str">
         <f ca="1">IF(AND($F$6&lt;=H37,$F$6&gt;=G37),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J37" s="75">
         <f>MAX(H38:H43)-G37+1</f>
@@ -14347,288 +14347,288 @@
       <c r="IR39" s="58"/>
       <c r="IS39" s="58"/>
     </row>
-    <row r="40" spans="1:253" s="116" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A40" s="104" t="str">
+    <row r="40" spans="1:253" s="94" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A40" s="82" t="str">
         <f t="shared" ca="1" si="55"/>
         <v>5.3</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="106" t="s">
+      <c r="C40" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109">
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="87">
         <v>42499</v>
       </c>
-      <c r="H40" s="109">
+      <c r="H40" s="87">
         <f t="shared" ref="H40" si="61">G40+J40-1</f>
         <v>42499</v>
       </c>
-      <c r="I40" s="110" t="str">
+      <c r="I40" s="88" t="str">
         <f t="shared" ref="I40" ca="1" si="62">IF(AND($F$6&lt;=H40,$F$6&gt;=G40),"V","")</f>
         <v/>
       </c>
-      <c r="J40" s="111">
+      <c r="J40" s="89">
         <v>1</v>
       </c>
-      <c r="K40" s="112">
+      <c r="K40" s="90">
         <f t="shared" ref="K40" si="63">NETWORKDAYS(G40,H40)</f>
         <v>1</v>
       </c>
-      <c r="L40" s="113">
+      <c r="L40" s="91">
         <f t="shared" ref="L40" si="64">ROUNDDOWN(N40*J40,0)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="112">
+      <c r="M40" s="90">
         <f t="shared" ref="M40" si="65">J40-L40</f>
         <v>1</v>
       </c>
-      <c r="N40" s="114">
+      <c r="N40" s="92">
         <v>0</v>
       </c>
-      <c r="O40" s="115"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="108"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="108"/>
-      <c r="AH40" s="108"/>
-      <c r="AI40" s="108"/>
-      <c r="AJ40" s="108"/>
-      <c r="AK40" s="108"/>
-      <c r="AL40" s="108"/>
-      <c r="AM40" s="108"/>
-      <c r="AN40" s="108"/>
-      <c r="AO40" s="108"/>
-      <c r="AP40" s="108"/>
-      <c r="AQ40" s="108"/>
-      <c r="AR40" s="108"/>
-      <c r="AS40" s="108"/>
-      <c r="AT40" s="108"/>
-      <c r="AU40" s="108"/>
-      <c r="AV40" s="108"/>
-      <c r="AW40" s="108"/>
-      <c r="AX40" s="108"/>
-      <c r="AY40" s="108"/>
-      <c r="AZ40" s="108"/>
-      <c r="BA40" s="108"/>
-      <c r="BB40" s="108"/>
-      <c r="BC40" s="108"/>
-      <c r="BD40" s="108"/>
-      <c r="BE40" s="108"/>
-      <c r="BF40" s="108"/>
-      <c r="BG40" s="108"/>
-      <c r="BH40" s="108"/>
-      <c r="BI40" s="108"/>
-      <c r="BJ40" s="108"/>
-      <c r="BK40" s="108"/>
-      <c r="BL40" s="108"/>
-      <c r="BM40" s="108"/>
-      <c r="BN40" s="108"/>
-      <c r="BO40" s="108"/>
-      <c r="BP40" s="108"/>
-      <c r="BQ40" s="108"/>
-      <c r="BR40" s="108"/>
-      <c r="BS40" s="108"/>
-      <c r="BT40" s="108"/>
-      <c r="BU40" s="108"/>
-      <c r="BV40" s="108"/>
-      <c r="BW40" s="108"/>
-      <c r="BX40" s="108"/>
-      <c r="BY40" s="108"/>
-      <c r="BZ40" s="108"/>
-      <c r="CA40" s="108"/>
-      <c r="CB40" s="108"/>
-      <c r="CC40" s="108"/>
-      <c r="CD40" s="108"/>
-      <c r="CE40" s="108"/>
-      <c r="CF40" s="108"/>
-      <c r="CG40" s="108"/>
-      <c r="CH40" s="108"/>
-      <c r="CI40" s="108"/>
-      <c r="CJ40" s="108"/>
-      <c r="CK40" s="108"/>
-      <c r="CL40" s="108"/>
-      <c r="CM40" s="108"/>
-      <c r="CN40" s="108"/>
-      <c r="CO40" s="108"/>
-      <c r="CP40" s="108"/>
-      <c r="CQ40" s="108"/>
-      <c r="CR40" s="108"/>
-      <c r="CS40" s="108"/>
-      <c r="CT40" s="108"/>
-      <c r="CU40" s="108"/>
-      <c r="CV40" s="108"/>
-      <c r="CW40" s="108"/>
-      <c r="CX40" s="108"/>
-      <c r="CY40" s="108"/>
-      <c r="CZ40" s="108"/>
-      <c r="DA40" s="108"/>
-      <c r="DB40" s="108"/>
-      <c r="DC40" s="108"/>
-      <c r="DD40" s="108"/>
-      <c r="DE40" s="108"/>
-      <c r="DF40" s="108"/>
-      <c r="DG40" s="108"/>
-      <c r="DH40" s="108"/>
-      <c r="DI40" s="108"/>
-      <c r="DJ40" s="108"/>
-      <c r="DK40" s="108"/>
-      <c r="DL40" s="108"/>
-      <c r="DM40" s="108"/>
-      <c r="DN40" s="108"/>
-      <c r="DO40" s="108"/>
-      <c r="DP40" s="108"/>
-      <c r="DQ40" s="108"/>
-      <c r="DR40" s="108"/>
-      <c r="DS40" s="108"/>
-      <c r="DT40" s="108"/>
-      <c r="DU40" s="108"/>
-      <c r="DV40" s="108"/>
-      <c r="DW40" s="108"/>
-      <c r="DX40" s="108"/>
-      <c r="DY40" s="108"/>
-      <c r="DZ40" s="108"/>
-      <c r="EA40" s="108"/>
-      <c r="EB40" s="108"/>
-      <c r="EC40" s="108"/>
-      <c r="ED40" s="108"/>
-      <c r="EE40" s="108"/>
-      <c r="EF40" s="108"/>
-      <c r="EG40" s="108"/>
-      <c r="EH40" s="108"/>
-      <c r="EI40" s="108"/>
-      <c r="EJ40" s="108"/>
-      <c r="EK40" s="108"/>
-      <c r="EL40" s="108"/>
-      <c r="EM40" s="108"/>
-      <c r="EN40" s="108"/>
-      <c r="EO40" s="108"/>
-      <c r="EP40" s="108"/>
-      <c r="EQ40" s="108"/>
-      <c r="ER40" s="108"/>
-      <c r="ES40" s="108"/>
-      <c r="ET40" s="108"/>
-      <c r="EU40" s="108"/>
-      <c r="EV40" s="108"/>
-      <c r="EW40" s="108"/>
-      <c r="EX40" s="108"/>
-      <c r="EY40" s="108"/>
-      <c r="EZ40" s="108"/>
-      <c r="FA40" s="108"/>
-      <c r="FB40" s="108"/>
-      <c r="FC40" s="108"/>
-      <c r="FD40" s="108"/>
-      <c r="FE40" s="108"/>
-      <c r="FF40" s="108"/>
-      <c r="FG40" s="108"/>
-      <c r="FH40" s="108"/>
-      <c r="FI40" s="108"/>
-      <c r="FJ40" s="108"/>
-      <c r="FK40" s="108"/>
-      <c r="FL40" s="108"/>
-      <c r="FM40" s="108"/>
-      <c r="FN40" s="108"/>
-      <c r="FO40" s="108"/>
-      <c r="FP40" s="108"/>
-      <c r="FQ40" s="108"/>
-      <c r="FR40" s="108"/>
-      <c r="FS40" s="108"/>
-      <c r="FT40" s="108"/>
-      <c r="FU40" s="108"/>
-      <c r="FV40" s="108"/>
-      <c r="FW40" s="108"/>
-      <c r="FX40" s="108"/>
-      <c r="FY40" s="108"/>
-      <c r="FZ40" s="108"/>
-      <c r="GA40" s="108"/>
-      <c r="GB40" s="108"/>
-      <c r="GC40" s="108"/>
-      <c r="GD40" s="108"/>
-      <c r="GE40" s="108"/>
-      <c r="GF40" s="108"/>
-      <c r="GG40" s="108"/>
-      <c r="GH40" s="108"/>
-      <c r="GI40" s="108"/>
-      <c r="GJ40" s="108"/>
-      <c r="GK40" s="108"/>
-      <c r="GL40" s="108"/>
-      <c r="GM40" s="108"/>
-      <c r="GN40" s="108"/>
-      <c r="GO40" s="108"/>
-      <c r="GP40" s="108"/>
-      <c r="GQ40" s="108"/>
-      <c r="GR40" s="108"/>
-      <c r="GS40" s="108"/>
-      <c r="GT40" s="108"/>
-      <c r="GU40" s="108"/>
-      <c r="GV40" s="108"/>
-      <c r="GW40" s="108"/>
-      <c r="GX40" s="108"/>
-      <c r="GY40" s="108"/>
-      <c r="GZ40" s="108"/>
-      <c r="HA40" s="108"/>
-      <c r="HB40" s="108"/>
-      <c r="HC40" s="108"/>
-      <c r="HD40" s="108"/>
-      <c r="HE40" s="108"/>
-      <c r="HF40" s="108"/>
-      <c r="HG40" s="108"/>
-      <c r="HH40" s="108"/>
-      <c r="HI40" s="108"/>
-      <c r="HJ40" s="108"/>
-      <c r="HK40" s="108"/>
-      <c r="HL40" s="108"/>
-      <c r="HM40" s="108"/>
-      <c r="HN40" s="108"/>
-      <c r="HO40" s="108"/>
-      <c r="HP40" s="108"/>
-      <c r="HQ40" s="108"/>
-      <c r="HR40" s="108"/>
-      <c r="HS40" s="108"/>
-      <c r="HT40" s="108"/>
-      <c r="HU40" s="108"/>
-      <c r="HV40" s="108"/>
-      <c r="HW40" s="108"/>
-      <c r="HX40" s="108"/>
-      <c r="HY40" s="108"/>
-      <c r="HZ40" s="108"/>
-      <c r="IA40" s="108"/>
-      <c r="IB40" s="108"/>
-      <c r="IC40" s="108"/>
-      <c r="ID40" s="108"/>
-      <c r="IE40" s="108"/>
-      <c r="IF40" s="108"/>
-      <c r="IG40" s="108"/>
-      <c r="IH40" s="108"/>
-      <c r="II40" s="108"/>
-      <c r="IJ40" s="108"/>
-      <c r="IK40" s="108"/>
-      <c r="IL40" s="108"/>
-      <c r="IM40" s="108"/>
-      <c r="IN40" s="108"/>
-      <c r="IO40" s="108"/>
-      <c r="IP40" s="108"/>
-      <c r="IQ40" s="108"/>
-      <c r="IR40" s="108"/>
-      <c r="IS40" s="108"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="86"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="86"/>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="86"/>
+      <c r="AH40" s="86"/>
+      <c r="AI40" s="86"/>
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="86"/>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="86"/>
+      <c r="AN40" s="86"/>
+      <c r="AO40" s="86"/>
+      <c r="AP40" s="86"/>
+      <c r="AQ40" s="86"/>
+      <c r="AR40" s="86"/>
+      <c r="AS40" s="86"/>
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86"/>
+      <c r="AV40" s="86"/>
+      <c r="AW40" s="86"/>
+      <c r="AX40" s="86"/>
+      <c r="AY40" s="86"/>
+      <c r="AZ40" s="86"/>
+      <c r="BA40" s="86"/>
+      <c r="BB40" s="86"/>
+      <c r="BC40" s="86"/>
+      <c r="BD40" s="86"/>
+      <c r="BE40" s="86"/>
+      <c r="BF40" s="86"/>
+      <c r="BG40" s="86"/>
+      <c r="BH40" s="86"/>
+      <c r="BI40" s="86"/>
+      <c r="BJ40" s="86"/>
+      <c r="BK40" s="86"/>
+      <c r="BL40" s="86"/>
+      <c r="BM40" s="86"/>
+      <c r="BN40" s="86"/>
+      <c r="BO40" s="86"/>
+      <c r="BP40" s="86"/>
+      <c r="BQ40" s="86"/>
+      <c r="BR40" s="86"/>
+      <c r="BS40" s="86"/>
+      <c r="BT40" s="86"/>
+      <c r="BU40" s="86"/>
+      <c r="BV40" s="86"/>
+      <c r="BW40" s="86"/>
+      <c r="BX40" s="86"/>
+      <c r="BY40" s="86"/>
+      <c r="BZ40" s="86"/>
+      <c r="CA40" s="86"/>
+      <c r="CB40" s="86"/>
+      <c r="CC40" s="86"/>
+      <c r="CD40" s="86"/>
+      <c r="CE40" s="86"/>
+      <c r="CF40" s="86"/>
+      <c r="CG40" s="86"/>
+      <c r="CH40" s="86"/>
+      <c r="CI40" s="86"/>
+      <c r="CJ40" s="86"/>
+      <c r="CK40" s="86"/>
+      <c r="CL40" s="86"/>
+      <c r="CM40" s="86"/>
+      <c r="CN40" s="86"/>
+      <c r="CO40" s="86"/>
+      <c r="CP40" s="86"/>
+      <c r="CQ40" s="86"/>
+      <c r="CR40" s="86"/>
+      <c r="CS40" s="86"/>
+      <c r="CT40" s="86"/>
+      <c r="CU40" s="86"/>
+      <c r="CV40" s="86"/>
+      <c r="CW40" s="86"/>
+      <c r="CX40" s="86"/>
+      <c r="CY40" s="86"/>
+      <c r="CZ40" s="86"/>
+      <c r="DA40" s="86"/>
+      <c r="DB40" s="86"/>
+      <c r="DC40" s="86"/>
+      <c r="DD40" s="86"/>
+      <c r="DE40" s="86"/>
+      <c r="DF40" s="86"/>
+      <c r="DG40" s="86"/>
+      <c r="DH40" s="86"/>
+      <c r="DI40" s="86"/>
+      <c r="DJ40" s="86"/>
+      <c r="DK40" s="86"/>
+      <c r="DL40" s="86"/>
+      <c r="DM40" s="86"/>
+      <c r="DN40" s="86"/>
+      <c r="DO40" s="86"/>
+      <c r="DP40" s="86"/>
+      <c r="DQ40" s="86"/>
+      <c r="DR40" s="86"/>
+      <c r="DS40" s="86"/>
+      <c r="DT40" s="86"/>
+      <c r="DU40" s="86"/>
+      <c r="DV40" s="86"/>
+      <c r="DW40" s="86"/>
+      <c r="DX40" s="86"/>
+      <c r="DY40" s="86"/>
+      <c r="DZ40" s="86"/>
+      <c r="EA40" s="86"/>
+      <c r="EB40" s="86"/>
+      <c r="EC40" s="86"/>
+      <c r="ED40" s="86"/>
+      <c r="EE40" s="86"/>
+      <c r="EF40" s="86"/>
+      <c r="EG40" s="86"/>
+      <c r="EH40" s="86"/>
+      <c r="EI40" s="86"/>
+      <c r="EJ40" s="86"/>
+      <c r="EK40" s="86"/>
+      <c r="EL40" s="86"/>
+      <c r="EM40" s="86"/>
+      <c r="EN40" s="86"/>
+      <c r="EO40" s="86"/>
+      <c r="EP40" s="86"/>
+      <c r="EQ40" s="86"/>
+      <c r="ER40" s="86"/>
+      <c r="ES40" s="86"/>
+      <c r="ET40" s="86"/>
+      <c r="EU40" s="86"/>
+      <c r="EV40" s="86"/>
+      <c r="EW40" s="86"/>
+      <c r="EX40" s="86"/>
+      <c r="EY40" s="86"/>
+      <c r="EZ40" s="86"/>
+      <c r="FA40" s="86"/>
+      <c r="FB40" s="86"/>
+      <c r="FC40" s="86"/>
+      <c r="FD40" s="86"/>
+      <c r="FE40" s="86"/>
+      <c r="FF40" s="86"/>
+      <c r="FG40" s="86"/>
+      <c r="FH40" s="86"/>
+      <c r="FI40" s="86"/>
+      <c r="FJ40" s="86"/>
+      <c r="FK40" s="86"/>
+      <c r="FL40" s="86"/>
+      <c r="FM40" s="86"/>
+      <c r="FN40" s="86"/>
+      <c r="FO40" s="86"/>
+      <c r="FP40" s="86"/>
+      <c r="FQ40" s="86"/>
+      <c r="FR40" s="86"/>
+      <c r="FS40" s="86"/>
+      <c r="FT40" s="86"/>
+      <c r="FU40" s="86"/>
+      <c r="FV40" s="86"/>
+      <c r="FW40" s="86"/>
+      <c r="FX40" s="86"/>
+      <c r="FY40" s="86"/>
+      <c r="FZ40" s="86"/>
+      <c r="GA40" s="86"/>
+      <c r="GB40" s="86"/>
+      <c r="GC40" s="86"/>
+      <c r="GD40" s="86"/>
+      <c r="GE40" s="86"/>
+      <c r="GF40" s="86"/>
+      <c r="GG40" s="86"/>
+      <c r="GH40" s="86"/>
+      <c r="GI40" s="86"/>
+      <c r="GJ40" s="86"/>
+      <c r="GK40" s="86"/>
+      <c r="GL40" s="86"/>
+      <c r="GM40" s="86"/>
+      <c r="GN40" s="86"/>
+      <c r="GO40" s="86"/>
+      <c r="GP40" s="86"/>
+      <c r="GQ40" s="86"/>
+      <c r="GR40" s="86"/>
+      <c r="GS40" s="86"/>
+      <c r="GT40" s="86"/>
+      <c r="GU40" s="86"/>
+      <c r="GV40" s="86"/>
+      <c r="GW40" s="86"/>
+      <c r="GX40" s="86"/>
+      <c r="GY40" s="86"/>
+      <c r="GZ40" s="86"/>
+      <c r="HA40" s="86"/>
+      <c r="HB40" s="86"/>
+      <c r="HC40" s="86"/>
+      <c r="HD40" s="86"/>
+      <c r="HE40" s="86"/>
+      <c r="HF40" s="86"/>
+      <c r="HG40" s="86"/>
+      <c r="HH40" s="86"/>
+      <c r="HI40" s="86"/>
+      <c r="HJ40" s="86"/>
+      <c r="HK40" s="86"/>
+      <c r="HL40" s="86"/>
+      <c r="HM40" s="86"/>
+      <c r="HN40" s="86"/>
+      <c r="HO40" s="86"/>
+      <c r="HP40" s="86"/>
+      <c r="HQ40" s="86"/>
+      <c r="HR40" s="86"/>
+      <c r="HS40" s="86"/>
+      <c r="HT40" s="86"/>
+      <c r="HU40" s="86"/>
+      <c r="HV40" s="86"/>
+      <c r="HW40" s="86"/>
+      <c r="HX40" s="86"/>
+      <c r="HY40" s="86"/>
+      <c r="HZ40" s="86"/>
+      <c r="IA40" s="86"/>
+      <c r="IB40" s="86"/>
+      <c r="IC40" s="86"/>
+      <c r="ID40" s="86"/>
+      <c r="IE40" s="86"/>
+      <c r="IF40" s="86"/>
+      <c r="IG40" s="86"/>
+      <c r="IH40" s="86"/>
+      <c r="II40" s="86"/>
+      <c r="IJ40" s="86"/>
+      <c r="IK40" s="86"/>
+      <c r="IL40" s="86"/>
+      <c r="IM40" s="86"/>
+      <c r="IN40" s="86"/>
+      <c r="IO40" s="86"/>
+      <c r="IP40" s="86"/>
+      <c r="IQ40" s="86"/>
+      <c r="IR40" s="86"/>
+      <c r="IS40" s="86"/>
     </row>
     <row r="41" spans="1:253" s="23" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A41" s="54" t="str">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="I41" s="61" t="str">
         <f t="shared" ref="I41:I42" ca="1" si="66">IF(AND($F$6&lt;=H41,$F$6&gt;=G41),"V","")</f>
-        <v/>
+        <v>V</v>
       </c>
       <c r="J41" s="62">
         <v>5</v>
@@ -16894,288 +16894,288 @@
       <c r="IR48" s="58"/>
       <c r="IS48" s="58"/>
     </row>
-    <row r="49" spans="1:253" s="116" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
-      <c r="A49" s="104" t="str">
+    <row r="49" spans="1:253" s="94" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
+      <c r="A49" s="82" t="str">
         <f t="shared" ca="1" si="70"/>
         <v>6.5</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="109">
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="87">
         <v>42535</v>
       </c>
-      <c r="H49" s="109">
+      <c r="H49" s="87">
         <f t="shared" si="18"/>
         <v>42535</v>
       </c>
-      <c r="I49" s="110" t="str">
+      <c r="I49" s="88" t="str">
         <f t="shared" ref="I49" ca="1" si="80">IF(AND($F$6&lt;=H49,$F$6&gt;=G49),"V","")</f>
         <v/>
       </c>
-      <c r="J49" s="111">
+      <c r="J49" s="89">
         <v>1</v>
       </c>
-      <c r="K49" s="112">
+      <c r="K49" s="90">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="L49" s="113">
+      <c r="L49" s="91">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="M49" s="112">
+      <c r="M49" s="90">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="N49" s="114">
+      <c r="N49" s="92">
         <v>0</v>
       </c>
-      <c r="O49" s="115"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="108"/>
-      <c r="W49" s="108"/>
-      <c r="X49" s="108"/>
-      <c r="Y49" s="108"/>
-      <c r="Z49" s="108"/>
-      <c r="AA49" s="108"/>
-      <c r="AB49" s="108"/>
-      <c r="AC49" s="108"/>
-      <c r="AD49" s="108"/>
-      <c r="AE49" s="108"/>
-      <c r="AF49" s="108"/>
-      <c r="AG49" s="108"/>
-      <c r="AH49" s="108"/>
-      <c r="AI49" s="108"/>
-      <c r="AJ49" s="108"/>
-      <c r="AK49" s="108"/>
-      <c r="AL49" s="108"/>
-      <c r="AM49" s="108"/>
-      <c r="AN49" s="108"/>
-      <c r="AO49" s="108"/>
-      <c r="AP49" s="108"/>
-      <c r="AQ49" s="108"/>
-      <c r="AR49" s="108"/>
-      <c r="AS49" s="108"/>
-      <c r="AT49" s="108"/>
-      <c r="AU49" s="108"/>
-      <c r="AV49" s="108"/>
-      <c r="AW49" s="108"/>
-      <c r="AX49" s="108"/>
-      <c r="AY49" s="108"/>
-      <c r="AZ49" s="108"/>
-      <c r="BA49" s="108"/>
-      <c r="BB49" s="108"/>
-      <c r="BC49" s="108"/>
-      <c r="BD49" s="108"/>
-      <c r="BE49" s="108"/>
-      <c r="BF49" s="108"/>
-      <c r="BG49" s="108"/>
-      <c r="BH49" s="108"/>
-      <c r="BI49" s="108"/>
-      <c r="BJ49" s="108"/>
-      <c r="BK49" s="108"/>
-      <c r="BL49" s="108"/>
-      <c r="BM49" s="108"/>
-      <c r="BN49" s="108"/>
-      <c r="BO49" s="108"/>
-      <c r="BP49" s="108"/>
-      <c r="BQ49" s="108"/>
-      <c r="BR49" s="108"/>
-      <c r="BS49" s="108"/>
-      <c r="BT49" s="108"/>
-      <c r="BU49" s="108"/>
-      <c r="BV49" s="108"/>
-      <c r="BW49" s="108"/>
-      <c r="BX49" s="108"/>
-      <c r="BY49" s="108"/>
-      <c r="BZ49" s="108"/>
-      <c r="CA49" s="108"/>
-      <c r="CB49" s="108"/>
-      <c r="CC49" s="108"/>
-      <c r="CD49" s="108"/>
-      <c r="CE49" s="108"/>
-      <c r="CF49" s="108"/>
-      <c r="CG49" s="108"/>
-      <c r="CH49" s="108"/>
-      <c r="CI49" s="108"/>
-      <c r="CJ49" s="108"/>
-      <c r="CK49" s="108"/>
-      <c r="CL49" s="108"/>
-      <c r="CM49" s="108"/>
-      <c r="CN49" s="108"/>
-      <c r="CO49" s="108"/>
-      <c r="CP49" s="108"/>
-      <c r="CQ49" s="108"/>
-      <c r="CR49" s="108"/>
-      <c r="CS49" s="108"/>
-      <c r="CT49" s="108"/>
-      <c r="CU49" s="108"/>
-      <c r="CV49" s="108"/>
-      <c r="CW49" s="108"/>
-      <c r="CX49" s="108"/>
-      <c r="CY49" s="108"/>
-      <c r="CZ49" s="108"/>
-      <c r="DA49" s="108"/>
-      <c r="DB49" s="108"/>
-      <c r="DC49" s="108"/>
-      <c r="DD49" s="108"/>
-      <c r="DE49" s="108"/>
-      <c r="DF49" s="108"/>
-      <c r="DG49" s="108"/>
-      <c r="DH49" s="108"/>
-      <c r="DI49" s="108"/>
-      <c r="DJ49" s="108"/>
-      <c r="DK49" s="108"/>
-      <c r="DL49" s="108"/>
-      <c r="DM49" s="108"/>
-      <c r="DN49" s="108"/>
-      <c r="DO49" s="108"/>
-      <c r="DP49" s="108"/>
-      <c r="DQ49" s="108"/>
-      <c r="DR49" s="108"/>
-      <c r="DS49" s="108"/>
-      <c r="DT49" s="108"/>
-      <c r="DU49" s="108"/>
-      <c r="DV49" s="108"/>
-      <c r="DW49" s="108"/>
-      <c r="DX49" s="108"/>
-      <c r="DY49" s="108"/>
-      <c r="DZ49" s="108"/>
-      <c r="EA49" s="108"/>
-      <c r="EB49" s="108"/>
-      <c r="EC49" s="108"/>
-      <c r="ED49" s="108"/>
-      <c r="EE49" s="108"/>
-      <c r="EF49" s="108"/>
-      <c r="EG49" s="108"/>
-      <c r="EH49" s="108"/>
-      <c r="EI49" s="108"/>
-      <c r="EJ49" s="108"/>
-      <c r="EK49" s="108"/>
-      <c r="EL49" s="108"/>
-      <c r="EM49" s="108"/>
-      <c r="EN49" s="108"/>
-      <c r="EO49" s="108"/>
-      <c r="EP49" s="108"/>
-      <c r="EQ49" s="108"/>
-      <c r="ER49" s="108"/>
-      <c r="ES49" s="108"/>
-      <c r="ET49" s="108"/>
-      <c r="EU49" s="108"/>
-      <c r="EV49" s="108"/>
-      <c r="EW49" s="108"/>
-      <c r="EX49" s="108"/>
-      <c r="EY49" s="108"/>
-      <c r="EZ49" s="108"/>
-      <c r="FA49" s="108"/>
-      <c r="FB49" s="108"/>
-      <c r="FC49" s="108"/>
-      <c r="FD49" s="108"/>
-      <c r="FE49" s="108"/>
-      <c r="FF49" s="108"/>
-      <c r="FG49" s="108"/>
-      <c r="FH49" s="108"/>
-      <c r="FI49" s="108"/>
-      <c r="FJ49" s="108"/>
-      <c r="FK49" s="108"/>
-      <c r="FL49" s="108"/>
-      <c r="FM49" s="108"/>
-      <c r="FN49" s="108"/>
-      <c r="FO49" s="108"/>
-      <c r="FP49" s="108"/>
-      <c r="FQ49" s="108"/>
-      <c r="FR49" s="108"/>
-      <c r="FS49" s="108"/>
-      <c r="FT49" s="108"/>
-      <c r="FU49" s="108"/>
-      <c r="FV49" s="108"/>
-      <c r="FW49" s="108"/>
-      <c r="FX49" s="108"/>
-      <c r="FY49" s="108"/>
-      <c r="FZ49" s="108"/>
-      <c r="GA49" s="108"/>
-      <c r="GB49" s="108"/>
-      <c r="GC49" s="108"/>
-      <c r="GD49" s="108"/>
-      <c r="GE49" s="108"/>
-      <c r="GF49" s="108"/>
-      <c r="GG49" s="108"/>
-      <c r="GH49" s="108"/>
-      <c r="GI49" s="108"/>
-      <c r="GJ49" s="108"/>
-      <c r="GK49" s="108"/>
-      <c r="GL49" s="108"/>
-      <c r="GM49" s="108"/>
-      <c r="GN49" s="108"/>
-      <c r="GO49" s="108"/>
-      <c r="GP49" s="108"/>
-      <c r="GQ49" s="108"/>
-      <c r="GR49" s="108"/>
-      <c r="GS49" s="108"/>
-      <c r="GT49" s="108"/>
-      <c r="GU49" s="108"/>
-      <c r="GV49" s="108"/>
-      <c r="GW49" s="108"/>
-      <c r="GX49" s="108"/>
-      <c r="GY49" s="108"/>
-      <c r="GZ49" s="108"/>
-      <c r="HA49" s="108"/>
-      <c r="HB49" s="108"/>
-      <c r="HC49" s="108"/>
-      <c r="HD49" s="108"/>
-      <c r="HE49" s="108"/>
-      <c r="HF49" s="108"/>
-      <c r="HG49" s="108"/>
-      <c r="HH49" s="108"/>
-      <c r="HI49" s="108"/>
-      <c r="HJ49" s="108"/>
-      <c r="HK49" s="108"/>
-      <c r="HL49" s="108"/>
-      <c r="HM49" s="108"/>
-      <c r="HN49" s="108"/>
-      <c r="HO49" s="108"/>
-      <c r="HP49" s="108"/>
-      <c r="HQ49" s="108"/>
-      <c r="HR49" s="108"/>
-      <c r="HS49" s="108"/>
-      <c r="HT49" s="108"/>
-      <c r="HU49" s="108"/>
-      <c r="HV49" s="108"/>
-      <c r="HW49" s="108"/>
-      <c r="HX49" s="108"/>
-      <c r="HY49" s="108"/>
-      <c r="HZ49" s="108"/>
-      <c r="IA49" s="108"/>
-      <c r="IB49" s="108"/>
-      <c r="IC49" s="108"/>
-      <c r="ID49" s="108"/>
-      <c r="IE49" s="108"/>
-      <c r="IF49" s="108"/>
-      <c r="IG49" s="108"/>
-      <c r="IH49" s="108"/>
-      <c r="II49" s="108"/>
-      <c r="IJ49" s="108"/>
-      <c r="IK49" s="108"/>
-      <c r="IL49" s="108"/>
-      <c r="IM49" s="108"/>
-      <c r="IN49" s="108"/>
-      <c r="IO49" s="108"/>
-      <c r="IP49" s="108"/>
-      <c r="IQ49" s="108"/>
-      <c r="IR49" s="108"/>
-      <c r="IS49" s="108"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
+      <c r="W49" s="86"/>
+      <c r="X49" s="86"/>
+      <c r="Y49" s="86"/>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="86"/>
+      <c r="AB49" s="86"/>
+      <c r="AC49" s="86"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="86"/>
+      <c r="AF49" s="86"/>
+      <c r="AG49" s="86"/>
+      <c r="AH49" s="86"/>
+      <c r="AI49" s="86"/>
+      <c r="AJ49" s="86"/>
+      <c r="AK49" s="86"/>
+      <c r="AL49" s="86"/>
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="86"/>
+      <c r="AP49" s="86"/>
+      <c r="AQ49" s="86"/>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86"/>
+      <c r="AY49" s="86"/>
+      <c r="AZ49" s="86"/>
+      <c r="BA49" s="86"/>
+      <c r="BB49" s="86"/>
+      <c r="BC49" s="86"/>
+      <c r="BD49" s="86"/>
+      <c r="BE49" s="86"/>
+      <c r="BF49" s="86"/>
+      <c r="BG49" s="86"/>
+      <c r="BH49" s="86"/>
+      <c r="BI49" s="86"/>
+      <c r="BJ49" s="86"/>
+      <c r="BK49" s="86"/>
+      <c r="BL49" s="86"/>
+      <c r="BM49" s="86"/>
+      <c r="BN49" s="86"/>
+      <c r="BO49" s="86"/>
+      <c r="BP49" s="86"/>
+      <c r="BQ49" s="86"/>
+      <c r="BR49" s="86"/>
+      <c r="BS49" s="86"/>
+      <c r="BT49" s="86"/>
+      <c r="BU49" s="86"/>
+      <c r="BV49" s="86"/>
+      <c r="BW49" s="86"/>
+      <c r="BX49" s="86"/>
+      <c r="BY49" s="86"/>
+      <c r="BZ49" s="86"/>
+      <c r="CA49" s="86"/>
+      <c r="CB49" s="86"/>
+      <c r="CC49" s="86"/>
+      <c r="CD49" s="86"/>
+      <c r="CE49" s="86"/>
+      <c r="CF49" s="86"/>
+      <c r="CG49" s="86"/>
+      <c r="CH49" s="86"/>
+      <c r="CI49" s="86"/>
+      <c r="CJ49" s="86"/>
+      <c r="CK49" s="86"/>
+      <c r="CL49" s="86"/>
+      <c r="CM49" s="86"/>
+      <c r="CN49" s="86"/>
+      <c r="CO49" s="86"/>
+      <c r="CP49" s="86"/>
+      <c r="CQ49" s="86"/>
+      <c r="CR49" s="86"/>
+      <c r="CS49" s="86"/>
+      <c r="CT49" s="86"/>
+      <c r="CU49" s="86"/>
+      <c r="CV49" s="86"/>
+      <c r="CW49" s="86"/>
+      <c r="CX49" s="86"/>
+      <c r="CY49" s="86"/>
+      <c r="CZ49" s="86"/>
+      <c r="DA49" s="86"/>
+      <c r="DB49" s="86"/>
+      <c r="DC49" s="86"/>
+      <c r="DD49" s="86"/>
+      <c r="DE49" s="86"/>
+      <c r="DF49" s="86"/>
+      <c r="DG49" s="86"/>
+      <c r="DH49" s="86"/>
+      <c r="DI49" s="86"/>
+      <c r="DJ49" s="86"/>
+      <c r="DK49" s="86"/>
+      <c r="DL49" s="86"/>
+      <c r="DM49" s="86"/>
+      <c r="DN49" s="86"/>
+      <c r="DO49" s="86"/>
+      <c r="DP49" s="86"/>
+      <c r="DQ49" s="86"/>
+      <c r="DR49" s="86"/>
+      <c r="DS49" s="86"/>
+      <c r="DT49" s="86"/>
+      <c r="DU49" s="86"/>
+      <c r="DV49" s="86"/>
+      <c r="DW49" s="86"/>
+      <c r="DX49" s="86"/>
+      <c r="DY49" s="86"/>
+      <c r="DZ49" s="86"/>
+      <c r="EA49" s="86"/>
+      <c r="EB49" s="86"/>
+      <c r="EC49" s="86"/>
+      <c r="ED49" s="86"/>
+      <c r="EE49" s="86"/>
+      <c r="EF49" s="86"/>
+      <c r="EG49" s="86"/>
+      <c r="EH49" s="86"/>
+      <c r="EI49" s="86"/>
+      <c r="EJ49" s="86"/>
+      <c r="EK49" s="86"/>
+      <c r="EL49" s="86"/>
+      <c r="EM49" s="86"/>
+      <c r="EN49" s="86"/>
+      <c r="EO49" s="86"/>
+      <c r="EP49" s="86"/>
+      <c r="EQ49" s="86"/>
+      <c r="ER49" s="86"/>
+      <c r="ES49" s="86"/>
+      <c r="ET49" s="86"/>
+      <c r="EU49" s="86"/>
+      <c r="EV49" s="86"/>
+      <c r="EW49" s="86"/>
+      <c r="EX49" s="86"/>
+      <c r="EY49" s="86"/>
+      <c r="EZ49" s="86"/>
+      <c r="FA49" s="86"/>
+      <c r="FB49" s="86"/>
+      <c r="FC49" s="86"/>
+      <c r="FD49" s="86"/>
+      <c r="FE49" s="86"/>
+      <c r="FF49" s="86"/>
+      <c r="FG49" s="86"/>
+      <c r="FH49" s="86"/>
+      <c r="FI49" s="86"/>
+      <c r="FJ49" s="86"/>
+      <c r="FK49" s="86"/>
+      <c r="FL49" s="86"/>
+      <c r="FM49" s="86"/>
+      <c r="FN49" s="86"/>
+      <c r="FO49" s="86"/>
+      <c r="FP49" s="86"/>
+      <c r="FQ49" s="86"/>
+      <c r="FR49" s="86"/>
+      <c r="FS49" s="86"/>
+      <c r="FT49" s="86"/>
+      <c r="FU49" s="86"/>
+      <c r="FV49" s="86"/>
+      <c r="FW49" s="86"/>
+      <c r="FX49" s="86"/>
+      <c r="FY49" s="86"/>
+      <c r="FZ49" s="86"/>
+      <c r="GA49" s="86"/>
+      <c r="GB49" s="86"/>
+      <c r="GC49" s="86"/>
+      <c r="GD49" s="86"/>
+      <c r="GE49" s="86"/>
+      <c r="GF49" s="86"/>
+      <c r="GG49" s="86"/>
+      <c r="GH49" s="86"/>
+      <c r="GI49" s="86"/>
+      <c r="GJ49" s="86"/>
+      <c r="GK49" s="86"/>
+      <c r="GL49" s="86"/>
+      <c r="GM49" s="86"/>
+      <c r="GN49" s="86"/>
+      <c r="GO49" s="86"/>
+      <c r="GP49" s="86"/>
+      <c r="GQ49" s="86"/>
+      <c r="GR49" s="86"/>
+      <c r="GS49" s="86"/>
+      <c r="GT49" s="86"/>
+      <c r="GU49" s="86"/>
+      <c r="GV49" s="86"/>
+      <c r="GW49" s="86"/>
+      <c r="GX49" s="86"/>
+      <c r="GY49" s="86"/>
+      <c r="GZ49" s="86"/>
+      <c r="HA49" s="86"/>
+      <c r="HB49" s="86"/>
+      <c r="HC49" s="86"/>
+      <c r="HD49" s="86"/>
+      <c r="HE49" s="86"/>
+      <c r="HF49" s="86"/>
+      <c r="HG49" s="86"/>
+      <c r="HH49" s="86"/>
+      <c r="HI49" s="86"/>
+      <c r="HJ49" s="86"/>
+      <c r="HK49" s="86"/>
+      <c r="HL49" s="86"/>
+      <c r="HM49" s="86"/>
+      <c r="HN49" s="86"/>
+      <c r="HO49" s="86"/>
+      <c r="HP49" s="86"/>
+      <c r="HQ49" s="86"/>
+      <c r="HR49" s="86"/>
+      <c r="HS49" s="86"/>
+      <c r="HT49" s="86"/>
+      <c r="HU49" s="86"/>
+      <c r="HV49" s="86"/>
+      <c r="HW49" s="86"/>
+      <c r="HX49" s="86"/>
+      <c r="HY49" s="86"/>
+      <c r="HZ49" s="86"/>
+      <c r="IA49" s="86"/>
+      <c r="IB49" s="86"/>
+      <c r="IC49" s="86"/>
+      <c r="ID49" s="86"/>
+      <c r="IE49" s="86"/>
+      <c r="IF49" s="86"/>
+      <c r="IG49" s="86"/>
+      <c r="IH49" s="86"/>
+      <c r="II49" s="86"/>
+      <c r="IJ49" s="86"/>
+      <c r="IK49" s="86"/>
+      <c r="IL49" s="86"/>
+      <c r="IM49" s="86"/>
+      <c r="IN49" s="86"/>
+      <c r="IO49" s="86"/>
+      <c r="IP49" s="86"/>
+      <c r="IQ49" s="86"/>
+      <c r="IR49" s="86"/>
+      <c r="IS49" s="86"/>
     </row>
     <row r="50" spans="1:253" s="23" customFormat="1" ht="12">
       <c r="A50" s="67">
@@ -18313,6 +18313,97 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" selectLockedCells="1"/>
   <autoFilter ref="A11:N53"/>
   <mergeCells count="115">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M5:M11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="K5:K11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="GI11:GO11"/>
+    <mergeCell ref="FG11:FM11"/>
+    <mergeCell ref="DC11:DI11"/>
+    <mergeCell ref="FU11:GA11"/>
+    <mergeCell ref="DX11:ED11"/>
+    <mergeCell ref="FN11:FT11"/>
+    <mergeCell ref="GB11:GH11"/>
+    <mergeCell ref="FN10:FT10"/>
+    <mergeCell ref="DQ11:DW11"/>
+    <mergeCell ref="BT11:BZ11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="HK9:HQ9"/>
+    <mergeCell ref="HR9:HX9"/>
+    <mergeCell ref="IF9:IL9"/>
+    <mergeCell ref="HY9:IE9"/>
+    <mergeCell ref="FN9:FT9"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="BF9:BL9"/>
+    <mergeCell ref="CV11:DB11"/>
+    <mergeCell ref="BF11:BL11"/>
+    <mergeCell ref="BF10:BL10"/>
+    <mergeCell ref="BM10:BS10"/>
+    <mergeCell ref="BT10:BZ10"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="BM9:BS9"/>
+    <mergeCell ref="BM11:BS11"/>
+    <mergeCell ref="FG9:FM9"/>
+    <mergeCell ref="EL9:ER9"/>
+    <mergeCell ref="ES9:EY9"/>
+    <mergeCell ref="BT9:BZ9"/>
+    <mergeCell ref="DX9:ED9"/>
+    <mergeCell ref="DJ9:DP9"/>
+    <mergeCell ref="DC9:DI9"/>
+    <mergeCell ref="DQ9:DW9"/>
+    <mergeCell ref="GP9:GV9"/>
+    <mergeCell ref="HD9:HJ9"/>
+    <mergeCell ref="CO9:CU9"/>
+    <mergeCell ref="GI9:GO9"/>
+    <mergeCell ref="EE9:EK9"/>
+    <mergeCell ref="EZ9:FF9"/>
+    <mergeCell ref="FU9:GA9"/>
+    <mergeCell ref="GB9:GH9"/>
+    <mergeCell ref="DJ11:DP11"/>
+    <mergeCell ref="EE11:EK11"/>
+    <mergeCell ref="EL11:ER11"/>
+    <mergeCell ref="ES11:EY11"/>
+    <mergeCell ref="EZ11:FF11"/>
+    <mergeCell ref="EL10:ER10"/>
+    <mergeCell ref="GI10:GO10"/>
+    <mergeCell ref="GP10:GV10"/>
+    <mergeCell ref="GW10:HC10"/>
+    <mergeCell ref="HD10:HJ10"/>
+    <mergeCell ref="DQ10:DW10"/>
+    <mergeCell ref="DX10:ED10"/>
+    <mergeCell ref="CA9:CG9"/>
+    <mergeCell ref="CH10:CN10"/>
+    <mergeCell ref="CO10:CU10"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="CV9:DB9"/>
+    <mergeCell ref="CH9:CN9"/>
+    <mergeCell ref="CA11:CG11"/>
+    <mergeCell ref="IM11:IS11"/>
+    <mergeCell ref="GW11:HC11"/>
+    <mergeCell ref="HD11:HJ11"/>
+    <mergeCell ref="HK11:HQ11"/>
+    <mergeCell ref="HR11:HX11"/>
+    <mergeCell ref="HY11:IE11"/>
+    <mergeCell ref="CA10:CG10"/>
+    <mergeCell ref="IF11:IL11"/>
+    <mergeCell ref="EZ10:FF10"/>
+    <mergeCell ref="CH11:CN11"/>
+    <mergeCell ref="CO11:CU11"/>
+    <mergeCell ref="HY10:IE10"/>
+    <mergeCell ref="HR10:HX10"/>
+    <mergeCell ref="GP11:GV11"/>
+    <mergeCell ref="ES10:EY10"/>
+    <mergeCell ref="CV10:DB10"/>
+    <mergeCell ref="EE10:EK10"/>
     <mergeCell ref="HK10:HQ10"/>
     <mergeCell ref="FG10:FM10"/>
     <mergeCell ref="IM9:IS9"/>
@@ -18337,97 +18428,6 @@
     <mergeCell ref="DC10:DI10"/>
     <mergeCell ref="DJ10:DP10"/>
     <mergeCell ref="IF10:IL10"/>
-    <mergeCell ref="CA9:CG9"/>
-    <mergeCell ref="CH10:CN10"/>
-    <mergeCell ref="CO10:CU10"/>
-    <mergeCell ref="AY9:BE9"/>
-    <mergeCell ref="CV9:DB9"/>
-    <mergeCell ref="CH9:CN9"/>
-    <mergeCell ref="CA11:CG11"/>
-    <mergeCell ref="IM11:IS11"/>
-    <mergeCell ref="GW11:HC11"/>
-    <mergeCell ref="HD11:HJ11"/>
-    <mergeCell ref="HK11:HQ11"/>
-    <mergeCell ref="HR11:HX11"/>
-    <mergeCell ref="HY11:IE11"/>
-    <mergeCell ref="CA10:CG10"/>
-    <mergeCell ref="IF11:IL11"/>
-    <mergeCell ref="EZ10:FF10"/>
-    <mergeCell ref="CH11:CN11"/>
-    <mergeCell ref="CO11:CU11"/>
-    <mergeCell ref="HY10:IE10"/>
-    <mergeCell ref="HR10:HX10"/>
-    <mergeCell ref="GP11:GV11"/>
-    <mergeCell ref="ES10:EY10"/>
-    <mergeCell ref="CV10:DB10"/>
-    <mergeCell ref="EE10:EK10"/>
-    <mergeCell ref="HD9:HJ9"/>
-    <mergeCell ref="CO9:CU9"/>
-    <mergeCell ref="GI9:GO9"/>
-    <mergeCell ref="EE9:EK9"/>
-    <mergeCell ref="EZ9:FF9"/>
-    <mergeCell ref="FU9:GA9"/>
-    <mergeCell ref="GB9:GH9"/>
-    <mergeCell ref="DJ11:DP11"/>
-    <mergeCell ref="EE11:EK11"/>
-    <mergeCell ref="EL11:ER11"/>
-    <mergeCell ref="ES11:EY11"/>
-    <mergeCell ref="EZ11:FF11"/>
-    <mergeCell ref="EL10:ER10"/>
-    <mergeCell ref="GI10:GO10"/>
-    <mergeCell ref="GP10:GV10"/>
-    <mergeCell ref="GW10:HC10"/>
-    <mergeCell ref="HD10:HJ10"/>
-    <mergeCell ref="DQ10:DW10"/>
-    <mergeCell ref="DX10:ED10"/>
-    <mergeCell ref="HK9:HQ9"/>
-    <mergeCell ref="HR9:HX9"/>
-    <mergeCell ref="IF9:IL9"/>
-    <mergeCell ref="HY9:IE9"/>
-    <mergeCell ref="FN9:FT9"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="BF9:BL9"/>
-    <mergeCell ref="CV11:DB11"/>
-    <mergeCell ref="BF11:BL11"/>
-    <mergeCell ref="BF10:BL10"/>
-    <mergeCell ref="BM10:BS10"/>
-    <mergeCell ref="BT10:BZ10"/>
-    <mergeCell ref="AY10:BE10"/>
-    <mergeCell ref="BM9:BS9"/>
-    <mergeCell ref="BM11:BS11"/>
-    <mergeCell ref="FG9:FM9"/>
-    <mergeCell ref="EL9:ER9"/>
-    <mergeCell ref="ES9:EY9"/>
-    <mergeCell ref="BT9:BZ9"/>
-    <mergeCell ref="DX9:ED9"/>
-    <mergeCell ref="DJ9:DP9"/>
-    <mergeCell ref="DC9:DI9"/>
-    <mergeCell ref="DQ9:DW9"/>
-    <mergeCell ref="GP9:GV9"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M5:M11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="K5:K11"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="GI11:GO11"/>
-    <mergeCell ref="FG11:FM11"/>
-    <mergeCell ref="DC11:DI11"/>
-    <mergeCell ref="FU11:GA11"/>
-    <mergeCell ref="DX11:ED11"/>
-    <mergeCell ref="FN11:FT11"/>
-    <mergeCell ref="GB11:GH11"/>
-    <mergeCell ref="FN10:FT10"/>
-    <mergeCell ref="DQ11:DW11"/>
-    <mergeCell ref="BT11:BZ11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="N9:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B13 B15">
